--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0936A21-AE08-42EA-AE63-067179F18DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0850B7D6-29D5-438B-9971-C06242589537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="4560" windowWidth="21675" windowHeight="9930" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="-15" yWindow="-195" windowWidth="26250" windowHeight="15360" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="173">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -155,24 +155,538 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2NN MEAM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>rho0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>dia</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Note: bcc (Z=8, f=2/SQRT(3)), dia (Z=4), fcc (Z=12, f=sqrt(2)), hcp (Z=12), dim (Z=1, f=4/SQRT(3))</t>
-    <phoneticPr fontId="1"/>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha -&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hcp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fcc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bcc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: 1 Gpa = 1e9 Pa = 1e9 J/m^3 = 1e9/(1.602e-19) eV/m^3  = 1e9/(1.602e-19)/((10^10)^3) eV/A^3 = 6.2415e-3 eV/A^3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: bcc (Z=8, f=2/SQRT(3)), hcp (Z=12, f=1), fcc (Z=12, f=sqrt(2)), dim (Z=1, f=4/SQRT(3)), dia (Z=4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c/a (for HCP)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>augt1 =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>erose_form =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rozero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ibar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ielement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atwt</t>
+  </si>
+  <si>
+    <t>b0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>esub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lat      = lattice structure of reference configuration</t>
+  </si>
+  <si>
+    <t>z        = number of nearest neighbors in the reference structure</t>
+  </si>
+  <si>
+    <t>ielement = atomic number</t>
+  </si>
+  <si>
+    <t>atwt     = atomic weight</t>
+  </si>
+  <si>
+    <t>alat     = lattice constant of reference structure</t>
+  </si>
+  <si>
+    <t>esub     = energy per atom (eV) in the reference structure at equilibrium</t>
+  </si>
+  <si>
+    <t>asub     = "A" parameter for MEAM (see e.g. (Baskes))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 =&gt; G = sqrt(1+Gamma)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 =&gt; G = exp(Gamma/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 =&gt; not implemented</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 =&gt; G = 2/(1+exp(-Gamma))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 =&gt; G = sqrt(1+Gamma)</t>
+  </si>
+  <si>
+    <t>-5 =&gt; G = +-sqrt(abs(1+Gamma))</t>
+  </si>
+  <si>
+    <t>The ibar parameter selects the form of the function G(Gamma) used to compute the electron density; options are</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The rozero parameter is an element-dependent density scaling that weights the reference background density (see e.g. equation 4.5 in (Gullet)) and is typically 1.0 for single-element systems.</t>
+  </si>
+  <si>
+    <t>ialloy =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zbl(1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nn2(1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrac(1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>repuls(1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d(repuls)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d(attrac)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hf-Ni</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(i-i-j)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(j-j-i)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(i-j-i)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A-A-B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i-j</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(j-i-j)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(i-i-j)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(j-j-i)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(i-j-i)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(j-i-j)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>output: ij.meam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rho0(i)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rho0(j)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zbl(1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nn2(1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ec(1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>re(1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha(1,2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lattce(1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d(replus)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">attrac(1,2) = </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>repuls(1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rho0(1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rho0(2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(1,1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(2,2,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(1,2,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(2,1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(1,1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(2,2,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(1,2,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(2,1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input (i-j)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input (i-j-k)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(i-j-k)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(i-k-j)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(j-i-k)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(2,1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(1,2,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(2,1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(1,2,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(i-k-j)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(j-i-k)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>output: ijk.meam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(1,2,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(3,2,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(1,3,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(2,3,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(2,1,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(3,1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(1,2,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(3,2,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(1,3,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(2,3,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(2,1,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(3,1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reference: default value (Just to be safe, here it is.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input (A-B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pd-Rh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A-B-A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(B-B-A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A-B-B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(A-A-B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(A-B-A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(B-B-A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(A-B-B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cohesive energy of reference structure for I-J mixture</t>
+  </si>
+  <si>
+    <t>equilibrium distance between I and J in the reference structure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default = 0, additional cubic attraction term in Rose energy I-J pair potential</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default = 0, additional cubic repulsive term in Rose energy I-J pair potential</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default = 2.0, Cmin screening parameter when I-J pair is screened by K (I&lt;=J)</t>
+  </si>
+  <si>
+    <t>default = 2.8, Cmax screening parameter when I-J pair is screened by K (I&lt;=J)</t>
+  </si>
+  <si>
+    <t>relative density for element I (overwrites value read from meamf file)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default = 1, blend the MEAM I-J pair potential with the ZBL potential for small atom separations </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default = 0, 0: 1NN MEAM, 1: 2NN MEAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lattice structure of reference configuration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha parameter for pair potential between I and J (can be computed from bulk modulus of reference structure)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rc          = cutoff radius for cutoff function; default = 4.0</t>
+  </si>
+  <si>
+    <t>delr        = length of smoothing distance for cutoff function; default = 0.1</t>
+  </si>
+  <si>
+    <t>augt1           = integer flag for whether to augment t1 parameter by 3/5*t3 to account for old vs. new meam formulations; 0 = don't augment t1, 1 = augment t1, default = 1</t>
+  </si>
+  <si>
+    <t>erose_form      = integer value to select the form of the Rose energy function (see description below). default = 0</t>
+  </si>
+  <si>
+    <t>ialloy          = integer flag to use alternative averaging rule for t parameters, for comparison with the DYNAMO MEAM code; 0 = standard averaging (matches ialloy=0 in DYNAMO), 1 = alternative averaging (matches ialloy=1 in DYNAMO), 2 = no averaging of t (use single-element values), default = 0</t>
+  </si>
+  <si>
+    <t>astar = alpha * (r/re - 1.d0)</t>
+  </si>
+  <si>
+    <t>if erose_form = 0: erose = -Ec*(1+astar+a3*(astar**3)/(r/re))*exp(-astar)</t>
+  </si>
+  <si>
+    <t>if erose_form = 1: erose = -Ec*(1+astar+(-attrac+repuls/r)*(astar**3))*exp(-astar)</t>
+  </si>
+  <si>
+    <t>if erose_form = 2: erose = -Ec*(1 +astar + a3*(astar**3))*exp(-astar)</t>
+  </si>
+  <si>
+    <t>a3 = repuls, astar &lt; 0</t>
+  </si>
+  <si>
+    <t>a3 = attrac, astar &gt;= 0</t>
   </si>
 </sst>
 </file>
@@ -180,7 +694,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -243,7 +757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -372,13 +886,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,58 +935,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,337 +1348,1468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
     <col min="18" max="18" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.125" customWidth="1"/>
+    <col min="22" max="22" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="14">
+        <v>7.33</v>
+      </c>
+      <c r="C3" s="14">
+        <v>3.17</v>
+      </c>
+      <c r="D3" s="14">
+        <v>4.43</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.79</v>
+      </c>
+      <c r="F3" s="14">
+        <v>2.23</v>
+      </c>
+      <c r="G3" s="14">
+        <v>2.82</v>
+      </c>
+      <c r="H3" s="14">
+        <v>3.73</v>
+      </c>
+      <c r="I3" s="14">
+        <v>2.06</v>
+      </c>
+      <c r="J3" s="15">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14">
+        <v>2.98</v>
+      </c>
+      <c r="L3" s="14">
+        <v>1.92</v>
+      </c>
+      <c r="M3" s="14">
+        <v>-6.24</v>
+      </c>
+      <c r="N3" s="14">
+        <v>0.66</v>
+      </c>
+      <c r="O3" s="14">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="P3" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="19">
+        <v>-0.02</v>
+      </c>
+      <c r="S3" s="19">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="22"/>
+      <c r="D4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="22"/>
+      <c r="D5" s="14">
+        <v>113</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="26">
+        <f>(9*(D5*0.006241509)*((C3*E7)^3/2)/B3)^(1/2)</f>
+        <v>3.7138741689954093</v>
+      </c>
+      <c r="G5" s="26">
+        <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3*E7)^3/2)/B3)^(1/2)</f>
+        <v>4.4165748331493129</v>
+      </c>
+      <c r="H5" s="26">
+        <f>(9*(D5*0.006241509)*((C3*E7)^3/4)/B3)^(1/2)</f>
+        <v>2.626105609370208</v>
+      </c>
+      <c r="I5" s="26">
+        <f>(9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2)</f>
+        <v>1.8569370844977047</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="G6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A7" s="14">
+        <v>72</v>
+      </c>
+      <c r="B7" s="14">
+        <v>178.49</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="14">
+        <v>12</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="14">
+        <v>1.633</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="P10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f>N12</f>
+        <v>Hf-Ni</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="J11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="15">
-        <v>7.5220000000000002</v>
-      </c>
-      <c r="C3" s="15">
-        <v>1.54</v>
-      </c>
-      <c r="D3" s="15">
-        <v>4.3319999999999999</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0.97</v>
-      </c>
-      <c r="F3" s="15">
-        <v>3.0880000000000001</v>
-      </c>
-      <c r="G3" s="15">
-        <v>2.79</v>
-      </c>
-      <c r="H3" s="15">
-        <v>3.2770000000000001</v>
-      </c>
-      <c r="I3" s="15">
-        <v>3.5779999999999998</v>
-      </c>
-      <c r="J3" s="16">
-        <v>1</v>
-      </c>
-      <c r="K3" s="15">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="L3" s="15">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="M3" s="15">
-        <v>-2.2069999999999999</v>
-      </c>
-      <c r="N3" s="15">
-        <v>0.83</v>
-      </c>
-      <c r="O3" s="15">
-        <v>2.0640000000000001</v>
-      </c>
-      <c r="P3" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="R3" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="15">
-        <v>6</v>
-      </c>
-      <c r="B5" s="15">
-        <v>12.011100000000001</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="15">
-        <v>4</v>
-      </c>
-      <c r="E5" s="15">
-        <f>4/SQRT(3)</f>
-        <v>2.3094010767585034</v>
-      </c>
-      <c r="F5" s="15">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15">
-        <v>-5</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="str">
-        <f>A3</f>
-        <v>C</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <f>C5</f>
-        <v>dia</v>
-      </c>
-      <c r="C9" s="3">
-        <f>D5</f>
-        <v>4</v>
-      </c>
-      <c r="D9" s="3">
-        <f>A5</f>
-        <v>6</v>
-      </c>
-      <c r="E9" s="3">
-        <f>B5</f>
-        <v>12.011100000000001</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="J9" s="2" t="s">
+      <c r="S11" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="J12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K12" s="4">
         <f>P3</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A10" s="5">
-        <f>D3</f>
-        <v>4.3319999999999999</v>
-      </c>
-      <c r="B10" s="6">
-        <f>F3</f>
-        <v>3.0880000000000001</v>
-      </c>
-      <c r="C10" s="6">
-        <f>G3</f>
-        <v>2.79</v>
-      </c>
-      <c r="D10" s="6">
-        <f>H3</f>
-        <v>3.2770000000000001</v>
-      </c>
-      <c r="E10" s="6">
-        <f>I3</f>
-        <v>3.5779999999999998</v>
-      </c>
-      <c r="F10" s="23">
-        <f>C3*E5</f>
-        <v>3.5564776582080952</v>
-      </c>
-      <c r="G10" s="6">
-        <f>B3</f>
-        <v>7.5220000000000002</v>
-      </c>
-      <c r="H10" s="7">
-        <f>E3</f>
-        <v>0.97</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="M12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="W12" s="4">
+        <f>T12</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K13" s="6">
         <f>Q3</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A11" s="14">
+      <c r="M13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="6" t="str">
+        <f>N13</f>
+        <v>b2</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="T13" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V13" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="W13" s="34">
+        <f>T12</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="J14" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="6">
+        <f>N14</f>
+        <v>6.4</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="T14" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="W14" s="4">
+        <f>T13</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="str">
+        <f>A3</f>
+        <v>Hf</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f>C7</f>
+        <v>hcp</v>
+      </c>
+      <c r="C15" s="3">
+        <f>D7</f>
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <f>A7</f>
+        <v>72</v>
+      </c>
+      <c r="E15" s="3">
+        <f>B7</f>
+        <v>178.49</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="J15" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="14">
+        <v>2.72</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q15" s="6">
+        <f>N15</f>
+        <v>2.72</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T15" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="V15" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="W15" s="34">
+        <f>T13</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A16" s="5">
+        <f>D3</f>
+        <v>4.43</v>
+      </c>
+      <c r="B16">
+        <f>F3</f>
+        <v>2.23</v>
+      </c>
+      <c r="C16">
+        <f>G3</f>
+        <v>2.82</v>
+      </c>
+      <c r="D16">
+        <f>H3</f>
+        <v>3.73</v>
+      </c>
+      <c r="E16">
+        <f>I3</f>
+        <v>2.06</v>
+      </c>
+      <c r="F16" s="20">
+        <f>C3*E7</f>
+        <v>3.17</v>
+      </c>
+      <c r="G16">
+        <f>B3</f>
+        <v>7.33</v>
+      </c>
+      <c r="H16" s="6">
+        <f>E3</f>
+        <v>0.79</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="14">
+        <v>5</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="6">
+        <f>N16</f>
+        <v>5</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="T16" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="W16" s="4">
+        <f>T14</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A17" s="13">
         <f>J3</f>
         <v>1</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B17" s="8">
         <f>K3</f>
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="C11" s="9">
+        <v>2.98</v>
+      </c>
+      <c r="C17" s="8">
         <f>L3</f>
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="D11" s="9">
+        <v>1.92</v>
+      </c>
+      <c r="D17" s="8">
         <f>M3</f>
-        <v>-2.2069999999999999</v>
-      </c>
-      <c r="E11" s="9">
-        <f>F5</f>
+        <v>-6.24</v>
+      </c>
+      <c r="E17" s="29">
+        <f>F7</f>
         <v>1</v>
       </c>
-      <c r="F11" s="9">
-        <f>G5</f>
-        <v>-5</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="J11" s="5" t="s">
+      <c r="F17" s="8">
+        <f>G7</f>
+        <v>3</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="J17" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="6" t="str">
+        <f>A3</f>
+        <v>Hf</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" s="14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q17" s="6">
+        <f>N17</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T17" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="V17" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="W17" s="34">
+        <f>T14</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="J18" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="30">
+        <v>0</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q18" s="6">
+        <f>N18</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="V18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="W18" s="4">
+        <f>T15</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="30">
+        <v>1</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N19" s="14">
+        <v>1</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" s="6">
+        <f>N19</f>
+        <v>1</v>
+      </c>
+      <c r="V19" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="W19" s="34">
+        <f>T15</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="6">
+        <f>O3</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" s="32">
+        <v>1</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q20" s="6">
+        <f>N20</f>
+        <v>1</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W20" s="4">
+        <f>T16</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K21" s="6">
         <f>N3</f>
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="10">
-        <f>O3</f>
-        <v>2.0640000000000001</v>
+        <v>0.66</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="6">
+        <f>N21</f>
+        <v>0.4</v>
+      </c>
+      <c r="V21" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="W21" s="34">
+        <f>T16</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="6">
+        <f>R3</f>
+        <v>-0.02</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N22" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22" s="6">
+        <f t="shared" ref="Q22:Q28" si="0">N22</f>
+        <v>0.67</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="W22" s="6">
+        <f>T17</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="9">
+        <f>S3</f>
+        <v>-0.08</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="V23" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="W23" s="34">
+        <f>T17</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q24" s="34">
+        <f>N23</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25" s="4">
+        <f>N24</f>
+        <v>0.4</v>
+      </c>
+      <c r="V25" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="M26" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N26" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="P26" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q26" s="34">
+        <f>N24</f>
+        <v>0.4</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="W26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N27" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q27" s="6">
+        <f>N25</f>
+        <v>2.8</v>
+      </c>
+      <c r="V27" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="W27" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="M28" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N28" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q28" s="6">
+        <f>N26</f>
+        <v>1.7</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="W28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>N27</f>
+        <v>1.9</v>
+      </c>
+      <c r="V29" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="W29" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q30" s="34">
+        <f>N27</f>
+        <v>1.9</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="W30" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q31" s="4">
+        <f>N28</f>
+        <v>1.8</v>
+      </c>
+      <c r="V31" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="W31" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q32" s="34">
+        <f>N28</f>
+        <v>1.8</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="W32" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="V33" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="W33" s="34">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W34" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="V35" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="W35" s="34">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="P36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q36" s="4" t="str">
+        <f>N38</f>
+        <v>Pd-Rh</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="W36" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="M37" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>0</v>
+      </c>
+      <c r="R37" t="s">
+        <v>158</v>
+      </c>
+      <c r="V37" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="W37" s="34">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>162</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>163</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q39" s="6" t="str">
+        <f>N39</f>
+        <v>b2</v>
+      </c>
+      <c r="R39" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>164</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" s="14">
+        <v>4.5830000000000002</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q40" s="6">
+        <f>N40</f>
+        <v>4.5830000000000002</v>
+      </c>
+      <c r="R40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>165</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N41" s="14">
+        <v>2.6970000000000001</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q41" s="6">
+        <f>N41</f>
+        <v>2.6970000000000001</v>
+      </c>
+      <c r="R41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="14">
+        <v>6.8920000000000003</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q42" s="6">
+        <f>N42</f>
+        <v>6.8920000000000003</v>
+      </c>
+      <c r="R42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="M43" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N43" s="14">
+        <v>0</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q43" s="6">
+        <f>N43</f>
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>167</v>
+      </c>
+      <c r="M44" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="N44" s="32">
+        <v>0</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q44" s="6">
+        <f>N44</f>
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>168</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N45" s="14">
+        <v>1</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q45" s="6">
+        <f>N45</f>
+        <v>1</v>
+      </c>
+      <c r="R45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>169</v>
+      </c>
+      <c r="M46" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="N46" s="32">
+        <v>1</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q46" s="6">
+        <f>N46</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="N47" s="14">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="P47" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q47" s="38">
+        <f>N47</f>
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="R47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>171</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N48" s="14">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="P48" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q48" s="34">
+        <f>N47</f>
+        <v>1.6519999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>172</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="N49" s="14">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="P49" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q49" s="38">
+        <f>N48</f>
+        <v>1.7849999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="M50" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="N50" s="14">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="P50" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q50" s="34">
+        <f>N49</f>
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="M51" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="N51" s="14">
+        <v>1.8680000000000001</v>
+      </c>
+      <c r="P51" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q51" s="4">
+        <f>N50</f>
+        <v>0.43099999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="M52" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N52" s="14">
+        <v>2.39</v>
+      </c>
+      <c r="P52" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q52" s="34">
+        <f>N50</f>
+        <v>0.43099999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="M53" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="N53" s="14">
+        <v>2.1459999999999999</v>
+      </c>
+      <c r="P53" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q53" s="4">
+        <f>N51</f>
+        <v>1.8680000000000001</v>
+      </c>
+      <c r="R53" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="M54" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="N54" s="14">
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="P54" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q54" s="34">
+        <f>N51</f>
+        <v>1.8680000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="P55" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q55" s="4">
+        <f>N52</f>
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="P56" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q56" s="34">
+        <f>N53</f>
+        <v>2.1459999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="P57" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q57" s="4">
+        <f>N54</f>
+        <v>2.0129999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="P58" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q58" s="34">
+        <f>N54</f>
+        <v>2.0129999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0850B7D6-29D5-438B-9971-C06242589537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E6D917-F5EC-4C05-87B3-1B8F1E056CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-195" windowWidth="26250" windowHeight="15360" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="600" yWindow="1260" windowWidth="26040" windowHeight="13410" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="175">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -171,10 +171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Hf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>hcp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -687,6 +683,18 @@
   </si>
   <si>
     <t>a3 = attrac, astar &gt;= 0</t>
+  </si>
+  <si>
+    <t>Rh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: In some papers, the "attrac" of A-B is the average of the d values ​​of A and B.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: In some papers, the "repuls" of A-B is the average of the d values ​​of A and B.</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -916,7 +924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,12 +991,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1001,37 +1003,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1350,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1431,57 +1412,57 @@
         <v>15</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="B3" s="14">
-        <v>7.33</v>
+        <v>5.72</v>
       </c>
       <c r="C3" s="14">
-        <v>3.17</v>
+        <v>2.72</v>
       </c>
       <c r="D3" s="14">
-        <v>4.43</v>
+        <v>5.89</v>
       </c>
       <c r="E3" s="14">
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
       <c r="F3" s="14">
-        <v>2.23</v>
+        <v>3.27</v>
       </c>
       <c r="G3" s="14">
-        <v>2.82</v>
+        <v>0.94</v>
       </c>
       <c r="H3" s="14">
-        <v>3.73</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I3" s="14">
-        <v>2.06</v>
+        <v>0.53</v>
       </c>
       <c r="J3" s="15">
         <v>1</v>
       </c>
       <c r="K3" s="14">
-        <v>2.98</v>
+        <v>4.41</v>
       </c>
       <c r="L3" s="14">
-        <v>1.92</v>
+        <v>2.58</v>
       </c>
       <c r="M3" s="14">
-        <v>-6.24</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="N3" s="14">
-        <v>0.66</v>
+        <v>2</v>
       </c>
       <c r="O3" s="14">
-        <v>2.2799999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="P3" s="14">
         <v>4</v>
@@ -1490,71 +1471,55 @@
         <v>0.1</v>
       </c>
       <c r="R3" s="19">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="S3" s="19">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
-      <c r="B4" s="22"/>
       <c r="D4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="22"/>
       <c r="D5" s="14">
         <v>113</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="24">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>3.7138741689954093</v>
-      </c>
-      <c r="G5" s="26">
+        <v>5.6197645132665013</v>
+      </c>
+      <c r="G5" s="24">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>4.4165748331493129</v>
-      </c>
-      <c r="H5" s="26">
+        <v>6.6830779364375132</v>
+      </c>
+      <c r="H5" s="24">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/4)/B3)^(1/2)</f>
-        <v>2.626105609370208</v>
-      </c>
-      <c r="I5" s="26">
+        <v>3.9737735960022604</v>
+      </c>
+      <c r="I5" s="24">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2)</f>
-        <v>1.8569370844977047</v>
-      </c>
-      <c r="J5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
+        <v>2.8098822566332506</v>
+      </c>
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
@@ -1573,30 +1538,23 @@
       <c r="E6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
       <c r="J6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
+        <v>41</v>
+      </c>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="14">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B7" s="14">
-        <v>178.49</v>
+        <v>102.91</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>37</v>
@@ -1605,7 +1563,8 @@
         <v>12</v>
       </c>
       <c r="E7" s="14">
-        <v>1</v>
+        <f>SQRT(2)</f>
+        <v>1.4142135623730951</v>
       </c>
       <c r="F7" s="14">
         <v>1</v>
@@ -1628,21 +1587,21 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="P10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="4" t="str">
         <f>N12</f>
@@ -1653,41 +1612,40 @@
       <c r="A11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="35"/>
       <c r="J11" s="11" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1700,25 +1658,25 @@
         <v>4</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q12" s="6">
         <v>1</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T12" s="14">
         <v>0.1</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W12" s="4">
         <f>T12</f>
@@ -1729,26 +1687,26 @@
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="E13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="F13" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="G13" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="H13" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>24</v>
@@ -1758,28 +1716,28 @@
         <v>0.1</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="6" t="str">
-        <f>N13</f>
+        <f t="shared" ref="Q13:Q21" si="0">N13</f>
         <v>b2</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T13" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V13" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="W13" s="34">
+      <c r="V13" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="W13" s="29">
         <f>T12</f>
         <v>0.1</v>
       </c>
@@ -1798,15 +1756,15 @@
         <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
-      <c r="J14" s="28" t="s">
-        <v>43</v>
+      <c r="J14" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="K14" s="6">
         <v>0</v>
@@ -1818,20 +1776,20 @@
         <v>6.4</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="6">
-        <f>N14</f>
+        <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T14" s="14">
         <v>0.15</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W14" s="4">
         <f>T13</f>
@@ -1841,11 +1799,11 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
-        <v>Hf</v>
+        <v>Rh</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>C7</f>
-        <v>hcp</v>
+        <v>fcc</v>
       </c>
       <c r="C15" s="3">
         <f>D7</f>
@@ -1853,17 +1811,17 @@
       </c>
       <c r="D15" s="3">
         <f>A7</f>
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3">
         <f>B7</f>
-        <v>178.49</v>
+        <v>102.91</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
-      <c r="J15" s="28" t="s">
-        <v>44</v>
+      <c r="J15" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="K15" s="6">
         <v>2</v>
@@ -1875,22 +1833,22 @@
         <v>2.72</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="6">
-        <f>N15</f>
+        <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T15" s="14">
         <v>1.9</v>
       </c>
-      <c r="V15" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="W15" s="34">
+      <c r="V15" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="W15" s="29">
         <f>T13</f>
         <v>1.1000000000000001</v>
       </c>
@@ -1898,38 +1856,38 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <f>D3</f>
-        <v>4.43</v>
+        <v>5.89</v>
       </c>
       <c r="B16">
         <f>F3</f>
-        <v>2.23</v>
+        <v>3.27</v>
       </c>
       <c r="C16">
         <f>G3</f>
-        <v>2.82</v>
+        <v>0.94</v>
       </c>
       <c r="D16">
         <f>H3</f>
-        <v>3.73</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E16">
         <f>I3</f>
-        <v>2.06</v>
+        <v>0.53</v>
       </c>
       <c r="F16" s="20">
         <f>C3*E7</f>
-        <v>3.17</v>
+        <v>3.8466608896548191</v>
       </c>
       <c r="G16">
         <f>B3</f>
-        <v>7.33</v>
+        <v>5.72</v>
       </c>
       <c r="H16" s="6">
         <f>E3</f>
-        <v>0.79</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>74</v>
+        <v>0.97</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="K16" s="6">
         <v>2</v>
@@ -1941,20 +1899,20 @@
         <v>5</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="6">
-        <f>N16</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T16" s="14">
         <v>2.6</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W16" s="4">
         <f>T14</f>
@@ -1968,17 +1926,17 @@
       </c>
       <c r="B17" s="8">
         <f>K3</f>
-        <v>2.98</v>
+        <v>4.41</v>
       </c>
       <c r="C17" s="8">
         <f>L3</f>
-        <v>1.92</v>
+        <v>2.58</v>
       </c>
       <c r="D17" s="8">
         <f>M3</f>
-        <v>-6.24</v>
-      </c>
-      <c r="E17" s="29">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E17" s="26">
         <f>F7</f>
         <v>1</v>
       </c>
@@ -1988,64 +1946,62 @@
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
-      <c r="J17" s="28" t="s">
-        <v>77</v>
+      <c r="J17" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="K17" s="6" t="str">
         <f>A3</f>
-        <v>Hf</v>
+        <v>Rh</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N17" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="6">
-        <f>N17</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T17" s="14">
         <v>1.9</v>
       </c>
-      <c r="V17" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="W17" s="34">
+      <c r="V17" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="W17" s="29">
         <f>T14</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="J18" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" s="30">
+      <c r="J18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="6">
         <v>0</v>
       </c>
-      <c r="M18" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="N18" s="32">
+      <c r="M18" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" s="27">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q18" s="6">
-        <f>N18</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
       <c r="V18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W18" s="4">
         <f>T15</f>
@@ -2054,61 +2010,61 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" s="30">
+        <v>58</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="6">
         <v>1</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N19" s="14">
         <v>1</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="6">
-        <f>N19</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V19" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="W19" s="34">
+      <c r="V19" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="W19" s="29">
         <f>T15</f>
         <v>1.9</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="K20" s="6">
         <f>O3</f>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="N20" s="32">
+        <v>2.8</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" s="27">
         <v>1</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="6">
-        <f>N20</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W20" s="4">
         <f>T16</f>
@@ -2117,62 +2073,62 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>26</v>
       </c>
       <c r="K21" s="6">
         <f>N3</f>
-        <v>0.66</v>
+        <v>2</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N21" s="14">
         <v>0.4</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="6">
-        <f>N21</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="V21" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="W21" s="34">
+      <c r="V21" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="W21" s="29">
         <f>T16</f>
         <v>2.6</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>78</v>
+        <v>61</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="K22" s="6">
         <f>R3</f>
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N22" s="14">
         <v>0.67</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="6">
-        <f t="shared" ref="Q22:Q28" si="0">N22</f>
+        <f t="shared" ref="Q22:Q23" si="1">N22</f>
         <v>0.67</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W22" s="6">
         <f>T17</f>
@@ -2181,91 +2137,91 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>79</v>
+        <v>62</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="K23" s="9">
         <f>S3</f>
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N23" s="14">
         <v>0.6</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="V23" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="W23" s="34">
+      <c r="V23" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="W23" s="29">
         <f>T17</f>
         <v>1.9</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N24" s="14">
         <v>0.4</v>
       </c>
-      <c r="P24" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q24" s="34">
+      <c r="P24" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q24" s="29">
         <f>N23</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N25" s="14">
         <v>2.8</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q25" s="4">
         <f>N24</f>
         <v>0.4</v>
       </c>
-      <c r="V25" s="36" t="s">
-        <v>141</v>
+      <c r="V25" s="11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="M26" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N26" s="14">
         <v>1.7</v>
       </c>
-      <c r="P26" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q26" s="34">
+      <c r="P26" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q26" s="29">
         <f>N24</f>
         <v>0.4</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W26" s="4">
         <v>2</v>
@@ -2273,44 +2229,44 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N27" s="14">
         <v>1.9</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q27" s="6">
         <f>N25</f>
         <v>2.8</v>
       </c>
-      <c r="V27" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="W27" s="34">
+      <c r="V27" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="W27" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="M28" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N28" s="14">
         <v>1.8</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q28" s="6">
         <f>N26</f>
         <v>1.7</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W28" s="4">
         <v>2</v>
@@ -2318,35 +2274,35 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q29" s="4">
         <f>N27</f>
         <v>1.9</v>
       </c>
-      <c r="V29" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="W29" s="34">
+      <c r="V29" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="W29" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="P30" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q30" s="34">
+        <v>65</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q30" s="29">
         <f>N27</f>
         <v>1.9</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W30" s="4">
         <v>2</v>
@@ -2354,35 +2310,35 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q31" s="4">
         <f>N28</f>
         <v>1.8</v>
       </c>
-      <c r="V31" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="W31" s="34">
+      <c r="V31" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="W31" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="P32" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q32" s="34">
+        <v>67</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q32" s="29">
         <f>N28</f>
         <v>1.8</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W32" s="4">
         <v>2.8</v>
@@ -2390,21 +2346,21 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="V33" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="W33" s="34">
+        <v>68</v>
+      </c>
+      <c r="V33" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="W33" s="29">
         <v>2.8</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W34" s="4">
         <v>2.8</v>
@@ -2412,28 +2368,28 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="V35" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="W35" s="34">
+        <v>94</v>
+      </c>
+      <c r="V35" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="W35" s="29">
         <v>2.8</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="P36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="4" t="str">
         <f>N38</f>
         <v>Pd-Rh</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W36" s="4">
         <v>2.8</v>
@@ -2441,68 +2397,68 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="M37" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q37" s="6">
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>158</v>
-      </c>
-      <c r="V37" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="W37" s="34">
+        <v>157</v>
+      </c>
+      <c r="V37" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="W37" s="29">
         <v>2.8</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q38" s="6">
         <v>1</v>
       </c>
       <c r="R38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q39" s="6" t="str">
-        <f>N39</f>
+        <f t="shared" ref="Q39:Q47" si="2">N39</f>
         <v>b2</v>
       </c>
-      <c r="R39" s="23" t="s">
-        <v>160</v>
+      <c r="R39" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M40" s="14" t="s">
         <v>0</v>
@@ -2511,19 +2467,19 @@
         <v>4.5830000000000002</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q40" s="6">
-        <f>N40</f>
+        <f t="shared" si="2"/>
         <v>4.5830000000000002</v>
       </c>
       <c r="R40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M41" s="14" t="s">
         <v>1</v>
@@ -2532,19 +2488,19 @@
         <v>2.6970000000000001</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="6">
-        <f>N41</f>
+        <f t="shared" si="2"/>
         <v>2.6970000000000001</v>
       </c>
       <c r="R41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M42" s="14" t="s">
         <v>2</v>
@@ -2553,175 +2509,178 @@
         <v>6.8920000000000003</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q42" s="6">
-        <f>N42</f>
+        <f t="shared" si="2"/>
         <v>6.8920000000000003</v>
       </c>
       <c r="R42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="M43" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N43" s="14">
         <v>0</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q43" s="6">
-        <f>N43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>167</v>
-      </c>
-      <c r="M44" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="N44" s="32">
+        <v>166</v>
+      </c>
+      <c r="M44" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="N44" s="27">
         <v>0</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q44" s="6">
-        <f>N44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N45" s="14">
         <v>1</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q45" s="6">
-        <f>N45</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>169</v>
-      </c>
-      <c r="M46" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="N46" s="32">
+        <v>168</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="N46" s="27">
         <v>1</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q46" s="6">
-        <f>N46</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N47" s="14">
         <v>1.6519999999999999</v>
       </c>
-      <c r="P47" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q47" s="38">
+      <c r="P47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q47" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="R47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>170</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="N48" s="14">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="P48" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q48" s="29">
         <f>N47</f>
         <v>1.6519999999999999</v>
       </c>
-      <c r="R47" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>171</v>
-      </c>
-      <c r="M48" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="N48" s="14">
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="P48" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q48" s="34">
-        <f>N47</f>
-        <v>1.6519999999999999</v>
-      </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N49" s="14">
         <v>0.80500000000000005</v>
       </c>
-      <c r="P49" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q49" s="38">
+      <c r="P49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q49" s="4">
         <f>N48</f>
         <v>1.7849999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="M50" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N50" s="14">
         <v>0.43099999999999999</v>
       </c>
-      <c r="P50" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q50" s="34">
+      <c r="P50" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q50" s="29">
         <f>N49</f>
         <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>173</v>
+      </c>
       <c r="M51" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N51" s="14">
         <v>1.8680000000000001</v>
       </c>
-      <c r="P51" s="37" t="s">
-        <v>123</v>
+      <c r="P51" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="Q51" s="4">
         <f>N50</f>
@@ -2729,56 +2688,59 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>174</v>
+      </c>
       <c r="M52" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N52" s="14">
         <v>2.39</v>
       </c>
-      <c r="P52" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q52" s="34">
+      <c r="P52" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q52" s="29">
         <f>N50</f>
         <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="M53" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N53" s="14">
         <v>2.1459999999999999</v>
       </c>
-      <c r="P53" s="37" t="s">
-        <v>115</v>
+      <c r="P53" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="Q53" s="4">
         <f>N51</f>
         <v>1.8680000000000001</v>
       </c>
       <c r="R53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="M54" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N54" s="14">
         <v>2.0129999999999999</v>
       </c>
-      <c r="P54" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q54" s="34">
+      <c r="P54" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q54" s="29">
         <f>N51</f>
         <v>1.8680000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="P55" s="37" t="s">
-        <v>114</v>
+      <c r="P55" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="Q55" s="4">
         <f>N52</f>
@@ -2786,17 +2748,17 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="P56" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q56" s="34">
+      <c r="P56" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q56" s="29">
         <f>N53</f>
         <v>2.1459999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="P57" s="37" t="s">
-        <v>125</v>
+      <c r="P57" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="Q57" s="4">
         <f>N54</f>
@@ -2804,10 +2766,10 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="P58" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q58" s="34">
+      <c r="P58" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q58" s="29">
         <f>N54</f>
         <v>2.0129999999999999</v>
       </c>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E6D917-F5EC-4C05-87B3-1B8F1E056CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4F9979-59A8-448E-A251-F91C2072BA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1260" windowWidth="26040" windowHeight="13410" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="2310" yWindow="585" windowWidth="26040" windowHeight="13410" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="173">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -392,14 +392,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>rho0(i)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rho0(j)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>zbl(1,2) =</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -440,10 +432,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>rho0(2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmin(1,1,2) =</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -633,9 +621,6 @@
     <t>default = 2.8, Cmax screening parameter when I-J pair is screened by K (I&lt;=J)</t>
   </si>
   <si>
-    <t>relative density for element I (overwrites value read from meamf file)</t>
-  </si>
-  <si>
     <t xml:space="preserve">default = 1, blend the MEAM I-J pair potential with the ZBL potential for small atom separations </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -685,15 +670,23 @@
     <t>a3 = attrac, astar &gt;= 0</t>
   </si>
   <si>
-    <t>Rh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Note: In some papers, the "attrac" of A-B is the average of the d values ​​of A and B.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Note: In some papers, the "repuls" of A-B is the average of the d values ​​of A and B.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ec(1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>re(1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha(1,1) =</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -924,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,6 +1006,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1329,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1420,52 +1416,52 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="B3" s="14">
-        <v>5.72</v>
+        <v>5.415</v>
       </c>
       <c r="C3" s="14">
-        <v>2.72</v>
+        <v>1.93</v>
       </c>
       <c r="D3" s="14">
-        <v>5.89</v>
+        <v>5.056</v>
       </c>
       <c r="E3" s="14">
-        <v>0.97</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="F3" s="14">
-        <v>3.27</v>
+        <v>1.7070000000000001</v>
       </c>
       <c r="G3" s="14">
-        <v>0.94</v>
+        <v>1.29</v>
       </c>
       <c r="H3" s="14">
-        <v>1.1499999999999999</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="I3" s="14">
-        <v>0.53</v>
+        <v>1.242</v>
       </c>
       <c r="J3" s="15">
         <v>1</v>
       </c>
       <c r="K3" s="14">
-        <v>4.41</v>
+        <v>3.8809999999999998</v>
       </c>
       <c r="L3" s="14">
-        <v>2.58</v>
+        <v>24.457000000000001</v>
       </c>
       <c r="M3" s="14">
-        <v>4.6900000000000004</v>
+        <v>-7.2690000000000001</v>
       </c>
       <c r="N3" s="14">
-        <v>2</v>
+        <v>0.46</v>
       </c>
       <c r="O3" s="14">
         <v>2.8</v>
       </c>
       <c r="P3" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="14">
         <v>0.1</v>
@@ -1499,26 +1495,26 @@
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="D5" s="14">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="24">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>5.6197645132665013</v>
+        <v>4.5233599887513423</v>
       </c>
       <c r="G5" s="24">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>6.6830779364375132</v>
+        <v>5.3245935207041626</v>
       </c>
       <c r="H5" s="24">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/4)/B3)^(1/2)</f>
-        <v>3.9737735960022604</v>
+        <v>3.1984985217939794</v>
       </c>
       <c r="I5" s="24">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2)</f>
-        <v>2.8098822566332506</v>
+        <v>2.2616799943756711</v>
       </c>
       <c r="Q5" s="6"/>
     </row>
@@ -1575,7 +1571,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="14">
-        <v>1.633</v>
+        <v>1.6</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -1616,19 +1612,19 @@
         <v>23</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.4">
@@ -1655,7 +1651,7 @@
       </c>
       <c r="K12" s="4">
         <f>P3</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" s="14" t="s">
         <v>88</v>
@@ -1664,19 +1660,19 @@
         <v>81</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="6">
         <v>1</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T12" s="14">
         <v>0.1</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="W12" s="4">
         <f>T12</f>
@@ -1722,20 +1718,20 @@
         <v>53</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="6" t="str">
-        <f t="shared" ref="Q13:Q21" si="0">N13</f>
+        <f t="shared" ref="Q13:Q18" si="0">N13</f>
         <v>b2</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T13" s="14">
         <v>1.1000000000000001</v>
       </c>
       <c r="V13" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="W13" s="29">
         <f>T12</f>
@@ -1776,20 +1772,20 @@
         <v>6.4</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="T14" s="14">
         <v>0.15</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W14" s="4">
         <f>T13</f>
@@ -1799,7 +1795,7 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
-        <v>Rh</v>
+        <v>B</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>C7</f>
@@ -1833,7 +1829,7 @@
         <v>2.72</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="0"/>
@@ -1846,7 +1842,7 @@
         <v>1.9</v>
       </c>
       <c r="V15" s="28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="W15" s="29">
         <f>T13</f>
@@ -1856,35 +1852,35 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <f>D3</f>
-        <v>5.89</v>
+        <v>5.056</v>
       </c>
       <c r="B16">
         <f>F3</f>
-        <v>3.27</v>
+        <v>1.7070000000000001</v>
       </c>
       <c r="C16">
         <f>G3</f>
-        <v>0.94</v>
+        <v>1.29</v>
       </c>
       <c r="D16">
         <f>H3</f>
-        <v>1.1499999999999999</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="E16">
         <f>I3</f>
-        <v>0.53</v>
+        <v>1.242</v>
       </c>
       <c r="F16" s="20">
         <f>C3*E7</f>
-        <v>3.8466608896548191</v>
+        <v>2.7294321753800737</v>
       </c>
       <c r="G16">
         <f>B3</f>
-        <v>5.72</v>
+        <v>5.415</v>
       </c>
       <c r="H16" s="6">
         <f>E3</f>
-        <v>0.97</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>73</v>
@@ -1899,20 +1895,20 @@
         <v>5</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T16" s="14">
         <v>2.6</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="W16" s="4">
         <f>T14</f>
@@ -1926,15 +1922,15 @@
       </c>
       <c r="B17" s="8">
         <f>K3</f>
-        <v>4.41</v>
+        <v>3.8809999999999998</v>
       </c>
       <c r="C17" s="8">
         <f>L3</f>
-        <v>2.58</v>
+        <v>24.457000000000001</v>
       </c>
       <c r="D17" s="8">
         <f>M3</f>
-        <v>4.6900000000000004</v>
+        <v>-7.2690000000000001</v>
       </c>
       <c r="E17" s="26">
         <f>F7</f>
@@ -1951,7 +1947,7 @@
       </c>
       <c r="K17" s="6" t="str">
         <f>A3</f>
-        <v>Rh</v>
+        <v>B</v>
       </c>
       <c r="M17" s="14" t="s">
         <v>80</v>
@@ -1960,20 +1956,20 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T17" s="14">
         <v>1.9</v>
       </c>
       <c r="V17" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="W17" s="29">
         <f>T14</f>
@@ -1988,20 +1984,20 @@
         <v>0</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N18" s="27">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="W18" s="4">
         <f>T15</f>
@@ -2019,20 +2015,20 @@
         <v>1</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="N19" s="14">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>N19</f>
+        <v>0.4</v>
       </c>
       <c r="V19" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="W19" s="29">
         <f>T15</f>
@@ -2044,27 +2040,26 @@
         <v>59</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="K20" s="6">
-        <f>O3</f>
-        <v>2.8</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="N20" s="27">
         <v>1</v>
       </c>
+      <c r="M20" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0.67</v>
+      </c>
       <c r="P20" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>N20</f>
+        <v>0.67</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="W20" s="4">
         <f>T16</f>
@@ -2075,28 +2070,28 @@
       <c r="A21" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>26</v>
+      <c r="J21" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="K21" s="6">
-        <f>N3</f>
-        <v>2</v>
+        <f>B3</f>
+        <v>5.415</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N21" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.6</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>N21</f>
+        <v>0.6</v>
       </c>
       <c r="V21" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W21" s="29">
         <f>T16</f>
@@ -2107,28 +2102,28 @@
       <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>77</v>
+      <c r="J22" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="K22" s="6">
-        <f>R3</f>
-        <v>0</v>
+        <f>C3</f>
+        <v>1.93</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N22" s="14">
-        <v>0.67</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q22" s="6">
-        <f t="shared" ref="Q22:Q23" si="1">N22</f>
-        <v>0.67</v>
+        <v>0.4</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="29">
+        <f>N21</f>
+        <v>0.6</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W22" s="6">
         <f>T17</f>
@@ -2139,28 +2134,28 @@
       <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" s="9">
-        <f>S3</f>
-        <v>0</v>
+      <c r="J23" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" s="6">
+        <f>D3</f>
+        <v>5.056</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N23" s="14">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
+        <f>N22</f>
+        <v>0.4</v>
       </c>
       <c r="V23" s="28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="W23" s="29">
         <f>T17</f>
@@ -2171,57 +2166,78 @@
       <c r="A24" t="s">
         <v>63</v>
       </c>
+      <c r="J24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="6">
+        <f>S3</f>
+        <v>0</v>
+      </c>
       <c r="M24" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N24" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q24" s="29">
+        <f>N22</f>
         <v>0.4</v>
-      </c>
-      <c r="P24" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q24" s="29">
-        <f>N23</f>
-        <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>64</v>
       </c>
+      <c r="J25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="6">
+        <f>R3</f>
+        <v>0</v>
+      </c>
       <c r="M25" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N25" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q25" s="6">
+        <f>N23</f>
         <v>2.8</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q25" s="4">
+      <c r="V25" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="J26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="6">
+        <f>N3</f>
+        <v>0.46</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N26" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q26" s="6">
         <f>N24</f>
-        <v>0.4</v>
-      </c>
-      <c r="V25" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="M26" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="N26" s="14">
         <v>1.7</v>
       </c>
-      <c r="P26" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q26" s="29">
-        <f>N24</f>
-        <v>0.4</v>
-      </c>
       <c r="V26" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="W26" s="4">
         <v>2</v>
@@ -2231,42 +2247,37 @@
       <c r="A27" t="s">
         <v>72</v>
       </c>
-      <c r="M27" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="N27" s="14">
+      <c r="J27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="9">
+        <f>O3</f>
+        <v>2.8</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>N25</f>
         <v>1.9</v>
       </c>
-      <c r="P27" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q27" s="6">
-        <f>N25</f>
-        <v>2.8</v>
-      </c>
       <c r="V27" s="28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="W27" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="M28" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="N28" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q28" s="6">
-        <f>N26</f>
-        <v>1.7</v>
+      <c r="P28" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q28" s="29">
+        <f>N25</f>
+        <v>1.9</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W28" s="4">
         <v>2</v>
@@ -2277,14 +2288,14 @@
         <v>71</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q29" s="4">
-        <f>N27</f>
-        <v>1.9</v>
+        <f>N26</f>
+        <v>1.8</v>
       </c>
       <c r="V29" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="W29" s="29">
         <v>2</v>
@@ -2295,14 +2306,14 @@
         <v>65</v>
       </c>
       <c r="P30" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q30" s="29">
-        <f>N27</f>
-        <v>1.9</v>
+        <f>N26</f>
+        <v>1.8</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="W30" s="4">
         <v>2</v>
@@ -2312,15 +2323,8 @@
       <c r="A31" t="s">
         <v>66</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q31" s="4">
-        <f>N28</f>
-        <v>1.8</v>
-      </c>
       <c r="V31" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="W31" s="29">
         <v>2</v>
@@ -2330,15 +2334,8 @@
       <c r="A32" t="s">
         <v>67</v>
       </c>
-      <c r="P32" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q32" s="29">
-        <f>N28</f>
-        <v>1.8</v>
-      </c>
       <c r="V32" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="W32" s="4">
         <v>2.8</v>
@@ -2349,7 +2346,7 @@
         <v>68</v>
       </c>
       <c r="V33" s="28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W33" s="29">
         <v>2.8</v>
@@ -2360,7 +2357,7 @@
         <v>69</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="W34" s="4">
         <v>2.8</v>
@@ -2374,7 +2371,7 @@
         <v>94</v>
       </c>
       <c r="V35" s="28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="W35" s="29">
         <v>2.8</v>
@@ -2389,7 +2386,7 @@
         <v>Pd-Rh</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W36" s="4">
         <v>2.8</v>
@@ -2397,19 +2394,19 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="M37" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q37" s="6">
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="V37" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="W37" s="29">
         <v>2.8</v>
@@ -2417,27 +2414,27 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M38" s="14" t="s">
         <v>84</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q38" s="6">
         <v>1</v>
       </c>
       <c r="R38" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M39" s="14" t="s">
         <v>83</v>
@@ -2446,19 +2443,19 @@
         <v>53</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q39" s="6" t="str">
-        <f t="shared" ref="Q39:Q47" si="2">N39</f>
+        <f t="shared" ref="Q39:Q44" si="1">N39</f>
         <v>b2</v>
       </c>
       <c r="R39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M40" s="14" t="s">
         <v>0</v>
@@ -2467,19 +2464,19 @@
         <v>4.5830000000000002</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5830000000000002</v>
       </c>
       <c r="R40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M41" s="14" t="s">
         <v>1</v>
@@ -2488,19 +2485,19 @@
         <v>2.6970000000000001</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.6970000000000001</v>
       </c>
       <c r="R41" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M42" s="14" t="s">
         <v>2</v>
@@ -2509,14 +2506,14 @@
         <v>6.8920000000000003</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q42" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.8920000000000003</v>
       </c>
       <c r="R42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.4">
@@ -2527,131 +2524,128 @@
         <v>0</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M44" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N44" s="27">
         <v>0</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q44" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="N45" s="14">
-        <v>1</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q45" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q45" s="4">
+        <f>N45</f>
+        <v>1.6519999999999999</v>
       </c>
       <c r="R45" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>168</v>
-      </c>
-      <c r="M46" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="N46" s="27">
-        <v>1</v>
-      </c>
-      <c r="P46" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q46" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>164</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N46" s="14">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="P46" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q46" s="29">
+        <f>N45</f>
+        <v>1.6519999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="N47" s="14">
-        <v>1.6519999999999999</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" si="2"/>
-        <v>1.6519999999999999</v>
-      </c>
-      <c r="R47" t="s">
-        <v>154</v>
+        <f>N46</f>
+        <v>1.7849999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N48" s="14">
-        <v>1.7849999999999999</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="P48" s="28" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="Q48" s="29">
         <f>N47</f>
-        <v>1.6519999999999999</v>
+        <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="N49" s="14">
-        <v>0.80500000000000005</v>
+        <v>1.8680000000000001</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="Q49" s="4">
         <f>N48</f>
-        <v>1.7849999999999999</v>
+        <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.4">
@@ -2659,118 +2653,88 @@
         <v>145</v>
       </c>
       <c r="N50" s="14">
+        <v>2.39</v>
+      </c>
+      <c r="P50" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q50" s="29">
+        <f>N48</f>
         <v>0.43099999999999999</v>
-      </c>
-      <c r="P50" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q50" s="29">
-        <f>N49</f>
-        <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N51" s="14">
+        <v>2.1459999999999999</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q51" s="4">
+        <f>N49</f>
         <v>1.8680000000000001</v>
       </c>
-      <c r="P51" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q51" s="4">
-        <f>N50</f>
-        <v>0.43099999999999999</v>
+      <c r="R51" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N52" s="14">
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="P52" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q52" s="29">
+        <f>N49</f>
+        <v>1.8680000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="P53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q53" s="4">
+        <f>N50</f>
         <v>2.39</v>
       </c>
-      <c r="P52" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q52" s="29">
-        <f>N50</f>
-        <v>0.43099999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="M53" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="N53" s="14">
-        <v>2.1459999999999999</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q53" s="4">
-        <f>N51</f>
-        <v>1.8680000000000001</v>
-      </c>
-      <c r="R53" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="M54" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="N54" s="14">
-        <v>2.0129999999999999</v>
-      </c>
       <c r="P54" s="28" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="Q54" s="29">
         <f>N51</f>
-        <v>1.8680000000000001</v>
+        <v>2.1459999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.4">
       <c r="P55" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Q55" s="4">
         <f>N52</f>
-        <v>2.39</v>
+        <v>2.0129999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="P56" s="28" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Q56" s="29">
-        <f>N53</f>
-        <v>2.1459999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="P57" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q57" s="4">
-        <f>N54</f>
-        <v>2.0129999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="P58" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q58" s="29">
-        <f>N54</f>
+        <f>N52</f>
         <v>2.0129999999999999</v>
       </c>
     </row>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4F9979-59A8-448E-A251-F91C2072BA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF79BDF-025C-465B-8D51-F252D0C556A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="585" windowWidth="26040" windowHeight="13410" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="4335" yWindow="5970" windowWidth="17205" windowHeight="9285" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="174">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -687,6 +687,10 @@
   </si>
   <si>
     <t>alpha(1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -694,8 +698,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -917,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,9 +962,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1005,10 +1007,49 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1328,7 +1369,7 @@
   <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1342,235 +1383,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>31</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="14">
-        <v>5.415</v>
-      </c>
-      <c r="C3" s="14">
-        <v>1.93</v>
-      </c>
-      <c r="D3" s="14">
-        <v>5.056</v>
-      </c>
-      <c r="E3" s="14">
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="F3" s="14">
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="G3" s="14">
-        <v>1.29</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="I3" s="14">
-        <v>1.242</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="A3" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2.04</v>
+      </c>
+      <c r="C3" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="13">
+        <v>6.06</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1.01</v>
+      </c>
+      <c r="F3" s="13">
+        <v>5.31</v>
+      </c>
+      <c r="G3" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H3" s="13">
+        <v>6</v>
+      </c>
+      <c r="I3" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J3" s="14">
         <v>1</v>
       </c>
-      <c r="K3" s="14">
-        <v>3.8809999999999998</v>
-      </c>
-      <c r="L3" s="14">
-        <v>24.457000000000001</v>
-      </c>
-      <c r="M3" s="14">
-        <v>-7.2690000000000001</v>
-      </c>
-      <c r="N3" s="14">
-        <v>0.46</v>
-      </c>
-      <c r="O3" s="14">
+      <c r="K3" s="13">
+        <v>2.74</v>
+      </c>
+      <c r="L3" s="13">
+        <v>3.06</v>
+      </c>
+      <c r="M3" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="N3" s="13">
+        <v>2</v>
+      </c>
+      <c r="O3" s="13">
         <v>2.8</v>
       </c>
-      <c r="P3" s="14">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="14">
+      <c r="P3" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="13">
         <v>0.1</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="18">
         <v>0</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>194</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>4.5233599887513423</v>
-      </c>
-      <c r="G5" s="24">
+        <v>17.997467664584153</v>
+      </c>
+      <c r="G5" s="23">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>5.3245935207041626</v>
-      </c>
-      <c r="H5" s="24">
+        <v>21.185401991934047</v>
+      </c>
+      <c r="H5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/4)/B3)^(1/2)</f>
-        <v>3.1984985217939794</v>
-      </c>
-      <c r="I5" s="24">
+        <v>12.726131429813071</v>
+      </c>
+      <c r="I5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2)</f>
-        <v>2.2616799943756711</v>
+        <v>8.9987338322920767</v>
       </c>
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>41</v>
       </c>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A7" s="14">
-        <v>45</v>
-      </c>
-      <c r="B7" s="14">
-        <v>102.91</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13">
+        <v>6.94</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>12</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <f>SQRT(2)</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>1</v>
       </c>
-      <c r="G7" s="14">
-        <v>3</v>
+      <c r="G7" s="13">
+        <v>2</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>1.6</v>
       </c>
       <c r="K7" s="8"/>
@@ -1611,7 +1652,7 @@
       <c r="J11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="20" t="s">
         <v>113</v>
       </c>
       <c r="P11" s="5" t="s">
@@ -1620,7 +1661,7 @@
       <c r="Q11" s="6">
         <v>0</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="S11" s="20" t="s">
         <v>114</v>
       </c>
       <c r="V11" s="11" t="s">
@@ -1651,12 +1692,12 @@
       </c>
       <c r="K12" s="4">
         <f>P3</f>
-        <v>5</v>
-      </c>
-      <c r="M12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="13" t="s">
         <v>81</v>
       </c>
       <c r="P12" s="5" t="s">
@@ -1665,16 +1706,16 @@
       <c r="Q12" s="6">
         <v>1</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="S12" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="34">
         <v>0.1</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="36">
         <f>T12</f>
         <v>0.1</v>
       </c>
@@ -1711,10 +1752,10 @@
         <f>Q3</f>
         <v>0.1</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="13" t="s">
         <v>53</v>
       </c>
       <c r="P13" s="5" t="s">
@@ -1724,16 +1765,16 @@
         <f t="shared" ref="Q13:Q18" si="0">N13</f>
         <v>b2</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V13" s="28" t="s">
+      <c r="V13" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="W13" s="29">
+      <c r="W13" s="37">
         <f>T12</f>
         <v>0.1</v>
       </c>
@@ -1765,29 +1806,29 @@
       <c r="K14" s="6">
         <v>0</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="35">
         <v>6.4</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="30">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="S14" s="14" t="s">
+      <c r="S14" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="34">
         <v>0.15</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="36">
         <f>T13</f>
         <v>1.1000000000000001</v>
       </c>
@@ -1795,7 +1836,7 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
-        <v>B</v>
+        <v>Pb</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>C7</f>
@@ -1807,11 +1848,11 @@
       </c>
       <c r="D15" s="3">
         <f>A7</f>
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
         <f>B7</f>
-        <v>102.91</v>
+        <v>6.94</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1822,29 +1863,29 @@
       <c r="K15" s="6">
         <v>2</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="34">
         <v>2.72</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="32">
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
-      <c r="S15" s="14" t="s">
+      <c r="S15" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="34">
         <v>1.9</v>
       </c>
-      <c r="V15" s="28" t="s">
+      <c r="V15" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="W15" s="29">
+      <c r="W15" s="37">
         <f>T13</f>
         <v>1.1000000000000001</v>
       </c>
@@ -1852,35 +1893,35 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <f>D3</f>
-        <v>5.056</v>
+        <v>6.06</v>
       </c>
       <c r="B16">
         <f>F3</f>
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="C16">
+        <v>5.31</v>
+      </c>
+      <c r="C16" s="28">
         <f>G3</f>
-        <v>1.29</v>
-      </c>
-      <c r="D16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D16" s="28">
         <f>H3</f>
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="E16" s="28">
         <f>I3</f>
-        <v>1.242</v>
-      </c>
-      <c r="F16" s="20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F16" s="19">
         <f>C3*E7</f>
-        <v>2.7294321753800737</v>
+        <v>4.9497474683058327</v>
       </c>
       <c r="G16">
         <f>B3</f>
-        <v>5.415</v>
+        <v>2.04</v>
       </c>
       <c r="H16" s="6">
         <f>E3</f>
-        <v>1.7849999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>73</v>
@@ -1888,57 +1929,57 @@
       <c r="K16" s="6">
         <v>2</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="34">
         <v>5</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="S16" s="14" t="s">
+      <c r="S16" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="T16" s="14">
+      <c r="T16" s="34">
         <v>2.6</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="36">
         <f>T14</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A17" s="13">
+      <c r="A17" s="29">
         <f>J3</f>
         <v>1</v>
       </c>
       <c r="B17" s="8">
         <f>K3</f>
-        <v>3.8809999999999998</v>
+        <v>2.74</v>
       </c>
       <c r="C17" s="8">
         <f>L3</f>
-        <v>24.457000000000001</v>
-      </c>
-      <c r="D17" s="8">
+        <v>3.06</v>
+      </c>
+      <c r="D17" s="31">
         <f>M3</f>
-        <v>-7.2690000000000001</v>
-      </c>
-      <c r="E17" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="E17" s="25">
         <f>F7</f>
         <v>1</v>
       </c>
       <c r="F17" s="8">
         <f>G7</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
@@ -1947,12 +1988,12 @@
       </c>
       <c r="K17" s="6" t="str">
         <f>A3</f>
-        <v>B</v>
-      </c>
-      <c r="M17" s="14" t="s">
+        <v>Pb</v>
+      </c>
+      <c r="M17" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P17" s="5" t="s">
@@ -1962,16 +2003,16 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="S17" s="14" t="s">
+      <c r="S17" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17" s="34">
         <v>1.9</v>
       </c>
-      <c r="V17" s="28" t="s">
+      <c r="V17" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="W17" s="29">
+      <c r="W17" s="37">
         <f>T14</f>
         <v>0.15</v>
       </c>
@@ -1983,10 +2024,10 @@
       <c r="K18" s="6">
         <v>0</v>
       </c>
-      <c r="M18" s="27" t="s">
+      <c r="M18" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="26">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P18" s="5" t="s">
@@ -1999,7 +2040,7 @@
       <c r="V18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="36">
         <f>T15</f>
         <v>1.9</v>
       </c>
@@ -2014,23 +2055,23 @@
       <c r="K19" s="6">
         <v>1</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="34">
         <v>0.4</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="32">
         <f>N19</f>
         <v>0.4</v>
       </c>
-      <c r="V19" s="28" t="s">
+      <c r="V19" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="W19" s="29">
+      <c r="W19" s="37">
         <f>T15</f>
         <v>1.9</v>
       </c>
@@ -2045,23 +2086,23 @@
       <c r="K20" s="6">
         <v>1</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="M20" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="13">
         <v>0.67</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="32">
         <f>N20</f>
         <v>0.67</v>
       </c>
       <c r="V20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W20" s="36">
         <f>T16</f>
         <v>2.6</v>
       </c>
@@ -2070,30 +2111,30 @@
       <c r="A21" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="30">
         <f>B3</f>
-        <v>5.415</v>
-      </c>
-      <c r="M21" s="14" t="s">
+        <v>2.04</v>
+      </c>
+      <c r="M21" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="34">
         <v>0.6</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="36">
         <f>N21</f>
         <v>0.6</v>
       </c>
-      <c r="V21" s="28" t="s">
+      <c r="V21" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="W21" s="29">
+      <c r="W21" s="37">
         <f>T16</f>
         <v>2.6</v>
       </c>
@@ -2102,30 +2143,30 @@
       <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="32">
         <f>C3</f>
-        <v>1.93</v>
-      </c>
-      <c r="M22" s="14" t="s">
+        <v>3.5</v>
+      </c>
+      <c r="M22" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="34">
         <v>0.4</v>
       </c>
-      <c r="P22" s="28" t="s">
+      <c r="P22" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="Q22" s="29">
+      <c r="Q22" s="37">
         <f>N21</f>
         <v>0.6</v>
       </c>
       <c r="V22" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="W22" s="6">
+      <c r="W22" s="32">
         <f>T17</f>
         <v>1.9</v>
       </c>
@@ -2134,30 +2175,30 @@
       <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="32">
         <f>D3</f>
-        <v>5.056</v>
-      </c>
-      <c r="M23" s="14" t="s">
+        <v>6.06</v>
+      </c>
+      <c r="M23" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="34">
         <v>2.8</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="36">
         <f>N22</f>
         <v>0.4</v>
       </c>
-      <c r="V23" s="28" t="s">
+      <c r="V23" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="W23" s="29">
+      <c r="W23" s="37">
         <f>T17</f>
         <v>1.9</v>
       </c>
@@ -2173,16 +2214,16 @@
         <f>S3</f>
         <v>0</v>
       </c>
-      <c r="M24" s="14" t="s">
+      <c r="M24" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="34">
         <v>1.7</v>
       </c>
-      <c r="P24" s="28" t="s">
+      <c r="P24" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="Q24" s="29">
+      <c r="Q24" s="37">
         <f>N22</f>
         <v>0.4</v>
       </c>
@@ -2198,16 +2239,16 @@
         <f>R3</f>
         <v>0</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="34">
         <v>1.9</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="32">
         <f>N23</f>
         <v>2.8</v>
       </c>
@@ -2219,27 +2260,27 @@
       <c r="J26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="32">
         <f>N3</f>
-        <v>0.46</v>
-      </c>
-      <c r="M26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="34">
         <v>1.8</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q26" s="32">
         <f>N24</f>
         <v>1.7</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="W26" s="4">
+      <c r="W26" s="41">
         <v>2</v>
       </c>
     </row>
@@ -2250,36 +2291,36 @@
       <c r="J27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="33">
         <f>O3</f>
         <v>2.8</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="36">
         <f>N25</f>
         <v>1.9</v>
       </c>
-      <c r="V27" s="28" t="s">
+      <c r="V27" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="W27" s="29">
+      <c r="W27" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="P28" s="28" t="s">
+      <c r="P28" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="Q28" s="37">
         <f>N25</f>
         <v>1.9</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W28" s="4">
+      <c r="W28" s="41">
         <v>2</v>
       </c>
     </row>
@@ -2290,14 +2331,14 @@
       <c r="P29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="36">
         <f>N26</f>
         <v>1.8</v>
       </c>
-      <c r="V29" s="28" t="s">
+      <c r="V29" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="W29" s="29">
+      <c r="W29" s="42">
         <v>2</v>
       </c>
     </row>
@@ -2305,17 +2346,17 @@
       <c r="A30" t="s">
         <v>65</v>
       </c>
-      <c r="P30" s="28" t="s">
+      <c r="P30" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="29">
+      <c r="Q30" s="37">
         <f>N26</f>
         <v>1.8</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="W30" s="4">
+      <c r="W30" s="41">
         <v>2</v>
       </c>
     </row>
@@ -2323,10 +2364,10 @@
       <c r="A31" t="s">
         <v>66</v>
       </c>
-      <c r="V31" s="28" t="s">
+      <c r="V31" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="W31" s="29">
+      <c r="W31" s="42">
         <v>2</v>
       </c>
     </row>
@@ -2337,7 +2378,7 @@
       <c r="V32" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="W32" s="4">
+      <c r="W32" s="41">
         <v>2.8</v>
       </c>
     </row>
@@ -2345,10 +2386,10 @@
       <c r="A33" t="s">
         <v>68</v>
       </c>
-      <c r="V33" s="28" t="s">
+      <c r="V33" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="W33" s="29">
+      <c r="W33" s="42">
         <v>2.8</v>
       </c>
     </row>
@@ -2359,7 +2400,7 @@
       <c r="V34" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="W34" s="4">
+      <c r="W34" s="41">
         <v>2.8</v>
       </c>
     </row>
@@ -2370,10 +2411,10 @@
       <c r="P35" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="V35" s="28" t="s">
+      <c r="V35" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="W35" s="29">
+      <c r="W35" s="42">
         <v>2.8</v>
       </c>
     </row>
@@ -2388,12 +2429,12 @@
       <c r="V36" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="W36" s="4">
+      <c r="W36" s="41">
         <v>2.8</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="M37" s="21" t="s">
+      <c r="M37" s="20" t="s">
         <v>138</v>
       </c>
       <c r="P37" s="5" t="s">
@@ -2405,10 +2446,10 @@
       <c r="R37" t="s">
         <v>153</v>
       </c>
-      <c r="V37" s="28" t="s">
+      <c r="V37" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="W37" s="29">
+      <c r="W37" s="42">
         <v>2.8</v>
       </c>
     </row>
@@ -2416,10 +2457,10 @@
       <c r="A38" t="s">
         <v>157</v>
       </c>
-      <c r="M38" s="14" t="s">
+      <c r="M38" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="N38" s="13" t="s">
         <v>139</v>
       </c>
       <c r="P38" s="5" t="s">
@@ -2436,10 +2477,10 @@
       <c r="A39" t="s">
         <v>158</v>
       </c>
-      <c r="M39" s="14" t="s">
+      <c r="M39" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="N39" s="14" t="s">
+      <c r="N39" s="13" t="s">
         <v>53</v>
       </c>
       <c r="P39" s="5" t="s">
@@ -2457,16 +2498,16 @@
       <c r="A40" t="s">
         <v>159</v>
       </c>
-      <c r="M40" s="14" t="s">
+      <c r="M40" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N40" s="35">
         <v>4.5830000000000002</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="Q40" s="30">
         <f t="shared" si="1"/>
         <v>4.5830000000000002</v>
       </c>
@@ -2478,16 +2519,16 @@
       <c r="A41" t="s">
         <v>160</v>
       </c>
-      <c r="M41" s="14" t="s">
+      <c r="M41" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="35">
         <v>2.6970000000000001</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="Q41" s="30">
         <f t="shared" si="1"/>
         <v>2.6970000000000001</v>
       </c>
@@ -2499,16 +2540,16 @@
       <c r="A42" t="s">
         <v>161</v>
       </c>
-      <c r="M42" s="14" t="s">
+      <c r="M42" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N42" s="35">
         <v>6.8920000000000003</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="Q42" s="30">
         <f t="shared" si="1"/>
         <v>6.8920000000000003</v>
       </c>
@@ -2517,16 +2558,16 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="M43" s="14" t="s">
+      <c r="M43" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N43" s="35">
         <v>0</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="Q43" s="6">
+      <c r="Q43" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2538,16 +2579,16 @@
       <c r="A44" t="s">
         <v>162</v>
       </c>
-      <c r="M44" s="27" t="s">
+      <c r="M44" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="N44" s="27">
+      <c r="N44" s="38">
         <v>0</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="Q44" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2559,16 +2600,16 @@
       <c r="A45" t="s">
         <v>163</v>
       </c>
-      <c r="M45" s="14" t="s">
+      <c r="M45" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N45" s="35">
         <v>1.6519999999999999</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q45" s="39">
         <f>N45</f>
         <v>1.6519999999999999</v>
       </c>
@@ -2580,16 +2621,16 @@
       <c r="A46" t="s">
         <v>164</v>
       </c>
-      <c r="M46" s="14" t="s">
+      <c r="M46" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N46" s="35">
         <v>1.7849999999999999</v>
       </c>
-      <c r="P46" s="28" t="s">
+      <c r="P46" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="Q46" s="29">
+      <c r="Q46" s="40">
         <f>N45</f>
         <v>1.6519999999999999</v>
       </c>
@@ -2598,16 +2639,16 @@
       <c r="A47" t="s">
         <v>165</v>
       </c>
-      <c r="M47" s="14" t="s">
+      <c r="M47" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N47" s="35">
         <v>0.80500000000000005</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="Q47" s="39">
         <f>N46</f>
         <v>1.7849999999999999</v>
       </c>
@@ -2616,16 +2657,16 @@
       <c r="A48" t="s">
         <v>166</v>
       </c>
-      <c r="M48" s="14" t="s">
+      <c r="M48" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N48" s="35">
         <v>0.43099999999999999</v>
       </c>
-      <c r="P48" s="28" t="s">
+      <c r="P48" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="Q48" s="29">
+      <c r="Q48" s="40">
         <f>N47</f>
         <v>0.80500000000000005</v>
       </c>
@@ -2634,31 +2675,31 @@
       <c r="A49" t="s">
         <v>167</v>
       </c>
-      <c r="M49" s="14" t="s">
+      <c r="M49" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="N49" s="14">
+      <c r="N49" s="35">
         <v>1.8680000000000001</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="Q49" s="39">
         <f>N48</f>
         <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="M50" s="14" t="s">
+      <c r="M50" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N50" s="14">
+      <c r="N50" s="35">
         <v>2.39</v>
       </c>
-      <c r="P50" s="28" t="s">
+      <c r="P50" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="Q50" s="29">
+      <c r="Q50" s="40">
         <f>N48</f>
         <v>0.43099999999999999</v>
       </c>
@@ -2667,16 +2708,16 @@
       <c r="A51" t="s">
         <v>168</v>
       </c>
-      <c r="M51" s="14" t="s">
+      <c r="M51" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N51" s="35">
         <v>2.1459999999999999</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="Q51" s="39">
         <f>N49</f>
         <v>1.8680000000000001</v>
       </c>
@@ -2688,16 +2729,16 @@
       <c r="A52" t="s">
         <v>169</v>
       </c>
-      <c r="M52" s="14" t="s">
+      <c r="M52" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="N52" s="14">
+      <c r="N52" s="35">
         <v>2.0129999999999999</v>
       </c>
-      <c r="P52" s="28" t="s">
+      <c r="P52" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="Q52" s="29">
+      <c r="Q52" s="40">
         <f>N49</f>
         <v>1.8680000000000001</v>
       </c>
@@ -2706,16 +2747,16 @@
       <c r="P53" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="Q53" s="39">
         <f>N50</f>
         <v>2.39</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="P54" s="28" t="s">
+      <c r="P54" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="Q54" s="29">
+      <c r="Q54" s="40">
         <f>N51</f>
         <v>2.1459999999999999</v>
       </c>
@@ -2724,16 +2765,16 @@
       <c r="P55" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="Q55" s="4">
+      <c r="Q55" s="39">
         <f>N52</f>
         <v>2.0129999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="P56" s="28" t="s">
+      <c r="P56" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="Q56" s="29">
+      <c r="Q56" s="40">
         <f>N52</f>
         <v>2.0129999999999999</v>
       </c>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF79BDF-025C-465B-8D51-F252D0C556A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9573198-EF3D-482F-9FE8-92D4B1075AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="5970" windowWidth="17205" windowHeight="9285" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="3675" yWindow="4185" windowWidth="17205" windowHeight="9285" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="175">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Note: bcc (Z=8, f=2/SQRT(3)), hcp (Z=12, f=1), fcc (Z=12, f=sqrt(2)), dim (Z=1, f=4/SQRT(3)), dia (Z=4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>c/a (for HCP)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -690,7 +686,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Pb</t>
+    <t>dim</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: bcc (Z=8, f=2/SQRT(3)), hcp (Z=12, f=1), fcc (Z=12, f=sqrt(2)), dia (Z=4, f=4/SQRT(3)), dim (Z=1, f=1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -922,7 +926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,9 +1014,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1050,6 +1051,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1369,7 +1376,7 @@
   <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1449,51 +1456,51 @@
         <v>15</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="13">
-        <v>2.04</v>
+        <v>174</v>
+      </c>
+      <c r="B3" s="34">
+        <v>2.5579999999999998</v>
       </c>
       <c r="C3" s="13">
-        <v>3.5</v>
+        <v>1.21</v>
       </c>
       <c r="D3" s="13">
-        <v>6.06</v>
+        <v>6.49</v>
       </c>
       <c r="E3" s="13">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="F3" s="13">
-        <v>5.31</v>
+        <v>6.49</v>
       </c>
       <c r="G3" s="13">
-        <v>2.2000000000000002</v>
+        <v>6.5</v>
       </c>
       <c r="H3" s="13">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I3" s="13">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J3" s="14">
         <v>1</v>
       </c>
       <c r="K3" s="13">
-        <v>2.74</v>
+        <v>0.09</v>
       </c>
       <c r="L3" s="13">
-        <v>3.06</v>
+        <v>0.1</v>
       </c>
       <c r="M3" s="13">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="N3" s="13">
         <v>2</v>
@@ -1543,19 +1550,19 @@
       </c>
       <c r="F5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>17.997467664584153</v>
+        <v>1.9425835546236874</v>
       </c>
       <c r="G5" s="23">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>21.185401991934047</v>
+        <v>2.2866780079626219</v>
       </c>
       <c r="H5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/4)/B3)^(1/2)</f>
-        <v>12.726131429813071</v>
+        <v>1.3736140044958776</v>
       </c>
       <c r="I5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2)</f>
-        <v>8.9987338322920767</v>
+        <v>0.97129177731184368</v>
       </c>
       <c r="Q5" s="6"/>
     </row>
@@ -1582,7 +1589,7 @@
         <v>29</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="6"/>
     </row>
@@ -1594,14 +1601,13 @@
         <v>6.94</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="D7" s="13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E7" s="13">
-        <f>SQRT(2)</f>
-        <v>1.4142135623730951</v>
+        <v>1</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
@@ -1624,7 +1630,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1633,12 +1639,12 @@
         <v>39</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="P10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="4" t="str">
         <f>N12</f>
@@ -1653,36 +1659,36 @@
         <v>23</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1695,27 +1701,27 @@
         <v>4</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="6">
         <v>1</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="T12" s="34">
+        <v>114</v>
+      </c>
+      <c r="T12" s="33">
         <v>0.1</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="W12" s="36">
+        <v>124</v>
+      </c>
+      <c r="W12" s="35">
         <f>T12</f>
         <v>0.1</v>
       </c>
@@ -1725,25 +1731,25 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>53</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>55</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>24</v>
@@ -1753,28 +1759,28 @@
         <v>0.1</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="6" t="str">
         <f t="shared" ref="Q13:Q18" si="0">N13</f>
         <v>b2</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="T13" s="34">
+        <v>115</v>
+      </c>
+      <c r="T13" s="33">
         <v>1.1000000000000001</v>
       </c>
       <c r="V13" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="W13" s="37">
+        <v>125</v>
+      </c>
+      <c r="W13" s="36">
         <f>T12</f>
         <v>0.1</v>
       </c>
@@ -1793,15 +1799,15 @@
         <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="J14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14" s="6">
         <v>0</v>
@@ -1809,26 +1815,26 @@
       <c r="M14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14" s="34">
         <v>6.4</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q14" s="30">
+        <v>96</v>
+      </c>
+      <c r="Q14" s="29">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="T14" s="34">
+        <v>116</v>
+      </c>
+      <c r="T14" s="33">
         <v>0.15</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="W14" s="36">
+        <v>126</v>
+      </c>
+      <c r="W14" s="35">
         <f>T13</f>
         <v>1.1000000000000001</v>
       </c>
@@ -1836,15 +1842,15 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
-        <v>Pb</v>
+        <v>O</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>C7</f>
-        <v>fcc</v>
+        <v>dim</v>
       </c>
       <c r="C15" s="3">
         <f>D7</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <f>A7</f>
@@ -1858,7 +1864,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
       <c r="J15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15" s="6">
         <v>2</v>
@@ -1866,65 +1872,65 @@
       <c r="M15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="33">
         <v>2.72</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q15" s="32">
+        <v>97</v>
+      </c>
+      <c r="Q15" s="31">
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="T15" s="34">
+        <v>89</v>
+      </c>
+      <c r="T15" s="33">
         <v>1.9</v>
       </c>
       <c r="V15" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="W15" s="37">
+        <v>127</v>
+      </c>
+      <c r="W15" s="36">
         <f>T13</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A16" s="5">
+      <c r="A16" s="42">
         <f>D3</f>
-        <v>6.06</v>
-      </c>
-      <c r="B16">
+        <v>6.49</v>
+      </c>
+      <c r="B16" s="28">
         <f>F3</f>
-        <v>5.31</v>
+        <v>6.49</v>
       </c>
       <c r="C16" s="28">
         <f>G3</f>
-        <v>2.2000000000000002</v>
+        <v>6.5</v>
       </c>
       <c r="D16" s="28">
         <f>H3</f>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="E16" s="28">
         <f>I3</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F16" s="19">
+        <v>0</v>
+      </c>
+      <c r="F16" s="28">
         <f>C3*E7</f>
-        <v>4.9497474683058327</v>
-      </c>
-      <c r="G16">
+        <v>1.21</v>
+      </c>
+      <c r="G16" s="19">
         <f>B3</f>
-        <v>2.04</v>
-      </c>
-      <c r="H16" s="6">
+        <v>2.5579999999999998</v>
+      </c>
+      <c r="H16" s="31">
         <f>E3</f>
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K16" s="6">
         <v>2</v>
@@ -1932,46 +1938,46 @@
       <c r="M16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N16" s="34">
+      <c r="N16" s="33">
         <v>5</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q16" s="32">
+        <v>98</v>
+      </c>
+      <c r="Q16" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="T16" s="34">
+        <v>121</v>
+      </c>
+      <c r="T16" s="33">
         <v>2.6</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="W16" s="36">
+        <v>128</v>
+      </c>
+      <c r="W16" s="35">
         <f>T14</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A17" s="29">
+      <c r="A17" s="43">
         <f>J3</f>
         <v>1</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="30">
         <f>K3</f>
-        <v>2.74</v>
-      </c>
-      <c r="C17" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="C17" s="30">
         <f>L3</f>
-        <v>3.06</v>
-      </c>
-      <c r="D17" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="30">
         <f>M3</f>
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="25">
         <f>F7</f>
@@ -1984,797 +1990,797 @@
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
       <c r="J17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K17" s="6" t="str">
         <f>A3</f>
-        <v>Pb</v>
+        <v>O</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="T17" s="34">
+        <v>122</v>
+      </c>
+      <c r="T17" s="33">
         <v>1.9</v>
       </c>
       <c r="V17" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="W17" s="37">
+        <v>129</v>
+      </c>
+      <c r="W17" s="36">
         <f>T14</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="J18" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K18" s="6">
         <v>0</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N18" s="26">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="W18" s="36">
+        <v>130</v>
+      </c>
+      <c r="W18" s="35">
         <f>T15</f>
         <v>1.9</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K19" s="6">
         <v>1</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N19" s="34">
+        <v>81</v>
+      </c>
+      <c r="N19" s="33">
         <v>0.4</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q19" s="32">
+        <v>104</v>
+      </c>
+      <c r="Q19" s="31">
         <f>N19</f>
         <v>0.4</v>
       </c>
       <c r="V19" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="W19" s="37">
+        <v>131</v>
+      </c>
+      <c r="W19" s="36">
         <f>T15</f>
         <v>1.9</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K20" s="6">
         <v>1</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N20" s="13">
         <v>0.67</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="32">
+        <v>105</v>
+      </c>
+      <c r="Q20" s="31">
         <f>N20</f>
         <v>0.67</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="W20" s="36">
+        <v>132</v>
+      </c>
+      <c r="W20" s="35">
         <f>T16</f>
         <v>2.6</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="K21" s="30">
+        <v>169</v>
+      </c>
+      <c r="K21" s="29">
         <f>B3</f>
-        <v>2.04</v>
+        <v>2.5579999999999998</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="N21" s="34">
+        <v>85</v>
+      </c>
+      <c r="N21" s="33">
         <v>0.6</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q21" s="36">
+        <v>106</v>
+      </c>
+      <c r="Q21" s="35">
         <f>N21</f>
         <v>0.6</v>
       </c>
       <c r="V21" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="W21" s="37">
+        <v>133</v>
+      </c>
+      <c r="W21" s="36">
         <f>T16</f>
         <v>2.6</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" s="32">
+        <v>170</v>
+      </c>
+      <c r="K22" s="31">
         <f>C3</f>
-        <v>3.5</v>
+        <v>1.21</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="N22" s="34">
+        <v>88</v>
+      </c>
+      <c r="N22" s="33">
         <v>0.4</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q22" s="37">
+        <v>117</v>
+      </c>
+      <c r="Q22" s="36">
         <f>N21</f>
         <v>0.6</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="W22" s="32">
+        <v>134</v>
+      </c>
+      <c r="W22" s="31">
         <f>T17</f>
         <v>1.9</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="K23" s="32">
+        <v>171</v>
+      </c>
+      <c r="K23" s="31">
         <f>D3</f>
-        <v>6.06</v>
+        <v>6.49</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="N23" s="34">
+        <v>89</v>
+      </c>
+      <c r="N23" s="33">
         <v>2.8</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q23" s="36">
+        <v>107</v>
+      </c>
+      <c r="Q23" s="35">
         <f>N22</f>
         <v>0.4</v>
       </c>
       <c r="V23" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="W23" s="37">
+        <v>135</v>
+      </c>
+      <c r="W23" s="36">
         <f>T17</f>
         <v>1.9</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K24" s="6">
         <f>S3</f>
         <v>0</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" s="34">
+        <v>90</v>
+      </c>
+      <c r="N24" s="33">
         <v>1.7</v>
       </c>
       <c r="P24" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q24" s="37">
+        <v>118</v>
+      </c>
+      <c r="Q24" s="36">
         <f>N22</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K25" s="6">
         <f>R3</f>
         <v>0</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="N25" s="34">
+        <v>91</v>
+      </c>
+      <c r="N25" s="33">
         <v>1.9</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q25" s="32">
+        <v>108</v>
+      </c>
+      <c r="Q25" s="31">
         <f>N23</f>
         <v>2.8</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="J26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="31">
         <f>N3</f>
         <v>2</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="N26" s="34">
+        <v>92</v>
+      </c>
+      <c r="N26" s="33">
         <v>1.8</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q26" s="32">
+        <v>109</v>
+      </c>
+      <c r="Q26" s="31">
         <f>N24</f>
         <v>1.7</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="W26" s="41">
+        <v>124</v>
+      </c>
+      <c r="W26" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="32">
         <f>O3</f>
         <v>2.8</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q27" s="36">
+        <v>110</v>
+      </c>
+      <c r="Q27" s="35">
         <f>N25</f>
         <v>1.9</v>
       </c>
       <c r="V27" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="W27" s="42">
+        <v>128</v>
+      </c>
+      <c r="W27" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="P28" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q28" s="37">
+        <v>119</v>
+      </c>
+      <c r="Q28" s="36">
         <f>N25</f>
         <v>1.9</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="W28" s="41">
+        <v>126</v>
+      </c>
+      <c r="W28" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q29" s="36">
+        <v>111</v>
+      </c>
+      <c r="Q29" s="35">
         <f>N26</f>
         <v>1.8</v>
       </c>
       <c r="V29" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="W29" s="42">
+        <v>129</v>
+      </c>
+      <c r="W29" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P30" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q30" s="37">
+        <v>120</v>
+      </c>
+      <c r="Q30" s="36">
         <f>N26</f>
         <v>1.8</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="W30" s="41">
+        <v>127</v>
+      </c>
+      <c r="W30" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V31" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="W31" s="42">
+        <v>125</v>
+      </c>
+      <c r="W31" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="W32" s="41">
+        <v>130</v>
+      </c>
+      <c r="W32" s="40">
         <v>2.8</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V33" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="W33" s="42">
+        <v>134</v>
+      </c>
+      <c r="W33" s="41">
         <v>2.8</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="W34" s="41">
+        <v>132</v>
+      </c>
+      <c r="W34" s="40">
         <v>2.8</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V35" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="W35" s="42">
+        <v>135</v>
+      </c>
+      <c r="W35" s="41">
         <v>2.8</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="P36" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q36" s="4" t="str">
         <f>N38</f>
         <v>Pd-Rh</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="W36" s="41">
+        <v>133</v>
+      </c>
+      <c r="W36" s="40">
         <v>2.8</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="M37" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q37" s="6">
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V37" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="W37" s="42">
+        <v>131</v>
+      </c>
+      <c r="W37" s="41">
         <v>2.8</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q38" s="6">
         <v>1</v>
       </c>
       <c r="R38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q39" s="6" t="str">
         <f t="shared" ref="Q39:Q44" si="1">N39</f>
         <v>b2</v>
       </c>
       <c r="R39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M40" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N40" s="35">
+      <c r="N40" s="34">
         <v>4.5830000000000002</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q40" s="30">
+        <v>96</v>
+      </c>
+      <c r="Q40" s="29">
         <f t="shared" si="1"/>
         <v>4.5830000000000002</v>
       </c>
       <c r="R40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M41" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N41" s="35">
+      <c r="N41" s="34">
         <v>2.6970000000000001</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q41" s="30">
+        <v>97</v>
+      </c>
+      <c r="Q41" s="29">
         <f t="shared" si="1"/>
         <v>2.6970000000000001</v>
       </c>
       <c r="R41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M42" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N42" s="35">
+      <c r="N42" s="34">
         <v>6.8920000000000003</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q42" s="30">
+        <v>98</v>
+      </c>
+      <c r="Q42" s="29">
         <f t="shared" si="1"/>
         <v>6.8920000000000003</v>
       </c>
       <c r="R42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="M43" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N43" s="35">
+        <v>79</v>
+      </c>
+      <c r="N43" s="34">
         <v>0</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q43" s="30">
+        <v>101</v>
+      </c>
+      <c r="Q43" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M44" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="N44" s="38">
+        <v>100</v>
+      </c>
+      <c r="N44" s="37">
         <v>0</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q44" s="30">
+        <v>102</v>
+      </c>
+      <c r="Q44" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="N45" s="35">
+        <v>139</v>
+      </c>
+      <c r="N45" s="34">
         <v>1.6519999999999999</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q45" s="39">
+        <v>106</v>
+      </c>
+      <c r="Q45" s="38">
         <f>N45</f>
         <v>1.6519999999999999</v>
       </c>
       <c r="R45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="N46" s="35">
+        <v>140</v>
+      </c>
+      <c r="N46" s="34">
         <v>1.7849999999999999</v>
       </c>
       <c r="P46" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q46" s="40">
+        <v>117</v>
+      </c>
+      <c r="Q46" s="39">
         <f>N45</f>
         <v>1.6519999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="N47" s="35">
+        <v>86</v>
+      </c>
+      <c r="N47" s="34">
         <v>0.80500000000000005</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q47" s="39">
+        <v>105</v>
+      </c>
+      <c r="Q47" s="38">
         <f>N46</f>
         <v>1.7849999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="N48" s="35">
+        <v>141</v>
+      </c>
+      <c r="N48" s="34">
         <v>0.43099999999999999</v>
       </c>
       <c r="P48" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q48" s="40">
+        <v>104</v>
+      </c>
+      <c r="Q48" s="39">
         <f>N47</f>
         <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="N49" s="35">
+        <v>143</v>
+      </c>
+      <c r="N49" s="34">
         <v>1.8680000000000001</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q49" s="39">
+        <v>118</v>
+      </c>
+      <c r="Q49" s="38">
         <f>N48</f>
         <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="M50" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="N50" s="35">
+        <v>144</v>
+      </c>
+      <c r="N50" s="34">
         <v>2.39</v>
       </c>
       <c r="P50" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q50" s="40">
+        <v>117</v>
+      </c>
+      <c r="Q50" s="39">
         <f>N48</f>
         <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N51" s="35">
+        <v>142</v>
+      </c>
+      <c r="N51" s="34">
         <v>2.1459999999999999</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q51" s="39">
+        <v>110</v>
+      </c>
+      <c r="Q51" s="38">
         <f>N49</f>
         <v>1.8680000000000001</v>
       </c>
       <c r="R51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="N52" s="35">
+        <v>145</v>
+      </c>
+      <c r="N52" s="34">
         <v>2.0129999999999999</v>
       </c>
       <c r="P52" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q52" s="40">
+        <v>119</v>
+      </c>
+      <c r="Q52" s="39">
         <f>N49</f>
         <v>1.8680000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="P53" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q53" s="39">
+        <v>109</v>
+      </c>
+      <c r="Q53" s="38">
         <f>N50</f>
         <v>2.39</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="P54" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q54" s="40">
+        <v>108</v>
+      </c>
+      <c r="Q54" s="39">
         <f>N51</f>
         <v>2.1459999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.4">
       <c r="P55" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q55" s="39">
+        <v>120</v>
+      </c>
+      <c r="Q55" s="38">
         <f>N52</f>
         <v>2.0129999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="P56" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q56" s="40">
+        <v>119</v>
+      </c>
+      <c r="Q56" s="39">
         <f>N52</f>
         <v>2.0129999999999999</v>
       </c>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9573198-EF3D-482F-9FE8-92D4B1075AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722966F0-1727-49B9-B7B4-245E5317688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="4185" windowWidth="17205" windowHeight="9285" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="1215" yWindow="2550" windowWidth="23550" windowHeight="9285" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="176">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -690,11 +690,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Note: bcc (Z=8, f=2/SQRT(3)), hcp (Z=12, f=1), fcc (Z=12, f=sqrt(2)), dia (Z=4, f=4/SQRT(3)), dim (Z=1, f=1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: bcc (Z=8, f=2/SQRT(3)), hcp (Z=12, f=1), fcc (Z=12, f=sqrt(2)), dia (Z=4, f=4/SQRT(3)), dim (Z=1, f=1), sc (Z=6, f=1)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -704,7 +708,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1047,16 +1051,16 @@
     <xf numFmtId="176" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1375,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1464,7 +1468,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="34">
         <v>2.5579999999999998</v>
@@ -1538,6 +1542,9 @@
       <c r="I4" s="24" t="s">
         <v>33</v>
       </c>
+      <c r="J4" s="24" t="s">
+        <v>174</v>
+      </c>
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
@@ -1563,6 +1570,10 @@
       <c r="I5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2)</f>
         <v>0.97129177731184368</v>
+      </c>
+      <c r="J5" s="23">
+        <f>(9*(D5*0.006241509)*((C3*E7)^3/1)/B3)^(1/2)</f>
+        <v>2.7472280089917551</v>
       </c>
       <c r="Q5" s="6"/>
     </row>
@@ -1630,7 +1641,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C8" s="1"/>
     </row>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722966F0-1727-49B9-B7B4-245E5317688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D50B9B-E13A-46B1-8BE5-F3DC29F37CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="2550" windowWidth="23550" windowHeight="9285" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="3120" yWindow="6180" windowWidth="23550" windowHeight="9285" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="175">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -686,19 +686,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dim</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sc</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Note: bcc (Z=8, f=2/SQRT(3)), hcp (Z=12, f=1), fcc (Z=12, f=sqrt(2)), dia (Z=4, f=4/SQRT(3)), dim (Z=1, f=1), sc (Z=6, f=1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Li</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -930,7 +926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,6 +1057,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1379,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1406,6 +1405,7 @@
       <c r="S1" s="18" t="s">
         <v>27</v>
       </c>
+      <c r="T1" s="44"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
@@ -1465,71 +1465,80 @@
       <c r="S2" s="18" t="s">
         <v>78</v>
       </c>
+      <c r="T2" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B3" s="34">
-        <v>2.5579999999999998</v>
+        <v>1.65</v>
       </c>
       <c r="C3" s="13">
-        <v>1.21</v>
+        <v>2.99</v>
       </c>
       <c r="D3" s="13">
-        <v>6.49</v>
+        <v>3</v>
       </c>
       <c r="E3" s="13">
-        <v>1.5</v>
+        <v>0.64</v>
       </c>
       <c r="F3" s="13">
-        <v>6.49</v>
+        <v>1.03</v>
       </c>
       <c r="G3" s="13">
-        <v>6.5</v>
+        <v>4.88</v>
       </c>
       <c r="H3" s="13">
-        <v>6.5</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="I3" s="13">
-        <v>0</v>
+        <v>5.27</v>
       </c>
       <c r="J3" s="14">
         <v>1</v>
       </c>
       <c r="K3" s="13">
-        <v>0.09</v>
+        <v>-1.46</v>
       </c>
       <c r="L3" s="13">
-        <v>0.1</v>
+        <v>4.13</v>
       </c>
       <c r="M3" s="13">
-        <v>0</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="N3" s="13">
-        <v>2</v>
+        <v>1.31</v>
       </c>
       <c r="O3" s="13">
-        <v>2.8</v>
+        <v>1.91</v>
       </c>
       <c r="P3" s="13">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="Q3" s="13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="R3" s="18">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S3" s="18">
-        <v>0</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T3" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="16" t="s">
         <v>34</v>
       </c>
+      <c r="E4" s="44"/>
       <c r="F4" s="23" t="s">
         <v>38</v>
       </c>
@@ -1543,12 +1552,21 @@
         <v>33</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>174</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
       <c r="Q4" s="6"/>
+      <c r="T4" s="44"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="13">
         <v>194</v>
       </c>
@@ -1557,24 +1575,30 @@
       </c>
       <c r="F5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>1.9425835546236874</v>
+        <v>11.657912335974268</v>
       </c>
       <c r="G5" s="23">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>2.2866780079626219</v>
+        <v>13.722906123640389</v>
       </c>
       <c r="H5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/4)/B3)^(1/2)</f>
-        <v>1.3736140044958776</v>
+        <v>8.2433888672457112</v>
       </c>
       <c r="I5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2)</f>
-        <v>0.97129177731184368</v>
+        <v>5.8289561679871342</v>
       </c>
       <c r="J5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/1)/B3)^(1/2)</f>
-        <v>2.7472280089917551</v>
-      </c>
+        <v>16.486777734491422</v>
+      </c>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
@@ -1594,38 +1618,43 @@
         <v>28</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="21" t="s">
         <v>29</v>
       </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="16" t="s">
         <v>40</v>
       </c>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" s="13">
         <v>6.94</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="D7" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E7" s="13">
-        <v>1</v>
+        <f>2/SQRT(3)</f>
+        <v>1.1547005383792517</v>
       </c>
       <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="13">
@@ -1641,7 +1670,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1709,7 +1738,7 @@
       </c>
       <c r="K12" s="4">
         <f>P3</f>
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>87</v>
@@ -1767,7 +1796,7 @@
       </c>
       <c r="K13" s="6">
         <f>Q3</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>82</v>
@@ -1853,19 +1882,19 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
-        <v>O</v>
+        <v>Li</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>C7</f>
-        <v>dim</v>
+        <v>bcc</v>
       </c>
       <c r="C15" s="3">
         <f>D7</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3">
         <f>A7</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <f>B7</f>
@@ -1910,35 +1939,35 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="42">
         <f>D3</f>
-        <v>6.49</v>
+        <v>3</v>
       </c>
       <c r="B16" s="28">
         <f>F3</f>
-        <v>6.49</v>
+        <v>1.03</v>
       </c>
       <c r="C16" s="28">
         <f>G3</f>
-        <v>6.5</v>
+        <v>4.88</v>
       </c>
       <c r="D16" s="28">
         <f>H3</f>
-        <v>6.5</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="E16" s="28">
         <f>I3</f>
-        <v>0</v>
+        <v>5.27</v>
       </c>
       <c r="F16" s="28">
         <f>C3*E7</f>
-        <v>1.21</v>
+        <v>3.452554609753963</v>
       </c>
       <c r="G16" s="19">
         <f>B3</f>
-        <v>2.5579999999999998</v>
+        <v>1.65</v>
       </c>
       <c r="H16" s="31">
         <f>E3</f>
-        <v>1.5</v>
+        <v>0.64</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>72</v>
@@ -1980,23 +2009,23 @@
       </c>
       <c r="B17" s="30">
         <f>K3</f>
-        <v>0.09</v>
+        <v>-1.46</v>
       </c>
       <c r="C17" s="30">
         <f>L3</f>
-        <v>0.1</v>
+        <v>4.13</v>
       </c>
       <c r="D17" s="30">
         <f>M3</f>
-        <v>0</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="E17" s="25">
+        <f>T3</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
         <f>F7</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="8">
-        <f>G7</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
@@ -2005,7 +2034,7 @@
       </c>
       <c r="K17" s="6" t="str">
         <f>A3</f>
-        <v>O</v>
+        <v>Li</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>79</v>
@@ -2101,6 +2130,7 @@
         <v>103</v>
       </c>
       <c r="K20" s="6">
+        <f>T3</f>
         <v>1</v>
       </c>
       <c r="M20" s="13" t="s">
@@ -2133,7 +2163,7 @@
       </c>
       <c r="K21" s="29">
         <f>B3</f>
-        <v>2.5579999999999998</v>
+        <v>1.65</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>85</v>
@@ -2165,7 +2195,7 @@
       </c>
       <c r="K22" s="31">
         <f>C3</f>
-        <v>1.21</v>
+        <v>2.99</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>88</v>
@@ -2197,7 +2227,7 @@
       </c>
       <c r="K23" s="31">
         <f>D3</f>
-        <v>6.49</v>
+        <v>3</v>
       </c>
       <c r="M23" s="13" t="s">
         <v>89</v>
@@ -2229,7 +2259,7 @@
       </c>
       <c r="K24" s="6">
         <f>S3</f>
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>90</v>
@@ -2254,7 +2284,7 @@
       </c>
       <c r="K25" s="6">
         <f>R3</f>
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>91</v>
@@ -2279,7 +2309,7 @@
       </c>
       <c r="K26" s="31">
         <f>N3</f>
-        <v>2</v>
+        <v>1.31</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>92</v>
@@ -2310,7 +2340,7 @@
       </c>
       <c r="K27" s="32">
         <f>O3</f>
-        <v>2.8</v>
+        <v>1.91</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>110</v>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D50B9B-E13A-46B1-8BE5-F3DC29F37CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35798401-C1FE-4589-9B11-2D3F0FC48C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="6180" windowWidth="23550" windowHeight="9285" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="5055" yWindow="5355" windowWidth="23550" windowHeight="9285" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="176">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -694,7 +694,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Li</t>
+    <t>1e12 [dyne/cm^2] = 1e2 [GPa]</t>
+  </si>
+  <si>
+    <t>Pt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -702,9 +705,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="181" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -926,7 +930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,13 +1057,22 @@
     <xf numFmtId="177" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1378,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1405,7 +1418,6 @@
       <c r="S1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="44"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
@@ -1471,74 +1483,72 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B3" s="34">
-        <v>1.65</v>
-      </c>
-      <c r="C3" s="13">
-        <v>2.99</v>
+        <v>5.77</v>
+      </c>
+      <c r="C3" s="34">
+        <v>2.77</v>
       </c>
       <c r="D3" s="13">
-        <v>3</v>
+        <f>H5</f>
+        <v>6.4958790713066437</v>
       </c>
       <c r="E3" s="13">
-        <v>0.64</v>
-      </c>
-      <c r="F3" s="13">
-        <v>1.03</v>
-      </c>
-      <c r="G3" s="13">
-        <v>4.88</v>
-      </c>
-      <c r="H3" s="13">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="I3" s="13">
-        <v>5.27</v>
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="33">
+        <v>4.92</v>
+      </c>
+      <c r="G3" s="44">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H3" s="44">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>2.2000000000000002</v>
       </c>
       <c r="J3" s="14">
         <v>1</v>
       </c>
-      <c r="K3" s="13">
-        <v>-1.46</v>
-      </c>
-      <c r="L3" s="13">
-        <v>4.13</v>
-      </c>
-      <c r="M3" s="13">
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="N3" s="13">
-        <v>1.31</v>
+      <c r="K3" s="33">
+        <v>3.94</v>
+      </c>
+      <c r="L3" s="33">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="M3" s="33">
+        <v>3.84</v>
+      </c>
+      <c r="N3" s="33">
+        <v>1.53</v>
       </c>
       <c r="O3" s="13">
-        <v>1.91</v>
-      </c>
-      <c r="P3" s="13">
-        <v>4.8</v>
+        <v>2.8</v>
+      </c>
+      <c r="P3" s="44">
+        <v>4.5</v>
       </c>
       <c r="Q3" s="13">
         <v>0.2</v>
       </c>
       <c r="R3" s="18">
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="S3" s="18">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="T3" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="T3" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
       <c r="D4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="44"/>
       <c r="F4" s="23" t="s">
         <v>38</v>
       </c>
@@ -1554,51 +1564,40 @@
       <c r="J4" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
       <c r="Q4" s="6"/>
-      <c r="T4" s="44"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
       <c r="D5" s="13">
-        <v>194</v>
+        <f>100*2.884</f>
+        <v>288.39999999999998</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>11.657912335974268</v>
+        <v>9.1865602821774015</v>
       </c>
       <c r="G5" s="23">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>13.722906123640389</v>
+        <v>10.813797592427022</v>
       </c>
       <c r="H5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/4)/B3)^(1/2)</f>
-        <v>8.2433888672457112</v>
+        <v>6.4958790713066437</v>
       </c>
       <c r="I5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2)</f>
-        <v>5.8289561679871342</v>
+        <v>4.5932801410887008</v>
       </c>
       <c r="J5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/1)/B3)^(1/2)</f>
-        <v>16.486777734491422</v>
-      </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
+        <v>12.991758142613287</v>
+      </c>
+      <c r="L5" t="s">
+        <v>174</v>
+      </c>
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
@@ -1620,18 +1619,9 @@
       <c r="F6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
       <c r="J6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
@@ -1642,14 +1632,14 @@
         <v>6.94</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" s="13">
-        <f>2/SQRT(3)</f>
-        <v>1.1547005383792517</v>
+        <f>SQRT(2)</f>
+        <v>1.4142135623730951</v>
       </c>
       <c r="F7" s="13">
         <v>3</v>
@@ -1738,7 +1728,7 @@
       </c>
       <c r="K12" s="4">
         <f>P3</f>
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>87</v>
@@ -1882,15 +1872,15 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
-        <v>Li</v>
+        <v>Pt</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>C7</f>
-        <v>bcc</v>
+        <v>fcc</v>
       </c>
       <c r="C15" s="3">
         <f>D7</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3">
         <f>A7</f>
@@ -1937,37 +1927,37 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A16" s="42">
+      <c r="A16" s="47">
         <f>D3</f>
-        <v>3</v>
+        <v>6.4958790713066437</v>
       </c>
       <c r="B16" s="28">
         <f>F3</f>
-        <v>1.03</v>
-      </c>
-      <c r="C16" s="28">
+        <v>4.92</v>
+      </c>
+      <c r="C16" s="46">
         <f>G3</f>
-        <v>4.88</v>
-      </c>
-      <c r="D16" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D16" s="46">
         <f>H3</f>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="E16" s="28">
+        <v>6</v>
+      </c>
+      <c r="E16" s="46">
         <f>I3</f>
-        <v>5.27</v>
-      </c>
-      <c r="F16" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F16" s="45">
         <f>C3*E7</f>
-        <v>3.452554609753963</v>
+        <v>3.9173715677734737</v>
       </c>
       <c r="G16" s="19">
         <f>B3</f>
-        <v>1.65</v>
+        <v>5.77</v>
       </c>
       <c r="H16" s="31">
         <f>E3</f>
-        <v>0.64</v>
+        <v>0.9</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>72</v>
@@ -2003,21 +1993,21 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A17" s="43">
+      <c r="A17" s="42">
         <f>J3</f>
         <v>1</v>
       </c>
       <c r="B17" s="30">
         <f>K3</f>
-        <v>-1.46</v>
+        <v>3.94</v>
       </c>
       <c r="C17" s="30">
         <f>L3</f>
-        <v>4.13</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="D17" s="30">
         <f>M3</f>
-        <v>-0.56999999999999995</v>
+        <v>3.84</v>
       </c>
       <c r="E17" s="25">
         <f>T3</f>
@@ -2034,7 +2024,7 @@
       </c>
       <c r="K17" s="6" t="str">
         <f>A3</f>
-        <v>Li</v>
+        <v>Pt</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>79</v>
@@ -2163,7 +2153,7 @@
       </c>
       <c r="K21" s="29">
         <f>B3</f>
-        <v>1.65</v>
+        <v>5.77</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>85</v>
@@ -2193,9 +2183,9 @@
       <c r="J22" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="29">
         <f>C3</f>
-        <v>2.99</v>
+        <v>2.77</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>88</v>
@@ -2225,9 +2215,9 @@
       <c r="J23" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="43">
         <f>D3</f>
-        <v>3</v>
+        <v>6.4958790713066437</v>
       </c>
       <c r="M23" s="13" t="s">
         <v>89</v>
@@ -2259,7 +2249,7 @@
       </c>
       <c r="K24" s="6">
         <f>S3</f>
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>90</v>
@@ -2284,7 +2274,7 @@
       </c>
       <c r="K25" s="6">
         <f>R3</f>
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>91</v>
@@ -2309,7 +2299,7 @@
       </c>
       <c r="K26" s="31">
         <f>N3</f>
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>92</v>
@@ -2340,7 +2330,7 @@
       </c>
       <c r="K27" s="32">
         <f>O3</f>
-        <v>1.91</v>
+        <v>2.8</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>110</v>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35798401-C1FE-4589-9B11-2D3F0FC48C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2426E65E-482C-47B0-A78E-920F08DB3516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="5355" windowWidth="23550" windowHeight="9285" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="435" yWindow="2235" windowWidth="23550" windowHeight="9285" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="177">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -697,7 +697,11 @@
     <t>1e12 [dyne/cm^2] = 1e2 [GPa]</t>
   </si>
   <si>
-    <t>Pt</t>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- sqrt(8/3)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -930,7 +934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,9 +1071,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1391,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1486,59 +1487,58 @@
         <v>175</v>
       </c>
       <c r="B3" s="34">
-        <v>5.77</v>
+        <v>4.41</v>
       </c>
       <c r="C3" s="34">
-        <v>2.77</v>
+        <v>3.6</v>
       </c>
       <c r="D3" s="13">
-        <f>H5</f>
-        <v>6.4958790713066437</v>
+        <v>4.17</v>
       </c>
       <c r="E3" s="13">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F3" s="33">
-        <v>4.92</v>
-      </c>
-      <c r="G3" s="44">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H3" s="44">
-        <v>6</v>
-      </c>
-      <c r="I3" s="44">
-        <v>2.2000000000000002</v>
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="33">
+        <v>0</v>
+      </c>
+      <c r="H3" s="33">
+        <v>0.54</v>
+      </c>
+      <c r="I3" s="33">
+        <v>5</v>
       </c>
       <c r="J3" s="14">
         <v>1</v>
       </c>
       <c r="K3" s="33">
-        <v>3.94</v>
+        <v>6.6</v>
       </c>
       <c r="L3" s="33">
-        <v>-2.2000000000000002</v>
+        <v>14.6</v>
       </c>
       <c r="M3" s="33">
-        <v>3.84</v>
+        <v>-10</v>
       </c>
       <c r="N3" s="33">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="O3" s="13">
         <v>2.8</v>
       </c>
       <c r="P3" s="44">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R3" s="18">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S3" s="18">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="T3" s="33">
         <v>1</v>
@@ -1577,23 +1577,23 @@
       </c>
       <c r="F5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>9.1865602821774015</v>
+        <v>9.2572745020353739</v>
       </c>
       <c r="G5" s="23">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>10.813797592427022</v>
+        <v>11.008816703353737</v>
       </c>
       <c r="H5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/4)/B3)^(1/2)</f>
-        <v>6.4958790713066437</v>
+        <v>6.5458815756945334</v>
       </c>
       <c r="I5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2)</f>
-        <v>4.5932801410887008</v>
+        <v>4.628637251017687</v>
       </c>
       <c r="J5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/1)/B3)^(1/2)</f>
-        <v>12.991758142613287</v>
+        <v>13.091763151389067</v>
       </c>
       <c r="L5" t="s">
         <v>174</v>
@@ -1632,25 +1632,27 @@
         <v>6.94</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="13">
         <v>12</v>
       </c>
       <c r="E7" s="13">
-        <f>SQRT(2)</f>
-        <v>1.4142135623730951</v>
+        <v>1</v>
       </c>
       <c r="F7" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="13">
-        <v>1.6</v>
-      </c>
-      <c r="K7" s="8"/>
+        <f>SQRT(8/3)</f>
+        <v>1.6329931618554521</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -1728,7 +1730,7 @@
       </c>
       <c r="K12" s="4">
         <f>P3</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>87</v>
@@ -1786,7 +1788,7 @@
       </c>
       <c r="K13" s="6">
         <f>Q3</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>82</v>
@@ -1872,11 +1874,11 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
-        <v>Pt</v>
+        <v>Y</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>C7</f>
-        <v>fcc</v>
+        <v>hcp</v>
       </c>
       <c r="C15" s="3">
         <f>D7</f>
@@ -1927,37 +1929,37 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A16" s="47">
+      <c r="A16" s="46">
         <f>D3</f>
-        <v>6.4958790713066437</v>
+        <v>4.17</v>
       </c>
       <c r="B16" s="28">
         <f>F3</f>
-        <v>4.92</v>
-      </c>
-      <c r="C16" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="28">
         <f>G3</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D16" s="46">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28">
         <f>H3</f>
-        <v>6</v>
-      </c>
-      <c r="E16" s="46">
+        <v>0.54</v>
+      </c>
+      <c r="E16" s="28">
         <f>I3</f>
-        <v>2.2000000000000002</v>
+        <v>5</v>
       </c>
       <c r="F16" s="45">
         <f>C3*E7</f>
-        <v>3.9173715677734737</v>
+        <v>3.6</v>
       </c>
       <c r="G16" s="19">
         <f>B3</f>
-        <v>5.77</v>
+        <v>4.41</v>
       </c>
       <c r="H16" s="31">
         <f>E3</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>72</v>
@@ -1999,15 +2001,15 @@
       </c>
       <c r="B17" s="30">
         <f>K3</f>
-        <v>3.94</v>
+        <v>6.6</v>
       </c>
       <c r="C17" s="30">
         <f>L3</f>
-        <v>-2.2000000000000002</v>
+        <v>14.6</v>
       </c>
       <c r="D17" s="30">
         <f>M3</f>
-        <v>3.84</v>
+        <v>-10</v>
       </c>
       <c r="E17" s="25">
         <f>T3</f>
@@ -2015,7 +2017,7 @@
       </c>
       <c r="F17" s="8">
         <f>F7</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
@@ -2024,7 +2026,7 @@
       </c>
       <c r="K17" s="6" t="str">
         <f>A3</f>
-        <v>Pt</v>
+        <v>Y</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>79</v>
@@ -2153,7 +2155,7 @@
       </c>
       <c r="K21" s="29">
         <f>B3</f>
-        <v>5.77</v>
+        <v>4.41</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>85</v>
@@ -2185,7 +2187,7 @@
       </c>
       <c r="K22" s="29">
         <f>C3</f>
-        <v>2.77</v>
+        <v>3.6</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>88</v>
@@ -2217,7 +2219,7 @@
       </c>
       <c r="K23" s="43">
         <f>D3</f>
-        <v>6.4958790713066437</v>
+        <v>4.17</v>
       </c>
       <c r="M23" s="13" t="s">
         <v>89</v>
@@ -2249,7 +2251,7 @@
       </c>
       <c r="K24" s="6">
         <f>S3</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>90</v>
@@ -2274,7 +2276,7 @@
       </c>
       <c r="K25" s="6">
         <f>R3</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>91</v>
@@ -2299,7 +2301,7 @@
       </c>
       <c r="K26" s="31">
         <f>N3</f>
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>92</v>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2426E65E-482C-47B0-A78E-920F08DB3516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E562528A-C04D-4DDB-A691-123FB2E75BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="2235" windowWidth="23550" windowHeight="9285" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="2655" yWindow="2100" windowWidth="23550" windowHeight="12225" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="178">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -697,11 +697,15 @@
     <t>1e12 [dyne/cm^2] = 1e2 [GPa]</t>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;- sqrt(8/3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dim</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -712,7 +716,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="181" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1010,9 +1014,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1064,16 +1065,19 @@
     <xf numFmtId="177" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1393,7 +1397,7 @@
   <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1484,63 +1488,63 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="34">
-        <v>4.41</v>
-      </c>
-      <c r="C3" s="34">
-        <v>3.6</v>
+        <v>177</v>
+      </c>
+      <c r="B3" s="33">
+        <v>2.5579999999999998</v>
+      </c>
+      <c r="C3" s="33">
+        <v>1.21</v>
       </c>
       <c r="D3" s="13">
-        <v>4.17</v>
+        <v>5.6</v>
       </c>
       <c r="E3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="33">
-        <v>0</v>
-      </c>
-      <c r="H3" s="33">
-        <v>0.54</v>
-      </c>
-      <c r="I3" s="33">
-        <v>5</v>
+        <v>1.36</v>
+      </c>
+      <c r="F3" s="32">
+        <v>1.0041599999999999</v>
+      </c>
+      <c r="G3" s="32">
+        <v>1.33524</v>
+      </c>
+      <c r="H3" s="32">
+        <v>1.0001</v>
+      </c>
+      <c r="I3" s="32">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="J3" s="14">
         <v>1</v>
       </c>
-      <c r="K3" s="33">
-        <v>6.6</v>
-      </c>
-      <c r="L3" s="33">
-        <v>14.6</v>
-      </c>
-      <c r="M3" s="33">
-        <v>-10</v>
-      </c>
-      <c r="N3" s="33">
-        <v>2</v>
+      <c r="K3" s="32">
+        <v>4.01</v>
+      </c>
+      <c r="L3" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="M3" s="32">
+        <v>-1E-4</v>
+      </c>
+      <c r="N3" s="32">
+        <v>0.6</v>
       </c>
       <c r="O3" s="13">
         <v>2.8</v>
       </c>
-      <c r="P3" s="44">
-        <v>4</v>
+      <c r="P3" s="43">
+        <v>4.2</v>
       </c>
       <c r="Q3" s="13">
         <v>0.1</v>
       </c>
       <c r="R3" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S3" s="18">
-        <v>0</v>
-      </c>
-      <c r="T3" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="T3" s="32">
         <v>1</v>
       </c>
     </row>
@@ -1577,23 +1581,23 @@
       </c>
       <c r="F5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>9.2572745020353739</v>
+        <v>2.3685168071486631</v>
       </c>
       <c r="G5" s="23">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>11.008816703353737</v>
+        <v>2.8166570390647174</v>
       </c>
       <c r="H5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/4)/B3)^(1/2)</f>
-        <v>6.5458815756945334</v>
+        <v>1.6747942956891297</v>
       </c>
       <c r="I5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2)</f>
-        <v>4.628637251017687</v>
+        <v>1.1842584035743315</v>
       </c>
       <c r="J5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/1)/B3)^(1/2)</f>
-        <v>13.091763151389067</v>
+        <v>3.3495885913782595</v>
       </c>
       <c r="L5" t="s">
         <v>174</v>
@@ -1632,16 +1636,16 @@
         <v>6.94</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="D7" s="13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E7" s="13">
         <v>1</v>
       </c>
       <c r="F7" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1651,7 +1655,7 @@
         <v>1.6329931618554521</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1730,7 +1734,7 @@
       </c>
       <c r="K12" s="4">
         <f>P3</f>
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>87</v>
@@ -1747,13 +1751,13 @@
       <c r="S12" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="T12" s="33">
+      <c r="T12" s="32">
         <v>0.1</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="W12" s="35">
+      <c r="W12" s="34">
         <f>T12</f>
         <v>0.1</v>
       </c>
@@ -1806,13 +1810,13 @@
       <c r="S13" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="T13" s="33">
+      <c r="T13" s="32">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V13" s="27" t="s">
+      <c r="V13" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="W13" s="36">
+      <c r="W13" s="35">
         <f>T12</f>
         <v>0.1</v>
       </c>
@@ -1847,26 +1851,26 @@
       <c r="M14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="33">
         <v>6.4</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="28">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
       <c r="S14" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="T14" s="33">
+      <c r="T14" s="32">
         <v>0.15</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W14" s="35">
+      <c r="W14" s="34">
         <f>T13</f>
         <v>1.1000000000000001</v>
       </c>
@@ -1874,15 +1878,15 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
-        <v>Y</v>
+        <v>O</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>C7</f>
-        <v>hcp</v>
+        <v>dim</v>
       </c>
       <c r="C15" s="3">
         <f>D7</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <f>A7</f>
@@ -1904,120 +1908,120 @@
       <c r="M15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="32">
         <v>2.72</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="30">
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
       <c r="S15" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="T15" s="33">
+      <c r="T15" s="32">
         <v>1.9</v>
       </c>
-      <c r="V15" s="27" t="s">
+      <c r="V15" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="W15" s="36">
+      <c r="W15" s="35">
         <f>T13</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A16" s="46">
+      <c r="A16" s="45">
         <f>D3</f>
-        <v>4.17</v>
-      </c>
-      <c r="B16" s="28">
+        <v>5.6</v>
+      </c>
+      <c r="B16" s="27">
         <f>F3</f>
-        <v>0.5</v>
-      </c>
-      <c r="C16" s="28">
+        <v>1.0041599999999999</v>
+      </c>
+      <c r="C16" s="27">
         <f>G3</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="28">
+        <v>1.33524</v>
+      </c>
+      <c r="D16" s="27">
         <f>H3</f>
-        <v>0.54</v>
-      </c>
-      <c r="E16" s="28">
+        <v>1.0001</v>
+      </c>
+      <c r="E16" s="27">
         <f>I3</f>
-        <v>5</v>
-      </c>
-      <c r="F16" s="45">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F16" s="44">
         <f>C3*E7</f>
-        <v>3.6</v>
+        <v>1.21</v>
       </c>
       <c r="G16" s="19">
         <f>B3</f>
-        <v>4.41</v>
-      </c>
-      <c r="H16" s="31">
+        <v>2.5579999999999998</v>
+      </c>
+      <c r="H16" s="30">
         <f>E3</f>
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K16" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N16" s="33">
+      <c r="N16" s="32">
         <v>5</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="S16" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="T16" s="33">
+      <c r="T16" s="32">
         <v>2.6</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="W16" s="35">
+      <c r="W16" s="34">
         <f>T14</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A17" s="42">
+      <c r="A17" s="41">
         <f>J3</f>
         <v>1</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="29">
         <f>K3</f>
-        <v>6.6</v>
-      </c>
-      <c r="C17" s="30">
+        <v>4.01</v>
+      </c>
+      <c r="C17" s="29">
         <f>L3</f>
-        <v>14.6</v>
-      </c>
-      <c r="D17" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="29">
         <f>M3</f>
-        <v>-10</v>
-      </c>
-      <c r="E17" s="25">
+        <v>-1E-4</v>
+      </c>
+      <c r="E17" s="46">
         <f>T3</f>
         <v>1</v>
       </c>
       <c r="F17" s="8">
         <f>F7</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
@@ -2026,7 +2030,7 @@
       </c>
       <c r="K17" s="6" t="str">
         <f>A3</f>
-        <v>Y</v>
+        <v>O</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>79</v>
@@ -2044,13 +2048,13 @@
       <c r="S17" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="T17" s="33">
+      <c r="T17" s="32">
         <v>1.9</v>
       </c>
-      <c r="V17" s="27" t="s">
+      <c r="V17" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="W17" s="36">
+      <c r="W17" s="35">
         <f>T14</f>
         <v>0.15</v>
       </c>
@@ -2062,10 +2066,10 @@
       <c r="K18" s="6">
         <v>0</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P18" s="5" t="s">
@@ -2078,7 +2082,7 @@
       <c r="V18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="W18" s="35">
+      <c r="W18" s="34">
         <f>T15</f>
         <v>1.9</v>
       </c>
@@ -2096,20 +2100,20 @@
       <c r="M19" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="32">
         <v>0.4</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="30">
         <f>N19</f>
         <v>0.4</v>
       </c>
-      <c r="V19" s="27" t="s">
+      <c r="V19" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="W19" s="36">
+      <c r="W19" s="35">
         <f>T15</f>
         <v>1.9</v>
       </c>
@@ -2134,14 +2138,14 @@
       <c r="P20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="30">
         <f>N20</f>
         <v>0.67</v>
       </c>
       <c r="V20" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="W20" s="35">
+      <c r="W20" s="34">
         <f>T16</f>
         <v>2.6</v>
       </c>
@@ -2153,27 +2157,27 @@
       <c r="J21" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="28">
         <f>B3</f>
-        <v>4.41</v>
+        <v>2.5579999999999998</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="32">
         <v>0.6</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21" s="34">
         <f>N21</f>
         <v>0.6</v>
       </c>
-      <c r="V21" s="27" t="s">
+      <c r="V21" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="W21" s="36">
+      <c r="W21" s="35">
         <f>T16</f>
         <v>2.6</v>
       </c>
@@ -2185,27 +2189,27 @@
       <c r="J22" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="28">
         <f>C3</f>
-        <v>3.6</v>
+        <v>1.21</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N22" s="33">
+      <c r="N22" s="32">
         <v>0.4</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="P22" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="Q22" s="36">
+      <c r="Q22" s="35">
         <f>N21</f>
         <v>0.6</v>
       </c>
       <c r="V22" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="W22" s="31">
+      <c r="W22" s="30">
         <f>T17</f>
         <v>1.9</v>
       </c>
@@ -2217,27 +2221,27 @@
       <c r="J23" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="43">
+      <c r="K23" s="42">
         <f>D3</f>
-        <v>4.17</v>
+        <v>5.6</v>
       </c>
       <c r="M23" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="33">
+      <c r="N23" s="32">
         <v>2.8</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Q23" s="35">
+      <c r="Q23" s="34">
         <f>N22</f>
         <v>0.4</v>
       </c>
-      <c r="V23" s="27" t="s">
+      <c r="V23" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="W23" s="36">
+      <c r="W23" s="35">
         <f>T17</f>
         <v>1.9</v>
       </c>
@@ -2251,18 +2255,18 @@
       </c>
       <c r="K24" s="6">
         <f>S3</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="33">
+      <c r="N24" s="32">
         <v>1.7</v>
       </c>
-      <c r="P24" s="27" t="s">
+      <c r="P24" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="Q24" s="36">
+      <c r="Q24" s="35">
         <f>N22</f>
         <v>0.4</v>
       </c>
@@ -2276,18 +2280,18 @@
       </c>
       <c r="K25" s="6">
         <f>R3</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="32">
         <v>1.9</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="Q25" s="31">
+      <c r="Q25" s="30">
         <f>N23</f>
         <v>2.8</v>
       </c>
@@ -2299,27 +2303,27 @@
       <c r="J26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="30">
         <f>N3</f>
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="33">
+      <c r="N26" s="32">
         <v>1.8</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="Q26" s="31">
+      <c r="Q26" s="30">
         <f>N24</f>
         <v>1.7</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="W26" s="40">
+      <c r="W26" s="39">
         <v>2</v>
       </c>
     </row>
@@ -2330,36 +2334,36 @@
       <c r="J27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="32">
+      <c r="K27" s="31">
         <f>O3</f>
         <v>2.8</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Q27" s="35">
+      <c r="Q27" s="34">
         <f>N25</f>
         <v>1.9</v>
       </c>
-      <c r="V27" s="27" t="s">
+      <c r="V27" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="W27" s="41">
+      <c r="W27" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="P28" s="27" t="s">
+      <c r="P28" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="Q28" s="36">
+      <c r="Q28" s="35">
         <f>N25</f>
         <v>1.9</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W28" s="40">
+      <c r="W28" s="39">
         <v>2</v>
       </c>
     </row>
@@ -2370,14 +2374,14 @@
       <c r="P29" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q29" s="35">
+      <c r="Q29" s="34">
         <f>N26</f>
         <v>1.8</v>
       </c>
-      <c r="V29" s="27" t="s">
+      <c r="V29" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="W29" s="41">
+      <c r="W29" s="40">
         <v>2</v>
       </c>
     </row>
@@ -2385,17 +2389,17 @@
       <c r="A30" t="s">
         <v>64</v>
       </c>
-      <c r="P30" s="27" t="s">
+      <c r="P30" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="Q30" s="36">
+      <c r="Q30" s="35">
         <f>N26</f>
         <v>1.8</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W30" s="40">
+      <c r="W30" s="39">
         <v>2</v>
       </c>
     </row>
@@ -2403,10 +2407,10 @@
       <c r="A31" t="s">
         <v>65</v>
       </c>
-      <c r="V31" s="27" t="s">
+      <c r="V31" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="W31" s="41">
+      <c r="W31" s="40">
         <v>2</v>
       </c>
     </row>
@@ -2417,7 +2421,7 @@
       <c r="V32" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="W32" s="40">
+      <c r="W32" s="39">
         <v>2.8</v>
       </c>
     </row>
@@ -2425,10 +2429,10 @@
       <c r="A33" t="s">
         <v>67</v>
       </c>
-      <c r="V33" s="27" t="s">
+      <c r="V33" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="W33" s="41">
+      <c r="W33" s="40">
         <v>2.8</v>
       </c>
     </row>
@@ -2439,7 +2443,7 @@
       <c r="V34" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="W34" s="40">
+      <c r="W34" s="39">
         <v>2.8</v>
       </c>
     </row>
@@ -2450,10 +2454,10 @@
       <c r="P35" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="V35" s="27" t="s">
+      <c r="V35" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="W35" s="41">
+      <c r="W35" s="40">
         <v>2.8</v>
       </c>
     </row>
@@ -2468,7 +2472,7 @@
       <c r="V36" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="W36" s="40">
+      <c r="W36" s="39">
         <v>2.8</v>
       </c>
     </row>
@@ -2485,10 +2489,10 @@
       <c r="R37" t="s">
         <v>152</v>
       </c>
-      <c r="V37" s="27" t="s">
+      <c r="V37" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="W37" s="41">
+      <c r="W37" s="40">
         <v>2.8</v>
       </c>
     </row>
@@ -2540,13 +2544,13 @@
       <c r="M40" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N40" s="34">
+      <c r="N40" s="33">
         <v>4.5830000000000002</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q40" s="29">
+      <c r="Q40" s="28">
         <f t="shared" si="1"/>
         <v>4.5830000000000002</v>
       </c>
@@ -2561,13 +2565,13 @@
       <c r="M41" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N41" s="34">
+      <c r="N41" s="33">
         <v>2.6970000000000001</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Q41" s="29">
+      <c r="Q41" s="28">
         <f t="shared" si="1"/>
         <v>2.6970000000000001</v>
       </c>
@@ -2582,13 +2586,13 @@
       <c r="M42" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N42" s="34">
+      <c r="N42" s="33">
         <v>6.8920000000000003</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="Q42" s="29">
+      <c r="Q42" s="28">
         <f t="shared" si="1"/>
         <v>6.8920000000000003</v>
       </c>
@@ -2600,13 +2604,13 @@
       <c r="M43" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="N43" s="34">
+      <c r="N43" s="33">
         <v>0</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="Q43" s="29">
+      <c r="Q43" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2618,16 +2622,16 @@
       <c r="A44" t="s">
         <v>161</v>
       </c>
-      <c r="M44" s="26" t="s">
+      <c r="M44" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="N44" s="37">
+      <c r="N44" s="36">
         <v>0</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="Q44" s="29">
+      <c r="Q44" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2642,13 +2646,13 @@
       <c r="M45" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="N45" s="34">
+      <c r="N45" s="33">
         <v>1.6519999999999999</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Q45" s="38">
+      <c r="Q45" s="37">
         <f>N45</f>
         <v>1.6519999999999999</v>
       </c>
@@ -2663,13 +2667,13 @@
       <c r="M46" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="N46" s="34">
+      <c r="N46" s="33">
         <v>1.7849999999999999</v>
       </c>
-      <c r="P46" s="27" t="s">
+      <c r="P46" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="Q46" s="39">
+      <c r="Q46" s="38">
         <f>N45</f>
         <v>1.6519999999999999</v>
       </c>
@@ -2681,13 +2685,13 @@
       <c r="M47" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="N47" s="34">
+      <c r="N47" s="33">
         <v>0.80500000000000005</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Q47" s="38">
+      <c r="Q47" s="37">
         <f>N46</f>
         <v>1.7849999999999999</v>
       </c>
@@ -2699,13 +2703,13 @@
       <c r="M48" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N48" s="34">
+      <c r="N48" s="33">
         <v>0.43099999999999999</v>
       </c>
-      <c r="P48" s="27" t="s">
+      <c r="P48" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="Q48" s="39">
+      <c r="Q48" s="38">
         <f>N47</f>
         <v>0.80500000000000005</v>
       </c>
@@ -2717,13 +2721,13 @@
       <c r="M49" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="N49" s="34">
+      <c r="N49" s="33">
         <v>1.8680000000000001</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Q49" s="38">
+      <c r="Q49" s="37">
         <f>N48</f>
         <v>0.43099999999999999</v>
       </c>
@@ -2732,13 +2736,13 @@
       <c r="M50" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="N50" s="34">
+      <c r="N50" s="33">
         <v>2.39</v>
       </c>
-      <c r="P50" s="27" t="s">
+      <c r="P50" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="Q50" s="39">
+      <c r="Q50" s="38">
         <f>N48</f>
         <v>0.43099999999999999</v>
       </c>
@@ -2750,13 +2754,13 @@
       <c r="M51" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="N51" s="34">
+      <c r="N51" s="33">
         <v>2.1459999999999999</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Q51" s="38">
+      <c r="Q51" s="37">
         <f>N49</f>
         <v>1.8680000000000001</v>
       </c>
@@ -2771,13 +2775,13 @@
       <c r="M52" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N52" s="34">
+      <c r="N52" s="33">
         <v>2.0129999999999999</v>
       </c>
-      <c r="P52" s="27" t="s">
+      <c r="P52" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="Q52" s="39">
+      <c r="Q52" s="38">
         <f>N49</f>
         <v>1.8680000000000001</v>
       </c>
@@ -2786,16 +2790,16 @@
       <c r="P53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Q53" s="38">
+      <c r="Q53" s="37">
         <f>N50</f>
         <v>2.39</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="P54" s="27" t="s">
+      <c r="P54" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="Q54" s="39">
+      <c r="Q54" s="38">
         <f>N51</f>
         <v>2.1459999999999999</v>
       </c>
@@ -2804,16 +2808,16 @@
       <c r="P55" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Q55" s="38">
+      <c r="Q55" s="37">
         <f>N52</f>
         <v>2.0129999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="P56" s="27" t="s">
+      <c r="P56" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="Q56" s="39">
+      <c r="Q56" s="38">
         <f>N52</f>
         <v>2.0129999999999999</v>
       </c>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E562528A-C04D-4DDB-A691-123FB2E75BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9C109C-11E9-4045-852E-61EC06826404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="2100" windowWidth="23550" windowHeight="12225" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="5340" yWindow="4845" windowWidth="23550" windowHeight="12225" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="182">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bcc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Note: 1 Gpa = 1e9 Pa = 1e9 J/m^3 = 1e9/(1.602e-19) eV/m^3  = 1e9/(1.602e-19)/((10^10)^3) eV/A^3 = 6.2415e-3 eV/A^3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -694,18 +690,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1e12 [dyne/cm^2] = 1e2 [GPa]</t>
-  </si>
-  <si>
     <t>&lt;- sqrt(8/3)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dim</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>O</t>
+    <t>Ec(A,B) = c(A)*Ec(A) + c(B)*Ec(B) - dEc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c(X) = concentration of X atom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d(A,B) = c(A)*d(A) + c(B)*d(B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bcc, b2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fcc, l12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: 1e12 [dyne/cm^2] = 1e2 [GPa]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note (Common values): ibar = 0 for MEAM92, ibar = 3 for 2NN-MEAM</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -938,7 +955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1078,6 +1095,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1397,7 +1420,7 @@
   <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1477,10 +1500,10 @@
         <v>15</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T2" s="16" t="s">
         <v>32</v>
@@ -1488,61 +1511,61 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B3" s="33">
-        <v>2.5579999999999998</v>
+        <v>5.47</v>
       </c>
       <c r="C3" s="33">
-        <v>1.21</v>
+        <v>2.82</v>
       </c>
       <c r="D3" s="13">
-        <v>5.6</v>
+        <v>6.23</v>
       </c>
       <c r="E3" s="13">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="F3" s="32">
-        <v>1.0041599999999999</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="G3" s="32">
-        <v>1.33524</v>
+        <v>2.74</v>
       </c>
       <c r="H3" s="32">
-        <v>1.0001</v>
+        <v>1</v>
       </c>
       <c r="I3" s="32">
-        <v>1.0000000000000001E-5</v>
+        <v>2.08</v>
       </c>
       <c r="J3" s="14">
         <v>1</v>
       </c>
       <c r="K3" s="32">
-        <v>4.01</v>
+        <v>1.76</v>
       </c>
       <c r="L3" s="32">
-        <v>0.01</v>
+        <v>-3.9</v>
       </c>
       <c r="M3" s="32">
-        <v>-1E-4</v>
+        <v>4.55</v>
       </c>
       <c r="N3" s="32">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="O3" s="13">
         <v>2.8</v>
       </c>
       <c r="P3" s="43">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="13">
         <v>0.1</v>
       </c>
       <c r="R3" s="18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="32">
         <v>1</v>
@@ -1554,53 +1577,61 @@
         <v>34</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>172</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="48"/>
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="D5" s="13">
-        <f>100*2.884</f>
-        <v>288.39999999999998</v>
+        <f>100*1.03</f>
+        <v>103</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>2.3685168071486631</v>
+        <v>5.791914815313592</v>
       </c>
       <c r="G5" s="23">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>2.8166570390647174</v>
+        <v>6.887786307860595</v>
       </c>
       <c r="H5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/4)/B3)^(1/2)</f>
-        <v>1.6747942956891297</v>
+        <v>4.0955022419630707</v>
       </c>
       <c r="I5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2)</f>
-        <v>1.1842584035743315</v>
+        <v>2.895957407656796</v>
       </c>
       <c r="J5" s="23">
         <f>(9*(D5*0.006241509)*((C3*E7)^3/1)/B3)^(1/2)</f>
-        <v>3.3495885913782595</v>
+        <v>8.1910044839261413</v>
+      </c>
+      <c r="K5" s="23">
+        <f>(9*(D5*0.006241509)*((C3*E7*2)^3/8)/B3)^(1/2)</f>
+        <v>8.1910044839261413</v>
       </c>
       <c r="L5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="6"/>
     </row>
@@ -1624,28 +1655,30 @@
         <v>29</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>40</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="L6" s="47"/>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="13">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B7" s="13">
-        <v>6.94</v>
+        <v>195.08</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="D7" s="13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E7" s="13">
-        <v>1</v>
+        <f>SQRT(2)</f>
+        <v>1.4142135623730951</v>
       </c>
       <c r="F7" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1655,7 +1688,7 @@
         <v>1.6329931618554521</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1666,21 +1699,24 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
       <c r="P10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="4" t="str">
         <f>N12</f>
@@ -1695,36 +1731,36 @@
         <v>23</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1734,28 +1770,28 @@
       </c>
       <c r="K12" s="4">
         <f>P3</f>
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="6">
         <v>1</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T12" s="32">
         <v>0.1</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W12" s="34">
         <f>T12</f>
@@ -1767,25 +1803,25 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>53</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>54</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>24</v>
@@ -1795,26 +1831,26 @@
         <v>0.1</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="6" t="str">
         <f t="shared" ref="Q13:Q18" si="0">N13</f>
         <v>b2</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T13" s="32">
         <v>1.1000000000000001</v>
       </c>
       <c r="V13" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W13" s="35">
         <f>T12</f>
@@ -1835,15 +1871,15 @@
         <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="J14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" s="6">
         <v>0</v>
@@ -1855,20 +1891,20 @@
         <v>6.4</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="28">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T14" s="32">
         <v>0.15</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W14" s="34">
         <f>T13</f>
@@ -1878,29 +1914,29 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
-        <v>O</v>
+        <v>Pt</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>C7</f>
-        <v>dim</v>
+        <v>fcc</v>
       </c>
       <c r="C15" s="3">
         <f>D7</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3">
         <f>A7</f>
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="E15" s="3">
         <f>B7</f>
-        <v>6.94</v>
+        <v>195.08</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
       <c r="J15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15" s="6">
         <v>2</v>
@@ -1912,20 +1948,20 @@
         <v>2.72</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="30">
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T15" s="32">
         <v>1.9</v>
       </c>
       <c r="V15" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W15" s="35">
         <f>T13</f>
@@ -1935,38 +1971,38 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="45">
         <f>D3</f>
-        <v>5.6</v>
+        <v>6.23</v>
       </c>
       <c r="B16" s="27">
         <f>F3</f>
-        <v>1.0041599999999999</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="C16" s="27">
         <f>G3</f>
-        <v>1.33524</v>
+        <v>2.74</v>
       </c>
       <c r="D16" s="27">
         <f>H3</f>
-        <v>1.0001</v>
+        <v>1</v>
       </c>
       <c r="E16" s="27">
         <f>I3</f>
-        <v>1.0000000000000001E-5</v>
+        <v>2.08</v>
       </c>
       <c r="F16" s="44">
         <f>C3*E7</f>
-        <v>1.21</v>
+        <v>3.9880822458921279</v>
       </c>
       <c r="G16" s="19">
         <f>B3</f>
-        <v>2.5579999999999998</v>
+        <v>5.47</v>
       </c>
       <c r="H16" s="30">
         <f>E3</f>
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K16" s="6">
         <v>0</v>
@@ -1978,20 +2014,20 @@
         <v>5</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T16" s="32">
         <v>2.6</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W16" s="34">
         <f>T14</f>
@@ -2005,15 +2041,15 @@
       </c>
       <c r="B17" s="29">
         <f>K3</f>
-        <v>4.01</v>
+        <v>1.76</v>
       </c>
       <c r="C17" s="29">
         <f>L3</f>
-        <v>0.01</v>
+        <v>-3.9</v>
       </c>
       <c r="D17" s="29">
         <f>M3</f>
-        <v>-1E-4</v>
+        <v>4.55</v>
       </c>
       <c r="E17" s="46">
         <f>T3</f>
@@ -2021,38 +2057,38 @@
       </c>
       <c r="F17" s="8">
         <f>F7</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
       <c r="J17" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K17" s="6" t="str">
         <f>A3</f>
-        <v>O</v>
+        <v>Pt</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N17" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T17" s="32">
         <v>1.9</v>
       </c>
       <c r="V17" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W17" s="35">
         <f>T14</f>
@@ -2060,27 +2096,31 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="F18">
+        <f>(3/4)*6.29 + (1/4)*4.87 - (0.04)</f>
+        <v>5.8950000000000005</v>
+      </c>
       <c r="J18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K18" s="6">
         <v>0</v>
       </c>
       <c r="M18" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N18" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W18" s="34">
         <f>T15</f>
@@ -2089,29 +2129,29 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K19" s="6">
         <v>1</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N19" s="32">
         <v>0.4</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="30">
         <f>N19</f>
         <v>0.4</v>
       </c>
       <c r="V19" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W19" s="35">
         <f>T15</f>
@@ -2120,30 +2160,29 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K20" s="6">
-        <f>T3</f>
         <v>1</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N20" s="13">
         <v>0.67</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="30">
         <f>N20</f>
         <v>0.67</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W20" s="34">
         <f>T16</f>
@@ -2152,30 +2191,30 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K21" s="28">
         <f>B3</f>
-        <v>2.5579999999999998</v>
+        <v>5.47</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N21" s="32">
         <v>0.6</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="34">
         <f>N21</f>
         <v>0.6</v>
       </c>
       <c r="V21" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W21" s="35">
         <f>T16</f>
@@ -2184,30 +2223,30 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K22" s="28">
         <f>C3</f>
-        <v>1.21</v>
+        <v>2.82</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N22" s="32">
         <v>0.4</v>
       </c>
       <c r="P22" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="35">
         <f>N21</f>
         <v>0.6</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W22" s="30">
         <f>T17</f>
@@ -2216,30 +2255,30 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K23" s="42">
         <f>D3</f>
-        <v>5.6</v>
+        <v>6.23</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N23" s="32">
         <v>2.8</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="34">
         <f>N22</f>
         <v>0.4</v>
       </c>
       <c r="V23" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W23" s="35">
         <f>T17</f>
@@ -2248,23 +2287,23 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K24" s="6">
         <f>S3</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N24" s="32">
         <v>1.7</v>
       </c>
       <c r="P24" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q24" s="35">
         <f>N22</f>
@@ -2273,30 +2312,30 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K25" s="6">
         <f>R3</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N25" s="32">
         <v>1.9</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q25" s="30">
         <f>N23</f>
         <v>2.8</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
@@ -2305,23 +2344,23 @@
       </c>
       <c r="K26" s="30">
         <f>N3</f>
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N26" s="32">
         <v>1.8</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="30">
         <f>N24</f>
         <v>1.7</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W26" s="39">
         <v>2</v>
@@ -2329,7 +2368,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>25</v>
@@ -2339,14 +2378,14 @@
         <v>2.8</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q27" s="34">
         <f>N25</f>
         <v>1.9</v>
       </c>
       <c r="V27" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W27" s="40">
         <v>2</v>
@@ -2354,14 +2393,14 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="P28" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q28" s="35">
         <f>N25</f>
         <v>1.9</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W28" s="39">
         <v>2</v>
@@ -2369,17 +2408,17 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q29" s="34">
         <f>N26</f>
         <v>1.8</v>
       </c>
       <c r="V29" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W29" s="40">
         <v>2</v>
@@ -2387,17 +2426,17 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P30" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q30" s="35">
         <f>N26</f>
         <v>1.8</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W30" s="39">
         <v>2</v>
@@ -2405,10 +2444,10 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V31" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W31" s="40">
         <v>2</v>
@@ -2416,10 +2455,10 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W32" s="39">
         <v>2.8</v>
@@ -2427,10 +2466,10 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V33" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W33" s="40">
         <v>2.8</v>
@@ -2438,10 +2477,10 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W34" s="39">
         <v>2.8</v>
@@ -2449,13 +2488,13 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V35" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W35" s="40">
         <v>2.8</v>
@@ -2463,14 +2502,14 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="P36" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q36" s="4" t="str">
         <f>N38</f>
         <v>Pd-Rh</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W36" s="39">
         <v>2.8</v>
@@ -2478,19 +2517,19 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="M37" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q37" s="6">
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V37" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W37" s="40">
         <v>2.8</v>
@@ -2498,48 +2537,48 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q38" s="6">
         <v>1</v>
       </c>
       <c r="R38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q39" s="6" t="str">
         <f t="shared" ref="Q39:Q44" si="1">N39</f>
         <v>b2</v>
       </c>
       <c r="R39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M40" s="13" t="s">
         <v>0</v>
@@ -2548,19 +2587,19 @@
         <v>4.5830000000000002</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q40" s="28">
         <f t="shared" si="1"/>
         <v>4.5830000000000002</v>
       </c>
       <c r="R40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M41" s="13" t="s">
         <v>1</v>
@@ -2569,19 +2608,19 @@
         <v>2.6970000000000001</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q41" s="28">
         <f t="shared" si="1"/>
         <v>2.6970000000000001</v>
       </c>
       <c r="R41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M42" s="13" t="s">
         <v>2</v>
@@ -2590,88 +2629,88 @@
         <v>6.8920000000000003</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q42" s="28">
         <f t="shared" si="1"/>
         <v>6.8920000000000003</v>
       </c>
       <c r="R42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="M43" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N43" s="33">
         <v>0</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M44" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N44" s="36">
         <v>0</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q44" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N45" s="33">
         <v>1.6519999999999999</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q45" s="37">
         <f>N45</f>
         <v>1.6519999999999999</v>
       </c>
       <c r="R45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N46" s="33">
         <v>1.7849999999999999</v>
       </c>
       <c r="P46" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q46" s="38">
         <f>N45</f>
@@ -2680,16 +2719,16 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N47" s="33">
         <v>0.80500000000000005</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q47" s="37">
         <f>N46</f>
@@ -2698,16 +2737,16 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N48" s="33">
         <v>0.43099999999999999</v>
       </c>
       <c r="P48" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q48" s="38">
         <f>N47</f>
@@ -2716,16 +2755,16 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N49" s="33">
         <v>1.8680000000000001</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q49" s="37">
         <f>N48</f>
@@ -2734,13 +2773,13 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="M50" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N50" s="33">
         <v>2.39</v>
       </c>
       <c r="P50" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q50" s="38">
         <f>N48</f>
@@ -2749,37 +2788,37 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N51" s="33">
         <v>2.1459999999999999</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q51" s="37">
         <f>N49</f>
         <v>1.8680000000000001</v>
       </c>
       <c r="R51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N52" s="33">
         <v>2.0129999999999999</v>
       </c>
       <c r="P52" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q52" s="38">
         <f>N49</f>
@@ -2787,8 +2826,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>175</v>
+      </c>
       <c r="P53" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q53" s="37">
         <f>N50</f>
@@ -2796,8 +2838,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>176</v>
+      </c>
       <c r="P54" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q54" s="38">
         <f>N51</f>
@@ -2805,8 +2850,11 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>174</v>
+      </c>
       <c r="P55" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q55" s="37">
         <f>N52</f>
@@ -2815,7 +2863,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="P56" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q56" s="38">
         <f>N52</f>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9C109C-11E9-4045-852E-61EC06826404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BABE7A8-ADDB-4060-AD36-6CFE7DABB468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="4845" windowWidth="23550" windowHeight="12225" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="2550" yWindow="765" windowWidth="25095" windowHeight="13860" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="281">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -83,10 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>rc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>dr</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -175,554 +172,953 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Note: 1 Gpa = 1e9 Pa = 1e9 J/m^3 = 1e9/(1.602e-19) eV/m^3  = 1e9/(1.602e-19)/((10^10)^3) eV/A^3 = 6.2415e-3 eV/A^3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c/a (for HCP)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>augt1 =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>erose_form =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rozero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ibar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ielement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atwt</t>
+  </si>
+  <si>
+    <t>b0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>esub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lat      = lattice structure of reference configuration</t>
+  </si>
+  <si>
+    <t>z        = number of nearest neighbors in the reference structure</t>
+  </si>
+  <si>
+    <t>ielement = atomic number</t>
+  </si>
+  <si>
+    <t>atwt     = atomic weight</t>
+  </si>
+  <si>
+    <t>alat     = lattice constant of reference structure</t>
+  </si>
+  <si>
+    <t>esub     = energy per atom (eV) in the reference structure at equilibrium</t>
+  </si>
+  <si>
+    <t>asub     = "A" parameter for MEAM (see e.g. (Baskes))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 =&gt; G = sqrt(1+Gamma)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 =&gt; G = exp(Gamma/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 =&gt; not implemented</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 =&gt; G = 2/(1+exp(-Gamma))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 =&gt; G = sqrt(1+Gamma)</t>
+  </si>
+  <si>
+    <t>-5 =&gt; G = +-sqrt(abs(1+Gamma))</t>
+  </si>
+  <si>
+    <t>The ibar parameter selects the form of the function G(Gamma) used to compute the electron density; options are</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The rozero parameter is an element-dependent density scaling that weights the reference background density (see e.g. equation 4.5 in (Gullet)) and is typically 1.0 for single-element systems.</t>
+  </si>
+  <si>
+    <t>ialloy =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zbl(1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nn2(1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrac(1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>repuls(1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d(repuls)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d(attrac)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hf-Ni</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(i-i-j)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(j-j-i)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(i-j-i)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A-A-B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i-j</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(j-i-j)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(i-i-j)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(j-j-i)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(i-j-i)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(j-i-j)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>output: ij.meam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zbl(1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nn2(1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ec(1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>re(1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha(1,2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lattce(1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d(replus)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">attrac(1,2) = </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>repuls(1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rho0(1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(1,1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(2,2,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(1,2,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(2,1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(1,1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(2,2,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(1,2,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(2,1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input (i-j)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input (i-j-k)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(i-j-k)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(i-k-j)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(j-i-k)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(2,1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(1,2,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(2,1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(1,2,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(i-k-j)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(j-i-k)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>output: ijk.meam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(1,2,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(3,2,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(1,3,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(2,3,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(2,1,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(3,1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(1,2,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(3,2,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(1,3,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(2,3,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(2,1,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(3,1,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reference: default value (Just to be safe, here it is.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input (A-B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pd-Rh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A-B-A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(B-B-A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A-B-B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(A-A-B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(A-B-A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(B-B-A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(A-B-B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cohesive energy of reference structure for I-J mixture</t>
+  </si>
+  <si>
+    <t>equilibrium distance between I and J in the reference structure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default = 0, additional cubic attraction term in Rose energy I-J pair potential</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default = 0, additional cubic repulsive term in Rose energy I-J pair potential</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default = 2.0, Cmin screening parameter when I-J pair is screened by K (I&lt;=J)</t>
+  </si>
+  <si>
+    <t>default = 2.8, Cmax screening parameter when I-J pair is screened by K (I&lt;=J)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default = 1, blend the MEAM I-J pair potential with the ZBL potential for small atom separations </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default = 0, 0: 1NN MEAM, 1: 2NN MEAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lattice structure of reference configuration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha parameter for pair potential between I and J (can be computed from bulk modulus of reference structure)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rc          = cutoff radius for cutoff function; default = 4.0</t>
+  </si>
+  <si>
+    <t>delr        = length of smoothing distance for cutoff function; default = 0.1</t>
+  </si>
+  <si>
+    <t>augt1           = integer flag for whether to augment t1 parameter by 3/5*t3 to account for old vs. new meam formulations; 0 = don't augment t1, 1 = augment t1, default = 1</t>
+  </si>
+  <si>
+    <t>erose_form      = integer value to select the form of the Rose energy function (see description below). default = 0</t>
+  </si>
+  <si>
+    <t>ialloy          = integer flag to use alternative averaging rule for t parameters, for comparison with the DYNAMO MEAM code; 0 = standard averaging (matches ialloy=0 in DYNAMO), 1 = alternative averaging (matches ialloy=1 in DYNAMO), 2 = no averaging of t (use single-element values), default = 0</t>
+  </si>
+  <si>
+    <t>astar = alpha * (r/re - 1.d0)</t>
+  </si>
+  <si>
+    <t>if erose_form = 0: erose = -Ec*(1+astar+a3*(astar**3)/(r/re))*exp(-astar)</t>
+  </si>
+  <si>
+    <t>if erose_form = 1: erose = -Ec*(1+astar+(-attrac+repuls/r)*(astar**3))*exp(-astar)</t>
+  </si>
+  <si>
+    <t>if erose_form = 2: erose = -Ec*(1 +astar + a3*(astar**3))*exp(-astar)</t>
+  </si>
+  <si>
+    <t>a3 = repuls, astar &lt; 0</t>
+  </si>
+  <si>
+    <t>a3 = attrac, astar &gt;= 0</t>
+  </si>
+  <si>
+    <t>Note: In some papers, the "attrac" of A-B is the average of the d values ​​of A and B.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: In some papers, the "repuls" of A-B is the average of the d values ​​of A and B.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ec(1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>re(1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha(1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- sqrt(8/3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ec(A,B) = c(A)*Ec(A) + c(B)*Ec(B) - dEc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c(X) = concentration of X atom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d(A,B) = c(A)*d(A) + c(B)*d(B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bcc, b2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fcc, l12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: 1e12 [dyne/cm^2] = 1e2 [GPa]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>fcc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Note: 1 Gpa = 1e9 Pa = 1e9 J/m^3 = 1e9/(1.602e-19) eV/m^3  = 1e9/(1.602e-19)/((10^10)^3) eV/A^3 = 6.2415e-3 eV/A^3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c/a (for HCP)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>augt1 =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>erose_form =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rozero</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ibar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>elt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ielement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>atwt</t>
-  </si>
-  <si>
-    <t>b0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>alat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>esub</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>asub</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lat      = lattice structure of reference configuration</t>
-  </si>
-  <si>
-    <t>z        = number of nearest neighbors in the reference structure</t>
-  </si>
-  <si>
-    <t>ielement = atomic number</t>
-  </si>
-  <si>
-    <t>atwt     = atomic weight</t>
-  </si>
-  <si>
-    <t>alat     = lattice constant of reference structure</t>
-  </si>
-  <si>
-    <t>esub     = energy per atom (eV) in the reference structure at equilibrium</t>
-  </si>
-  <si>
-    <t>asub     = "A" parameter for MEAM (see e.g. (Baskes))</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0 =&gt; G = sqrt(1+Gamma)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 =&gt; G = exp(Gamma/2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2 =&gt; not implemented</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3 =&gt; G = 2/(1+exp(-Gamma))</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4 =&gt; G = sqrt(1+Gamma)</t>
-  </si>
-  <si>
-    <t>-5 =&gt; G = +-sqrt(abs(1+Gamma))</t>
-  </si>
-  <si>
-    <t>The ibar parameter selects the form of the function G(Gamma) used to compute the electron density; options are</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The rozero parameter is an element-dependent density scaling that weights the reference background density (see e.g. equation 4.5 in (Gullet)) and is typically 1.0 for single-element systems.</t>
-  </si>
-  <si>
-    <t>ialloy =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>zbl(1,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nn2(1,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attrac(1,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>repuls(1,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d(repuls)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d(attrac)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hf-Ni</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(i-i-j)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>structure</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A-B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(j-j-i)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(i-j-i)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(A-A-B)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>i-j</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(j-i-j)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(i-i-j)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(j-j-i)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(i-j-i)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(j-i-j)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>output: ij.meam</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>zbl(1,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nn2(1,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ec(1,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>re(1,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>alpha(1,2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lattce(1,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d(replus)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">attrac(1,2) = </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>repuls(1,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rho0(1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(1,1,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(2,2,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(1,2,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(2,1,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(1,1,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(2,2,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(1,2,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(2,1,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>input (i-j)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>input (i-j-k)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(i-j-k)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(i-k-j)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(j-i-k)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(2,1,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(1,2,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(2,1,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(1,2,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(i-k-j)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(j-i-k)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>output: ijk.meam</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(1,2,3) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(3,2,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(1,3,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(2,3,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(2,1,3) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(3,1,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(1,2,3) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(3,2,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(1,3,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(2,3,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(2,1,3) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(3,1,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>reference: default value (Just to be safe, here it is.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>input (A-B)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pd-Rh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(A-B-A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(B-B-A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(A-B-B)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(A-A-B)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(A-B-A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(B-B-A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(A-B-B)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cohesive energy of reference structure for I-J mixture</t>
-  </si>
-  <si>
-    <t>equilibrium distance between I and J in the reference structure</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>default = 0, additional cubic attraction term in Rose energy I-J pair potential</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>default = 0, additional cubic repulsive term in Rose energy I-J pair potential</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>default = 2.0, Cmin screening parameter when I-J pair is screened by K (I&lt;=J)</t>
-  </si>
-  <si>
-    <t>default = 2.8, Cmax screening parameter when I-J pair is screened by K (I&lt;=J)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default = 1, blend the MEAM I-J pair potential with the ZBL potential for small atom separations </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>default = 0, 0: 1NN MEAM, 1: 2NN MEAM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lattice structure of reference configuration</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>alpha parameter for pair potential between I and J (can be computed from bulk modulus of reference structure)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rc          = cutoff radius for cutoff function; default = 4.0</t>
-  </si>
-  <si>
-    <t>delr        = length of smoothing distance for cutoff function; default = 0.1</t>
-  </si>
-  <si>
-    <t>augt1           = integer flag for whether to augment t1 parameter by 3/5*t3 to account for old vs. new meam formulations; 0 = don't augment t1, 1 = augment t1, default = 1</t>
-  </si>
-  <si>
-    <t>erose_form      = integer value to select the form of the Rose energy function (see description below). default = 0</t>
-  </si>
-  <si>
-    <t>ialloy          = integer flag to use alternative averaging rule for t parameters, for comparison with the DYNAMO MEAM code; 0 = standard averaging (matches ialloy=0 in DYNAMO), 1 = alternative averaging (matches ialloy=1 in DYNAMO), 2 = no averaging of t (use single-element values), default = 0</t>
-  </si>
-  <si>
-    <t>astar = alpha * (r/re - 1.d0)</t>
-  </si>
-  <si>
-    <t>if erose_form = 0: erose = -Ec*(1+astar+a3*(astar**3)/(r/re))*exp(-astar)</t>
-  </si>
-  <si>
-    <t>if erose_form = 1: erose = -Ec*(1+astar+(-attrac+repuls/r)*(astar**3))*exp(-astar)</t>
-  </si>
-  <si>
-    <t>if erose_form = 2: erose = -Ec*(1 +astar + a3*(astar**3))*exp(-astar)</t>
-  </si>
-  <si>
-    <t>a3 = repuls, astar &lt; 0</t>
-  </si>
-  <si>
-    <t>a3 = attrac, astar &gt;= 0</t>
-  </si>
-  <si>
-    <t>Note: In some papers, the "attrac" of A-B is the average of the d values ​​of A and B.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Note: In some papers, the "repuls" of A-B is the average of the d values ​​of A and B.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ec(1,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>re(1,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>alpha(1,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Note: bcc (Z=8, f=2/SQRT(3)), hcp (Z=12, f=1), fcc (Z=12, f=sqrt(2)), dia (Z=4, f=4/SQRT(3)), dim (Z=1, f=1), sc (Z=6, f=1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;- sqrt(8/3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ec(A,B) = c(A)*Ec(A) + c(B)*Ec(B) - dEc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c(X) = concentration of X atom</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d(A,B) = c(A)*d(A) + c(B)*d(B)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bcc, b2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fcc, l12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Note: 1e12 [dyne/cm^2] = 1e2 [GPa]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Note (Common values): ibar = 0 for MEAM92, ibar = 3 for 2NN-MEAM</t>
+  </si>
+  <si>
+    <t>Note: fcc (Z=12, f=sqrt(2)), bcc (Z=8, f=2/SQRT(3)), hcp (Z=12, f=1), dim (Z=1, f=1), dia (Z=4, f=4/SQRT(3)), sc (Z=6, f=1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>He</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Li</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Be</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ne</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Al</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Si</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ca</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Co</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ni</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>As</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Se</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Br</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ru</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Te</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ba</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>La</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ho</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Er</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Re</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Os</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ir</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Au</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Po</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>At</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ac</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Th</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Np</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check -&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ec [eV]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>re [A]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B [eV/A^3]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rc [A]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ibar = 0 for MEAM92</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ibar = 3 for 2NN-MEAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: if t3 &lt; 0, then c/a &lt;= sqrt(8/3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: augt1 = 1 and ialloy = 0 for MEAM92 (1NN-MEAM),  augt1 = 0 and ialloy = 2 for 2NN-MEAM</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -752,7 +1148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,6 +1188,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,7 +1363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,15 +1430,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1100,7 +1499,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1420,7 +1831,7 @@
   <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1435,27 +1846,30 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>279</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>2</v>
@@ -1494,68 +1908,69 @@
         <v>12</v>
       </c>
       <c r="P2" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="R2" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="33">
-        <v>5.47</v>
-      </c>
-      <c r="C3" s="33">
-        <v>2.82</v>
+        <v>185</v>
+      </c>
+      <c r="B3" s="30">
+        <v>5.8140000000000001</v>
+      </c>
+      <c r="C3" s="30">
+        <v>2.052</v>
       </c>
       <c r="D3" s="13">
-        <v>6.23</v>
+        <f>F5</f>
+        <v>3.9416678017946567</v>
       </c>
       <c r="E3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="32">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="G3" s="32">
-        <v>2.74</v>
-      </c>
-      <c r="H3" s="32">
-        <v>1</v>
-      </c>
-      <c r="I3" s="32">
-        <v>2.08</v>
+        <v>1.49</v>
+      </c>
+      <c r="F3" s="29">
+        <v>4.26</v>
+      </c>
+      <c r="G3" s="29">
+        <v>5</v>
+      </c>
+      <c r="H3" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="I3" s="29">
+        <v>3.98</v>
       </c>
       <c r="J3" s="14">
         <v>1</v>
       </c>
-      <c r="K3" s="32">
-        <v>1.76</v>
-      </c>
-      <c r="L3" s="32">
-        <v>-3.9</v>
-      </c>
-      <c r="M3" s="32">
-        <v>4.55</v>
-      </c>
-      <c r="N3" s="32">
+      <c r="K3" s="29">
+        <v>7.5</v>
+      </c>
+      <c r="L3" s="29">
+        <v>1.04</v>
+      </c>
+      <c r="M3" s="29">
+        <v>-1.01</v>
+      </c>
+      <c r="N3" s="29">
         <v>2</v>
       </c>
       <c r="O3" s="13">
         <v>2.8</v>
       </c>
-      <c r="P3" s="43">
+      <c r="P3" s="40">
         <v>4</v>
       </c>
       <c r="Q3" s="13">
@@ -1567,120 +1982,156 @@
       <c r="S3" s="18">
         <v>0</v>
       </c>
-      <c r="T3" s="32">
+      <c r="T3" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="14" t="str">
+        <f>C7</f>
+        <v>fcc</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="13">
+        <f>100*2.632</f>
+        <v>263.2</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="23" t="s">
+      <c r="F5" s="14">
+        <f>IF(OR(C7="fcc", C7="l12"), (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(OR(C7="bcc", C7="b2"), (9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2), IF(C7="hcp", (9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2), IF(C7="dim", "", IF(C7="dia", (9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2), IF(C7="b1", (9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2), IF(C7="sc", (9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2), "")))))))</f>
+        <v>3.9416678017946567</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" s="45">
+        <f>(9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2)</f>
+        <v>3.9416678017946567</v>
+      </c>
+      <c r="I5" s="45">
+        <f>(9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2)</f>
+        <v>4.1126956642401256</v>
+      </c>
+      <c r="J5" s="45">
+        <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2)</f>
+        <v>3.9416678017946558</v>
+      </c>
+      <c r="K5" s="45">
+        <f>(9*(D5*0.006241509)*((C3*4/SQRT(3))^3/8)/B3)^(1/2)</f>
+        <v>5.8162299862814102</v>
+      </c>
+      <c r="L5" s="45">
+        <f>(9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2)</f>
+        <v>4.6874593948713406</v>
+      </c>
+      <c r="M5" s="45">
+        <f>(9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2)</f>
+        <v>4.6874593948713406</v>
+      </c>
+      <c r="N5" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="48"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A5" s="5"/>
-      <c r="D5" s="13">
-        <f>100*1.03</f>
-        <v>103</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="23">
-        <f>(9*(D5*0.006241509)*((C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>5.791914815313592</v>
-      </c>
-      <c r="G5" s="23">
-        <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3*E7)^3/2)/B3)^(1/2)</f>
-        <v>6.887786307860595</v>
-      </c>
-      <c r="H5" s="23">
-        <f>(9*(D5*0.006241509)*((C3*E7)^3/4)/B3)^(1/2)</f>
-        <v>4.0955022419630707</v>
-      </c>
-      <c r="I5" s="23">
-        <f>(9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2)</f>
-        <v>2.895957407656796</v>
-      </c>
-      <c r="J5" s="23">
-        <f>(9*(D5*0.006241509)*((C3*E7)^3/1)/B3)^(1/2)</f>
-        <v>8.1910044839261413</v>
-      </c>
-      <c r="K5" s="23">
-        <f>(9*(D5*0.006241509)*((C3*E7*2)^3/8)/B3)^(1/2)</f>
-        <v>8.1910044839261413</v>
-      </c>
-      <c r="L5" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="G6" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="47"/>
+        <v>37</v>
+      </c>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="13">
-        <v>78</v>
+        <f>IFERROR(VLOOKUP(A3, data!A:C, 2, FALSE), "")</f>
+        <v>6</v>
       </c>
       <c r="B7" s="13">
-        <v>195.08</v>
+        <f>IFERROR(VLOOKUP(A3, data!A:C, 3, FALSE), "")</f>
+        <v>12.010999999999999</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="13">
+        <v>186</v>
+      </c>
+      <c r="D7" s="14">
+        <f>IF(C7="fcc", 12, IF(C7="bcc", 8, IF(C7="hcp", 12, IF(C7="dim", 1, IF(C7="dia", 4, IF(C7="sc", 6, ""))))))</f>
         <v>12</v>
       </c>
-      <c r="E7" s="13">
-        <f>SQRT(2)</f>
+      <c r="E7" s="14">
+        <f>IF(C7="fcc", SQRT(2), IF(C7="bcc", 2/SQRT(3), IF(C7="hcp", 1, IF(C7="dim", 1, IF(C7="dia", 4/SQRT(3), IF(C7="sc", 1, ""))))))</f>
         <v>1.4142135623730951</v>
       </c>
       <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>278</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="13">
@@ -1688,7 +2139,7 @@
         <v>1.6329931618554521</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1699,24 +2150,21 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>181</v>
-      </c>
       <c r="P10" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="4" t="str">
         <f>N12</f>
@@ -1725,75 +2173,75 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="M11" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
       <c r="J12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" s="4">
         <f>P3</f>
         <v>4</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="6">
         <v>1</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="T12" s="32">
+        <v>111</v>
+      </c>
+      <c r="T12" s="29">
         <v>0.1</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W12" s="34">
+        <v>121</v>
+      </c>
+      <c r="W12" s="31">
         <f>T12</f>
         <v>0.1</v>
       </c>
@@ -1803,56 +2251,56 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>51</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>52</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="J13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="6">
         <f>Q3</f>
         <v>0.1</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="6" t="str">
         <f t="shared" ref="Q13:Q18" si="0">N13</f>
         <v>b2</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="T13" s="32">
+        <v>112</v>
+      </c>
+      <c r="T13" s="29">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V13" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="W13" s="35">
+      <c r="V13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="W13" s="32">
         <f>T12</f>
         <v>0.1</v>
       </c>
@@ -1871,15 +2319,15 @@
         <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="J14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K14" s="6">
         <v>0</v>
@@ -1887,26 +2335,26 @@
       <c r="M14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="30">
         <v>6.4</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="28">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="25">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="T14" s="32">
+        <v>113</v>
+      </c>
+      <c r="T14" s="29">
         <v>0.15</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="W14" s="34">
+        <v>123</v>
+      </c>
+      <c r="W14" s="31">
         <f>T13</f>
         <v>1.1000000000000001</v>
       </c>
@@ -1914,7 +2362,7 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
-        <v>Pt</v>
+        <v>C</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>C7</f>
@@ -1926,17 +2374,17 @@
       </c>
       <c r="D15" s="3">
         <f>A7</f>
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
         <f>B7</f>
-        <v>195.08</v>
+        <v>12.010999999999999</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
       <c r="J15" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K15" s="6">
         <v>2</v>
@@ -1944,930 +2392,1981 @@
       <c r="M15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="32">
+      <c r="N15" s="29">
         <v>2.72</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q15" s="30">
+        <v>94</v>
+      </c>
+      <c r="Q15" s="27">
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="T15" s="32">
+        <v>86</v>
+      </c>
+      <c r="T15" s="29">
         <v>1.9</v>
       </c>
-      <c r="V15" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="W15" s="35">
+      <c r="V15" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="W15" s="32">
         <f>T13</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A16" s="45">
+      <c r="A16" s="42">
         <f>D3</f>
-        <v>6.23</v>
-      </c>
-      <c r="B16" s="27">
+        <v>3.9416678017946567</v>
+      </c>
+      <c r="B16" s="24">
         <f>F3</f>
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="C16" s="27">
+        <v>4.26</v>
+      </c>
+      <c r="C16" s="24">
         <f>G3</f>
-        <v>2.74</v>
-      </c>
-      <c r="D16" s="27">
+        <v>5</v>
+      </c>
+      <c r="D16" s="24">
         <f>H3</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="27">
+        <v>3.2</v>
+      </c>
+      <c r="E16" s="24">
         <f>I3</f>
-        <v>2.08</v>
-      </c>
-      <c r="F16" s="44">
+        <v>3.98</v>
+      </c>
+      <c r="F16" s="41">
         <f>C3*E7</f>
-        <v>3.9880822458921279</v>
+        <v>2.9019662299895912</v>
       </c>
       <c r="G16" s="19">
         <f>B3</f>
-        <v>5.47</v>
-      </c>
-      <c r="H16" s="30">
+        <v>5.8140000000000001</v>
+      </c>
+      <c r="H16" s="27">
         <f>E3</f>
-        <v>1</v>
+        <v>1.49</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K16" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N16" s="32">
+      <c r="N16" s="29">
         <v>5</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q16" s="30">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="T16" s="32">
+        <v>118</v>
+      </c>
+      <c r="T16" s="29">
         <v>2.6</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="W16" s="34">
+        <v>125</v>
+      </c>
+      <c r="W16" s="31">
         <f>T14</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A17" s="41">
+      <c r="A17" s="38">
         <f>J3</f>
         <v>1</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="26">
         <f>K3</f>
-        <v>1.76</v>
-      </c>
-      <c r="C17" s="29">
+        <v>7.5</v>
+      </c>
+      <c r="C17" s="26">
         <f>L3</f>
-        <v>-3.9</v>
-      </c>
-      <c r="D17" s="29">
+        <v>1.04</v>
+      </c>
+      <c r="D17" s="26">
         <f>M3</f>
-        <v>4.55</v>
-      </c>
-      <c r="E17" s="46">
+        <v>-1.01</v>
+      </c>
+      <c r="E17" s="43">
         <f>T3</f>
         <v>1</v>
       </c>
       <c r="F17" s="8">
         <f>F7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
       <c r="J17" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K17" s="6" t="str">
         <f>A3</f>
-        <v>Pt</v>
+        <v>C</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N17" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="T17" s="32">
+        <v>119</v>
+      </c>
+      <c r="T17" s="29">
         <v>1.9</v>
       </c>
-      <c r="V17" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="W17" s="35">
+      <c r="V17" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="W17" s="32">
         <f>T14</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="F18">
-        <f>(3/4)*6.29 + (1/4)*4.87 - (0.04)</f>
-        <v>5.8950000000000005</v>
-      </c>
       <c r="J18" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K18" s="6">
         <v>0</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="M18" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18" s="22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="N18" s="25">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="W18" s="34">
+        <v>127</v>
+      </c>
+      <c r="W18" s="31">
         <f>T15</f>
         <v>1.9</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K19" s="6">
         <v>1</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" s="32">
+        <v>78</v>
+      </c>
+      <c r="N19" s="29">
         <v>0.4</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q19" s="30">
+        <v>101</v>
+      </c>
+      <c r="Q19" s="27">
         <f>N19</f>
         <v>0.4</v>
       </c>
-      <c r="V19" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="W19" s="35">
+      <c r="V19" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="W19" s="32">
         <f>T15</f>
         <v>1.9</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K20" s="6">
         <v>1</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N20" s="13">
         <v>0.67</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q20" s="30">
+        <v>102</v>
+      </c>
+      <c r="Q20" s="27">
         <f>N20</f>
         <v>0.67</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="W20" s="34">
+        <v>129</v>
+      </c>
+      <c r="W20" s="31">
         <f>T16</f>
         <v>2.6</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="K21" s="28">
+        <v>166</v>
+      </c>
+      <c r="K21" s="25">
         <f>B3</f>
-        <v>5.47</v>
+        <v>5.8140000000000001</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="N21" s="32">
+        <v>82</v>
+      </c>
+      <c r="N21" s="29">
         <v>0.6</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q21" s="34">
+        <v>103</v>
+      </c>
+      <c r="Q21" s="31">
         <f>N21</f>
         <v>0.6</v>
       </c>
-      <c r="V21" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="W21" s="35">
+      <c r="V21" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="W21" s="32">
         <f>T16</f>
         <v>2.6</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="K22" s="28">
+        <v>167</v>
+      </c>
+      <c r="K22" s="25">
         <f>C3</f>
-        <v>2.82</v>
+        <v>2.052</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="N22" s="32">
+        <v>85</v>
+      </c>
+      <c r="N22" s="29">
         <v>0.4</v>
       </c>
-      <c r="P22" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q22" s="35">
+      <c r="P22" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q22" s="32">
         <f>N21</f>
         <v>0.6</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="W22" s="30">
+        <v>131</v>
+      </c>
+      <c r="W22" s="27">
         <f>T17</f>
         <v>1.9</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="K23" s="42">
+        <v>168</v>
+      </c>
+      <c r="K23" s="39">
         <f>D3</f>
-        <v>6.23</v>
+        <v>3.9416678017946567</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="N23" s="32">
+        <v>86</v>
+      </c>
+      <c r="N23" s="29">
         <v>2.8</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q23" s="34">
+        <v>104</v>
+      </c>
+      <c r="Q23" s="31">
         <f>N22</f>
         <v>0.4</v>
       </c>
-      <c r="V23" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="W23" s="35">
+      <c r="V23" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="W23" s="32">
         <f>T17</f>
         <v>1.9</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K24" s="6">
         <f>S3</f>
         <v>0</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="N24" s="32">
+        <v>87</v>
+      </c>
+      <c r="N24" s="29">
         <v>1.7</v>
       </c>
-      <c r="P24" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q24" s="35">
+      <c r="P24" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q24" s="32">
         <f>N22</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K25" s="6">
         <f>R3</f>
         <v>0</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="N25" s="32">
+        <v>88</v>
+      </c>
+      <c r="N25" s="29">
         <v>1.9</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q25" s="30">
+        <v>105</v>
+      </c>
+      <c r="Q25" s="27">
         <f>N23</f>
         <v>2.8</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="J26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" s="30">
+        <v>25</v>
+      </c>
+      <c r="K26" s="27">
         <f>N3</f>
         <v>2</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N26" s="32">
+        <v>89</v>
+      </c>
+      <c r="N26" s="29">
         <v>1.8</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q26" s="30">
+        <v>106</v>
+      </c>
+      <c r="Q26" s="27">
         <f>N24</f>
         <v>1.7</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W26" s="39">
+        <v>121</v>
+      </c>
+      <c r="W26" s="36">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="31">
+        <v>24</v>
+      </c>
+      <c r="K27" s="28">
         <f>O3</f>
         <v>2.8</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q27" s="34">
+        <v>107</v>
+      </c>
+      <c r="Q27" s="31">
         <f>N25</f>
         <v>1.9</v>
       </c>
-      <c r="V27" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="W27" s="40">
+      <c r="V27" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="W27" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="P28" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q28" s="35">
+      <c r="P28" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" s="32">
         <f>N25</f>
         <v>1.9</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="W28" s="39">
+        <v>123</v>
+      </c>
+      <c r="W28" s="36">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q29" s="34">
+        <v>108</v>
+      </c>
+      <c r="Q29" s="31">
         <f>N26</f>
         <v>1.8</v>
       </c>
-      <c r="V29" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="W29" s="40">
+      <c r="V29" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="W29" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="P30" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q30" s="35">
+        <v>61</v>
+      </c>
+      <c r="P30" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q30" s="32">
         <f>N26</f>
         <v>1.8</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="W30" s="39">
+        <v>124</v>
+      </c>
+      <c r="W30" s="36">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="V31" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="W31" s="40">
+        <v>62</v>
+      </c>
+      <c r="V31" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="W31" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="W32" s="39">
+        <v>127</v>
+      </c>
+      <c r="W32" s="36">
         <v>2.8</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>66</v>
-      </c>
-      <c r="V33" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="W33" s="40">
+        <v>64</v>
+      </c>
+      <c r="V33" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="W33" s="37">
         <v>2.8</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="W34" s="39">
+        <v>129</v>
+      </c>
+      <c r="W34" s="36">
         <v>2.8</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="V35" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="W35" s="40">
+        <v>90</v>
+      </c>
+      <c r="V35" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="W35" s="37">
         <v>2.8</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="P36" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q36" s="4" t="str">
         <f>N38</f>
         <v>Pd-Rh</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="W36" s="39">
+        <v>130</v>
+      </c>
+      <c r="W36" s="36">
         <v>2.8</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="M37" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q37" s="6">
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>151</v>
-      </c>
-      <c r="V37" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="W37" s="40">
+        <v>149</v>
+      </c>
+      <c r="V37" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="W37" s="37">
         <v>2.8</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q38" s="6">
         <v>1</v>
       </c>
       <c r="R38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q39" s="6" t="str">
         <f t="shared" ref="Q39:Q44" si="1">N39</f>
         <v>b2</v>
       </c>
       <c r="R39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M40" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N40" s="33">
+      <c r="N40" s="30">
         <v>4.5830000000000002</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q40" s="28">
+        <v>93</v>
+      </c>
+      <c r="Q40" s="25">
         <f t="shared" si="1"/>
         <v>4.5830000000000002</v>
       </c>
       <c r="R40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M41" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N41" s="33">
+      <c r="N41" s="30">
         <v>2.6970000000000001</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q41" s="28">
+        <v>94</v>
+      </c>
+      <c r="Q41" s="25">
         <f t="shared" si="1"/>
         <v>2.6970000000000001</v>
       </c>
       <c r="R41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M42" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N42" s="33">
+      <c r="N42" s="30">
         <v>6.8920000000000003</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q42" s="28">
+        <v>95</v>
+      </c>
+      <c r="Q42" s="25">
         <f t="shared" si="1"/>
         <v>6.8920000000000003</v>
       </c>
       <c r="R42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="M43" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="N43" s="33">
+        <v>76</v>
+      </c>
+      <c r="N43" s="30">
         <v>0</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q43" s="28">
+        <v>98</v>
+      </c>
+      <c r="Q43" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>160</v>
-      </c>
-      <c r="M44" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="M44" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="N44" s="33">
+        <v>0</v>
+      </c>
+      <c r="P44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N44" s="36">
-        <v>0</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q44" s="28">
+      <c r="Q44" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="N45" s="33">
+        <v>136</v>
+      </c>
+      <c r="N45" s="30">
         <v>1.6519999999999999</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q45" s="37">
+        <v>103</v>
+      </c>
+      <c r="Q45" s="34">
         <f>N45</f>
         <v>1.6519999999999999</v>
       </c>
       <c r="R45" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="N46" s="33">
+        <v>137</v>
+      </c>
+      <c r="N46" s="30">
         <v>1.7849999999999999</v>
       </c>
-      <c r="P46" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q46" s="38">
+      <c r="P46" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q46" s="35">
         <f>N45</f>
         <v>1.6519999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="N47" s="33">
+        <v>83</v>
+      </c>
+      <c r="N47" s="30">
         <v>0.80500000000000005</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q47" s="37">
+        <v>102</v>
+      </c>
+      <c r="Q47" s="34">
         <f>N46</f>
         <v>1.7849999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="N48" s="33">
+        <v>138</v>
+      </c>
+      <c r="N48" s="30">
         <v>0.43099999999999999</v>
       </c>
-      <c r="P48" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q48" s="38">
+      <c r="P48" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q48" s="35">
         <f>N47</f>
         <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="N49" s="33">
+        <v>140</v>
+      </c>
+      <c r="N49" s="30">
         <v>1.8680000000000001</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q49" s="37">
+        <v>115</v>
+      </c>
+      <c r="Q49" s="34">
         <f>N48</f>
         <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="M50" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N50" s="33">
+        <v>141</v>
+      </c>
+      <c r="N50" s="30">
         <v>2.39</v>
       </c>
-      <c r="P50" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q50" s="38">
+      <c r="P50" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q50" s="35">
         <f>N48</f>
         <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="N51" s="33">
+        <v>139</v>
+      </c>
+      <c r="N51" s="30">
         <v>2.1459999999999999</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q51" s="37">
+        <v>107</v>
+      </c>
+      <c r="Q51" s="34">
         <f>N49</f>
         <v>1.8680000000000001</v>
       </c>
       <c r="R51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="N52" s="33">
+        <v>142</v>
+      </c>
+      <c r="N52" s="30">
         <v>2.0129999999999999</v>
       </c>
-      <c r="P52" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q52" s="38">
+      <c r="P52" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q52" s="35">
         <f>N49</f>
         <v>1.8680000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q53" s="37">
+        <v>106</v>
+      </c>
+      <c r="Q53" s="34">
         <f>N50</f>
         <v>2.39</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>176</v>
-      </c>
-      <c r="P54" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q54" s="38">
+        <v>173</v>
+      </c>
+      <c r="P54" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q54" s="35">
         <f>N51</f>
         <v>2.1459999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q55" s="37">
+        <v>117</v>
+      </c>
+      <c r="Q55" s="34">
         <f>N52</f>
         <v>2.0129999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="P56" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q56" s="38">
+      <c r="P56" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q56" s="35">
         <f>N52</f>
         <v>2.0129999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{57A4E5F9-7D81-457B-9242-85E08361FD36}">
+      <formula1>"fcc,bcc,hcp,dim,dia,dia3,b1,c11,l12,b2,ch4,lin,zig,tri,sc"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20582694-D983-4948-B087-8A1773639C00}">
+  <dimension ref="A1:C94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>4.0026000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>9.0122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>12.010999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>14.007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>15.999000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>18.998000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>24.305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>26.981999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>28.085000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>30.974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>32.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>35.450000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>39.948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>39.097999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>40.078000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>44.956000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>47.866999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>50.942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>51.996000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>54.938000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>55.844999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>58.933</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>58.692999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>63.545999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>65.38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>69.722999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>72.63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>74.921999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>78.971000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>79.903999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>83.798000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>85.468000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>87.62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>88.906000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>91.224000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>92.906000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>95.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>101.07</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>102.91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>106.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>107.87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>112.41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>114.82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>118.71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>127.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>126.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+      <c r="C54">
+        <v>131.29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>233</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>132.91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>137.33000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>236</v>
+      </c>
+      <c r="B57">
+        <v>57</v>
+      </c>
+      <c r="C57">
+        <v>138.91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58">
+        <v>58</v>
+      </c>
+      <c r="C58">
+        <v>140.12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59">
+        <v>59</v>
+      </c>
+      <c r="C59">
+        <v>140.91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>239</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <v>144.24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61">
+        <v>61</v>
+      </c>
+      <c r="C61">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62">
+        <v>62</v>
+      </c>
+      <c r="C62">
+        <v>150.36000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>242</v>
+      </c>
+      <c r="B63">
+        <v>63</v>
+      </c>
+      <c r="C63">
+        <v>151.96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B64">
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <v>157.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>244</v>
+      </c>
+      <c r="B65">
+        <v>65</v>
+      </c>
+      <c r="C65">
+        <v>158.93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>245</v>
+      </c>
+      <c r="B66">
+        <v>66</v>
+      </c>
+      <c r="C66">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67">
+        <v>67</v>
+      </c>
+      <c r="C67">
+        <v>164.93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>167.26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B69">
+        <v>69</v>
+      </c>
+      <c r="C69">
+        <v>168.93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>249</v>
+      </c>
+      <c r="B70">
+        <v>70</v>
+      </c>
+      <c r="C70">
+        <v>173.05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>250</v>
+      </c>
+      <c r="B71">
+        <v>71</v>
+      </c>
+      <c r="C71">
+        <v>174.97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72">
+        <v>72</v>
+      </c>
+      <c r="C72">
+        <v>178.49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73">
+        <v>73</v>
+      </c>
+      <c r="C73">
+        <v>180.95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74">
+        <v>74</v>
+      </c>
+      <c r="C74">
+        <v>183.84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>253</v>
+      </c>
+      <c r="B75">
+        <v>75</v>
+      </c>
+      <c r="C75">
+        <v>186.21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>254</v>
+      </c>
+      <c r="B76">
+        <v>76</v>
+      </c>
+      <c r="C76">
+        <v>190.23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>255</v>
+      </c>
+      <c r="B77">
+        <v>77</v>
+      </c>
+      <c r="C77">
+        <v>192.22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78">
+        <v>78</v>
+      </c>
+      <c r="C78">
+        <v>195.08</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>256</v>
+      </c>
+      <c r="B79">
+        <v>79</v>
+      </c>
+      <c r="C79">
+        <v>196.97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>257</v>
+      </c>
+      <c r="B80">
+        <v>80</v>
+      </c>
+      <c r="C80">
+        <v>200.59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>258</v>
+      </c>
+      <c r="B81">
+        <v>81</v>
+      </c>
+      <c r="C81">
+        <v>204.38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>259</v>
+      </c>
+      <c r="B82">
+        <v>82</v>
+      </c>
+      <c r="C82">
+        <v>207.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>260</v>
+      </c>
+      <c r="B83">
+        <v>83</v>
+      </c>
+      <c r="C83">
+        <v>208.98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>261</v>
+      </c>
+      <c r="B84">
+        <v>84</v>
+      </c>
+      <c r="C84">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85">
+        <v>85</v>
+      </c>
+      <c r="C85">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86">
+        <v>86</v>
+      </c>
+      <c r="C86">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>264</v>
+      </c>
+      <c r="B87">
+        <v>87</v>
+      </c>
+      <c r="C87">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>265</v>
+      </c>
+      <c r="B88">
+        <v>88</v>
+      </c>
+      <c r="C88">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>266</v>
+      </c>
+      <c r="B89">
+        <v>89</v>
+      </c>
+      <c r="C89">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90">
+        <v>90</v>
+      </c>
+      <c r="C90">
+        <v>232.04</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91">
+        <v>91</v>
+      </c>
+      <c r="C91">
+        <v>231.04</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>269</v>
+      </c>
+      <c r="B92">
+        <v>92</v>
+      </c>
+      <c r="C92">
+        <v>238.03</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93">
+        <v>93</v>
+      </c>
+      <c r="C93">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>271</v>
+      </c>
+      <c r="B94">
+        <v>94</v>
+      </c>
+      <c r="C94">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BABE7A8-ADDB-4060-AD36-6CFE7DABB468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB503C97-E2AA-4087-92B9-58601CF31FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="765" windowWidth="25095" windowHeight="13860" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="2460" yWindow="3915" windowWidth="25095" windowHeight="11565" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -1363,7 +1363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1493,12 +1493,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1508,10 +1502,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1831,7 +1828,7 @@
   <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1988,141 +1985,124 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
       <c r="D4" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="14" t="str">
+      <c r="F4" s="46" t="str">
         <f>C7</f>
         <v>fcc</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
       <c r="D5" s="13">
         <f>100*2.632</f>
         <v>263.2</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="46">
         <f>IF(OR(C7="fcc", C7="l12"), (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(OR(C7="bcc", C7="b2"), (9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2), IF(C7="hcp", (9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2), IF(C7="dim", "", IF(C7="dia", (9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2), IF(C7="b1", (9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2), IF(C7="sc", (9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2), "")))))))</f>
         <v>3.9416678017946567</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="43">
         <f>(9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2)</f>
         <v>3.9416678017946567</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="43">
         <f>(9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2)</f>
         <v>4.1126956642401256</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="43">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2)</f>
         <v>3.9416678017946558</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="43">
         <f>(9*(D5*0.006241509)*((C3*4/SQRT(3))^3/8)/B3)^(1/2)</f>
         <v>5.8162299862814102</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="43">
         <f>(9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2)</f>
         <v>4.6874593948713406</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="43">
         <f>(9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2)</f>
         <v>4.6874593948713406</v>
       </c>
-      <c r="N5" s="44" t="s">
+      <c r="N5" t="s">
         <v>176</v>
       </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
       <c r="Q5" s="6"/>
       <c r="R5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="46" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
       <c r="J6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A7" s="13">
+      <c r="A7" s="46">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 2, FALSE), "")</f>
         <v>6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="46">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 3, FALSE), "")</f>
         <v>12.010999999999999</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="46">
         <f>IF(C7="fcc", 12, IF(C7="bcc", 8, IF(C7="hcp", 12, IF(C7="dim", 1, IF(C7="dia", 4, IF(C7="sc", 6, ""))))))</f>
         <v>12</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="46">
         <f>IF(C7="fcc", SQRT(2), IF(C7="bcc", 2/SQRT(3), IF(C7="hcp", 1, IF(C7="dim", 1, IF(C7="dia", 4/SQRT(3), IF(C7="sc", 1, ""))))))</f>
         <v>1.4142135623730951</v>
       </c>
@@ -2499,7 +2479,7 @@
         <f>M3</f>
         <v>-1.01</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="48">
         <f>T3</f>
         <v>1</v>
       </c>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB503C97-E2AA-4087-92B9-58601CF31FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A186291B-DD83-4928-AEF9-F4A0B0BB0668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="3915" windowWidth="25095" windowHeight="11565" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="870" yWindow="195" windowWidth="27450" windowHeight="15345" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="323">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -1119,6 +1119,172 @@
   </si>
   <si>
     <t>Note: augt1 = 1 and ialloy = 0 for MEAM92 (1NN-MEAM),  augt1 = 0 and ialloy = 2 for 2NN-MEAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Cmin(TM–TM–N) = Cmin(N–N–TM) = the average of Cmin(TM–TM–TM) and Cmin(N–N–N) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(B,A,B) = Cmin,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A,B,A) = Cmin,A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A,B,B) = (0.5*sqrt(Cmin,A)+0.5*sqrt(Cmin,B))^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A,B,C) = (0.5*sqrt(Cmin(A,B,B))+0.5*sqrt(Cmin(A,C,C)))^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(B,A,C) = (0.5*sqrt(Cmin(B,A,B))+0.5*sqrt(Cmin(C,A,C)))^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(B,C,A) = (0.5*sqrt(Cmin(B,B,A))+0.5*sqrt(Cmin(C,C,A)))^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(B,A,A) = (0.5*sqrt(Cmin,B)+0.5*sqrt(Cmin,A))^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>When the Cmax is calculated using the rule of mixtures at 2.80, this tends to be adopted.</t>
+  </si>
+  <si>
+    <t>output (binary: A-B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>output (binary: A-C)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>output (binary: B-C)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(1,3,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(3,1,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(1,3,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(3,1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(1,1,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(3,3,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(1,3,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(3,1,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(1,3,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(3,1,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(2,3,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(3,2,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(2,3,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(3,2,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(2,2,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(3,3,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(2,3,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(3,2,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(2,3,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(3,2,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(3,3,1) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(3,3,2) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>output (ternary: A-B-C)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The same mixing method is used for Cmax as for Cmin.</t>
+  </si>
+  <si>
+    <t>Empirically mixing rules (prediction)(Note: The same mixing method is used for Cmax as for Cmin.)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1148,7 +1314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1199,12 +1365,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1357,13 +1535,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1394,9 +1596,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1415,18 +1614,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1499,16 +1692,43 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1825,16 +2045,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.125" customWidth="1"/>
     <col min="18" max="18" width="11.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.125" customWidth="1"/>
@@ -1842,214 +2063,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="16" t="s">
         <v>26</v>
       </c>
+      <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="30">
-        <v>5.8140000000000001</v>
-      </c>
-      <c r="C3" s="30">
-        <v>2.052</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="B3" s="27">
+        <v>6.641</v>
+      </c>
+      <c r="C3" s="27">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="D3" s="12">
         <f>F5</f>
-        <v>3.9416678017946567</v>
-      </c>
-      <c r="E3" s="13">
+        <v>4.50852350341862</v>
+      </c>
+      <c r="E3" s="12">
         <v>1.49</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="26">
         <v>4.26</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="26">
         <v>5</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="26">
         <v>3.2</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="26">
         <v>3.98</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>1</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="26">
         <v>7.5</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="26">
         <v>1.04</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="26">
         <v>-1.01</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="26">
         <v>2</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="12">
         <v>2.8</v>
       </c>
-      <c r="P3" s="40">
+      <c r="P3" s="37">
         <v>4</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="12">
         <v>0.1</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="16">
         <v>0</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="16">
         <v>0</v>
       </c>
-      <c r="T3" s="29">
+      <c r="T3" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="F4" s="46" t="str">
+      <c r="F4" s="42" t="str">
         <f>C7</f>
         <v>fcc</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="41" t="s">
         <v>169</v>
       </c>
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="D5" s="13">
-        <f>100*2.632</f>
-        <v>263.2</v>
-      </c>
-      <c r="E5" s="47" t="s">
+      <c r="D5" s="12">
+        <f>100*3.17</f>
+        <v>317</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="42">
         <f>IF(OR(C7="fcc", C7="l12"), (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(OR(C7="bcc", C7="b2"), (9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2), IF(C7="hcp", (9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2), IF(C7="dim", "", IF(C7="dia", (9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2), IF(C7="b1", (9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2), IF(C7="sc", (9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2), "")))))))</f>
-        <v>3.9416678017946567</v>
-      </c>
-      <c r="G5" s="45" t="s">
+        <v>4.50852350341862</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="40">
         <f>(9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2)</f>
-        <v>3.9416678017946567</v>
-      </c>
-      <c r="I5" s="43">
+        <v>4.50852350341862</v>
+      </c>
+      <c r="I5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2)</f>
-        <v>4.1126956642401256</v>
-      </c>
-      <c r="J5" s="43">
+        <v>4.7041470760656505</v>
+      </c>
+      <c r="J5" s="40">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2)</f>
-        <v>3.9416678017946558</v>
-      </c>
-      <c r="K5" s="43">
+        <v>4.5085235034186191</v>
+      </c>
+      <c r="K5" s="40">
         <f>(9*(D5*0.006241509)*((C3*4/SQRT(3))^3/8)/B3)^(1/2)</f>
-        <v>5.8162299862814102</v>
-      </c>
-      <c r="L5" s="43">
+        <v>6.652668594369783</v>
+      </c>
+      <c r="L5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2)</f>
-        <v>4.6874593948713406</v>
-      </c>
-      <c r="M5" s="43">
+        <v>5.3615682284224171</v>
+      </c>
+      <c r="M5" s="40">
         <f>(9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2)</f>
-        <v>4.6874593948713406</v>
+        <v>5.3615682284224171</v>
       </c>
       <c r="N5" t="s">
         <v>176</v>
@@ -2060,53 +2296,53 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>37</v>
       </c>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A7" s="46">
+      <c r="A7" s="42">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 2, FALSE), "")</f>
         <v>6</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="42">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 3, FALSE), "")</f>
         <v>12.010999999999999</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="42">
         <f>IF(C7="fcc", 12, IF(C7="bcc", 8, IF(C7="hcp", 12, IF(C7="dim", 1, IF(C7="dia", 4, IF(C7="sc", 6, ""))))))</f>
         <v>12</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="42">
         <f>IF(C7="fcc", SQRT(2), IF(C7="bcc", 2/SQRT(3), IF(C7="hcp", 1, IF(C7="dim", 1, IF(C7="dia", 4/SQRT(3), IF(C7="sc", 1, ""))))))</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>3</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -2114,7 +2350,7 @@
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <f>SQRT(8/3)</f>
         <v>1.6329931618554521</v>
       </c>
@@ -2127,22 +2363,32 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="9"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>187</v>
       </c>
       <c r="C8" s="1"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>280</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="J9" s="5"/>
+      <c r="P9" s="43" t="s">
         <v>90</v>
       </c>
+      <c r="Q9" s="51"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="J10" s="5"/>
       <c r="P10" s="2" t="s">
         <v>72</v>
       </c>
@@ -2152,27 +2398,38 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
+      <c r="J11" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="K11" s="51"/>
+      <c r="M11" s="53" t="s">
         <v>109</v>
       </c>
+      <c r="N11" s="51"/>
       <c r="P11" s="5" t="s">
         <v>91</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
-      <c r="S11" s="20" t="s">
+      <c r="S11" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="T11" s="51"/>
+      <c r="V11" s="43" t="s">
         <v>120</v>
       </c>
+      <c r="W11" s="51"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
@@ -2200,10 +2457,10 @@
         <f>P3</f>
         <v>4</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="12" t="s">
         <v>77</v>
       </c>
       <c r="P12" s="5" t="s">
@@ -2212,16 +2469,16 @@
       <c r="Q12" s="6">
         <v>1</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="S12" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="26">
         <v>0.1</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="W12" s="31">
+      <c r="W12" s="28">
         <f>T12</f>
         <v>0.1</v>
       </c>
@@ -2258,10 +2515,10 @@
         <f>Q3</f>
         <v>0.1</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="12" t="s">
         <v>49</v>
       </c>
       <c r="P13" s="5" t="s">
@@ -2271,16 +2528,16 @@
         <f t="shared" ref="Q13:Q18" si="0">N13</f>
         <v>b2</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="S13" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="26">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V13" s="23" t="s">
+      <c r="V13" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="W13" s="32">
+      <c r="W13" s="29">
         <f>T12</f>
         <v>0.1</v>
       </c>
@@ -2312,29 +2569,29 @@
       <c r="K14" s="6">
         <v>0</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="27">
         <v>6.4</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="Q14" s="22">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="S14" s="13" t="s">
+      <c r="S14" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="T14" s="29">
+      <c r="T14" s="26">
         <v>0.15</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="W14" s="31">
+      <c r="W14" s="28">
         <f>T13</f>
         <v>1.1000000000000001</v>
       </c>
@@ -2369,63 +2626,63 @@
       <c r="K15" s="6">
         <v>2</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="26">
         <v>2.72</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="24">
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
-      <c r="S15" s="13" t="s">
+      <c r="S15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="T15" s="29">
+      <c r="T15" s="26">
         <v>1.9</v>
       </c>
-      <c r="V15" s="23" t="s">
+      <c r="V15" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="W15" s="32">
+      <c r="W15" s="29">
         <f>T13</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A16" s="42">
+      <c r="A16" s="39">
         <f>D3</f>
-        <v>3.9416678017946567</v>
-      </c>
-      <c r="B16" s="24">
+        <v>4.50852350341862</v>
+      </c>
+      <c r="B16" s="21">
         <f>F3</f>
         <v>4.26</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="21">
         <f>G3</f>
         <v>5</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="21">
         <f>H3</f>
         <v>3.2</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="21">
         <f>I3</f>
         <v>3.98</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="38">
         <f>C3*E7</f>
-        <v>2.9019662299895912</v>
-      </c>
-      <c r="G16" s="19">
+        <v>3.1183409050326749</v>
+      </c>
+      <c r="G16" s="17">
         <f>B3</f>
-        <v>5.8140000000000001</v>
-      </c>
-      <c r="H16" s="27">
+        <v>6.641</v>
+      </c>
+      <c r="H16" s="24">
         <f>E3</f>
         <v>1.49</v>
       </c>
@@ -2435,51 +2692,51 @@
       <c r="K16" s="6">
         <v>2</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="26">
         <v>5</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="S16" s="13" t="s">
+      <c r="S16" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="T16" s="29">
+      <c r="T16" s="26">
         <v>2.6</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="W16" s="31">
+      <c r="W16" s="28">
         <f>T14</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A17" s="38">
+      <c r="A17" s="35">
         <f>J3</f>
         <v>1</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="23">
         <f>K3</f>
         <v>7.5</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="23">
         <f>L3</f>
         <v>1.04</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="23">
         <f>M3</f>
         <v>-1.01</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="23">
         <f>T3</f>
         <v>1</v>
       </c>
@@ -2496,10 +2753,10 @@
         <f>A3</f>
         <v>C</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P17" s="5" t="s">
@@ -2509,31 +2766,40 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="S17" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="T17" s="29">
+      <c r="T17" s="26">
         <v>1.9</v>
       </c>
-      <c r="V17" s="23" t="s">
+      <c r="V17" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="W17" s="32">
+      <c r="W17" s="29">
         <f>T14</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="5" t="s">
         <v>70</v>
       </c>
       <c r="K18" s="6">
         <v>0</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M18" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="19">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P18" s="5" t="s">
@@ -2546,14 +2812,14 @@
       <c r="V18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W18" s="31">
+      <c r="W18" s="28">
         <f>T15</f>
         <v>1.9</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>320</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>71</v>
@@ -2561,157 +2827,154 @@
       <c r="K19" s="6">
         <v>1</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="N19" s="29">
+      <c r="N19" s="26">
         <v>0.4</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="24">
         <f>N19</f>
         <v>0.4</v>
       </c>
-      <c r="V19" s="23" t="s">
+      <c r="V19" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="W19" s="32">
+      <c r="W19" s="29">
         <f>T15</f>
         <v>1.9</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
       <c r="J20" s="5" t="s">
         <v>100</v>
       </c>
       <c r="K20" s="6">
         <v>1</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="12">
         <v>0.67</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="Q20" s="24">
         <f>N20</f>
         <v>0.67</v>
       </c>
       <c r="V20" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="W20" s="31">
+      <c r="W20" s="28">
         <f>T16</f>
         <v>2.6</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="22">
         <f>B3</f>
-        <v>5.8140000000000001</v>
-      </c>
-      <c r="M21" s="13" t="s">
+        <v>6.641</v>
+      </c>
+      <c r="M21" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="26">
         <v>0.6</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="28">
         <f>N21</f>
         <v>0.6</v>
       </c>
-      <c r="V21" s="23" t="s">
+      <c r="V21" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="W21" s="32">
+      <c r="W21" s="29">
         <f>T16</f>
         <v>2.6</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="22">
         <f>C3</f>
-        <v>2.052</v>
-      </c>
-      <c r="M22" s="13" t="s">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="M22" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="N22" s="29">
+      <c r="N22" s="26">
         <v>0.4</v>
       </c>
-      <c r="P22" s="23" t="s">
+      <c r="P22" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q22" s="32">
+      <c r="Q22" s="29">
         <f>N21</f>
         <v>0.6</v>
       </c>
       <c r="V22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="W22" s="27">
+      <c r="W22" s="24">
         <f>T17</f>
         <v>1.9</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="36">
         <f>D3</f>
-        <v>3.9416678017946567</v>
-      </c>
-      <c r="M23" s="13" t="s">
+        <v>4.50852350341862</v>
+      </c>
+      <c r="M23" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N23" s="29">
+      <c r="N23" s="26">
         <v>2.8</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Q23" s="31">
+      <c r="Q23" s="28">
         <f>N22</f>
         <v>0.4</v>
       </c>
-      <c r="V23" s="23" t="s">
+      <c r="V23" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="W23" s="32">
+      <c r="W23" s="29">
         <f>T17</f>
         <v>1.9</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>74</v>
@@ -2720,23 +2983,23 @@
         <f>S3</f>
         <v>0</v>
       </c>
-      <c r="M24" s="13" t="s">
+      <c r="M24" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="N24" s="29">
+      <c r="N24" s="26">
         <v>1.7</v>
       </c>
-      <c r="P24" s="23" t="s">
+      <c r="P24" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="Q24" s="32">
+      <c r="Q24" s="29">
         <f>N22</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>73</v>
@@ -2745,553 +3008,1062 @@
         <f>R3</f>
         <v>0</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="N25" s="29">
+      <c r="N25" s="26">
         <v>1.9</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="Q25" s="27">
+      <c r="Q25" s="24">
         <f>N23</f>
         <v>2.8</v>
       </c>
-      <c r="V25" s="11" t="s">
+      <c r="V25" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
       <c r="J26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="24">
         <f>N3</f>
         <v>2</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="N26" s="29">
+      <c r="N26" s="26">
         <v>1.8</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="Q26" s="27">
+      <c r="Q26" s="24">
         <f>N24</f>
         <v>1.7</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="W26" s="36">
+      <c r="W26" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="25">
         <f>O3</f>
         <v>2.8</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Q27" s="31">
+      <c r="Q27" s="28">
         <f>N25</f>
         <v>1.9</v>
       </c>
-      <c r="V27" s="23" t="s">
+      <c r="V27" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="W27" s="37">
+      <c r="W27" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="P28" s="23" t="s">
+      <c r="J28" s="5"/>
+      <c r="P28" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="Q28" s="32">
+      <c r="Q28" s="29">
         <f>N25</f>
         <v>1.9</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="W28" s="36">
+      <c r="W28" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>67</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J29" s="5"/>
       <c r="P29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q29" s="31">
+      <c r="Q29" s="28">
         <f>N26</f>
         <v>1.8</v>
       </c>
-      <c r="V29" s="23" t="s">
+      <c r="V29" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="W29" s="37">
+      <c r="W29" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P30" s="23" t="s">
+      <c r="J30" s="5"/>
+      <c r="P30" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="Q30" s="32">
+      <c r="Q30" s="29">
         <f>N26</f>
         <v>1.8</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="W30" s="36">
+      <c r="W30" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="V31" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="V31" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="W31" s="37">
+      <c r="W31" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="P32" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q32" s="51"/>
       <c r="V32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W32" s="36">
+      <c r="W32" s="33">
         <v>2.8</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="V33" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="P33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q33" s="4" t="str">
+        <f>N35</f>
+        <v>Pd-Rh</v>
+      </c>
+      <c r="V33" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="W33" s="37">
+      <c r="W33" s="34">
         <v>2.8</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="M34" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="N34" s="51"/>
+      <c r="P34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0</v>
+      </c>
+      <c r="R34" t="s">
+        <v>149</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="W34" s="36">
+      <c r="W34" s="33">
         <v>2.8</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="P35" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="V35" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="M35" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
+        <v>150</v>
+      </c>
+      <c r="V35" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="W35" s="37">
+      <c r="W35" s="34">
         <v>2.8</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="P36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q36" s="4" t="str">
-        <f>N38</f>
-        <v>Pd-Rh</v>
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="M36" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q36" s="6" t="str">
+        <f t="shared" ref="Q36:Q41" si="1">N36</f>
+        <v>b2</v>
+      </c>
+      <c r="R36" t="s">
+        <v>151</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="W36" s="36">
+      <c r="W36" s="33">
         <v>2.8</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="M37" s="20" t="s">
-        <v>134</v>
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="M37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="27">
+        <v>4.5830000000000002</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="Q37" s="22">
+        <f t="shared" si="1"/>
+        <v>4.5830000000000002</v>
       </c>
       <c r="R37" t="s">
-        <v>149</v>
-      </c>
-      <c r="V37" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="V37" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="W37" s="37">
+      <c r="W37" s="34">
         <v>2.8</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>153</v>
-      </c>
-      <c r="M38" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N38" s="13" t="s">
-        <v>135</v>
+      <c r="J38" s="5"/>
+      <c r="M38" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" s="27">
+        <v>2.6970000000000001</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="Q38" s="22">
+        <f t="shared" si="1"/>
+        <v>2.6970000000000001</v>
       </c>
       <c r="R38" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>154</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="N39" s="13" t="s">
-        <v>49</v>
+        <v>153</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="M39" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" s="27">
+        <v>6.8920000000000003</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q39" s="6" t="str">
-        <f t="shared" ref="Q39:Q44" si="1">N39</f>
-        <v>b2</v>
+        <v>95</v>
+      </c>
+      <c r="Q39" s="22">
+        <f t="shared" si="1"/>
+        <v>6.8920000000000003</v>
       </c>
       <c r="R39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>155</v>
-      </c>
-      <c r="M40" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="M40" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N40" s="27">
         <v>0</v>
       </c>
-      <c r="N40" s="30">
-        <v>4.5830000000000002</v>
-      </c>
       <c r="P40" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q40" s="25">
+        <v>98</v>
+      </c>
+      <c r="Q40" s="22">
         <f t="shared" si="1"/>
-        <v>4.5830000000000002</v>
+        <v>0</v>
       </c>
       <c r="R40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>156</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="M41" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="N41" s="30">
-        <v>2.6970000000000001</v>
+        <v>0</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q41" s="25">
+        <v>99</v>
+      </c>
+      <c r="Q41" s="22">
         <f t="shared" si="1"/>
-        <v>2.6970000000000001</v>
+        <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
+        <v>156</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="M42" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N42" s="27">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q42" s="31">
+        <f>N42</f>
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="R42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>157</v>
       </c>
-      <c r="M42" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N42" s="30">
-        <v>6.8920000000000003</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q42" s="25">
-        <f t="shared" si="1"/>
-        <v>6.8920000000000003</v>
-      </c>
-      <c r="R42" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="M43" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N43" s="30">
-        <v>0</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q43" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R43" t="s">
-        <v>145</v>
+      <c r="J43" s="5"/>
+      <c r="M43" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="N43" s="27">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="P43" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q43" s="32">
+        <f>N42</f>
+        <v>1.6519999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>158</v>
-      </c>
-      <c r="M44" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="N44" s="33">
-        <v>0</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q44" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R44" t="s">
-        <v>146</v>
+      <c r="J44" s="5"/>
+      <c r="M44" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N44" s="27">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q44" s="31">
+        <f>N43</f>
+        <v>1.7849999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>159</v>
-      </c>
-      <c r="M45" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="N45" s="30">
-        <v>1.6519999999999999</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q45" s="34">
-        <f>N45</f>
-        <v>1.6519999999999999</v>
-      </c>
-      <c r="R45" t="s">
-        <v>147</v>
+        <v>158</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="M45" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="N45" s="27">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="P45" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q45" s="32">
+        <f>N44</f>
+        <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>160</v>
-      </c>
-      <c r="M46" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="N46" s="30">
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="P46" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q46" s="35">
+        <v>159</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="M46" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="N46" s="27">
+        <v>1.8680000000000001</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q46" s="31">
         <f>N45</f>
-        <v>1.6519999999999999</v>
+        <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>161</v>
-      </c>
-      <c r="M47" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="N47" s="30">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q47" s="34">
-        <f>N46</f>
-        <v>1.7849999999999999</v>
+        <v>160</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="M47" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="N47" s="27">
+        <v>2.39</v>
+      </c>
+      <c r="P47" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q47" s="32">
+        <f>N45</f>
+        <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>162</v>
-      </c>
-      <c r="M48" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="N48" s="30">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="P48" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q48" s="35">
-        <f>N47</f>
-        <v>0.80500000000000005</v>
+        <v>161</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="M48" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="N48" s="27">
+        <v>2.1459999999999999</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q48" s="31">
+        <f>N46</f>
+        <v>1.8680000000000001</v>
+      </c>
+      <c r="R48" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
+        <v>162</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="M49" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="N49" s="27">
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="P49" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q49" s="32">
+        <f>N46</f>
+        <v>1.8680000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>163</v>
       </c>
-      <c r="M49" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="N49" s="30">
-        <v>1.8680000000000001</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q49" s="34">
+      <c r="J50" s="5"/>
+      <c r="P50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q50" s="31">
+        <f>N47</f>
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="J51" s="5"/>
+      <c r="P51" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q51" s="32">
         <f>N48</f>
-        <v>0.43099999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="M50" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="N50" s="30">
-        <v>2.39</v>
-      </c>
-      <c r="P50" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q50" s="35">
-        <f>N48</f>
-        <v>0.43099999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>164</v>
-      </c>
-      <c r="M51" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="N51" s="30">
         <v>2.1459999999999999</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q51" s="34">
-        <f>N49</f>
-        <v>1.8680000000000001</v>
-      </c>
-      <c r="R51" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>165</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="N52" s="30">
+        <v>164</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="P52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q52" s="31">
+        <f>N49</f>
         <v>2.0129999999999999</v>
-      </c>
-      <c r="P52" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q52" s="35">
-        <f>N49</f>
-        <v>1.8680000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>172</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q53" s="34">
-        <f>N50</f>
-        <v>2.39</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="J53" s="5"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q53" s="32">
+        <f>N49</f>
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="R53" s="44"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>173</v>
-      </c>
-      <c r="P54" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q54" s="35">
-        <f>N51</f>
-        <v>2.1459999999999999</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
+        <v>173</v>
+      </c>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="P55" s="2" t="s">
+      <c r="I56" s="9"/>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A58" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A59" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="16">
+        <v>0.49</v>
+      </c>
+      <c r="C59" s="13">
+        <v>0.49</v>
+      </c>
+      <c r="D59" s="47">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A60" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="46">
+        <v>2.8</v>
+      </c>
+      <c r="C60" s="54">
+        <v>2.8</v>
+      </c>
+      <c r="D60" s="48">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A62" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="G62" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="H62" s="12"/>
+      <c r="J62" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A63" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="12">
+        <f>B59</f>
+        <v>0.49</v>
+      </c>
+      <c r="C63" s="44"/>
+      <c r="D63" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E63" s="12">
+        <f>B59</f>
+        <v>0.49</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="H63" s="12">
+        <f>C59</f>
+        <v>0.49</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A64" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="12">
+        <f>C59</f>
+        <v>0.49</v>
+      </c>
+      <c r="C64" s="44"/>
+      <c r="D64" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="E64" s="12">
+        <f>D59</f>
+        <v>0.49</v>
+      </c>
+      <c r="G64" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="H64" s="12">
+        <f>D59</f>
+        <v>0.49</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A65" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="12">
+        <f>(0.5*SQRT(B59)+0.5*SQRT(C59))^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="C65" s="44"/>
+      <c r="D65" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E65" s="12">
+        <f>(0.5*SQRT(B59)+0.5*SQRT(D59))^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H65" s="12">
+        <f>(0.5*SQRT(C59)+0.5*SQRT(D59))^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="J65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="12">
+        <f>(0.5*SQRT(C59)+0.5*SQRT(B59))^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="C66" s="44"/>
+      <c r="D66" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E66" s="12">
+        <f>(0.5*SQRT(D59)+0.5*SQRT(B59))^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H66" s="12">
+        <f>(0.5*SQRT(D59)+0.5*SQRT(C59))^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="J66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="12">
+        <f>(0.5*SQRT(B59)+0.5*SQRT(C59))^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="C67" s="44"/>
+      <c r="D67" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="E67" s="12">
+        <f>(0.5*SQRT(B59)+0.5*SQRT(D59))^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H67" s="12">
+        <f>(0.5*SQRT(C59)+0.5*SQRT(D59))^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="J67" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A68" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="12">
+        <f>(0.5*SQRT(C59)+0.5*SQRT(B59))^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="C68" s="44"/>
+      <c r="D68" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E68" s="12">
+        <f>(0.5*SQRT(D59)+0.5*SQRT(B59))^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H68" s="12">
+        <f>(0.5*SQRT(D59)+0.5*SQRT(C59))^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A69" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="12">
+        <f>B60</f>
+        <v>2.8</v>
+      </c>
+      <c r="C69" s="44"/>
+      <c r="D69" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="E69" s="12">
+        <f>B60</f>
+        <v>2.8</v>
+      </c>
+      <c r="G69" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="H69" s="12">
+        <f>C60</f>
+        <v>2.8</v>
+      </c>
+      <c r="J69" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A70" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="12">
+        <f>C60</f>
+        <v>2.8</v>
+      </c>
+      <c r="C70" s="44"/>
+      <c r="D70" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="E70" s="12">
+        <f>D60</f>
+        <v>2.8</v>
+      </c>
+      <c r="G70" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="H70" s="12">
+        <f>D60</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A71" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="Q55" s="34">
-        <f>N52</f>
-        <v>2.0129999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="P56" s="23" t="s">
+      <c r="B71" s="12">
+        <f>(0.5*SQRT(B60)+0.5*SQRT(C60))^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="C71" s="44"/>
+      <c r="D71" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E71" s="12">
+        <f>(0.5*SQRT(B60)+0.5*SQRT(D60))^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="H71" s="12">
+        <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A72" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="Q56" s="35">
-        <f>N52</f>
-        <v>2.0129999999999999</v>
+      <c r="B72" s="12">
+        <f>(0.5*SQRT(C60)+0.5*SQRT(B60))^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="C72" s="44"/>
+      <c r="D72" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E72" s="12">
+        <f>(0.5*SQRT(D60)+0.5*SQRT(B60))^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="H72" s="12">
+        <f>(0.5*SQRT(D60)+0.5*SQRT(C60))^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A73" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="12">
+        <f>(0.5*SQRT(B60)+0.5*SQRT(C60))^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="C73" s="44"/>
+      <c r="D73" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E73" s="12">
+        <f>(0.5*SQRT(B60)+0.5*SQRT(D60))^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="H73" s="12">
+        <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A74" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="12">
+        <f>(0.5*SQRT(C60)+0.5*SQRT(B60))^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="C74" s="44"/>
+      <c r="D74" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="E74" s="12">
+        <f>(0.5*SQRT(D60)+0.5*SQRT(B60))^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="H74" s="12">
+        <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A76" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="D76" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A77" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="12">
+        <f>(0.5*SQRT(B65)+0.5*SQRT(E65))^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A78" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="12">
+        <f>(0.5*SQRT(B64)+0.5*SQRT(E64))^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="D78" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A79" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="12">
+        <f>(0.5*SQRT(B68)+0.5*SQRT(E68))^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A80" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="12">
+        <f>(0.5*SQRT(B71)+0.5*SQRT(E71))^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="D80" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="12">
+        <f>(0.5*SQRT(B70)+0.5*SQRT(E70))^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="12">
+        <f>(0.5*SQRT(B74)+0.5*SQRT(E74))^2</f>
+        <v>2.8000000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A186291B-DD83-4928-AEF9-F4A0B0BB0668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592B7C62-77B3-4993-A942-B454055E7954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="195" windowWidth="27450" windowHeight="15345" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -743,9 +743,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fcc</t>
-  </si>
-  <si>
     <t>Note: fcc (Z=12, f=sqrt(2)), bcc (Z=8, f=2/SQRT(3)), hcp (Z=12, f=1), dim (Z=1, f=1), dia (Z=4, f=4/SQRT(3)), sc (Z=6, f=1)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1286,6 +1283,9 @@
   <si>
     <t>Empirically mixing rules (prediction)(Note: The same mixing method is used for Cmax as for Cmin.)</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bcc</t>
   </si>
 </sst>
 </file>
@@ -1698,37 +1698,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2048,7 +2048,7 @@
   <dimension ref="A1:W82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2063,7 +2063,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="3"/>
@@ -2080,7 +2080,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -2099,10 +2099,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>273</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>274</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>2</v>
@@ -2141,7 +2141,7 @@
         <v>12</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q2" s="15" t="s">
         <v>14</v>
@@ -2158,50 +2158,49 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B3" s="27">
-        <v>6.641</v>
+        <v>4.28</v>
       </c>
       <c r="C3" s="27">
-        <v>2.2050000000000001</v>
+        <v>2.4689999999999999</v>
       </c>
       <c r="D3" s="12">
-        <f>F5</f>
-        <v>4.50852350341862</v>
+        <v>5.03</v>
       </c>
       <c r="E3" s="12">
-        <v>1.49</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F3" s="26">
-        <v>4.26</v>
+        <v>3.5</v>
       </c>
       <c r="G3" s="26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3" s="26">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="26">
-        <v>3.98</v>
+        <v>1</v>
       </c>
       <c r="J3" s="13">
         <v>1</v>
       </c>
       <c r="K3" s="26">
-        <v>7.5</v>
+        <v>-1.6</v>
       </c>
       <c r="L3" s="26">
-        <v>1.04</v>
+        <v>12.5</v>
       </c>
       <c r="M3" s="26">
-        <v>-1.01</v>
+        <v>-1.4</v>
       </c>
       <c r="N3" s="26">
-        <v>2</v>
+        <v>0.68</v>
       </c>
       <c r="O3" s="12">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="P3" s="37">
         <v>4</v>
@@ -2210,10 +2209,10 @@
         <v>0.1</v>
       </c>
       <c r="R3" s="16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S3" s="16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="26">
         <v>1</v>
@@ -2222,11 +2221,11 @@
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="D4" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F4" s="42" t="str">
         <f>C7</f>
-        <v>fcc</v>
+        <v>bcc</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>175</v>
@@ -2258,34 +2257,34 @@
       </c>
       <c r="F5" s="42">
         <f>IF(OR(C7="fcc", C7="l12"), (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(OR(C7="bcc", C7="b2"), (9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2), IF(C7="hcp", (9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2), IF(C7="dim", "", IF(C7="dia", (9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2), IF(C7="b1", (9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2), IF(C7="sc", (9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2), "")))))))</f>
-        <v>4.50852350341862</v>
+        <v>6.9429572533693316</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H5" s="40">
         <f>(9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2)</f>
-        <v>4.50852350341862</v>
+        <v>6.654231990175461</v>
       </c>
       <c r="I5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2)</f>
-        <v>4.7041470760656505</v>
+        <v>6.9429572533693316</v>
       </c>
       <c r="J5" s="40">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2)</f>
-        <v>4.5085235034186191</v>
+        <v>6.6542319901754601</v>
       </c>
       <c r="K5" s="40">
         <f>(9*(D5*0.006241509)*((C3*4/SQRT(3))^3/8)/B3)^(1/2)</f>
-        <v>6.652668594369783</v>
+        <v>9.8188243106915607</v>
       </c>
       <c r="L5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2)</f>
-        <v>5.3615682284224171</v>
+        <v>7.9132600275953751</v>
       </c>
       <c r="M5" s="40">
         <f>(9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2)</f>
-        <v>5.3615682284224171</v>
+        <v>7.9132600275953751</v>
       </c>
       <c r="N5" t="s">
         <v>176</v>
@@ -2315,7 +2314,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>37</v>
@@ -2325,28 +2324,28 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="42">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 2, FALSE), "")</f>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B7" s="42">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 3, FALSE), "")</f>
-        <v>12.010999999999999</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>186</v>
+        <v>322</v>
       </c>
       <c r="D7" s="42">
         <f>IF(C7="fcc", 12, IF(C7="bcc", 8, IF(C7="hcp", 12, IF(C7="dim", 1, IF(C7="dia", 4, IF(C7="sc", 6, ""))))))</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7" s="42">
         <f>IF(C7="fcc", SQRT(2), IF(C7="bcc", 2/SQRT(3), IF(C7="hcp", 1, IF(C7="dim", 1, IF(C7="dia", 4/SQRT(3), IF(C7="sc", 1, ""))))))</f>
-        <v>1.4142135623730951</v>
+        <v>1.1547005383792517</v>
       </c>
       <c r="F7" s="12">
         <v>3</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2372,23 +2371,26 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="54"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>280</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>279</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="M9" s="5"/>
       <c r="P9" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" s="51"/>
+      <c r="Q9" s="50"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="J10" s="5"/>
+      <c r="J10" s="54"/>
+      <c r="M10" s="5"/>
       <c r="P10" s="2" t="s">
         <v>72</v>
       </c>
@@ -2398,38 +2400,38 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-      <c r="J11" s="43" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="J11" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="51"/>
-      <c r="M11" s="53" t="s">
+      <c r="K11" s="50"/>
+      <c r="M11" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="N11" s="51"/>
+      <c r="N11" s="50"/>
       <c r="P11" s="5" t="s">
         <v>91</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
-      <c r="S11" s="53" t="s">
+      <c r="S11" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="T11" s="51"/>
+      <c r="T11" s="50"/>
       <c r="V11" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="W11" s="51"/>
+      <c r="W11" s="50"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
@@ -2599,23 +2601,23 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
-        <v>C</v>
+        <v>Fe</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>C7</f>
-        <v>fcc</v>
+        <v>bcc</v>
       </c>
       <c r="C15" s="3">
         <f>D7</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3">
         <f>A7</f>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3">
         <f>B7</f>
-        <v>12.010999999999999</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2656,35 +2658,35 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="39">
         <f>D3</f>
-        <v>4.50852350341862</v>
+        <v>5.03</v>
       </c>
       <c r="B16" s="21">
         <f>F3</f>
-        <v>4.26</v>
+        <v>3.5</v>
       </c>
       <c r="C16" s="21">
         <f>G3</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" s="21">
         <f>H3</f>
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="21">
         <f>I3</f>
-        <v>3.98</v>
+        <v>1</v>
       </c>
       <c r="F16" s="38">
         <f>C3*E7</f>
-        <v>3.1183409050326749</v>
+        <v>2.8509556292583724</v>
       </c>
       <c r="G16" s="17">
         <f>B3</f>
-        <v>6.641</v>
+        <v>4.28</v>
       </c>
       <c r="H16" s="24">
         <f>E3</f>
-        <v>1.49</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>69</v>
@@ -2726,15 +2728,15 @@
       </c>
       <c r="B17" s="23">
         <f>K3</f>
-        <v>7.5</v>
+        <v>-1.6</v>
       </c>
       <c r="C17" s="23">
         <f>L3</f>
-        <v>1.04</v>
+        <v>12.5</v>
       </c>
       <c r="D17" s="23">
         <f>M3</f>
-        <v>-1.01</v>
+        <v>-1.4</v>
       </c>
       <c r="E17" s="23">
         <f>T3</f>
@@ -2751,7 +2753,7 @@
       </c>
       <c r="K17" s="6" t="str">
         <f>A3</f>
-        <v>C</v>
+        <v>Fe</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>76</v>
@@ -2819,7 +2821,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>71</v>
@@ -2852,7 +2854,8 @@
       <c r="J20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="24">
+        <f>T3</f>
         <v>1</v>
       </c>
       <c r="M20" s="12" t="s">
@@ -2885,7 +2888,7 @@
       </c>
       <c r="K21" s="22">
         <f>B3</f>
-        <v>6.641</v>
+        <v>4.28</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>82</v>
@@ -2917,7 +2920,7 @@
       </c>
       <c r="K22" s="22">
         <f>C3</f>
-        <v>2.2050000000000001</v>
+        <v>2.4689999999999999</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>85</v>
@@ -2949,7 +2952,7 @@
       </c>
       <c r="K23" s="36">
         <f>D3</f>
-        <v>4.50852350341862</v>
+        <v>5.03</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>86</v>
@@ -2979,9 +2982,9 @@
       <c r="J24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="24">
         <f>S3</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M24" s="12" t="s">
         <v>87</v>
@@ -3004,9 +3007,9 @@
       <c r="J25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="24">
         <f>R3</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>88</v>
@@ -3034,7 +3037,7 @@
       </c>
       <c r="K26" s="24">
         <f>N3</f>
-        <v>2</v>
+        <v>0.68</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>89</v>
@@ -3065,8 +3068,9 @@
       </c>
       <c r="K27" s="25">
         <f>O3</f>
-        <v>2.8</v>
-      </c>
+        <v>1.9</v>
+      </c>
+      <c r="M27" s="5"/>
       <c r="P27" s="2" t="s">
         <v>107</v>
       </c>
@@ -3083,6 +3087,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="J28" s="5"/>
+      <c r="M28" s="5"/>
       <c r="P28" s="20" t="s">
         <v>116</v>
       </c>
@@ -3102,6 +3107,7 @@
         <v>68</v>
       </c>
       <c r="J29" s="5"/>
+      <c r="M29" s="5"/>
       <c r="P29" s="2" t="s">
         <v>108</v>
       </c>
@@ -3118,6 +3124,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="J30" s="5"/>
+      <c r="M30" s="5"/>
       <c r="P30" s="20" t="s">
         <v>117</v>
       </c>
@@ -3137,6 +3144,7 @@
         <v>67</v>
       </c>
       <c r="J31" s="5"/>
+      <c r="M31" s="5"/>
       <c r="V31" s="20" t="s">
         <v>122</v>
       </c>
@@ -3149,10 +3157,11 @@
         <v>61</v>
       </c>
       <c r="J32" s="5"/>
+      <c r="M32" s="5"/>
       <c r="P32" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="Q32" s="51"/>
+      <c r="Q32" s="50"/>
       <c r="V32" s="2" t="s">
         <v>127</v>
       </c>
@@ -3165,6 +3174,7 @@
         <v>62</v>
       </c>
       <c r="J33" s="5"/>
+      <c r="M33" s="5"/>
       <c r="P33" s="2" t="s">
         <v>72</v>
       </c>
@@ -3184,10 +3194,10 @@
         <v>63</v>
       </c>
       <c r="J34" s="5"/>
-      <c r="M34" s="53" t="s">
+      <c r="M34" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="N34" s="51"/>
+      <c r="N34" s="50"/>
       <c r="P34" s="5" t="s">
         <v>91</v>
       </c>
@@ -3508,7 +3518,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>162</v>
       </c>
@@ -3527,11 +3537,12 @@
         <v>1.8680000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>163</v>
       </c>
       <c r="J50" s="5"/>
+      <c r="M50" s="5"/>
       <c r="P50" s="2" t="s">
         <v>106</v>
       </c>
@@ -3540,8 +3551,9 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="J51" s="5"/>
+      <c r="M51" s="5"/>
       <c r="P51" s="20" t="s">
         <v>105</v>
       </c>
@@ -3550,11 +3562,12 @@
         <v>2.1459999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>164</v>
       </c>
       <c r="J52" s="5"/>
+      <c r="M52" s="5"/>
       <c r="P52" s="2" t="s">
         <v>117</v>
       </c>
@@ -3563,14 +3576,12 @@
         <v>2.0129999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>165</v>
       </c>
       <c r="J53" s="5"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
+      <c r="M53" s="5"/>
       <c r="P53" s="20" t="s">
         <v>116</v>
       </c>
@@ -3578,47 +3589,49 @@
         <f>N49</f>
         <v>2.0129999999999999</v>
       </c>
-      <c r="R53" s="44"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>172</v>
       </c>
       <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="M54" s="5"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>173</v>
       </c>
       <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
         <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="7"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="M56" s="7"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="D58" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="D58" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A59" s="12" t="s">
         <v>13</v>
       </c>
@@ -3628,43 +3641,42 @@
       <c r="C59" s="13">
         <v>0.49</v>
       </c>
-      <c r="D59" s="47">
+      <c r="D59" s="46">
         <v>0.49</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="46">
+      <c r="B60" s="45">
         <v>2.8</v>
       </c>
-      <c r="C60" s="54">
+      <c r="C60" s="53">
         <v>2.8</v>
       </c>
-      <c r="D60" s="48">
+      <c r="D60" s="47">
         <v>2.8</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A62" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="D62" s="42" t="s">
         <v>294</v>
-      </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="42" t="s">
-        <v>295</v>
       </c>
       <c r="E62" s="12"/>
       <c r="G62" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H62" s="12"/>
       <c r="J62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63" s="16" t="s">
         <v>103</v>
       </c>
@@ -3672,28 +3684,27 @@
         <f>B59</f>
         <v>0.49</v>
       </c>
-      <c r="C63" s="44"/>
       <c r="D63" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E63" s="12">
         <f>B59</f>
         <v>0.49</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H63" s="12">
         <f>C59</f>
         <v>0.49</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64" s="13" t="s">
         <v>104</v>
       </c>
@@ -3701,23 +3712,22 @@
         <f>C59</f>
         <v>0.49</v>
       </c>
-      <c r="C64" s="44"/>
-      <c r="D64" s="47" t="s">
-        <v>298</v>
+      <c r="D64" s="46" t="s">
+        <v>297</v>
       </c>
       <c r="E64" s="12">
         <f>D59</f>
         <v>0.49</v>
       </c>
-      <c r="G64" s="47" t="s">
-        <v>308</v>
+      <c r="G64" s="46" t="s">
+        <v>307</v>
       </c>
       <c r="H64" s="12">
         <f>D59</f>
         <v>0.49</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
@@ -3730,23 +3740,22 @@
         <f>(0.5*SQRT(B59)+0.5*SQRT(C59))^2</f>
         <v>0.48999999999999994</v>
       </c>
-      <c r="C65" s="44"/>
       <c r="D65" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E65" s="12">
         <f>(0.5*SQRT(B59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H65" s="12">
         <f>(0.5*SQRT(C59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="J65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
@@ -3757,23 +3766,22 @@
         <f>(0.5*SQRT(C59)+0.5*SQRT(B59))^2</f>
         <v>0.48999999999999994</v>
       </c>
-      <c r="C66" s="44"/>
       <c r="D66" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E66" s="12">
         <f>(0.5*SQRT(D59)+0.5*SQRT(B59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H66" s="12">
         <f>(0.5*SQRT(D59)+0.5*SQRT(C59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="J66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
@@ -3784,23 +3792,22 @@
         <f>(0.5*SQRT(B59)+0.5*SQRT(C59))^2</f>
         <v>0.48999999999999994</v>
       </c>
-      <c r="C67" s="44"/>
       <c r="D67" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E67" s="12">
         <f>(0.5*SQRT(B59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H67" s="12">
         <f>(0.5*SQRT(C59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="J67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
@@ -3811,72 +3818,69 @@
         <f>(0.5*SQRT(C59)+0.5*SQRT(B59))^2</f>
         <v>0.48999999999999994</v>
       </c>
-      <c r="C68" s="44"/>
       <c r="D68" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E68" s="12">
         <f>(0.5*SQRT(D59)+0.5*SQRT(B59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H68" s="12">
         <f>(0.5*SQRT(D59)+0.5*SQRT(C59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="45" t="s">
         <v>107</v>
       </c>
       <c r="B69" s="12">
         <f>B60</f>
         <v>2.8</v>
       </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="46" t="s">
-        <v>303</v>
+      <c r="D69" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="E69" s="12">
         <f>B60</f>
         <v>2.8</v>
       </c>
-      <c r="G69" s="54" t="s">
-        <v>313</v>
+      <c r="G69" s="53" t="s">
+        <v>312</v>
       </c>
       <c r="H69" s="12">
         <f>C60</f>
         <v>2.8</v>
       </c>
       <c r="J69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="53" t="s">
         <v>108</v>
       </c>
       <c r="B70" s="12">
         <f>C60</f>
         <v>2.8</v>
       </c>
-      <c r="C70" s="44"/>
-      <c r="D70" s="48" t="s">
-        <v>304</v>
+      <c r="D70" s="47" t="s">
+        <v>303</v>
       </c>
       <c r="E70" s="12">
         <f>D60</f>
         <v>2.8</v>
       </c>
-      <c r="G70" s="48" t="s">
-        <v>314</v>
+      <c r="G70" s="47" t="s">
+        <v>313</v>
       </c>
       <c r="H70" s="12">
         <f>D60</f>
@@ -3891,16 +3895,15 @@
         <f>(0.5*SQRT(B60)+0.5*SQRT(C60))^2</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="C71" s="44"/>
       <c r="D71" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E71" s="12">
         <f>(0.5*SQRT(B60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H71" s="12">
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
@@ -3915,16 +3918,15 @@
         <f>(0.5*SQRT(C60)+0.5*SQRT(B60))^2</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="C72" s="44"/>
       <c r="D72" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E72" s="12">
         <f>(0.5*SQRT(D60)+0.5*SQRT(B60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H72" s="12">
         <f>(0.5*SQRT(D60)+0.5*SQRT(C60))^2</f>
@@ -3939,16 +3941,15 @@
         <f>(0.5*SQRT(B60)+0.5*SQRT(C60))^2</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="C73" s="44"/>
       <c r="D73" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E73" s="12">
         <f>(0.5*SQRT(B60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H73" s="12">
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
@@ -3963,16 +3964,15 @@
         <f>(0.5*SQRT(C60)+0.5*SQRT(B60))^2</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="C74" s="44"/>
       <c r="D74" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E74" s="12">
         <f>(0.5*SQRT(D60)+0.5*SQRT(B60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H74" s="12">
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
@@ -3980,12 +3980,12 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A76" s="45" t="s">
-        <v>319</v>
+      <c r="A76" s="44" t="s">
+        <v>318</v>
       </c>
       <c r="B76" s="4"/>
       <c r="D76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
@@ -3997,7 +3997,7 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -4015,7 +4015,7 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D78" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
@@ -4027,7 +4027,7 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
@@ -4045,7 +4045,7 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D80" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
@@ -4089,7 +4089,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B31">
         <v>31</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B32">
         <v>32</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B34">
         <v>34</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B37">
         <v>37</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B43">
         <v>43</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B44">
         <v>44</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B45">
         <v>45</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B46">
         <v>46</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B47">
         <v>47</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B48">
         <v>48</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B49">
         <v>49</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B50">
         <v>50</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B51">
         <v>51</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B52">
         <v>52</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B53">
         <v>53</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B54">
         <v>54</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B55">
         <v>55</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B57">
         <v>57</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B58">
         <v>58</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B59">
         <v>59</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B60">
         <v>60</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B61">
         <v>61</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B62">
         <v>62</v>
@@ -4771,7 +4771,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B63">
         <v>63</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B64">
         <v>64</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B65">
         <v>65</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B66">
         <v>66</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B67">
         <v>67</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B68">
         <v>68</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B69">
         <v>69</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B70">
         <v>70</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B71">
         <v>71</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B72">
         <v>72</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B74">
         <v>74</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B75">
         <v>75</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B76">
         <v>76</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B77">
         <v>77</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B79">
         <v>79</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B80">
         <v>80</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B81">
         <v>81</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B82">
         <v>82</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B83">
         <v>83</v>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B84">
         <v>84</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B85">
         <v>85</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B86">
         <v>86</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B87">
         <v>87</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B88">
         <v>88</v>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B89">
         <v>89</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B90">
         <v>90</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B91">
         <v>91</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B92">
         <v>92</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B93">
         <v>93</v>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B94">
         <v>94</v>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592B7C62-77B3-4993-A942-B454055E7954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07927BAE-6858-4D03-B7F2-8F08D2A1A259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="324">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -1286,6 +1286,10 @@
   </si>
   <si>
     <t>bcc</t>
+  </si>
+  <si>
+    <t>Note: rozero = rho0</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1565,7 +1569,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1726,9 +1730,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2048,7 +2049,7 @@
   <dimension ref="A1:W82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2092,7 +2093,9 @@
       <c r="S1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="4"/>
+      <c r="T1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
@@ -2374,14 +2377,12 @@
         <v>186</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="J8" s="54"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>279</v>
       </c>
-      <c r="J9" s="54"/>
       <c r="M9" s="5"/>
       <c r="P9" s="43" t="s">
         <v>90</v>
@@ -2389,7 +2390,6 @@
       <c r="Q9" s="50"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="J10" s="54"/>
       <c r="M10" s="5"/>
       <c r="P10" s="2" t="s">
         <v>72</v>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07927BAE-6858-4D03-B7F2-8F08D2A1A259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B223C2B7-333F-4B0F-9D47-4B749320A8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="900" yWindow="630" windowWidth="27450" windowHeight="14850" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="329">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -1285,10 +1285,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bcc</t>
-  </si>
-  <si>
     <t>Note: rozero = rho0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fcc</t>
+  </si>
+  <si>
+    <t>i-k-j = A-B-C, B-C-A and C-A-B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C(i-k-j)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i-k-j = A-B-A, B-A-B, A-A-B and A-B-B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C(i-k-j) = (0.5*C(i-k-i)^(1/2)+0.5*C(j-k-j)^(1/2))^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The positions of k atom between I and j atoms.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1569,7 +1589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1730,6 +1750,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2046,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
-  <dimension ref="A1:W82"/>
+  <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2094,7 +2120,7 @@
         <v>26</v>
       </c>
       <c r="T1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
@@ -2161,43 +2187,43 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B3" s="27">
-        <v>4.28</v>
+        <v>5.77</v>
       </c>
       <c r="C3" s="27">
-        <v>2.4689999999999999</v>
+        <v>2.77</v>
       </c>
       <c r="D3" s="12">
-        <v>5.03</v>
+        <v>6.44</v>
       </c>
       <c r="E3" s="12">
-        <v>0.56000000000000005</v>
+        <v>1.04</v>
       </c>
       <c r="F3" s="26">
-        <v>3.5</v>
+        <v>4.67</v>
       </c>
       <c r="G3" s="26">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H3" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I3" s="26">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J3" s="13">
         <v>1</v>
       </c>
       <c r="K3" s="26">
-        <v>-1.6</v>
+        <v>2.73</v>
       </c>
       <c r="L3" s="26">
-        <v>12.5</v>
+        <v>-1.38</v>
       </c>
       <c r="M3" s="26">
-        <v>-1.4</v>
+        <v>3.29</v>
       </c>
       <c r="N3" s="26">
         <v>0.68</v>
@@ -2212,10 +2238,10 @@
         <v>0.1</v>
       </c>
       <c r="R3" s="16">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S3" s="16">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="T3" s="26">
         <v>1</v>
@@ -2228,7 +2254,7 @@
       </c>
       <c r="F4" s="42" t="str">
         <f>C7</f>
-        <v>bcc</v>
+        <v>fcc</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>175</v>
@@ -2260,34 +2286,34 @@
       </c>
       <c r="F5" s="42">
         <f>IF(OR(C7="fcc", C7="l12"), (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(OR(C7="bcc", C7="b2"), (9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2), IF(C7="hcp", (9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2), IF(C7="dim", "", IF(C7="dia", (9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2), IF(C7="b1", (9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2), IF(C7="sc", (9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2), "")))))))</f>
-        <v>6.9429572533693316</v>
+        <v>6.8103578809482199</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>271</v>
       </c>
       <c r="H5" s="40">
         <f>(9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2)</f>
-        <v>6.654231990175461</v>
+        <v>6.8103578809482199</v>
       </c>
       <c r="I5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2)</f>
-        <v>6.9429572533693316</v>
+        <v>7.1058574028350963</v>
       </c>
       <c r="J5" s="40">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2)</f>
-        <v>6.6542319901754601</v>
+        <v>6.810357880948219</v>
       </c>
       <c r="K5" s="40">
         <f>(9*(D5*0.006241509)*((C3*4/SQRT(3))^3/8)/B3)^(1/2)</f>
-        <v>9.8188243106915607</v>
+        <v>10.049199911378651</v>
       </c>
       <c r="L5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2)</f>
-        <v>7.9132600275953751</v>
+        <v>8.0989260477384768</v>
       </c>
       <c r="M5" s="40">
         <f>(9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2)</f>
-        <v>7.9132600275953751</v>
+        <v>8.0989260477384768</v>
       </c>
       <c r="N5" t="s">
         <v>176</v>
@@ -2327,22 +2353,22 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="42">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 2, FALSE), "")</f>
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B7" s="42">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 3, FALSE), "")</f>
-        <v>55.844999999999999</v>
+        <v>195.08</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D7" s="42">
         <f>IF(C7="fcc", 12, IF(C7="bcc", 8, IF(C7="hcp", 12, IF(C7="dim", 1, IF(C7="dia", 4, IF(C7="sc", 6, ""))))))</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" s="42">
         <f>IF(C7="fcc", SQRT(2), IF(C7="bcc", 2/SQRT(3), IF(C7="hcp", 1, IF(C7="dim", 1, IF(C7="dia", 4/SQRT(3), IF(C7="sc", 1, ""))))))</f>
-        <v>1.1547005383792517</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="F7" s="12">
         <v>3</v>
@@ -2601,23 +2627,23 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
-        <v>Fe</v>
+        <v>Pt</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>C7</f>
-        <v>bcc</v>
+        <v>fcc</v>
       </c>
       <c r="C15" s="3">
         <f>D7</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3">
         <f>A7</f>
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E15" s="3">
         <f>B7</f>
-        <v>55.844999999999999</v>
+        <v>195.08</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2658,35 +2684,35 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="39">
         <f>D3</f>
-        <v>5.03</v>
+        <v>6.44</v>
       </c>
       <c r="B16" s="21">
         <f>F3</f>
-        <v>3.5</v>
+        <v>4.67</v>
       </c>
       <c r="C16" s="21">
         <f>G3</f>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D16" s="21">
         <f>H3</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E16" s="21">
         <f>I3</f>
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F16" s="38">
         <f>C3*E7</f>
-        <v>2.8509556292583724</v>
+        <v>3.9173715677734737</v>
       </c>
       <c r="G16" s="17">
         <f>B3</f>
-        <v>4.28</v>
+        <v>5.77</v>
       </c>
       <c r="H16" s="24">
         <f>E3</f>
-        <v>0.56000000000000005</v>
+        <v>1.04</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>69</v>
@@ -2728,15 +2754,15 @@
       </c>
       <c r="B17" s="23">
         <f>K3</f>
-        <v>-1.6</v>
+        <v>2.73</v>
       </c>
       <c r="C17" s="23">
         <f>L3</f>
-        <v>12.5</v>
+        <v>-1.38</v>
       </c>
       <c r="D17" s="23">
         <f>M3</f>
-        <v>-1.4</v>
+        <v>3.29</v>
       </c>
       <c r="E17" s="23">
         <f>T3</f>
@@ -2753,7 +2779,7 @@
       </c>
       <c r="K17" s="6" t="str">
         <f>A3</f>
-        <v>Fe</v>
+        <v>Pt</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>76</v>
@@ -2888,7 +2914,7 @@
       </c>
       <c r="K21" s="22">
         <f>B3</f>
-        <v>4.28</v>
+        <v>5.77</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>82</v>
@@ -2920,7 +2946,7 @@
       </c>
       <c r="K22" s="22">
         <f>C3</f>
-        <v>2.4689999999999999</v>
+        <v>2.77</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>85</v>
@@ -2952,7 +2978,7 @@
       </c>
       <c r="K23" s="36">
         <f>D3</f>
-        <v>5.03</v>
+        <v>6.44</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>86</v>
@@ -2984,7 +3010,7 @@
       </c>
       <c r="K24" s="24">
         <f>S3</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M24" s="12" t="s">
         <v>87</v>
@@ -3009,7 +3035,7 @@
       </c>
       <c r="K25" s="24">
         <f>R3</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>88</v>
@@ -3909,6 +3935,9 @@
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
+      <c r="J71" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" s="12" t="s">
@@ -3932,6 +3961,11 @@
         <f>(0.5*SQRT(D60)+0.5*SQRT(C60))^2</f>
         <v>2.8000000000000003</v>
       </c>
+      <c r="J72" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" s="12" t="s">
@@ -3955,6 +3989,11 @@
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
+      <c r="J73" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" s="12" t="s">
@@ -4048,7 +4087,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="12" t="s">
         <v>131</v>
       </c>
@@ -4057,7 +4096,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="12" t="s">
         <v>130</v>
       </c>
@@ -4065,6 +4104,42 @@
         <f>(0.5*SQRT(B74)+0.5*SQRT(E74))^2</f>
         <v>2.8000000000000003</v>
       </c>
+      <c r="D82" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D83" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D84" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="E84" s="54"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="54"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D85" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B223C2B7-333F-4B0F-9D47-4B749320A8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BF49A0-EE25-43FB-9E9D-801F9B518542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="630" windowWidth="27450" windowHeight="14850" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="7200" yWindow="4980" windowWidth="20040" windowHeight="8835" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="330">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -1289,9 +1289,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fcc</t>
-  </si>
-  <si>
     <t>i-k-j = A-B-C, B-C-A and C-A-B</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1310,6 +1307,13 @@
   <si>
     <t>The positions of k atom between I and j atoms.</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6 parameter case: C(j,i,j) = C(i,j,j) and C(j,i,i) = C(i,j,i)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hcp</t>
   </si>
 </sst>
 </file>
@@ -1752,10 +1756,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2074,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2187,52 +2191,52 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B3" s="27">
-        <v>5.77</v>
+        <v>4.87</v>
       </c>
       <c r="C3" s="27">
-        <v>2.77</v>
+        <v>2.92</v>
       </c>
       <c r="D3" s="12">
-        <v>6.44</v>
+        <v>4.63</v>
       </c>
       <c r="E3" s="12">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="F3" s="26">
-        <v>4.67</v>
+        <v>1.32</v>
       </c>
       <c r="G3" s="26">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="H3" s="26">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="I3" s="26">
-        <v>2.2000000000000002</v>
+        <v>5</v>
       </c>
       <c r="J3" s="13">
         <v>1</v>
       </c>
       <c r="K3" s="26">
-        <v>2.73</v>
+        <v>5.3</v>
       </c>
       <c r="L3" s="26">
-        <v>-1.38</v>
+        <v>14.1</v>
       </c>
       <c r="M3" s="26">
-        <v>3.29</v>
+        <v>-5</v>
       </c>
       <c r="N3" s="26">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="O3" s="12">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="P3" s="37">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q3" s="12">
         <v>0.1</v>
@@ -2254,7 +2258,7 @@
       </c>
       <c r="F4" s="42" t="str">
         <f>C7</f>
-        <v>fcc</v>
+        <v>hcp</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>175</v>
@@ -2286,34 +2290,34 @@
       </c>
       <c r="F5" s="42">
         <f>IF(OR(C7="fcc", C7="l12"), (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(OR(C7="bcc", C7="b2"), (9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2), IF(C7="hcp", (9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2), IF(C7="dim", "", IF(C7="dia", (9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2), IF(C7="b1", (9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2), IF(C7="sc", (9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2), "")))))))</f>
-        <v>6.8103578809482199</v>
+        <v>8.0232067562703069</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>271</v>
       </c>
       <c r="H5" s="40">
         <f>(9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2)</f>
-        <v>6.8103578809482199</v>
+        <v>8.0232067562703087</v>
       </c>
       <c r="I5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2)</f>
-        <v>7.1058574028350963</v>
+        <v>8.3713314513189854</v>
       </c>
       <c r="J5" s="40">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2)</f>
-        <v>6.810357880948219</v>
+        <v>8.0232067562703069</v>
       </c>
       <c r="K5" s="40">
         <f>(9*(D5*0.006241509)*((C3*4/SQRT(3))^3/8)/B3)^(1/2)</f>
-        <v>10.049199911378651</v>
+        <v>11.838850473575754</v>
       </c>
       <c r="L5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2)</f>
-        <v>8.0989260477384768</v>
+        <v>9.5412545596945524</v>
       </c>
       <c r="M5" s="40">
         <f>(9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2)</f>
-        <v>8.0989260477384768</v>
+        <v>9.5412545596945524</v>
       </c>
       <c r="N5" t="s">
         <v>176</v>
@@ -2353,14 +2357,14 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="42">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 2, FALSE), "")</f>
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B7" s="42">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 3, FALSE), "")</f>
-        <v>195.08</v>
+        <v>47.866999999999997</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D7" s="42">
         <f>IF(C7="fcc", 12, IF(C7="bcc", 8, IF(C7="hcp", 12, IF(C7="dim", 1, IF(C7="dia", 4, IF(C7="sc", 6, ""))))))</f>
@@ -2368,7 +2372,7 @@
       </c>
       <c r="E7" s="42">
         <f>IF(C7="fcc", SQRT(2), IF(C7="bcc", 2/SQRT(3), IF(C7="hcp", 1, IF(C7="dim", 1, IF(C7="dia", 4/SQRT(3), IF(C7="sc", 1, ""))))))</f>
-        <v>1.4142135623730951</v>
+        <v>1</v>
       </c>
       <c r="F7" s="12">
         <v>3</v>
@@ -2483,7 +2487,7 @@
       </c>
       <c r="K12" s="4">
         <f>P3</f>
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>84</v>
@@ -2627,11 +2631,11 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
-        <v>Pt</v>
+        <v>Ti</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>C7</f>
-        <v>fcc</v>
+        <v>hcp</v>
       </c>
       <c r="C15" s="3">
         <f>D7</f>
@@ -2639,11 +2643,11 @@
       </c>
       <c r="D15" s="3">
         <f>A7</f>
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E15" s="3">
         <f>B7</f>
-        <v>195.08</v>
+        <v>47.866999999999997</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2684,35 +2688,35 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="39">
         <f>D3</f>
-        <v>6.44</v>
+        <v>4.63</v>
       </c>
       <c r="B16" s="21">
         <f>F3</f>
-        <v>4.67</v>
+        <v>1.32</v>
       </c>
       <c r="C16" s="21">
         <f>G3</f>
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D16" s="21">
         <f>H3</f>
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="E16" s="21">
         <f>I3</f>
-        <v>2.2000000000000002</v>
+        <v>5</v>
       </c>
       <c r="F16" s="38">
         <f>C3*E7</f>
-        <v>3.9173715677734737</v>
+        <v>2.92</v>
       </c>
       <c r="G16" s="17">
         <f>B3</f>
-        <v>5.77</v>
+        <v>4.87</v>
       </c>
       <c r="H16" s="24">
         <f>E3</f>
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>69</v>
@@ -2754,15 +2758,15 @@
       </c>
       <c r="B17" s="23">
         <f>K3</f>
-        <v>2.73</v>
+        <v>5.3</v>
       </c>
       <c r="C17" s="23">
         <f>L3</f>
-        <v>-1.38</v>
+        <v>14.1</v>
       </c>
       <c r="D17" s="23">
         <f>M3</f>
-        <v>3.29</v>
+        <v>-5</v>
       </c>
       <c r="E17" s="23">
         <f>T3</f>
@@ -2779,7 +2783,7 @@
       </c>
       <c r="K17" s="6" t="str">
         <f>A3</f>
-        <v>Pt</v>
+        <v>Ti</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>76</v>
@@ -2914,7 +2918,7 @@
       </c>
       <c r="K21" s="22">
         <f>B3</f>
-        <v>5.77</v>
+        <v>4.87</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>82</v>
@@ -2946,7 +2950,7 @@
       </c>
       <c r="K22" s="22">
         <f>C3</f>
-        <v>2.77</v>
+        <v>2.92</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>85</v>
@@ -2978,7 +2982,7 @@
       </c>
       <c r="K23" s="36">
         <f>D3</f>
-        <v>6.44</v>
+        <v>4.63</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>86</v>
@@ -3063,7 +3067,7 @@
       </c>
       <c r="K26" s="24">
         <f>N3</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>89</v>
@@ -3094,7 +3098,7 @@
       </c>
       <c r="K27" s="25">
         <f>O3</f>
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="M27" s="5"/>
       <c r="P27" s="2" t="s">
@@ -3758,7 +3762,7 @@
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A65" s="12" t="s">
         <v>115</v>
       </c>
@@ -3784,7 +3788,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A66" s="12" t="s">
         <v>114</v>
       </c>
@@ -3810,7 +3814,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A67" s="12" t="s">
         <v>101</v>
       </c>
@@ -3836,7 +3840,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A68" s="12" t="s">
         <v>102</v>
       </c>
@@ -3864,7 +3868,7 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A69" s="45" t="s">
         <v>107</v>
       </c>
@@ -3890,7 +3894,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A70" s="53" t="s">
         <v>108</v>
       </c>
@@ -3913,7 +3917,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A71" s="12" t="s">
         <v>117</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A72" s="12" t="s">
         <v>116</v>
       </c>
@@ -3962,12 +3966,12 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A73" s="12" t="s">
         <v>117</v>
       </c>
@@ -3990,12 +3994,16 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M73" s="55"/>
+      <c r="N73" s="55"/>
+      <c r="O73" s="55"/>
+      <c r="P73" s="55"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A74" s="12" t="s">
         <v>106</v>
       </c>
@@ -4017,8 +4025,23 @@
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J74" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="55"/>
+      <c r="N74" s="55"/>
+      <c r="O74" s="55"/>
+      <c r="P74" s="55"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M75" s="55"/>
+      <c r="N75" s="55"/>
+      <c r="O75" s="55"/>
+      <c r="P75" s="55"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A76" s="44" t="s">
         <v>318</v>
       </c>
@@ -4027,7 +4050,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A77" s="12" t="s">
         <v>121</v>
       </c>
@@ -4045,7 +4068,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A78" s="12" t="s">
         <v>125</v>
       </c>
@@ -4057,7 +4080,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A79" s="12" t="s">
         <v>124</v>
       </c>
@@ -4075,7 +4098,7 @@
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A80" s="12" t="s">
         <v>127</v>
       </c>
@@ -4110,7 +4133,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D83" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -4120,19 +4143,13 @@
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D84" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="E84" s="54"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
-      <c r="J84" s="54"/>
+      <c r="D84" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D85" s="55" t="s">
-        <v>328</v>
+      <c r="D85" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BF49A0-EE25-43FB-9E9D-801F9B518542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B14E368-8137-47F8-971A-6731B08CBD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4980" windowWidth="20040" windowHeight="8835" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="2940" yWindow="765" windowWidth="21390" windowHeight="13860" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -1309,11 +1309,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6 parameter case: C(j,i,j) = C(i,j,j) and C(j,i,i) = C(i,j,i)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hcp</t>
+    <t>dim</t>
+  </si>
+  <si>
+    <t>C(B,A,B) = C(A,B,B) and C(A,B,A) = C(B,A,A)</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1756,10 +1756,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2078,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2191,49 +2191,49 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B3" s="27">
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="C3" s="27">
-        <v>2.92</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="12">
-        <v>4.63</v>
+        <v>5.96</v>
       </c>
       <c r="E3" s="12">
-        <v>1.17</v>
+        <v>1.8</v>
       </c>
       <c r="F3" s="26">
-        <v>1.32</v>
+        <v>2.75</v>
       </c>
       <c r="G3" s="26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="26">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="I3" s="26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="13">
         <v>1</v>
       </c>
       <c r="K3" s="26">
-        <v>5.3</v>
+        <v>0.05</v>
       </c>
       <c r="L3" s="26">
-        <v>14.1</v>
+        <v>1</v>
       </c>
       <c r="M3" s="26">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="N3" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" s="12">
-        <v>1.44</v>
+        <v>2.8</v>
       </c>
       <c r="P3" s="37">
         <v>4.2</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="26">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="F4" s="42" t="str">
         <f>C7</f>
-        <v>hcp</v>
+        <v>dim</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>175</v>
@@ -2288,36 +2288,36 @@
       <c r="E5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="42" t="str">
         <f>IF(OR(C7="fcc", C7="l12"), (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(OR(C7="bcc", C7="b2"), (9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2), IF(C7="hcp", (9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2), IF(C7="dim", "", IF(C7="dia", (9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2), IF(C7="b1", (9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2), IF(C7="sc", (9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2), "")))))))</f>
-        <v>8.0232067562703069</v>
+        <v/>
       </c>
       <c r="G5" s="40" t="s">
         <v>271</v>
       </c>
       <c r="H5" s="40">
         <f>(9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2)</f>
-        <v>8.0232067562703087</v>
+        <v>1.8531787183881367</v>
       </c>
       <c r="I5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2)</f>
-        <v>8.3713314513189854</v>
+        <v>1.9335876241794998</v>
       </c>
       <c r="J5" s="40">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2)</f>
-        <v>8.0232067562703069</v>
+        <v>1.8531787183881363</v>
       </c>
       <c r="K5" s="40">
         <f>(9*(D5*0.006241509)*((C3*4/SQRT(3))^3/8)/B3)^(1/2)</f>
-        <v>11.838850473575754</v>
+        <v>2.7345058421514197</v>
       </c>
       <c r="L5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2)</f>
-        <v>9.5412545596945524</v>
+        <v>2.2038133172787959</v>
       </c>
       <c r="M5" s="40">
         <f>(9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2)</f>
-        <v>9.5412545596945524</v>
+        <v>2.2038133172787959</v>
       </c>
       <c r="N5" t="s">
         <v>176</v>
@@ -2357,18 +2357,18 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="42">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 2, FALSE), "")</f>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B7" s="42">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 3, FALSE), "")</f>
-        <v>47.866999999999997</v>
+        <v>14.007</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D7" s="42">
         <f>IF(C7="fcc", 12, IF(C7="bcc", 8, IF(C7="hcp", 12, IF(C7="dim", 1, IF(C7="dia", 4, IF(C7="sc", 6, ""))))))</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E7" s="42">
         <f>IF(C7="fcc", SQRT(2), IF(C7="bcc", 2/SQRT(3), IF(C7="hcp", 1, IF(C7="dim", 1, IF(C7="dia", 4/SQRT(3), IF(C7="sc", 1, ""))))))</f>
@@ -2396,7 +2396,10 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
+      <c r="S7" s="8">
+        <f>3.92/0.98</f>
+        <v>4</v>
+      </c>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
@@ -2631,23 +2634,23 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
-        <v>Ti</v>
+        <v>N</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>C7</f>
-        <v>hcp</v>
+        <v>dim</v>
       </c>
       <c r="C15" s="3">
         <f>D7</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <f>A7</f>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3">
         <f>B7</f>
-        <v>47.866999999999997</v>
+        <v>14.007</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2688,35 +2691,35 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="39">
         <f>D3</f>
-        <v>4.63</v>
+        <v>5.96</v>
       </c>
       <c r="B16" s="21">
         <f>F3</f>
-        <v>1.32</v>
+        <v>2.75</v>
       </c>
       <c r="C16" s="21">
         <f>G3</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="21">
         <f>H3</f>
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="E16" s="21">
         <f>I3</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="38">
         <f>C3*E7</f>
-        <v>2.92</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G16" s="17">
         <f>B3</f>
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="H16" s="24">
         <f>E3</f>
-        <v>1.17</v>
+        <v>1.8</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>69</v>
@@ -2758,19 +2761,19 @@
       </c>
       <c r="B17" s="23">
         <f>K3</f>
-        <v>5.3</v>
+        <v>0.05</v>
       </c>
       <c r="C17" s="23">
         <f>L3</f>
-        <v>14.1</v>
+        <v>1</v>
       </c>
       <c r="D17" s="23">
         <f>M3</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E17" s="23">
         <f>T3</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F17" s="8">
         <f>F7</f>
@@ -2783,7 +2786,7 @@
       </c>
       <c r="K17" s="6" t="str">
         <f>A3</f>
-        <v>Ti</v>
+        <v>N</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>76</v>
@@ -2886,7 +2889,7 @@
       </c>
       <c r="K20" s="24">
         <f>T3</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>81</v>
@@ -2918,7 +2921,7 @@
       </c>
       <c r="K21" s="22">
         <f>B3</f>
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>82</v>
@@ -2950,7 +2953,7 @@
       </c>
       <c r="K22" s="22">
         <f>C3</f>
-        <v>2.92</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>85</v>
@@ -2982,7 +2985,7 @@
       </c>
       <c r="K23" s="36">
         <f>D3</f>
-        <v>4.63</v>
+        <v>5.96</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>86</v>
@@ -3067,7 +3070,7 @@
       </c>
       <c r="K26" s="24">
         <f>N3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>89</v>
@@ -3098,7 +3101,7 @@
       </c>
       <c r="K27" s="25">
         <f>O3</f>
-        <v>1.44</v>
+        <v>2.8</v>
       </c>
       <c r="M27" s="5"/>
       <c r="P27" s="2" t="s">
@@ -3993,15 +3996,15 @@
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="55"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="54"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A74" s="12" t="s">
@@ -4025,21 +4028,21 @@
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="J74" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="55"/>
-      <c r="N74" s="55"/>
-      <c r="O74" s="55"/>
-      <c r="P74" s="55"/>
+      <c r="J74" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="54"/>
+      <c r="P74" s="54"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="M75" s="55"/>
-      <c r="N75" s="55"/>
-      <c r="O75" s="55"/>
-      <c r="P75" s="55"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="54"/>
+      <c r="P75" s="54"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A76" s="44" t="s">

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B14E368-8137-47F8-971A-6731B08CBD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086B6966-C88D-43EF-B041-0C86418C1263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="765" windowWidth="21390" windowHeight="13860" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="330">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -1293,10 +1293,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C(i-k-j)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>i-k-j = A-B-A, B-A-B, A-A-B and A-B-B</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1305,14 +1301,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The positions of k atom between I and j atoms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>dim</t>
   </si>
   <si>
     <t>C(B,A,B) = C(A,B,B) and C(A,B,A) = C(B,A,A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C(B,A,A) = C(A,A,B) and C(B,B,A) = C(A,B,B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C(i-k-j) case: The positions of k atom between i and j atoms.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1593,7 +1593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1757,9 +1757,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2076,10 +2073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
-  <dimension ref="A1:W85"/>
+  <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="O74" sqref="O74"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2364,7 +2361,7 @@
         <v>14.007</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D7" s="42">
         <f>IF(C7="fcc", 12, IF(C7="bcc", 8, IF(C7="hcp", 12, IF(C7="dim", 1, IF(C7="dia", 4, IF(C7="sc", 6, ""))))))</f>
@@ -3692,6 +3689,11 @@
         <v>2.8</v>
       </c>
     </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="J61" t="s">
+        <v>319</v>
+      </c>
+    </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A62" s="42" t="s">
         <v>293</v>
@@ -3705,9 +3707,11 @@
         <v>295</v>
       </c>
       <c r="H62" s="12"/>
-      <c r="J62" t="s">
-        <v>319</v>
-      </c>
+      <c r="J62" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63" s="16" t="s">
@@ -3731,11 +3735,11 @@
         <f>C59</f>
         <v>0.49</v>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
+      <c r="J63" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64" s="13" t="s">
@@ -3759,13 +3763,11 @@
         <f>D59</f>
         <v>0.49</v>
       </c>
-      <c r="J64" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="J64" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="12" t="s">
         <v>115</v>
       </c>
@@ -3788,10 +3790,10 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="J65" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="12" t="s">
         <v>114</v>
       </c>
@@ -3814,10 +3816,10 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="J66" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" s="12" t="s">
         <v>101</v>
       </c>
@@ -3839,11 +3841,13 @@
         <f>(0.5*SQRT(C59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
-      <c r="J67" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="J67" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="12" t="s">
         <v>102</v>
       </c>
@@ -3865,13 +3869,11 @@
         <f>(0.5*SQRT(D59)+0.5*SQRT(C59))^2</f>
         <v>0.48999999999999994</v>
       </c>
-      <c r="J68" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="J68" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="45" t="s">
         <v>107</v>
       </c>
@@ -3893,11 +3895,8 @@
         <f>C60</f>
         <v>2.8</v>
       </c>
-      <c r="J69" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" s="53" t="s">
         <v>108</v>
       </c>
@@ -3919,8 +3918,13 @@
         <f>D60</f>
         <v>2.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="J70" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" s="12" t="s">
         <v>117</v>
       </c>
@@ -3942,11 +3946,8 @@
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="J71" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" s="12" t="s">
         <v>116</v>
       </c>
@@ -3969,12 +3970,12 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" s="12" t="s">
         <v>117</v>
       </c>
@@ -3996,17 +3997,11 @@
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="J73" s="54" t="s">
-        <v>325</v>
-      </c>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="54"/>
-      <c r="P73" s="54"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="J73" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" s="12" t="s">
         <v>106</v>
       </c>
@@ -4028,23 +4023,13 @@
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="J74" s="55" t="s">
-        <v>329</v>
+      <c r="J74" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
-      <c r="P74" s="54"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="54"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" s="44" t="s">
         <v>318</v>
       </c>
@@ -4053,7 +4038,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" s="12" t="s">
         <v>121</v>
       </c>
@@ -4071,7 +4056,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" s="12" t="s">
         <v>125</v>
       </c>
@@ -4083,7 +4068,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" s="12" t="s">
         <v>124</v>
       </c>
@@ -4101,7 +4086,7 @@
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" s="12" t="s">
         <v>127</v>
       </c>
@@ -4130,36 +4115,37 @@
         <f>(0.5*SQRT(B74)+0.5*SQRT(E74))^2</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="D82" t="s">
-        <v>319</v>
-      </c>
+      <c r="D82" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D83" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
+      <c r="D83" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D84" t="s">
+      <c r="D84" s="8" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D85" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086B6966-C88D-43EF-B041-0C86418C1263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466E2168-CA09-438B-812B-810829ED8A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="765" windowWidth="21390" windowHeight="13860" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="5895" yWindow="435" windowWidth="21390" windowHeight="13860" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -172,10 +172,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Note: 1 Gpa = 1e9 Pa = 1e9 J/m^3 = 1e9/(1.602e-19) eV/m^3  = 1e9/(1.602e-19)/((10^10)^3) eV/A^3 = 6.2415e-3 eV/A^3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>c/a (for HCP)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1301,9 +1297,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dim</t>
-  </si>
-  <si>
     <t>C(B,A,B) = C(A,B,B) and C(A,B,A) = C(B,A,A)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1313,6 +1306,13 @@
   </si>
   <si>
     <t>C(i-k-j) case: The positions of k atom between i and j atoms.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fcc</t>
+  </si>
+  <si>
+    <t>Note: 1 GPa = 1e9 Pa = 1e9 J/m^3 = 1e9/(1.602e-19) eV/m^3  = 1e9/(1.602e-19)/((10^10)^3) eV/A^3 = 6.2415e-3 eV/A^3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1593,7 +1593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1754,9 +1754,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2075,13 +2072,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="N75" sqref="N75"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.125" customWidth="1"/>
@@ -2108,7 +2106,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -2121,7 +2119,7 @@
         <v>26</v>
       </c>
       <c r="T1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
@@ -2129,10 +2127,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>2</v>
@@ -2171,16 +2169,16 @@
         <v>12</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q2" s="15" t="s">
         <v>14</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T2" s="15" t="s">
         <v>31</v>
@@ -2188,46 +2186,47 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B3" s="27">
-        <v>4.88</v>
+        <v>4.45</v>
       </c>
       <c r="C3" s="27">
-        <v>1.1000000000000001</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="D3" s="12">
-        <v>5.96</v>
+        <f>F5</f>
+        <v>0.40168764677564028</v>
       </c>
       <c r="E3" s="12">
-        <v>1.8</v>
+        <v>0.94</v>
       </c>
       <c r="F3" s="26">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="G3" s="26">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H3" s="26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I3" s="26">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="J3" s="13">
         <v>1</v>
       </c>
       <c r="K3" s="26">
-        <v>0.05</v>
+        <v>3.1</v>
       </c>
       <c r="L3" s="26">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="M3" s="26">
-        <v>0</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="N3" s="26">
-        <v>2</v>
+        <v>0.81</v>
       </c>
       <c r="O3" s="12">
         <v>2.8</v>
@@ -2239,29 +2238,29 @@
         <v>0.1</v>
       </c>
       <c r="R3" s="16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S3" s="16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="26">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="D4" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F4" s="42" t="str">
         <f>C7</f>
-        <v>dim</v>
+        <v>fcc</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J4" s="40" t="s">
         <v>35</v>
@@ -2270,58 +2269,58 @@
         <v>32</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="D5" s="12">
-        <f>100*3.17</f>
-        <v>317</v>
+        <f>0.0062415*187.6</f>
+        <v>1.1709053999999999</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="42" t="str">
+      <c r="F5" s="42">
         <f>IF(OR(C7="fcc", C7="l12"), (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(OR(C7="bcc", C7="b2"), (9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2), IF(C7="hcp", (9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2), IF(C7="dim", "", IF(C7="dia", (9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2), IF(C7="b1", (9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2), IF(C7="sc", (9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2), "")))))))</f>
-        <v/>
+        <v>0.40168764677564028</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H5" s="40">
         <f>(9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2)</f>
-        <v>1.8531787183881367</v>
+        <v>0.40168764677564028</v>
       </c>
       <c r="I5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2)</f>
-        <v>1.9335876241794998</v>
+        <v>0.41911676131632003</v>
       </c>
       <c r="J5" s="40">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2)</f>
-        <v>1.8531787183881363</v>
+        <v>0.40168764677564023</v>
       </c>
       <c r="K5" s="40">
         <f>(9*(D5*0.006241509)*((C3*4/SQRT(3))^3/8)/B3)^(1/2)</f>
-        <v>2.7345058421514197</v>
+        <v>0.59272060807142712</v>
       </c>
       <c r="L5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2)</f>
-        <v>2.2038133172787959</v>
+        <v>0.47768980755429125</v>
       </c>
       <c r="M5" s="40">
         <f>(9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2)</f>
-        <v>2.2038133172787959</v>
+        <v>0.47768980755429125</v>
       </c>
       <c r="N5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" t="s">
-        <v>36</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
@@ -2344,38 +2343,38 @@
         <v>28</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="42">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 2, FALSE), "")</f>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B7" s="42">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 3, FALSE), "")</f>
-        <v>14.007</v>
+        <v>58.692999999999998</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D7" s="42">
         <f>IF(C7="fcc", 12, IF(C7="bcc", 8, IF(C7="hcp", 12, IF(C7="dim", 1, IF(C7="dia", 4, IF(C7="sc", 6, ""))))))</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E7" s="42">
         <f>IF(C7="fcc", SQRT(2), IF(C7="bcc", 2/SQRT(3), IF(C7="hcp", 1, IF(C7="dim", 1, IF(C7="dia", 4/SQRT(3), IF(C7="sc", 1, ""))))))</f>
-        <v>1</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="F7" s="12">
         <v>3</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2384,7 +2383,7 @@
         <v>1.6329931618554521</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -2393,10 +2392,7 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="8">
-        <f>3.92/0.98</f>
-        <v>4</v>
-      </c>
+      <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
@@ -2404,25 +2400,25 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="1"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M9" s="5"/>
       <c r="P9" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q9" s="50"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="M10" s="5"/>
       <c r="P10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="4" t="str">
         <f>N12</f>
@@ -2445,39 +2441,39 @@
       </c>
       <c r="K11" s="50"/>
       <c r="M11" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N11" s="50"/>
       <c r="P11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
       <c r="S11" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T11" s="50"/>
       <c r="V11" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W11" s="50"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2490,25 +2486,25 @@
         <v>4.2</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q12" s="6">
         <v>1</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T12" s="26">
         <v>0.1</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W12" s="28">
         <f>T12</f>
@@ -2520,25 +2516,25 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>50</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>51</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>23</v>
@@ -2548,26 +2544,26 @@
         <v>0.1</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="6" t="str">
         <f t="shared" ref="Q13:Q18" si="0">N13</f>
         <v>b2</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T13" s="26">
         <v>1.1000000000000001</v>
       </c>
       <c r="V13" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W13" s="29">
         <f>T12</f>
@@ -2588,15 +2584,15 @@
         <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="J14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14" s="6">
         <v>0</v>
@@ -2608,20 +2604,20 @@
         <v>6.4</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="22">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T14" s="26">
         <v>0.15</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W14" s="28">
         <f>T13</f>
@@ -2631,29 +2627,29 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
-        <v>N</v>
+        <v>Ni</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>C7</f>
-        <v>dim</v>
+        <v>fcc</v>
       </c>
       <c r="C15" s="3">
         <f>D7</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3">
         <f>A7</f>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E15" s="3">
         <f>B7</f>
-        <v>14.007</v>
+        <v>58.692999999999998</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
       <c r="J15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="6">
         <v>2</v>
@@ -2665,20 +2661,20 @@
         <v>2.72</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="24">
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T15" s="26">
         <v>1.9</v>
       </c>
       <c r="V15" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W15" s="29">
         <f>T13</f>
@@ -2688,38 +2684,38 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="39">
         <f>D3</f>
-        <v>5.96</v>
+        <v>0.40168764677564028</v>
       </c>
       <c r="B16" s="21">
         <f>F3</f>
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="C16" s="21">
         <f>G3</f>
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D16" s="21">
         <f>H3</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" s="21">
         <f>I3</f>
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F16" s="38">
         <f>C3*E7</f>
-        <v>1.1000000000000001</v>
+        <v>3.5213917703090072</v>
       </c>
       <c r="G16" s="17">
         <f>B3</f>
-        <v>4.88</v>
+        <v>4.45</v>
       </c>
       <c r="H16" s="24">
         <f>E3</f>
-        <v>1.8</v>
+        <v>0.94</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K16" s="6">
         <v>2</v>
@@ -2731,20 +2727,20 @@
         <v>5</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T16" s="26">
         <v>2.6</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W16" s="28">
         <f>T14</f>
@@ -2758,19 +2754,19 @@
       </c>
       <c r="B17" s="23">
         <f>K3</f>
-        <v>0.05</v>
+        <v>3.1</v>
       </c>
       <c r="C17" s="23">
         <f>L3</f>
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="D17" s="23">
         <f>M3</f>
-        <v>0</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="E17" s="23">
         <f>T3</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F17" s="8">
         <f>F7</f>
@@ -2779,33 +2775,33 @@
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
       <c r="J17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K17" s="6" t="str">
         <f>A3</f>
-        <v>N</v>
+        <v>Ni</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N17" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T17" s="26">
         <v>1.9</v>
       </c>
       <c r="V17" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W17" s="29">
         <f>T14</f>
@@ -2823,26 +2819,26 @@
       <c r="H18" s="8"/>
       <c r="I18" s="9"/>
       <c r="J18" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K18" s="6">
         <v>0</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N18" s="19">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W18" s="28">
         <f>T15</f>
@@ -2851,29 +2847,29 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K19" s="6">
         <v>1</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N19" s="26">
         <v>0.4</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="24">
         <f>N19</f>
         <v>0.4</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W19" s="29">
         <f>T15</f>
@@ -2882,27 +2878,27 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="J20" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K20" s="24">
         <f>T3</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N20" s="12">
         <v>0.67</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="24">
         <f>N20</f>
         <v>0.67</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W20" s="28">
         <f>T16</f>
@@ -2911,30 +2907,30 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K21" s="22">
         <f>B3</f>
-        <v>4.88</v>
+        <v>4.45</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N21" s="26">
         <v>0.6</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="28">
         <f>N21</f>
         <v>0.6</v>
       </c>
       <c r="V21" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W21" s="29">
         <f>T16</f>
@@ -2943,30 +2939,30 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K22" s="22">
         <f>C3</f>
-        <v>1.1000000000000001</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N22" s="26">
         <v>0.4</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="29">
         <f>N21</f>
         <v>0.6</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W22" s="24">
         <f>T17</f>
@@ -2975,30 +2971,30 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K23" s="36">
         <f>D3</f>
-        <v>5.96</v>
+        <v>0.40168764677564028</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N23" s="26">
         <v>2.8</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q23" s="28">
         <f>N22</f>
         <v>0.4</v>
       </c>
       <c r="V23" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W23" s="29">
         <f>T17</f>
@@ -3007,23 +3003,23 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K24" s="24">
         <f>S3</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N24" s="26">
         <v>1.7</v>
       </c>
       <c r="P24" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q24" s="29">
         <f>N22</f>
@@ -3032,58 +3028,58 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K25" s="24">
         <f>R3</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N25" s="26">
         <v>1.9</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q25" s="24">
         <f>N23</f>
         <v>2.8</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="K26" s="24">
         <f>N3</f>
-        <v>2</v>
+        <v>0.81</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N26" s="26">
         <v>1.8</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q26" s="24">
         <f>N24</f>
         <v>1.7</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W26" s="33">
         <v>2</v>
@@ -3091,7 +3087,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>24</v>
@@ -3102,14 +3098,14 @@
       </c>
       <c r="M27" s="5"/>
       <c r="P27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q27" s="28">
         <f>N25</f>
         <v>1.9</v>
       </c>
       <c r="V27" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W27" s="34">
         <v>2</v>
@@ -3119,14 +3115,14 @@
       <c r="J28" s="5"/>
       <c r="M28" s="5"/>
       <c r="P28" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="29">
         <f>N25</f>
         <v>1.9</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W28" s="33">
         <v>2</v>
@@ -3134,19 +3130,19 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J29" s="5"/>
       <c r="M29" s="5"/>
       <c r="P29" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q29" s="28">
         <f>N26</f>
         <v>1.8</v>
       </c>
       <c r="V29" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W29" s="34">
         <v>2</v>
@@ -3156,14 +3152,14 @@
       <c r="J30" s="5"/>
       <c r="M30" s="5"/>
       <c r="P30" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q30" s="29">
         <f>N26</f>
         <v>1.8</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W30" s="33">
         <v>2</v>
@@ -3171,12 +3167,12 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J31" s="5"/>
       <c r="M31" s="5"/>
       <c r="V31" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W31" s="34">
         <v>2</v>
@@ -3184,16 +3180,16 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J32" s="5"/>
       <c r="M32" s="5"/>
       <c r="P32" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q32" s="50"/>
       <c r="V32" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W32" s="33">
         <v>2.8</v>
@@ -3201,19 +3197,19 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J33" s="5"/>
       <c r="M33" s="5"/>
       <c r="P33" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q33" s="4" t="str">
         <f>N35</f>
         <v>Pd-Rh</v>
       </c>
       <c r="V33" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W33" s="34">
         <v>2.8</v>
@@ -3221,24 +3217,24 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J34" s="5"/>
       <c r="M34" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N34" s="50"/>
       <c r="P34" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q34" s="6">
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W34" s="33">
         <v>2.8</v>
@@ -3246,26 +3242,26 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J35" s="5"/>
       <c r="M35" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q35" s="6">
         <v>1</v>
       </c>
       <c r="R35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V35" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W35" s="34">
         <v>2.8</v>
@@ -3273,27 +3269,27 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J36" s="5"/>
       <c r="M36" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q36" s="6" t="str">
         <f t="shared" ref="Q36:Q41" si="1">N36</f>
         <v>b2</v>
       </c>
       <c r="R36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W36" s="33">
         <v>2.8</v>
@@ -3301,7 +3297,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J37" s="5"/>
       <c r="M37" s="12" t="s">
@@ -3311,17 +3307,17 @@
         <v>4.5830000000000002</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q37" s="22">
         <f t="shared" si="1"/>
         <v>4.5830000000000002</v>
       </c>
       <c r="R37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V37" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W37" s="34">
         <v>2.8</v>
@@ -3336,19 +3332,19 @@
         <v>2.6970000000000001</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q38" s="22">
         <f t="shared" si="1"/>
         <v>2.6970000000000001</v>
       </c>
       <c r="R38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J39" s="5"/>
       <c r="M39" s="12" t="s">
@@ -3358,95 +3354,95 @@
         <v>6.8920000000000003</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q39" s="22">
         <f t="shared" si="1"/>
         <v>6.8920000000000003</v>
       </c>
       <c r="R39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J40" s="5"/>
       <c r="M40" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N40" s="27">
         <v>0</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q40" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J41" s="5"/>
       <c r="M41" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N41" s="30">
         <v>0</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q41" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J42" s="5"/>
       <c r="M42" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N42" s="27">
         <v>1.6519999999999999</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q42" s="31">
         <f>N42</f>
         <v>1.6519999999999999</v>
       </c>
       <c r="R42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J43" s="5"/>
       <c r="M43" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N43" s="27">
         <v>1.7849999999999999</v>
       </c>
       <c r="P43" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q43" s="32">
         <f>N42</f>
@@ -3456,13 +3452,13 @@
     <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="J44" s="5"/>
       <c r="M44" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N44" s="27">
         <v>0.80500000000000005</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q44" s="31">
         <f>N43</f>
@@ -3471,17 +3467,17 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J45" s="5"/>
       <c r="M45" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N45" s="27">
         <v>0.43099999999999999</v>
       </c>
       <c r="P45" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="32">
         <f>N44</f>
@@ -3490,17 +3486,17 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J46" s="5"/>
       <c r="M46" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N46" s="27">
         <v>1.8680000000000001</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q46" s="31">
         <f>N45</f>
@@ -3509,17 +3505,17 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J47" s="5"/>
       <c r="M47" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N47" s="27">
         <v>2.39</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q47" s="32">
         <f>N45</f>
@@ -3528,39 +3524,39 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J48" s="5"/>
       <c r="M48" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N48" s="27">
         <v>2.1459999999999999</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q48" s="31">
         <f>N46</f>
         <v>1.8680000000000001</v>
       </c>
       <c r="R48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J49" s="5"/>
       <c r="M49" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N49" s="27">
         <v>2.0129999999999999</v>
       </c>
       <c r="P49" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q49" s="32">
         <f>N46</f>
@@ -3569,12 +3565,12 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J50" s="5"/>
       <c r="M50" s="5"/>
       <c r="P50" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q50" s="31">
         <f>N47</f>
@@ -3585,7 +3581,7 @@
       <c r="J51" s="5"/>
       <c r="M51" s="5"/>
       <c r="P51" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q51" s="32">
         <f>N48</f>
@@ -3594,12 +3590,12 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J52" s="5"/>
       <c r="M52" s="5"/>
       <c r="P52" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q52" s="31">
         <f>N49</f>
@@ -3608,12 +3604,12 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J53" s="5"/>
       <c r="M53" s="5"/>
       <c r="P53" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q53" s="32">
         <f>N49</f>
@@ -3622,21 +3618,21 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J54" s="5"/>
       <c r="M54" s="5"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J55" s="5"/>
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="7"/>
@@ -3644,21 +3640,21 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="D58" s="15" t="s">
         <v>286</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.4">
@@ -3691,205 +3687,205 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="J61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A62" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B62" s="12"/>
       <c r="D62" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E62" s="12"/>
       <c r="G62" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H62" s="12"/>
       <c r="J62" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" s="12">
         <f>B59</f>
         <v>0.49</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E63" s="12">
         <f>B59</f>
         <v>0.49</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H63" s="12">
         <f>C59</f>
         <v>0.49</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64" s="12">
         <f>C59</f>
         <v>0.49</v>
       </c>
       <c r="D64" s="46" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E64" s="12">
         <f>D59</f>
         <v>0.49</v>
       </c>
       <c r="G64" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H64" s="12">
         <f>D59</f>
         <v>0.49</v>
       </c>
       <c r="J64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" s="12">
         <f>(0.5*SQRT(B59)+0.5*SQRT(C59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E65" s="12">
         <f>(0.5*SQRT(B59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H65" s="12">
         <f>(0.5*SQRT(C59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="J65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B66" s="12">
         <f>(0.5*SQRT(C59)+0.5*SQRT(B59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E66" s="12">
         <f>(0.5*SQRT(D59)+0.5*SQRT(B59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H66" s="12">
         <f>(0.5*SQRT(D59)+0.5*SQRT(C59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="J66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67" s="12">
         <f>(0.5*SQRT(B59)+0.5*SQRT(C59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E67" s="12">
         <f>(0.5*SQRT(B59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H67" s="12">
         <f>(0.5*SQRT(C59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B68" s="12">
         <f>(0.5*SQRT(C59)+0.5*SQRT(B59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E68" s="12">
         <f>(0.5*SQRT(D59)+0.5*SQRT(B59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H68" s="12">
         <f>(0.5*SQRT(D59)+0.5*SQRT(C59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="J68" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B69" s="12">
         <f>B60</f>
         <v>2.8</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E69" s="12">
         <f>B60</f>
         <v>2.8</v>
       </c>
       <c r="G69" s="53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H69" s="12">
         <f>C60</f>
@@ -3898,49 +3894,49 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70" s="12">
         <f>C60</f>
         <v>2.8</v>
       </c>
       <c r="D70" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E70" s="12">
         <f>D60</f>
         <v>2.8</v>
       </c>
       <c r="G70" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H70" s="12">
         <f>D60</f>
         <v>2.8</v>
       </c>
       <c r="J70" s="49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K70" s="49"/>
       <c r="L70" s="49"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B71" s="12">
         <f>(0.5*SQRT(B60)+0.5*SQRT(C60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E71" s="12">
         <f>(0.5*SQRT(B60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H71" s="12">
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
@@ -3949,105 +3945,105 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B72" s="12">
         <f>(0.5*SQRT(C60)+0.5*SQRT(B60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E72" s="12">
         <f>(0.5*SQRT(D60)+0.5*SQRT(B60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H72" s="12">
         <f>(0.5*SQRT(D60)+0.5*SQRT(C60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B73" s="12">
         <f>(0.5*SQRT(B60)+0.5*SQRT(C60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E73" s="12">
         <f>(0.5*SQRT(B60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H73" s="12">
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="J73" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B74" s="12">
         <f>(0.5*SQRT(C60)+0.5*SQRT(B60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E74" s="12">
         <f>(0.5*SQRT(D60)+0.5*SQRT(B60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H74" s="12">
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" s="44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B76" s="4"/>
       <c r="D76" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B77" s="12">
         <f>(0.5*SQRT(B65)+0.5*SQRT(E65))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -4058,26 +4054,26 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B78" s="12">
         <f>(0.5*SQRT(B64)+0.5*SQRT(E64))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="D78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B79" s="12">
         <f>(0.5*SQRT(B68)+0.5*SQRT(E68))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
@@ -4088,19 +4084,19 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B80" s="12">
         <f>(0.5*SQRT(B71)+0.5*SQRT(E71))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="D80" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B81" s="12">
         <f>(0.5*SQRT(B70)+0.5*SQRT(E70))^2</f>
@@ -4109,14 +4105,14 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B82" s="12">
         <f>(0.5*SQRT(B74)+0.5*SQRT(E74))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -4126,19 +4122,13 @@
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D83" s="54" t="s">
-        <v>325</v>
-      </c>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
+      <c r="D83" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D84" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -4170,7 +4160,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -4181,7 +4171,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -4192,7 +4182,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -4203,7 +4193,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -4225,7 +4215,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -4236,7 +4226,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -4247,7 +4237,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -4258,7 +4248,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -4269,7 +4259,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -4280,7 +4270,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -4291,7 +4281,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -4302,7 +4292,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -4313,7 +4303,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -4324,7 +4314,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -4335,7 +4325,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -4346,7 +4336,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -4357,7 +4347,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -4368,7 +4358,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -4379,7 +4369,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -4390,7 +4380,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -4401,7 +4391,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -4412,7 +4402,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -4423,7 +4413,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -4434,7 +4424,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -4445,7 +4435,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -4456,7 +4446,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -4467,7 +4457,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -4478,7 +4468,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -4489,7 +4479,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -4500,7 +4490,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31">
         <v>31</v>
@@ -4511,7 +4501,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B32">
         <v>32</v>
@@ -4522,7 +4512,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -4533,7 +4523,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B34">
         <v>34</v>
@@ -4544,7 +4534,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -4555,7 +4545,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -4566,7 +4556,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B37">
         <v>37</v>
@@ -4577,7 +4567,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -4588,7 +4578,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -4599,7 +4589,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -4610,7 +4600,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B41">
         <v>41</v>
@@ -4621,7 +4611,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B42">
         <v>42</v>
@@ -4632,7 +4622,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B43">
         <v>43</v>
@@ -4643,7 +4633,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B44">
         <v>44</v>
@@ -4654,7 +4644,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B45">
         <v>45</v>
@@ -4665,7 +4655,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B46">
         <v>46</v>
@@ -4676,7 +4666,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B47">
         <v>47</v>
@@ -4687,7 +4677,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B48">
         <v>48</v>
@@ -4698,7 +4688,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B49">
         <v>49</v>
@@ -4709,7 +4699,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B50">
         <v>50</v>
@@ -4720,7 +4710,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B51">
         <v>51</v>
@@ -4731,7 +4721,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B52">
         <v>52</v>
@@ -4742,7 +4732,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B53">
         <v>53</v>
@@ -4753,7 +4743,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B54">
         <v>54</v>
@@ -4764,7 +4754,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B55">
         <v>55</v>
@@ -4775,7 +4765,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -4786,7 +4776,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B57">
         <v>57</v>
@@ -4797,7 +4787,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B58">
         <v>58</v>
@@ -4808,7 +4798,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B59">
         <v>59</v>
@@ -4819,7 +4809,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B60">
         <v>60</v>
@@ -4830,7 +4820,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B61">
         <v>61</v>
@@ -4841,7 +4831,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B62">
         <v>62</v>
@@ -4852,7 +4842,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B63">
         <v>63</v>
@@ -4863,7 +4853,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B64">
         <v>64</v>
@@ -4874,7 +4864,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B65">
         <v>65</v>
@@ -4885,7 +4875,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B66">
         <v>66</v>
@@ -4896,7 +4886,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B67">
         <v>67</v>
@@ -4907,7 +4897,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B68">
         <v>68</v>
@@ -4918,7 +4908,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B69">
         <v>69</v>
@@ -4929,7 +4919,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B70">
         <v>70</v>
@@ -4940,7 +4930,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B71">
         <v>71</v>
@@ -4951,7 +4941,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B72">
         <v>72</v>
@@ -4962,7 +4952,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B73">
         <v>73</v>
@@ -4973,7 +4963,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B74">
         <v>74</v>
@@ -4984,7 +4974,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B75">
         <v>75</v>
@@ -4995,7 +4985,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B76">
         <v>76</v>
@@ -5006,7 +4996,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B77">
         <v>77</v>
@@ -5017,7 +5007,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B78">
         <v>78</v>
@@ -5028,7 +5018,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B79">
         <v>79</v>
@@ -5039,7 +5029,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B80">
         <v>80</v>
@@ -5050,7 +5040,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B81">
         <v>81</v>
@@ -5061,7 +5051,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B82">
         <v>82</v>
@@ -5072,7 +5062,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B83">
         <v>83</v>
@@ -5083,7 +5073,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B84">
         <v>84</v>
@@ -5094,7 +5084,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B85">
         <v>85</v>
@@ -5105,7 +5095,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B86">
         <v>86</v>
@@ -5116,7 +5106,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B87">
         <v>87</v>
@@ -5127,7 +5117,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B88">
         <v>88</v>
@@ -5138,7 +5128,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B89">
         <v>89</v>
@@ -5149,7 +5139,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B90">
         <v>90</v>
@@ -5160,7 +5150,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B91">
         <v>91</v>
@@ -5171,7 +5161,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B92">
         <v>92</v>
@@ -5182,7 +5172,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B93">
         <v>93</v>
@@ -5193,7 +5183,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B94">
         <v>94</v>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466E2168-CA09-438B-812B-810829ED8A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3A842-7976-4193-8FDF-86195AB69398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5895" yWindow="435" windowWidth="21390" windowHeight="13860" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
@@ -1091,10 +1091,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B [eV/A^3]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>rc [A]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1313,6 +1309,10 @@
   </si>
   <si>
     <t>Note: 1 GPa = 1e9 Pa = 1e9 J/m^3 = 1e9/(1.602e-19) eV/m^3  = 1e9/(1.602e-19)/((10^10)^3) eV/A^3 = 6.2415e-3 eV/A^3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B [GPa]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2072,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2106,7 +2106,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -2119,7 +2119,7 @@
         <v>26</v>
       </c>
       <c r="T1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
@@ -2169,7 +2169,7 @@
         <v>12</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q2" s="15" t="s">
         <v>14</v>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="D3" s="12">
         <f>F5</f>
-        <v>0.40168764677564028</v>
+        <v>5.0763127941406205</v>
       </c>
       <c r="E3" s="12">
         <v>0.94</v>
@@ -2250,7 +2250,7 @@
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="D4" s="15" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="F4" s="42" t="str">
         <f>C7</f>
@@ -2278,49 +2278,48 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="D5" s="12">
-        <f>0.0062415*187.6</f>
-        <v>1.1709053999999999</v>
+        <v>187</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="42">
         <f>IF(OR(C7="fcc", C7="l12"), (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(OR(C7="bcc", C7="b2"), (9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2), IF(C7="hcp", (9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2), IF(C7="dim", "", IF(C7="dia", (9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2), IF(C7="b1", (9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2), IF(C7="sc", (9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2), "")))))))</f>
-        <v>0.40168764677564028</v>
+        <v>5.0763127941406205</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>270</v>
       </c>
       <c r="H5" s="40">
         <f>(9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2)</f>
-        <v>0.40168764677564028</v>
+        <v>5.0763127941406205</v>
       </c>
       <c r="I5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2)</f>
-        <v>0.41911676131632003</v>
+        <v>5.2965725851588203</v>
       </c>
       <c r="J5" s="40">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2)</f>
-        <v>0.40168764677564023</v>
+        <v>5.0763127941406196</v>
       </c>
       <c r="K5" s="40">
         <f>(9*(D5*0.006241509)*((C3*4/SQRT(3))^3/8)/B3)^(1/2)</f>
-        <v>0.59272060807142712</v>
+        <v>7.4904847840251279</v>
       </c>
       <c r="L5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2)</f>
-        <v>0.47768980755429125</v>
+        <v>6.0367872927713684</v>
       </c>
       <c r="M5" s="40">
         <f>(9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2)</f>
-        <v>0.47768980755429125</v>
+        <v>6.0367872927713684</v>
       </c>
       <c r="N5" t="s">
         <v>175</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
@@ -2343,7 +2342,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>36</v>
@@ -2360,7 +2359,7 @@
         <v>58.692999999999998</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D7" s="42">
         <f>IF(C7="fcc", 12, IF(C7="bcc", 8, IF(C7="hcp", 12, IF(C7="dim", 1, IF(C7="dia", 4, IF(C7="sc", 6, ""))))))</f>
@@ -2374,7 +2373,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2407,7 +2406,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M9" s="5"/>
       <c r="P9" s="43" t="s">
@@ -2684,7 +2683,7 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="39">
         <f>D3</f>
-        <v>0.40168764677564028</v>
+        <v>5.0763127941406205</v>
       </c>
       <c r="B16" s="21">
         <f>F3</f>
@@ -2847,7 +2846,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>70</v>
@@ -2978,7 +2977,7 @@
       </c>
       <c r="K23" s="36">
         <f>D3</f>
-        <v>0.40168764677564028</v>
+        <v>5.0763127941406205</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>85</v>
@@ -3640,21 +3639,21 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="D58" s="15" t="s">
         <v>285</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.4">
@@ -3687,24 +3686,24 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="J61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A62" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B62" s="12"/>
       <c r="D62" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E62" s="12"/>
       <c r="G62" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H62" s="12"/>
       <c r="J62" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -3718,21 +3717,21 @@
         <v>0.49</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E63" s="12">
         <f>B59</f>
         <v>0.49</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H63" s="12">
         <f>C59</f>
         <v>0.49</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -3746,21 +3745,21 @@
         <v>0.49</v>
       </c>
       <c r="D64" s="46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E64" s="12">
         <f>D59</f>
         <v>0.49</v>
       </c>
       <c r="G64" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H64" s="12">
         <f>D59</f>
         <v>0.49</v>
       </c>
       <c r="J64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
@@ -3772,21 +3771,21 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E65" s="12">
         <f>(0.5*SQRT(B59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H65" s="12">
         <f>(0.5*SQRT(C59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="J65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
@@ -3798,21 +3797,21 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E66" s="12">
         <f>(0.5*SQRT(D59)+0.5*SQRT(B59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H66" s="12">
         <f>(0.5*SQRT(D59)+0.5*SQRT(C59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="J66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
@@ -3824,21 +3823,21 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E67" s="12">
         <f>(0.5*SQRT(B59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H67" s="12">
         <f>(0.5*SQRT(C59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
@@ -3852,21 +3851,21 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E68" s="12">
         <f>(0.5*SQRT(D59)+0.5*SQRT(B59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H68" s="12">
         <f>(0.5*SQRT(D59)+0.5*SQRT(C59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="J68" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
@@ -3878,14 +3877,14 @@
         <v>2.8</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E69" s="12">
         <f>B60</f>
         <v>2.8</v>
       </c>
       <c r="G69" s="53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H69" s="12">
         <f>C60</f>
@@ -3901,21 +3900,21 @@
         <v>2.8</v>
       </c>
       <c r="D70" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E70" s="12">
         <f>D60</f>
         <v>2.8</v>
       </c>
       <c r="G70" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H70" s="12">
         <f>D60</f>
         <v>2.8</v>
       </c>
       <c r="J70" s="49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K70" s="49"/>
       <c r="L70" s="49"/>
@@ -3929,14 +3928,14 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E71" s="12">
         <f>(0.5*SQRT(B60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H71" s="12">
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
@@ -3952,21 +3951,21 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E72" s="12">
         <f>(0.5*SQRT(D60)+0.5*SQRT(B60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H72" s="12">
         <f>(0.5*SQRT(D60)+0.5*SQRT(C60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -3980,21 +3979,21 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E73" s="12">
         <f>(0.5*SQRT(B60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H73" s="12">
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="J73" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
@@ -4006,32 +4005,32 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E74" s="12">
         <f>(0.5*SQRT(D60)+0.5*SQRT(B60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H74" s="12">
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" s="44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B76" s="4"/>
       <c r="D76" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
@@ -4043,7 +4042,7 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -4061,7 +4060,7 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D78" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
@@ -4073,7 +4072,7 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
@@ -4091,7 +4090,7 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D80" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
@@ -4112,7 +4111,7 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -4123,12 +4122,12 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D83" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D84" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3A842-7976-4193-8FDF-86195AB69398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EAA290-7F9D-4024-930B-CAD9B77CDF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5895" yWindow="435" windowWidth="21390" windowHeight="13860" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
@@ -1593,7 +1593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1754,6 +1754,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2073,7 +2076,7 @@
   <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2196,7 +2199,7 @@
       </c>
       <c r="D3" s="12">
         <f>F5</f>
-        <v>5.0763127941406205</v>
+        <v>4.729190749461428</v>
       </c>
       <c r="E3" s="12">
         <v>0.94</v>
@@ -2277,42 +2280,43 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B5" s="54"/>
       <c r="D5" s="12">
-        <v>187</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="42">
         <f>IF(OR(C7="fcc", C7="l12"), (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(OR(C7="bcc", C7="b2"), (9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2), IF(C7="hcp", (9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2), IF(C7="dim", "", IF(C7="dia", (9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2), IF(C7="b1", (9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2), IF(C7="sc", (9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2), "")))))))</f>
-        <v>5.0763127941406205</v>
+        <v>4.729190749461428</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>270</v>
       </c>
       <c r="H5" s="40">
         <f>(9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2)</f>
-        <v>5.0763127941406205</v>
+        <v>4.729190749461428</v>
       </c>
       <c r="I5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2)</f>
-        <v>5.2965725851588203</v>
+        <v>4.9343890121382099</v>
       </c>
       <c r="J5" s="40">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2)</f>
-        <v>5.0763127941406196</v>
+        <v>4.729190749461428</v>
       </c>
       <c r="K5" s="40">
         <f>(9*(D5*0.006241509)*((C3*4/SQRT(3))^3/8)/B3)^(1/2)</f>
-        <v>7.4904847840251279</v>
+        <v>6.978279862990636</v>
       </c>
       <c r="L5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2)</f>
-        <v>6.0367872927713684</v>
+        <v>5.6239872874645807</v>
       </c>
       <c r="M5" s="40">
         <f>(9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2)</f>
-        <v>6.0367872927713684</v>
+        <v>5.6239872874645807</v>
       </c>
       <c r="N5" t="s">
         <v>175</v>
@@ -2683,7 +2687,7 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="39">
         <f>D3</f>
-        <v>5.0763127941406205</v>
+        <v>4.729190749461428</v>
       </c>
       <c r="B16" s="21">
         <f>F3</f>
@@ -2977,7 +2981,7 @@
       </c>
       <c r="K23" s="36">
         <f>D3</f>
-        <v>5.0763127941406205</v>
+        <v>4.729190749461428</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>85</v>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EAA290-7F9D-4024-930B-CAD9B77CDF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DB1CB7-DF45-401E-B1E0-B159C0870B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="435" windowWidth="21390" windowHeight="13860" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="2640" yWindow="1620" windowWidth="25035" windowHeight="13860" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -1593,7 +1593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1754,9 +1754,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2076,7 +2073,7 @@
   <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2199,7 +2196,7 @@
       </c>
       <c r="D3" s="12">
         <f>F5</f>
-        <v>4.729190749461428</v>
+        <v>5.0844500894425755</v>
       </c>
       <c r="E3" s="12">
         <v>0.94</v>
@@ -2280,43 +2277,42 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B5" s="54"/>
       <c r="D5" s="12">
-        <v>162.30000000000001</v>
+        <v>187.6</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="42">
-        <f>IF(OR(C7="fcc", C7="l12"), (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(OR(C7="bcc", C7="b2"), (9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2), IF(C7="hcp", (9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2), IF(C7="dim", "", IF(C7="dia", (9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2), IF(C7="b1", (9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2), IF(C7="sc", (9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2), "")))))))</f>
-        <v>4.729190749461428</v>
+        <f>IF(OR(C7="fcc", C7="l12"), (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(OR(C7="bcc", C7="b2"), (9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2), IF(C7="hcp", (9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2), IF(C7="dim", "", IF(C7="dia", (9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2), IF(C7="b1", (9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2), IF(C7="l12", (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(C7="sc", (9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2), ""))))))))</f>
+        <v>5.0844500894425755</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>270</v>
       </c>
       <c r="H5" s="40">
         <f>(9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2)</f>
-        <v>4.729190749461428</v>
+        <v>5.0844500894425755</v>
       </c>
       <c r="I5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2)</f>
-        <v>4.9343890121382099</v>
+        <v>5.305062955425881</v>
       </c>
       <c r="J5" s="40">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2)</f>
-        <v>4.729190749461428</v>
+        <v>5.0844500894425746</v>
       </c>
       <c r="K5" s="40">
         <f>(9*(D5*0.006241509)*((C3*4/SQRT(3))^3/8)/B3)^(1/2)</f>
-        <v>6.978279862990636</v>
+        <v>7.5024919808063757</v>
       </c>
       <c r="L5" s="40">
         <f>(9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2)</f>
-        <v>5.6239872874645807</v>
+        <v>6.0464642222413323</v>
       </c>
       <c r="M5" s="40">
         <f>(9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2)</f>
-        <v>5.6239872874645807</v>
+        <v>6.0464642222413323</v>
       </c>
       <c r="N5" t="s">
         <v>175</v>
@@ -2687,7 +2683,7 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="39">
         <f>D3</f>
-        <v>4.729190749461428</v>
+        <v>5.0844500894425755</v>
       </c>
       <c r="B16" s="21">
         <f>F3</f>
@@ -2981,7 +2977,7 @@
       </c>
       <c r="K23" s="36">
         <f>D3</f>
-        <v>4.729190749461428</v>
+        <v>5.0844500894425755</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>85</v>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DB1CB7-DF45-401E-B1E0-B159C0870B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161171B2-AE03-4EA5-ABBA-85B9E2A9E75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1620" windowWidth="25035" windowHeight="13860" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="2205" yWindow="5670" windowWidth="25035" windowHeight="13860" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="335">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -1313,6 +1313,26 @@
   </si>
   <si>
     <t>B [GPa]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: MEAM92</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The intermetallic energy with parameters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E(i,j) = (E(i)+E(j))/2-delta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha(i,j) = (alpha(i)+alpha(j))/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The atomic volume, omega(i,j) = (omega(i)+omega(j))/2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1593,7 +1613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1754,6 +1774,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2070,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
-  <dimension ref="A1:W84"/>
+  <dimension ref="A1:AB84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2088,7 +2111,7 @@
     <col min="22" max="22" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" s="51" t="s">
         <v>30</v>
       </c>
@@ -2122,7 +2145,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
@@ -2184,7 +2207,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>207</v>
       </c>
@@ -2247,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="D4" s="15" t="s">
         <v>329</v>
@@ -2276,7 +2299,7 @@
       </c>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="D5" s="12">
         <v>187.6</v>
       </c>
@@ -2322,7 +2345,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" s="42" t="s">
         <v>19</v>
       </c>
@@ -2348,8 +2371,15 @@
         <v>36</v>
       </c>
       <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X6" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="4"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="42">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 2, FALSE), "")</f>
         <v>28</v>
@@ -2396,15 +2426,29 @@
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X7" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="6"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>185</v>
       </c>
       <c r="C8" s="1"/>
       <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X8" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="6"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>277</v>
       </c>
@@ -2413,8 +2457,15 @@
         <v>89</v>
       </c>
       <c r="Q9" s="50"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X9" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="6"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="M10" s="5"/>
       <c r="P10" s="2" t="s">
         <v>71</v>
@@ -2423,8 +2474,15 @@
         <f>N12</f>
         <v>Hf-Ni</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X10" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="9"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="48" t="s">
         <v>21</v>
       </c>
@@ -2458,7 +2516,7 @@
       </c>
       <c r="W11" s="50"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -2510,7 +2568,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -2569,7 +2627,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
@@ -2623,7 +2681,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
         <v>Ni</v>
@@ -2680,7 +2738,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" s="39">
         <f>D3</f>
         <v>5.0844500894425755</v>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161171B2-AE03-4EA5-ABBA-85B9E2A9E75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6782CDF4-4EA6-4691-9B32-E5FC5538E20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="5670" windowWidth="25035" windowHeight="13860" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="25035" windowHeight="10260" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="339">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -1333,6 +1333,19 @@
   </si>
   <si>
     <t>The atomic volume, omega(i,j) = (omega(i)+omega(j))/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C(B,A,C) = C(C,A,B)</t>
+  </si>
+  <si>
+    <t>C(C,B,A) = C(A,B,C)</t>
+  </si>
+  <si>
+    <t>C(A,C,B) = C(B,C,A)</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10751-016-1335-0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1345,7 +1358,7 @@
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,6 +1369,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1608,8 +1630,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1776,11 +1801,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2093,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
-  <dimension ref="A1:AB84"/>
+  <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2429,9 +2455,6 @@
       <c r="X7" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
       <c r="AB7" s="6"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
@@ -2443,9 +2466,6 @@
       <c r="X8" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
       <c r="AB8" s="6"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
@@ -2460,9 +2480,6 @@
       <c r="X9" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
       <c r="AB9" s="6"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.4">
@@ -4194,6 +4211,38 @@
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
     </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D86" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D87" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D88" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D89" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4201,6 +4250,9 @@
       <formula1>"fcc,bcc,hcp,dim,dia,dia3,b1,c11,l12,b2,ch4,lin,zig,tri,sc"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D86" r:id="rId1" xr:uid="{8DC295EB-D55D-477C-B563-8D9710748A6D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6782CDF4-4EA6-4691-9B32-E5FC5538E20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF04F50B-E6F3-4E92-9CDA-38DA22524FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="25035" windowHeight="10260" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="1515" yWindow="435" windowWidth="16575" windowHeight="14865" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="341">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -1346,6 +1346,14 @@
   </si>
   <si>
     <t>https://link.springer.com/article/10.1007/s10751-016-1335-0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C(A,A,B) = C(B,A,A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C(A,B,B) = C(B,B,A)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2119,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
-  <dimension ref="A1:AB89"/>
+  <dimension ref="A1:AB91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4224,24 +4232,35 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D87" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D88" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D89" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D88" t="s">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D90" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D89" s="8" t="s">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D91" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF04F50B-E6F3-4E92-9CDA-38DA22524FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7DBC06-2B92-4D38-8369-FDF42179C923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="435" windowWidth="16575" windowHeight="14865" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="570" yWindow="900" windowWidth="27540" windowHeight="13245" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -1095,10 +1095,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ibar = 0 for MEAM92</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ibar = 3 for 2NN-MEAM</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1354,6 +1350,10 @@
   </si>
   <si>
     <t>C(A,B,B) = C(B,B,A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ibar = -5 for MEAM92</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2129,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:AB91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2163,7 +2163,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -2176,7 +2176,7 @@
         <v>26</v>
       </c>
       <c r="T1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
@@ -2307,7 +2307,7 @@
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="D4" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F4" s="42" t="str">
         <f>C7</f>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.4">
@@ -2399,14 +2399,14 @@
         <v>28</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>274</v>
+        <v>340</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="X6" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
@@ -2423,7 +2423,7 @@
         <v>58.692999999999998</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D7" s="42">
         <f>IF(C7="fcc", 12, IF(C7="bcc", 8, IF(C7="hcp", 12, IF(C7="dim", 1, IF(C7="dia", 4, IF(C7="sc", 6, ""))))))</f>
@@ -2437,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2461,7 +2461,7 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AB7" s="6"/>
     </row>
@@ -2472,13 +2472,13 @@
       <c r="C8" s="1"/>
       <c r="M8" s="2"/>
       <c r="X8" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AB8" s="6"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M9" s="5"/>
       <c r="P9" s="43" t="s">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="Q9" s="50"/>
       <c r="X9" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AB9" s="6"/>
     </row>
@@ -2500,7 +2500,7 @@
         <v>Hf-Ni</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>70</v>
@@ -3722,21 +3722,21 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="D58" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.4">
@@ -3769,24 +3769,24 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="J61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A62" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B62" s="12"/>
       <c r="D62" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E62" s="12"/>
       <c r="G62" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H62" s="12"/>
       <c r="J62" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -3800,21 +3800,21 @@
         <v>0.49</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E63" s="12">
         <f>B59</f>
         <v>0.49</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H63" s="12">
         <f>C59</f>
         <v>0.49</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -3828,21 +3828,21 @@
         <v>0.49</v>
       </c>
       <c r="D64" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E64" s="12">
         <f>D59</f>
         <v>0.49</v>
       </c>
       <c r="G64" s="46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H64" s="12">
         <f>D59</f>
         <v>0.49</v>
       </c>
       <c r="J64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
@@ -3854,21 +3854,21 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E65" s="12">
         <f>(0.5*SQRT(B59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H65" s="12">
         <f>(0.5*SQRT(C59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="J65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
@@ -3880,21 +3880,21 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E66" s="12">
         <f>(0.5*SQRT(D59)+0.5*SQRT(B59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H66" s="12">
         <f>(0.5*SQRT(D59)+0.5*SQRT(C59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="J66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
@@ -3906,21 +3906,21 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E67" s="12">
         <f>(0.5*SQRT(B59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H67" s="12">
         <f>(0.5*SQRT(C59)+0.5*SQRT(D59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
@@ -3934,21 +3934,21 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E68" s="12">
         <f>(0.5*SQRT(D59)+0.5*SQRT(B59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H68" s="12">
         <f>(0.5*SQRT(D59)+0.5*SQRT(C59))^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="J68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
@@ -3960,14 +3960,14 @@
         <v>2.8</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E69" s="12">
         <f>B60</f>
         <v>2.8</v>
       </c>
       <c r="G69" s="53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H69" s="12">
         <f>C60</f>
@@ -3983,21 +3983,21 @@
         <v>2.8</v>
       </c>
       <c r="D70" s="47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E70" s="12">
         <f>D60</f>
         <v>2.8</v>
       </c>
       <c r="G70" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H70" s="12">
         <f>D60</f>
         <v>2.8</v>
       </c>
       <c r="J70" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K70" s="49"/>
       <c r="L70" s="49"/>
@@ -4011,14 +4011,14 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E71" s="12">
         <f>(0.5*SQRT(B60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H71" s="12">
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
@@ -4034,21 +4034,21 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E72" s="12">
         <f>(0.5*SQRT(D60)+0.5*SQRT(B60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H72" s="12">
         <f>(0.5*SQRT(D60)+0.5*SQRT(C60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -4062,21 +4062,21 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E73" s="12">
         <f>(0.5*SQRT(B60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H73" s="12">
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="J73" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
@@ -4088,32 +4088,32 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E74" s="12">
         <f>(0.5*SQRT(D60)+0.5*SQRT(B60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H74" s="12">
         <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B76" s="4"/>
       <c r="D76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
@@ -4125,7 +4125,7 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -4143,7 +4143,7 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D78" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
@@ -4155,7 +4155,7 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
@@ -4173,7 +4173,7 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D80" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
@@ -4194,7 +4194,7 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -4205,12 +4205,12 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D83" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D84" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D86" s="54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -4232,28 +4232,28 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D87" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D88" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D90" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D91" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7DBC06-2B92-4D38-8369-FDF42179C923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F627F135-3E81-420F-863C-6DF9CA129F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="900" windowWidth="27540" windowHeight="13245" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="3720" yWindow="315" windowWidth="25275" windowHeight="15555" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="336">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -321,10 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmin(i-i-j)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>structure</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -333,46 +329,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmin(j-j-i)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(i-j-i)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmin(A-A-B)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>i-j</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(j-i-j)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(i-i-j)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(j-j-i)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(i-j-i)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(j-i-j)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>output: ij.meam</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>zbl(1,2) =</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -425,10 +385,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmin(2,1,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmax(1,1,2) =</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -441,66 +397,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmax(2,1,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>input (i-j)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>input (i-j-k)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(i-j-k)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(i-k-j)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(j-i-k)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(2,1,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmin(1,2,2) =</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmax(2,1,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmax(1,2,2) =</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmax(i-k-j)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(j-i-k)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>output: ijk.meam</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmin(1,2,3) =</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmin(3,2,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmin(1,3,2) =</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -509,22 +417,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmin(2,1,3) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(3,1,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmax(1,2,3) =</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmax(3,2,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmax(1,3,2) =</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -533,34 +429,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmax(2,1,3) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmax(3,1,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>reference: default value (Just to be safe, here it is.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>input (A-B)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Pd-Rh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmin(A-B-A)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmin(B-B-A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmin(A-B-B)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -573,51 +449,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmax(B-B-A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmax(A-B-B)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cohesive energy of reference structure for I-J mixture</t>
-  </si>
-  <si>
-    <t>equilibrium distance between I and J in the reference structure</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>default = 0, additional cubic attraction term in Rose energy I-J pair potential</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>default = 0, additional cubic repulsive term in Rose energy I-J pair potential</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>default = 2.0, Cmin screening parameter when I-J pair is screened by K (I&lt;=J)</t>
-  </si>
-  <si>
-    <t>default = 2.8, Cmax screening parameter when I-J pair is screened by K (I&lt;=J)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default = 1, blend the MEAM I-J pair potential with the ZBL potential for small atom separations </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>default = 0, 0: 1NN MEAM, 1: 2NN MEAM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lattice structure of reference configuration</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>alpha parameter for pair potential between I and J (can be computed from bulk modulus of reference structure)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>rc          = cutoff radius for cutoff function; default = 4.0</t>
   </si>
   <si>
@@ -1107,85 +942,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Cmin(TM–TM–N) = Cmin(N–N–TM) = the average of Cmin(TM–TM–TM) and Cmin(N–N–N) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(B,A,B) = Cmin,B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(A,B,A) = Cmin,A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(A,B,B) = (0.5*sqrt(Cmin,A)+0.5*sqrt(Cmin,B))^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>input</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1:A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2:B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3:C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(A,B,C) = (0.5*sqrt(Cmin(A,B,B))+0.5*sqrt(Cmin(A,C,C)))^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(B,A,C) = (0.5*sqrt(Cmin(B,A,B))+0.5*sqrt(Cmin(C,A,C)))^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(B,C,A) = (0.5*sqrt(Cmin(B,B,A))+0.5*sqrt(Cmin(C,C,A)))^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cmin(B,A,A) = (0.5*sqrt(Cmin,B)+0.5*sqrt(Cmin,A))^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>When the Cmax is calculated using the rule of mixtures at 2.80, this tends to be adopted.</t>
-  </si>
-  <si>
-    <t>output (binary: A-B)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>output (binary: A-C)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>output (binary: B-C)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmin(1,3,1) =</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmin(3,1,3) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmin(1,3,3) =</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmin(3,1,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmin(1,1,3) =</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1198,34 +966,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmax(3,1,3) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmax(1,3,3) =</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmax(3,1,1) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmin(2,3,2) =</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmin(3,2,3) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmin(2,3,3) =</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmin(3,2,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmin(2,2,3) =</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1238,18 +990,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmax(3,2,3) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmax(2,3,3) =</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmax(3,2,2) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cmax(3,3,1) =</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1258,17 +1002,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>output (ternary: A-B-C)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Note</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The same mixing method is used for Cmax as for Cmin.</t>
-  </si>
-  <si>
     <t>Empirically mixing rules (prediction)(Note: The same mixing method is used for Cmax as for Cmin.)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1277,30 +1014,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>i-k-j = A-B-C, B-C-A and C-A-B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>i-k-j = A-B-A, B-A-B, A-A-B and A-B-B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C(i-k-j) = (0.5*C(i-k-i)^(1/2)+0.5*C(j-k-j)^(1/2))^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C(B,A,B) = C(A,B,B) and C(A,B,A) = C(B,A,A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C(B,A,A) = C(A,A,B) and C(B,B,A) = C(A,B,B)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C(i-k-j) case: The positions of k atom between i and j atoms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fcc</t>
   </si>
   <si>
@@ -1332,28 +1045,418 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C(B,A,C) = C(C,A,B)</t>
-  </si>
-  <si>
-    <t>C(C,B,A) = C(A,B,C)</t>
-  </si>
-  <si>
-    <t>C(A,C,B) = C(B,C,A)</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1007/s10751-016-1335-0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C(A,A,B) = C(B,A,A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C(A,B,B) = C(B,B,A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ibar = -5 for MEAM92</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(B-A-B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(B-A-B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assumption</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>output: AB.meam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C(A,B,C) is screened by C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C(A-C-B) is screened by C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A atom: 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B atom: 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C atom: 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-B or A-B-C system</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(1,1,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># A-B system</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># A-C system</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Cmin(1,1,1) = Cmin,A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Cmin(2,2,2) = Cmin,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmin(1,1,1)^0.5+0.5*Cmin(2,2,1)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmin(1,1,2)^0.5+0.5*Cmin(2,2,2)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Cmax(1,1,1) = Cmax,A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Cmax(2,2,2) = Cmax,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmax(1,1,1)^0.5+0.5*Cmax(2,2,1)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmax(1,1,2)^0.5+0.5*Cmax(2,2,2)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Cmin(3,3,3) = Cmin,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmin(1,1,1)^0.5+0.5*Cmin(3,3,1)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmin(1,1,3)^0.5+0.5*Cmin(3,3,3)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Cmax(3,3,3) = Cmax,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmax(1,1,1)^0.5+0.5*Cmax(3,3,1)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmax(1,1,3)^0.5+0.5*Cmax(3,3,3)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># B-C system</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmin(2,2,2)^0.5+0.5*Cmin(3,3,2)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmin(2,2,3)^0.5+0.5*Cmin(3,3,3)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmax(2,2,2)^0.5+0.5*Cmax(3,3,2)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmax(2,2,3)^0.5+0.5*Cmax(3,3,3)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(2,2,3) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># A-B-C system</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmin(1,1,3)^0.5 + 0.5*Cmin(2,2,3)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In paper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#Lammps format</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A-B-A) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(B-A-B) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A-A-B) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A-B-B) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(A-B-A) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(B-A-B) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(A-A-B) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(A-B-B) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A-C-A) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(C-A-C) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A-A-C) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A-C-C) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(A-C-A) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(C-A-C) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(A-A-C) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(A-C-C) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(B-C-B) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(C-B-C) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(B-B-C) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(B-C-C) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(B-C-B) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(C-B-C) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(B-B-C) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(B-C-C) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmin(1,1,2)^0.5 + 0.5*Cmin(3,3,2)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmin(2,2,1)^0.5 + 0.5*Cmin(3,3,1)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmax(1,1,3)^0.5 + 0.5*Cmax(2,2,3)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmax(1,1,2)^0.5 + 0.5*Cmax(3,3,2)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmax(2,2,1)^0.5 + 0.5*Cmax(3,3,1)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>min,max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>) (with the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>ij</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> pair screened by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin,max(A–C–B) (with the AB pair screened by C).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A-C-B) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(A-B-C) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmin(B-A-C) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(A-C-B) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(A-B-C) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmax(B-A-C) =</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1366,7 +1469,7 @@
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1383,13 +1486,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1638,15 +1751,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1677,9 +1787,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1731,27 +1838,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1809,12 +1898,128 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2127,18 +2332,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
-  <dimension ref="A1:AB91"/>
+  <dimension ref="A1:AB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
     <col min="13" max="13" width="11.125" customWidth="1"/>
     <col min="18" max="18" width="11.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.125" customWidth="1"/>
@@ -2146,7 +2354,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="3"/>
@@ -2157,256 +2365,256 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>29</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>26</v>
       </c>
       <c r="T1" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q2" s="15" t="s">
+      <c r="P2" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="27">
+      <c r="A3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="26">
         <v>4.45</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <f>F5</f>
         <v>5.0844500894425755</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>0.94</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>2.56</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="25">
         <v>1.5</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="25">
         <v>6</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="25">
         <v>1.5</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>1</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="25">
         <v>3.1</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="25">
         <v>1.8</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="25">
         <v>4.3600000000000003</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <v>0.81</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="11">
         <v>2.8</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="30">
         <v>4.2</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="11">
         <v>0.1</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="15">
         <v>0.05</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="15">
         <v>0.05</v>
       </c>
-      <c r="T3" s="26">
+      <c r="T3" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
-      <c r="D4" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="F4" s="42" t="str">
+      <c r="D4" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="35" t="str">
         <f>C7</f>
         <v>fcc</v>
       </c>
-      <c r="H4" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="J4" s="40" t="s">
+      <c r="H4" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="41" t="s">
-        <v>168</v>
+      <c r="M4" s="34" t="s">
+        <v>126</v>
       </c>
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>187.6</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="35">
         <f>IF(OR(C7="fcc", C7="l12"), (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(OR(C7="bcc", C7="b2"), (9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2), IF(C7="hcp", (9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2), IF(C7="dim", "", IF(C7="dia", (9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2), IF(C7="b1", (9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2), IF(C7="l12", (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(C7="sc", (9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2), ""))))))))</f>
         <v>5.0844500894425755</v>
       </c>
-      <c r="G5" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="H5" s="40">
+      <c r="G5" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="H5" s="33">
         <f>(9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2)</f>
         <v>5.0844500894425755</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="33">
         <f>(9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2)</f>
         <v>5.305062955425881</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="33">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2)</f>
         <v>5.0844500894425746</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="33">
         <f>(9*(D5*0.006241509)*((C3*4/SQRT(3))^3/8)/B3)^(1/2)</f>
         <v>7.5024919808063757</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="33">
         <f>(9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2)</f>
         <v>6.0464642222413323</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="33">
         <f>(9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2)</f>
         <v>6.0464642222413323</v>
       </c>
       <c r="N5" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" t="s">
-        <v>327</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="X6" s="2" t="s">
-        <v>329</v>
+        <v>256</v>
       </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
@@ -2414,39 +2622,39 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A7" s="42">
+      <c r="A7" s="35">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 2, FALSE), "")</f>
         <v>28</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="35">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 3, FALSE), "")</f>
         <v>58.692999999999998</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="D7" s="42">
+      <c r="C7" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="35">
         <f>IF(C7="fcc", 12, IF(C7="bcc", 8, IF(C7="hcp", 12, IF(C7="dim", 1, IF(C7="dia", 4, IF(C7="sc", 6, ""))))))</f>
         <v>12</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="35">
         <f>IF(C7="fcc", SQRT(2), IF(C7="bcc", 2/SQRT(3), IF(C7="hcp", 1, IF(C7="dim", 1, IF(C7="dia", 4/SQRT(3), IF(C7="sc", 1, ""))))))</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>3</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <f>SQRT(8/3)</f>
         <v>1.6329931618554521</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -2461,32 +2669,32 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="5" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="AB7" s="6"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1"/>
       <c r="M8" s="2"/>
       <c r="X8" s="5" t="s">
-        <v>331</v>
+        <v>258</v>
       </c>
       <c r="AB8" s="6"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="P9" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q9" s="50"/>
+      <c r="P9" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q9" s="43"/>
       <c r="X9" s="5" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="AB9" s="6"/>
     </row>
@@ -2500,7 +2708,7 @@
         <v>Hf-Ni</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>333</v>
+        <v>260</v>
       </c>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
@@ -2508,38 +2716,30 @@
       <c r="AB10" s="9"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-      <c r="J11" s="48" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="J11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="50"/>
-      <c r="M11" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="N11" s="50"/>
+      <c r="K11" s="43"/>
+      <c r="M11" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="43"/>
       <c r="P11" s="5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
-      <c r="S11" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="T11" s="50"/>
-      <c r="V11" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="W11" s="50"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
@@ -2567,30 +2767,17 @@
         <f>P3</f>
         <v>4.2</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="12" t="s">
+      <c r="M12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>76</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="6">
         <v>1</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="T12" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="W12" s="28">
-        <f>T12</f>
-        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.4">
@@ -2625,31 +2812,18 @@
         <f>Q3</f>
         <v>0.1</v>
       </c>
-      <c r="M13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" s="12" t="s">
+      <c r="M13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="11" t="s">
         <v>48</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="6" t="str">
         <f t="shared" ref="Q13:Q18" si="0">N13</f>
         <v>b2</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="T13" s="26">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V13" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="W13" s="29">
-        <f>T12</f>
-        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
@@ -2679,31 +2853,18 @@
       <c r="K14" s="6">
         <v>0</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="26">
         <v>6.4</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q14" s="22">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="21">
         <f t="shared" si="0"/>
         <v>6.4</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="T14" s="26">
-        <v>0.15</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="W14" s="28">
-        <f>T13</f>
-        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.4">
@@ -2736,63 +2897,50 @@
       <c r="K15" s="6">
         <v>2</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="25">
         <v>2.72</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q15" s="24">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="23">
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
-      <c r="S15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="T15" s="26">
-        <v>1.9</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="W15" s="29">
-        <f>T13</f>
-        <v>1.1000000000000001</v>
-      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A16" s="39">
+      <c r="A16" s="32">
         <f>D3</f>
         <v>5.0844500894425755</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <f>F3</f>
         <v>2.56</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <f>G3</f>
         <v>1.5</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <f>H3</f>
         <v>6</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <f>I3</f>
         <v>1.5</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="31">
         <f>C3*E7</f>
         <v>3.5213917703090072</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <f>B3</f>
         <v>4.45</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <f>E3</f>
         <v>0.94</v>
       </c>
@@ -2802,51 +2950,38 @@
       <c r="K16" s="6">
         <v>2</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="25">
         <v>5</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="24">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="S16" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="T16" s="26">
-        <v>2.6</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W16" s="28">
-        <f>T14</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A17" s="35">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A17" s="28">
         <f>J3</f>
         <v>1</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <f>K3</f>
         <v>3.1</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <f>L3</f>
         <v>1.8</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <f>M3</f>
         <v>4.3600000000000003</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <f>T3</f>
         <v>1</v>
       </c>
@@ -2856,41 +2991,23 @@
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
-      <c r="J17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="6" t="str">
-        <f>A3</f>
-        <v>Ni</v>
-      </c>
-      <c r="M17" s="12" t="s">
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="M17" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="11">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="S17" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="T17" s="26">
-        <v>1.9</v>
-      </c>
-      <c r="V17" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="W17" s="29">
-        <f>T14</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2899,1368 +3016,1029 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="N18" s="19">
+        <v>71</v>
+      </c>
+      <c r="K18" s="6" t="str">
+        <f>A3</f>
+        <v>Ni</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" s="18">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="W18" s="28">
-        <f>T15</f>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K19" s="6">
-        <v>1</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="N19" s="26">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N19" s="25">
         <v>0.4</v>
       </c>
-      <c r="P19" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="24">
+      <c r="P19" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="51">
         <f>N19</f>
         <v>0.4</v>
       </c>
-      <c r="V19" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="W19" s="29">
-        <f>T15</f>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R19" s="48"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="J20" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K20" s="24">
+        <v>70</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="N20" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="P20" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" s="51">
+        <f t="shared" ref="Q20:Q26" si="1">N20</f>
+        <v>0.67</v>
+      </c>
+      <c r="R20" s="48"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="23">
         <f>T3</f>
         <v>1</v>
       </c>
-      <c r="M20" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N20" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q20" s="24">
-        <f>N20</f>
-        <v>0.67</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="W20" s="28">
-        <f>T16</f>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="K21" s="22">
+      <c r="M21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N21" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="P21" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q21" s="51">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="R21" s="48"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="21">
         <f>B3</f>
         <v>4.45</v>
       </c>
-      <c r="M21" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N21" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q21" s="28">
-        <f>N21</f>
-        <v>0.6</v>
-      </c>
-      <c r="V21" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="W21" s="29">
-        <f>T16</f>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="K22" s="22">
+      <c r="M22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="P22" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q22" s="51">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="R22" s="48"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="21">
         <f>C3</f>
         <v>2.4900000000000002</v>
       </c>
-      <c r="M22" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="N22" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="P22" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q22" s="29">
-        <f>N21</f>
-        <v>0.6</v>
-      </c>
-      <c r="V22" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="W22" s="24">
-        <f>T17</f>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="K23" s="36">
+      <c r="M23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="25">
+        <v>2.8</v>
+      </c>
+      <c r="P23" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23" s="51">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="R23" s="48"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K24" s="29">
         <f>D3</f>
         <v>5.0844500894425755</v>
       </c>
-      <c r="M23" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N23" s="26">
-        <v>2.8</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q23" s="28">
-        <f>N22</f>
-        <v>0.4</v>
-      </c>
-      <c r="V23" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="W23" s="29">
-        <f>T17</f>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="5" t="s">
+      <c r="M24" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="N24" s="25">
+        <v>1.7</v>
+      </c>
+      <c r="P24" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q24" s="51">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="R24" s="48"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K25" s="23">
         <f>S3</f>
         <v>0.05</v>
       </c>
-      <c r="M24" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="N24" s="26">
-        <v>1.7</v>
-      </c>
-      <c r="P24" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q24" s="29">
-        <f>N22</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="5" t="s">
+      <c r="M25" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N25" s="25">
+        <v>1.9</v>
+      </c>
+      <c r="P25" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q25" s="51">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="R25" s="48"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K26" s="23">
         <f>R3</f>
         <v>0.05</v>
       </c>
-      <c r="M25" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="N25" s="26">
-        <v>1.9</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q25" s="24">
-        <f>N23</f>
-        <v>2.8</v>
-      </c>
-      <c r="V25" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="5" t="s">
+      <c r="M26" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N26" s="25">
+        <v>1.8</v>
+      </c>
+      <c r="P26" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q26" s="53">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="R26" s="48"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K27" s="23">
         <f>N3</f>
         <v>0.81</v>
       </c>
-      <c r="M26" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="N26" s="26">
-        <v>1.8</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q26" s="24">
-        <f>N24</f>
-        <v>1.7</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="W26" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="M27" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="48"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="J28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K28" s="24">
         <f>O3</f>
         <v>2.8</v>
       </c>
-      <c r="M27" s="5"/>
-      <c r="P27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q27" s="28">
-        <f>N25</f>
-        <v>1.9</v>
-      </c>
-      <c r="V27" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="W27" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="J28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="P28" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q28" s="29">
-        <f>N25</f>
-        <v>1.9</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="W28" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="P28" s="48"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="P29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q29" s="28">
-        <f>N26</f>
-        <v>1.8</v>
-      </c>
-      <c r="V29" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="W29" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="P29" s="48"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="47"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="J30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="P30" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q30" s="29">
-        <f>N26</f>
-        <v>1.8</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W30" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="P30" s="48"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="48"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>66</v>
       </c>
       <c r="J31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="V31" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="W31" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>60</v>
       </c>
       <c r="J32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="P32" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q32" s="50"/>
-      <c r="V32" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="W32" s="33">
-        <v>2.8</v>
-      </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>61</v>
       </c>
       <c r="J33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="P33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q33" s="4" t="str">
-        <f>N35</f>
-        <v>Pd-Rh</v>
-      </c>
-      <c r="V33" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="W33" s="34">
-        <v>2.8</v>
-      </c>
+      <c r="M33" s="7"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>62</v>
       </c>
       <c r="J34" s="5"/>
-      <c r="M34" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="N34" s="50"/>
-      <c r="P34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>0</v>
-      </c>
-      <c r="R34" t="s">
-        <v>148</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="W34" s="33">
-        <v>2.8</v>
-      </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>63</v>
       </c>
       <c r="J35" s="5"/>
-      <c r="M35" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>1</v>
-      </c>
-      <c r="R35" t="s">
-        <v>149</v>
-      </c>
-      <c r="V35" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="W35" s="34">
-        <v>2.8</v>
-      </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>64</v>
       </c>
       <c r="J36" s="5"/>
-      <c r="M36" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q36" s="6" t="str">
-        <f t="shared" ref="Q36:Q41" si="1">N36</f>
-        <v>b2</v>
-      </c>
-      <c r="R36" t="s">
-        <v>150</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="W36" s="33">
-        <v>2.8</v>
-      </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>65</v>
       </c>
       <c r="J37" s="5"/>
-      <c r="M37" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N37" s="27">
-        <v>4.5830000000000002</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q37" s="22">
-        <f t="shared" si="1"/>
-        <v>4.5830000000000002</v>
-      </c>
-      <c r="R37" t="s">
-        <v>142</v>
-      </c>
-      <c r="V37" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="W37" s="34">
-        <v>2.8</v>
-      </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="J38" s="5"/>
-      <c r="M38" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N38" s="27">
-        <v>2.6970000000000001</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q38" s="22">
-        <f t="shared" si="1"/>
-        <v>2.6970000000000001</v>
-      </c>
-      <c r="R38" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="J39" s="5"/>
-      <c r="M39" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N39" s="27">
-        <v>6.8920000000000003</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q39" s="22">
-        <f t="shared" si="1"/>
-        <v>6.8920000000000003</v>
-      </c>
-      <c r="R39" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="J40" s="5"/>
-      <c r="M40" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="N40" s="27">
-        <v>0</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q40" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R40" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="J41" s="5"/>
-      <c r="M41" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="N41" s="30">
-        <v>0</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q41" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R41" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="J42" s="5"/>
-      <c r="M42" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="N42" s="27">
-        <v>1.6519999999999999</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q42" s="31">
-        <f>N42</f>
-        <v>1.6519999999999999</v>
-      </c>
-      <c r="R42" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="J43" s="5"/>
-      <c r="M43" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="N43" s="27">
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="P43" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q43" s="32">
-        <f>N42</f>
-        <v>1.6519999999999999</v>
-      </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="J44" s="5"/>
-      <c r="M44" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N44" s="27">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q44" s="31">
-        <f>N43</f>
-        <v>1.7849999999999999</v>
-      </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="J45" s="5"/>
-      <c r="M45" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="N45" s="27">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="P45" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="32">
-        <f>N44</f>
-        <v>0.80500000000000005</v>
-      </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="J46" s="5"/>
-      <c r="M46" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N46" s="27">
-        <v>1.8680000000000001</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q46" s="31">
-        <f>N45</f>
-        <v>0.43099999999999999</v>
-      </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="J47" s="5"/>
-      <c r="M47" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="N47" s="27">
-        <v>2.39</v>
-      </c>
-      <c r="P47" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q47" s="32">
-        <f>N45</f>
-        <v>0.43099999999999999</v>
-      </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="J48" s="5"/>
-      <c r="M48" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="N48" s="27">
-        <v>2.1459999999999999</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q48" s="31">
-        <f>N46</f>
-        <v>1.8680000000000001</v>
-      </c>
-      <c r="R48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="J49" s="5"/>
-      <c r="M49" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="N49" s="27">
-        <v>2.0129999999999999</v>
-      </c>
-      <c r="P49" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q49" s="32">
-        <f>N46</f>
-        <v>1.8680000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="J50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="P50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q50" s="31">
-        <f>N47</f>
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
       <c r="J51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="P51" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q51" s="32">
-        <f>N48</f>
-        <v>2.1459999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="J52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="P52" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q52" s="31">
-        <f>N49</f>
-        <v>2.0129999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="J53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="P53" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q53" s="32">
-        <f>N49</f>
-        <v>2.0129999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="J54" s="5"/>
-      <c r="M54" s="5"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="J55" s="5"/>
-      <c r="M55" s="5"/>
-    </row>
-    <row r="56" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="7"/>
-      <c r="M56" s="7"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A59" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F59" s="80" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A60" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="15">
+        <v>0.49</v>
+      </c>
+      <c r="C60" s="12">
+        <v>0.49</v>
+      </c>
+      <c r="D60" s="39">
+        <v>0.49</v>
+      </c>
+      <c r="F60" t="s">
+        <v>329</v>
+      </c>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A61" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="38">
+        <v>2.8</v>
+      </c>
+      <c r="C61" s="46">
+        <v>2.8</v>
+      </c>
+      <c r="D61" s="40">
+        <v>2.8</v>
+      </c>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="L62" s="47"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B63" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="66"/>
+      <c r="J63" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="K63" s="73"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A64" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="B64" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64" s="68"/>
+      <c r="D64" t="s">
+        <v>264</v>
+      </c>
+      <c r="I64" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="J64" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="K64" s="74"/>
+      <c r="L64" t="s">
+        <v>264</v>
+      </c>
+      <c r="M64" s="47"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="B65" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="69">
+        <f>B60</f>
+        <v>0.49</v>
+      </c>
+      <c r="D65" t="s">
+        <v>275</v>
+      </c>
+      <c r="I65" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="J65" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="K65" s="75">
+        <f>B60</f>
+        <v>0.49</v>
+      </c>
+      <c r="L65" t="s">
+        <v>275</v>
+      </c>
+      <c r="M65" s="47"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="B66" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="71">
+        <f>C60</f>
+        <v>0.49</v>
+      </c>
+      <c r="D66" t="s">
+        <v>276</v>
+      </c>
+      <c r="I66" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="J66" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="K66" s="77">
+        <f>D60</f>
+        <v>0.49</v>
+      </c>
+      <c r="L66" t="s">
+        <v>283</v>
+      </c>
+      <c r="M66" s="47"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="B67" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="71">
+        <f>(0.5*B60^0.5+0.5*C66^0.5)^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="D67" t="s">
+        <v>277</v>
+      </c>
+      <c r="I67" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="J67" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="K67" s="77">
+        <f>(0.5*B60^0.5+0.5*K66^0.5)^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="L67" t="s">
+        <v>284</v>
+      </c>
+      <c r="M67" s="47"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="27">
+        <f>(0.5*C65^0.5+0.5*C60^0.5)^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="D68" t="s">
+        <v>278</v>
+      </c>
+      <c r="I68" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="J68" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="K68" s="79">
+        <f>(0.5*K65^0.5+0.5*D60^0.5)^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="L68" t="s">
+        <v>285</v>
+      </c>
+      <c r="M68" s="47"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A69" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="B69" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="71">
+        <f>B61</f>
+        <v>2.8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>279</v>
+      </c>
+      <c r="I69" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="J69" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="K69" s="77">
+        <f>B61</f>
+        <v>2.8</v>
+      </c>
+      <c r="L69" t="s">
+        <v>279</v>
+      </c>
+      <c r="M69" s="47"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A70" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="B70" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="71">
+        <f>C61</f>
+        <v>2.8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>280</v>
+      </c>
+      <c r="I70" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="J70" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="K70" s="77">
+        <f>D61</f>
+        <v>2.8</v>
+      </c>
+      <c r="L70" t="s">
+        <v>286</v>
+      </c>
+      <c r="M70" s="47"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A71" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="B71" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="71">
+        <f>(0.5*B61^0.5+0.5*C70^0.5)^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="D71" t="s">
+        <v>281</v>
+      </c>
+      <c r="I71" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="J71" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="K71" s="77">
+        <f>(0.5*B61^0.5+0.5*K70^0.5)^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="L71" t="s">
+        <v>287</v>
+      </c>
+      <c r="M71" s="47"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A72" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="27">
+        <f>(0.5*C69^0.5+0.5*C61^0.5)^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="D72" t="s">
+        <v>282</v>
+      </c>
+      <c r="I72" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="J72" s="78" t="s">
+        <v>241</v>
+      </c>
+      <c r="K72" s="79">
+        <f>(0.5*K69^0.5+0.5*D61^0.5)^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="L72" t="s">
+        <v>288</v>
+      </c>
+      <c r="M72" s="47"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B74" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="C74" s="58"/>
+      <c r="J74" s="81" t="s">
+        <v>295</v>
+      </c>
+      <c r="K74" s="82"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A75" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C75" s="59"/>
+      <c r="D75" t="s">
+        <v>264</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J75" s="81" t="s">
+        <v>298</v>
+      </c>
+      <c r="K75" s="82"/>
+      <c r="L75" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A76" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" s="60">
+        <f>C60</f>
+        <v>0.49</v>
+      </c>
+      <c r="D76" t="s">
+        <v>276</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J76" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="K76" s="82">
+        <f>(0.5*K65^0.5+0.5*C76^0.5)^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="L76" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A77" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="B77" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="C77" s="62">
+        <f>D60</f>
+        <v>0.49</v>
+      </c>
+      <c r="D77" t="s">
+        <v>283</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="J77" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="K77" s="84">
+        <f>(0.5*C65^0.5+0.5*C77^0.5)^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="L77" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="B78" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="C78" s="62">
+        <f>(0.5*C60^0.5+0.5*C77^0.5)^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="D78" t="s">
+        <v>290</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="J78" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="K78" s="86">
+        <f>(0.5*C66^0.5+0.5*K66^0.5)^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="L78" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" s="56" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A58" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A59" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="16">
-        <v>0.49</v>
-      </c>
-      <c r="C59" s="13">
-        <v>0.49</v>
-      </c>
-      <c r="D59" s="46">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A60" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="45">
+      <c r="B79" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" s="64">
+        <f>(0.5*C76^0.5+0.5*D60^0.5)^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="D79" t="s">
+        <v>291</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="J79" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="K79" s="84">
+        <f>(0.5*K69^0.5+0.5*C80^0.5)^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="L79" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="B80" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C80" s="62">
+        <f>C61</f>
         <v>2.8</v>
       </c>
-      <c r="C60" s="53">
+      <c r="D80" t="s">
+        <v>280</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="J80" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="K80" s="84">
+        <f>(0.5*C69^0.5+0.5*C81^0.5)^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="L80" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A81" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="B81" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" s="62">
+        <f>D61</f>
         <v>2.8</v>
       </c>
-      <c r="D60" s="47">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="J61" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A62" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="B62" s="12"/>
-      <c r="D62" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="E62" s="12"/>
-      <c r="G62" s="42" t="s">
+      <c r="D81" t="s">
+        <v>286</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J81" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="K81" s="86">
+        <f>(0.5*C70^0.5+0.5*K70^0.5)^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="L81" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A82" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="B82" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="C82" s="62">
+        <f>(0.5*C61^0.5+0.5*C81^0.5)^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="D82" t="s">
         <v>292</v>
       </c>
-      <c r="H62" s="12"/>
-      <c r="J62" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A63" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B63" s="12">
-        <f>B59</f>
-        <v>0.49</v>
-      </c>
-      <c r="D63" s="16" t="s">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A83" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="B83" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" s="64">
+        <f>(0.5*C80^0.5+0.5*D61^0.5)^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="D83" t="s">
         <v>293</v>
       </c>
-      <c r="E63" s="12">
-        <f>B59</f>
-        <v>0.49</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="H63" s="12">
-        <f>C59</f>
-        <v>0.49</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A64" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B64" s="12">
-        <f>C59</f>
-        <v>0.49</v>
-      </c>
-      <c r="D64" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="E64" s="12">
-        <f>D59</f>
-        <v>0.49</v>
-      </c>
-      <c r="G64" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="H64" s="12">
-        <f>D59</f>
-        <v>0.49</v>
-      </c>
-      <c r="J64" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A65" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="12">
-        <f>(0.5*SQRT(B59)+0.5*SQRT(C59))^2</f>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="E65" s="12">
-        <f>(0.5*SQRT(B59)+0.5*SQRT(D59))^2</f>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="H65" s="12">
-        <f>(0.5*SQRT(C59)+0.5*SQRT(D59))^2</f>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="J65" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A66" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="12">
-        <f>(0.5*SQRT(C59)+0.5*SQRT(B59))^2</f>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="E66" s="12">
-        <f>(0.5*SQRT(D59)+0.5*SQRT(B59))^2</f>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H66" s="12">
-        <f>(0.5*SQRT(D59)+0.5*SQRT(C59))^2</f>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="J66" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A67" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B67" s="12">
-        <f>(0.5*SQRT(B59)+0.5*SQRT(C59))^2</f>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="E67" s="12">
-        <f>(0.5*SQRT(B59)+0.5*SQRT(D59))^2</f>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="H67" s="12">
-        <f>(0.5*SQRT(C59)+0.5*SQRT(D59))^2</f>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A68" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B68" s="12">
-        <f>(0.5*SQRT(C59)+0.5*SQRT(B59))^2</f>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="E68" s="12">
-        <f>(0.5*SQRT(D59)+0.5*SQRT(B59))^2</f>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="H68" s="12">
-        <f>(0.5*SQRT(D59)+0.5*SQRT(C59))^2</f>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="J68" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B69" s="12">
-        <f>B60</f>
-        <v>2.8</v>
-      </c>
-      <c r="D69" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="E69" s="12">
-        <f>B60</f>
-        <v>2.8</v>
-      </c>
-      <c r="G69" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="H69" s="12">
-        <f>C60</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B70" s="12">
-        <f>C60</f>
-        <v>2.8</v>
-      </c>
-      <c r="D70" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="E70" s="12">
-        <f>D60</f>
-        <v>2.8</v>
-      </c>
-      <c r="G70" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="H70" s="12">
-        <f>D60</f>
-        <v>2.8</v>
-      </c>
-      <c r="J70" s="49" t="s">
-        <v>323</v>
-      </c>
-      <c r="K70" s="49"/>
-      <c r="L70" s="49"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A71" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71" s="12">
-        <f>(0.5*SQRT(B60)+0.5*SQRT(C60))^2</f>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="E71" s="12">
-        <f>(0.5*SQRT(B60)+0.5*SQRT(D60))^2</f>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="H71" s="12">
-        <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A72" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B72" s="12">
-        <f>(0.5*SQRT(C60)+0.5*SQRT(B60))^2</f>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="E72" s="12">
-        <f>(0.5*SQRT(D60)+0.5*SQRT(B60))^2</f>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H72" s="12">
-        <f>(0.5*SQRT(D60)+0.5*SQRT(C60))^2</f>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A73" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="12">
-        <f>(0.5*SQRT(B60)+0.5*SQRT(C60))^2</f>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="E73" s="12">
-        <f>(0.5*SQRT(B60)+0.5*SQRT(D60))^2</f>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="H73" s="12">
-        <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="J73" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A74" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" s="12">
-        <f>(0.5*SQRT(C60)+0.5*SQRT(B60))^2</f>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="E74" s="12">
-        <f>(0.5*SQRT(D60)+0.5*SQRT(B60))^2</f>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="H74" s="12">
-        <f>(0.5*SQRT(C60)+0.5*SQRT(D60))^2</f>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A76" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="D76" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A77" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B77" s="12">
-        <f>(0.5*SQRT(B65)+0.5*SQRT(E65))^2</f>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A78" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" s="12">
-        <f>(0.5*SQRT(B64)+0.5*SQRT(E64))^2</f>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="D78" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A79" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B79" s="12">
-        <f>(0.5*SQRT(B68)+0.5*SQRT(E68))^2</f>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A80" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" s="12">
-        <f>(0.5*SQRT(B71)+0.5*SQRT(E71))^2</f>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="D80" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A81" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B81" s="12">
-        <f>(0.5*SQRT(B70)+0.5*SQRT(E70))^2</f>
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A82" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" s="12">
-        <f>(0.5*SQRT(B74)+0.5*SQRT(E74))^2</f>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D83" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D84" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D86" s="54" t="s">
-        <v>337</v>
-      </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D87" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D88" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="E88" s="8"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D89" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D90" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D91" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4269,9 +4047,6 @@
       <formula1>"fcc,bcc,hcp,dim,dia,dia3,b1,c11,l12,b2,ch4,lin,zig,tri,sc"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D86" r:id="rId1" xr:uid="{8DC295EB-D55D-477C-B563-8D9710748A6D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4288,7 +4063,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -4299,7 +4074,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -4310,7 +4085,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -4321,7 +4096,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -4343,7 +4118,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -4354,7 +4129,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -4365,7 +4140,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -4376,7 +4151,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -4387,7 +4162,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -4398,7 +4173,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -4409,7 +4184,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -4420,7 +4195,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -4431,7 +4206,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -4442,7 +4217,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -4453,7 +4228,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -4464,7 +4239,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -4475,7 +4250,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -4486,7 +4261,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -4497,7 +4272,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -4508,7 +4283,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -4519,7 +4294,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -4530,7 +4305,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -4541,7 +4316,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -4552,7 +4327,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -4563,7 +4338,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -4574,7 +4349,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -4585,7 +4360,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -4596,7 +4371,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -4607,7 +4382,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -4618,7 +4393,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="B31">
         <v>31</v>
@@ -4629,7 +4404,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="B32">
         <v>32</v>
@@ -4640,7 +4415,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -4651,7 +4426,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="B34">
         <v>34</v>
@@ -4662,7 +4437,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -4673,7 +4448,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -4684,7 +4459,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="B37">
         <v>37</v>
@@ -4695,7 +4470,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -4706,7 +4481,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -4717,7 +4492,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -4728,7 +4503,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="B41">
         <v>41</v>
@@ -4739,7 +4514,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="B42">
         <v>42</v>
@@ -4750,7 +4525,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="B43">
         <v>43</v>
@@ -4761,7 +4536,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="B44">
         <v>44</v>
@@ -4772,7 +4547,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="B45">
         <v>45</v>
@@ -4783,7 +4558,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="B46">
         <v>46</v>
@@ -4794,7 +4569,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="B47">
         <v>47</v>
@@ -4805,7 +4580,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="B48">
         <v>48</v>
@@ -4816,7 +4591,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="B49">
         <v>49</v>
@@ -4827,7 +4602,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="B50">
         <v>50</v>
@@ -4838,7 +4613,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="B51">
         <v>51</v>
@@ -4849,7 +4624,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="B52">
         <v>52</v>
@@ -4860,7 +4635,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="B53">
         <v>53</v>
@@ -4871,7 +4646,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="B54">
         <v>54</v>
@@ -4882,7 +4657,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="B55">
         <v>55</v>
@@ -4893,7 +4668,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -4904,7 +4679,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B57">
         <v>57</v>
@@ -4915,7 +4690,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="B58">
         <v>58</v>
@@ -4926,7 +4701,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="B59">
         <v>59</v>
@@ -4937,7 +4712,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="B60">
         <v>60</v>
@@ -4948,7 +4723,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="B61">
         <v>61</v>
@@ -4959,7 +4734,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="B62">
         <v>62</v>
@@ -4970,7 +4745,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="B63">
         <v>63</v>
@@ -4981,7 +4756,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="B64">
         <v>64</v>
@@ -4992,7 +4767,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="B65">
         <v>65</v>
@@ -5003,7 +4778,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="B66">
         <v>66</v>
@@ -5014,7 +4789,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="B67">
         <v>67</v>
@@ -5025,7 +4800,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="B68">
         <v>68</v>
@@ -5036,7 +4811,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="B69">
         <v>69</v>
@@ -5047,7 +4822,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="B70">
         <v>70</v>
@@ -5058,7 +4833,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="B71">
         <v>71</v>
@@ -5069,7 +4844,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="B72">
         <v>72</v>
@@ -5080,7 +4855,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="B73">
         <v>73</v>
@@ -5091,7 +4866,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="B74">
         <v>74</v>
@@ -5102,7 +4877,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="B75">
         <v>75</v>
@@ -5113,7 +4888,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="B76">
         <v>76</v>
@@ -5124,7 +4899,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="B77">
         <v>77</v>
@@ -5135,7 +4910,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="B78">
         <v>78</v>
@@ -5146,7 +4921,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="B79">
         <v>79</v>
@@ -5157,7 +4932,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="B80">
         <v>80</v>
@@ -5168,7 +4943,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="B81">
         <v>81</v>
@@ -5179,7 +4954,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="B82">
         <v>82</v>
@@ -5190,7 +4965,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="B83">
         <v>83</v>
@@ -5201,7 +4976,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="B84">
         <v>84</v>
@@ -5212,7 +4987,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="B85">
         <v>85</v>
@@ -5223,7 +4998,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="B86">
         <v>86</v>
@@ -5234,7 +5009,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="B87">
         <v>87</v>
@@ -5245,7 +5020,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="B88">
         <v>88</v>
@@ -5256,7 +5031,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="B89">
         <v>89</v>
@@ -5267,7 +5042,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="B90">
         <v>90</v>
@@ -5278,7 +5053,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="B91">
         <v>91</v>
@@ -5289,7 +5064,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="B92">
         <v>92</v>
@@ -5300,7 +5075,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="B93">
         <v>93</v>
@@ -5311,7 +5086,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="B94">
         <v>94</v>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F627F135-3E81-420F-863C-6DF9CA129F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180F45B4-CCD5-4B18-AFD6-C3A8183EBEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="315" windowWidth="25275" windowHeight="15555" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="18780" windowHeight="14745" activeTab="3" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="FCC" sheetId="3" r:id="rId3"/>
+    <sheet name="BCC" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="350">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -1459,6 +1461,62 @@
     <t>Cmax(B-A-C) =</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C33</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C44</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C66</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C55</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gv</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1469,7 +1527,7 @@
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1502,6 +1560,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1756,7 +1820,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1898,37 +1962,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -2016,6 +2053,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2334,7 +2374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:AB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
@@ -2964,7 +3004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="28">
         <f>J3</f>
         <v>1</v>
@@ -3007,7 +3047,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3038,7 +3078,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>250</v>
       </c>
@@ -3054,16 +3094,15 @@
       <c r="N19" s="25">
         <v>0.4</v>
       </c>
-      <c r="P19" s="50" t="s">
+      <c r="P19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q19" s="51">
+      <c r="Q19" s="23">
         <f>N19</f>
         <v>0.4</v>
       </c>
-      <c r="R19" s="48"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="J20" s="5" t="s">
         <v>70</v>
       </c>
@@ -3076,16 +3115,15 @@
       <c r="N20" s="11">
         <v>0.67</v>
       </c>
-      <c r="P20" s="50" t="s">
+      <c r="P20" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="23">
         <f t="shared" ref="Q20:Q26" si="1">N20</f>
         <v>0.67</v>
       </c>
-      <c r="R20" s="48"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3102,16 +3140,15 @@
       <c r="N21" s="25">
         <v>0.6</v>
       </c>
-      <c r="P21" s="50" t="s">
+      <c r="P21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="Q21" s="51">
+      <c r="Q21" s="23">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="R21" s="48"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -3128,16 +3165,15 @@
       <c r="N22" s="25">
         <v>0.4</v>
       </c>
-      <c r="P22" s="50" t="s">
+      <c r="P22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="23">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="R22" s="48"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3154,16 +3190,15 @@
       <c r="N23" s="25">
         <v>2.8</v>
       </c>
-      <c r="P23" s="50" t="s">
+      <c r="P23" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q23" s="23">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="R23" s="48"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3180,16 +3215,15 @@
       <c r="N24" s="25">
         <v>1.7</v>
       </c>
-      <c r="P24" s="50" t="s">
+      <c r="P24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q24" s="51">
+      <c r="Q24" s="23">
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="R24" s="48"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -3206,16 +3240,15 @@
       <c r="N25" s="25">
         <v>1.9</v>
       </c>
-      <c r="P25" s="50" t="s">
+      <c r="P25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="Q25" s="51">
+      <c r="Q25" s="23">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="R25" s="48"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3232,16 +3265,15 @@
       <c r="N26" s="25">
         <v>1.8</v>
       </c>
-      <c r="P26" s="52" t="s">
+      <c r="P26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="Q26" s="53">
+      <c r="Q26" s="24">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="R26" s="48"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3258,10 +3290,9 @@
       <c r="P27" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="48"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="Q27" s="20"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="J28" s="7" t="s">
         <v>24</v>
       </c>
@@ -3270,53 +3301,29 @@
         <v>2.8</v>
       </c>
       <c r="M28" s="5"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="47"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="Q28" s="20"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="47"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="Q29" s="20"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="J30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="48"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="Q30" s="20"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>66</v>
       </c>
       <c r="J31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -3501,7 +3508,7 @@
       <c r="D59" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F59" s="80" t="s">
+      <c r="F59" s="71" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3521,9 +3528,6 @@
       <c r="F60" t="s">
         <v>329</v>
       </c>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
@@ -3538,135 +3542,125 @@
       <c r="D61" s="40">
         <v>2.8</v>
       </c>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L62" s="47"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="C63" s="66"/>
-      <c r="J63" s="72" t="s">
+      <c r="C63" s="57"/>
+      <c r="J63" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="K63" s="73"/>
+      <c r="K63" s="64"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="B64" s="67" t="s">
+      <c r="B64" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="C64" s="68"/>
+      <c r="C64" s="59"/>
       <c r="D64" t="s">
         <v>264</v>
       </c>
-      <c r="I64" s="54" t="s">
+      <c r="I64" s="47" t="s">
         <v>297</v>
       </c>
       <c r="J64" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="K64" s="74"/>
+      <c r="K64" s="65"/>
       <c r="L64" t="s">
         <v>264</v>
       </c>
-      <c r="M64" s="47"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A65" s="57" t="s">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A65" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="B65" s="65" t="s">
+      <c r="B65" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="69">
+      <c r="C65" s="60">
         <f>B60</f>
         <v>0.49</v>
       </c>
       <c r="D65" t="s">
         <v>275</v>
       </c>
-      <c r="I65" s="57" t="s">
+      <c r="I65" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="J65" s="72" t="s">
+      <c r="J65" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="K65" s="75">
+      <c r="K65" s="66">
         <f>B60</f>
         <v>0.49</v>
       </c>
       <c r="L65" t="s">
         <v>275</v>
       </c>
-      <c r="M65" s="47"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A66" s="55" t="s">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="B66" s="70" t="s">
+      <c r="B66" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="71">
+      <c r="C66" s="62">
         <f>C60</f>
         <v>0.49</v>
       </c>
       <c r="D66" t="s">
         <v>276</v>
       </c>
-      <c r="I66" s="55" t="s">
+      <c r="I66" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="J66" s="76" t="s">
+      <c r="J66" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="K66" s="77">
+      <c r="K66" s="68">
         <f>D60</f>
         <v>0.49</v>
       </c>
       <c r="L66" t="s">
         <v>283</v>
       </c>
-      <c r="M66" s="47"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A67" s="55" t="s">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="B67" s="70" t="s">
+      <c r="B67" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="71">
+      <c r="C67" s="62">
         <f>(0.5*B60^0.5+0.5*C66^0.5)^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="D67" t="s">
         <v>277</v>
       </c>
-      <c r="I67" s="55" t="s">
+      <c r="I67" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="J67" s="76" t="s">
+      <c r="J67" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="K67" s="77">
+      <c r="K67" s="68">
         <f>(0.5*B60^0.5+0.5*K66^0.5)^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="L67" t="s">
         <v>284</v>
       </c>
-      <c r="M67" s="47"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A68" s="56" t="s">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A68" s="48" t="s">
         <v>302</v>
       </c>
       <c r="B68" s="19" t="s">
@@ -3679,110 +3673,106 @@
       <c r="D68" t="s">
         <v>278</v>
       </c>
-      <c r="I68" s="56" t="s">
+      <c r="I68" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="J68" s="78" t="s">
+      <c r="J68" s="69" t="s">
         <v>237</v>
       </c>
-      <c r="K68" s="79">
+      <c r="K68" s="70">
         <f>(0.5*K65^0.5+0.5*D60^0.5)^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="L68" t="s">
         <v>285</v>
       </c>
-      <c r="M68" s="47"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A69" s="55" t="s">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A69" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="B69" s="70" t="s">
+      <c r="B69" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="71">
+      <c r="C69" s="62">
         <f>B61</f>
         <v>2.8</v>
       </c>
       <c r="D69" t="s">
         <v>279</v>
       </c>
-      <c r="I69" s="55" t="s">
+      <c r="I69" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="J69" s="76" t="s">
+      <c r="J69" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="K69" s="77">
+      <c r="K69" s="68">
         <f>B61</f>
         <v>2.8</v>
       </c>
       <c r="L69" t="s">
         <v>279</v>
       </c>
-      <c r="M69" s="47"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A70" s="55" t="s">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A70" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="B70" s="70" t="s">
+      <c r="B70" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="71">
+      <c r="C70" s="62">
         <f>C61</f>
         <v>2.8</v>
       </c>
       <c r="D70" t="s">
         <v>280</v>
       </c>
-      <c r="I70" s="55" t="s">
+      <c r="I70" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="J70" s="76" t="s">
+      <c r="J70" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="K70" s="77">
+      <c r="K70" s="68">
         <f>D61</f>
         <v>2.8</v>
       </c>
       <c r="L70" t="s">
         <v>286</v>
       </c>
-      <c r="M70" s="47"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A71" s="55" t="s">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A71" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="B71" s="70" t="s">
+      <c r="B71" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C71" s="71">
+      <c r="C71" s="62">
         <f>(0.5*B61^0.5+0.5*C70^0.5)^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="D71" t="s">
         <v>281</v>
       </c>
-      <c r="I71" s="55" t="s">
+      <c r="I71" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="J71" s="76" t="s">
+      <c r="J71" s="67" t="s">
         <v>240</v>
       </c>
-      <c r="K71" s="77">
+      <c r="K71" s="68">
         <f>(0.5*B61^0.5+0.5*K70^0.5)^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="L71" t="s">
         <v>287</v>
       </c>
-      <c r="M71" s="47"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A72" s="56" t="s">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A72" s="48" t="s">
         <v>306</v>
       </c>
       <c r="B72" s="19" t="s">
@@ -3795,61 +3785,60 @@
       <c r="D72" t="s">
         <v>282</v>
       </c>
-      <c r="I72" s="56" t="s">
+      <c r="I72" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="J72" s="78" t="s">
+      <c r="J72" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="K72" s="79">
+      <c r="K72" s="70">
         <f>(0.5*K69^0.5+0.5*D61^0.5)^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="L72" t="s">
         <v>288</v>
       </c>
-      <c r="M72" s="47"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B74" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="C74" s="58"/>
-      <c r="J74" s="81" t="s">
+      <c r="C74" s="49"/>
+      <c r="J74" s="72" t="s">
         <v>295</v>
       </c>
-      <c r="K74" s="82"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A75" s="54" t="s">
+      <c r="K74" s="73"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A75" s="47" t="s">
         <v>297</v>
       </c>
       <c r="B75" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="C75" s="59"/>
+      <c r="C75" s="50"/>
       <c r="D75" t="s">
         <v>264</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="J75" s="81" t="s">
+      <c r="J75" s="72" t="s">
         <v>298</v>
       </c>
-      <c r="K75" s="82"/>
+      <c r="K75" s="73"/>
       <c r="L75" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A76" s="57" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A76" s="47" t="s">
         <v>315</v>
       </c>
       <c r="B76" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="C76" s="60">
+      <c r="C76" s="51">
         <f>C60</f>
         <v>0.49</v>
       </c>
@@ -3859,10 +3848,10 @@
       <c r="I76" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="J76" s="81" t="s">
+      <c r="J76" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="K76" s="82">
+      <c r="K76" s="73">
         <f>(0.5*K65^0.5+0.5*C76^0.5)^2</f>
         <v>0.48999999999999994</v>
       </c>
@@ -3870,14 +3859,14 @@
         <v>296</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A77" s="55" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A77" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="B77" s="61" t="s">
+      <c r="B77" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C77" s="62">
+      <c r="C77" s="53">
         <f>D60</f>
         <v>0.49</v>
       </c>
@@ -3887,10 +3876,10 @@
       <c r="I77" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="J77" s="83" t="s">
+      <c r="J77" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="K77" s="84">
+      <c r="K77" s="75">
         <f>(0.5*C65^0.5+0.5*C77^0.5)^2</f>
         <v>0.48999999999999994</v>
       </c>
@@ -3898,14 +3887,14 @@
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A78" s="55" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A78" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B78" s="61" t="s">
+      <c r="B78" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="C78" s="62">
+      <c r="C78" s="53">
         <f>(0.5*C60^0.5+0.5*C77^0.5)^2</f>
         <v>0.48999999999999994</v>
       </c>
@@ -3915,10 +3904,10 @@
       <c r="I78" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="J78" s="85" t="s">
+      <c r="J78" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="K78" s="86">
+      <c r="K78" s="77">
         <f>(0.5*C66^0.5+0.5*K66^0.5)^2</f>
         <v>0.48999999999999994</v>
       </c>
@@ -3926,14 +3915,14 @@
         <v>324</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A79" s="56" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A79" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="B79" s="63" t="s">
+      <c r="B79" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="C79" s="64">
+      <c r="C79" s="55">
         <f>(0.5*C76^0.5+0.5*D60^0.5)^2</f>
         <v>0.48999999999999994</v>
       </c>
@@ -3943,10 +3932,10 @@
       <c r="I79" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="J79" s="83" t="s">
+      <c r="J79" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="K79" s="84">
+      <c r="K79" s="75">
         <f>(0.5*K69^0.5+0.5*C80^0.5)^2</f>
         <v>2.8000000000000003</v>
       </c>
@@ -3954,14 +3943,14 @@
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A80" s="55" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A80" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="B80" s="61" t="s">
+      <c r="B80" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="C80" s="62">
+      <c r="C80" s="53">
         <f>C61</f>
         <v>2.8</v>
       </c>
@@ -3971,10 +3960,10 @@
       <c r="I80" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="J80" s="83" t="s">
+      <c r="J80" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="K80" s="84">
+      <c r="K80" s="75">
         <f>(0.5*C69^0.5+0.5*C81^0.5)^2</f>
         <v>2.8000000000000003</v>
       </c>
@@ -3983,13 +3972,13 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A81" s="55" t="s">
+      <c r="A81" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="B81" s="61" t="s">
+      <c r="B81" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="C81" s="62">
+      <c r="C81" s="53">
         <f>D61</f>
         <v>2.8</v>
       </c>
@@ -3999,10 +3988,10 @@
       <c r="I81" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="J81" s="85" t="s">
+      <c r="J81" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="K81" s="86">
+      <c r="K81" s="77">
         <f>(0.5*C70^0.5+0.5*K70^0.5)^2</f>
         <v>2.8000000000000003</v>
       </c>
@@ -4011,13 +4000,13 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="B82" s="61" t="s">
+      <c r="B82" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="C82" s="62">
+      <c r="C82" s="53">
         <f>(0.5*C61^0.5+0.5*C81^0.5)^2</f>
         <v>2.8000000000000003</v>
       </c>
@@ -4026,13 +4015,13 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A83" s="56" t="s">
+      <c r="A83" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="B83" s="63" t="s">
+      <c r="B83" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="64">
+      <c r="C83" s="55">
         <f>(0.5*C80^0.5+0.5*D61^0.5)^2</f>
         <v>2.8000000000000003</v>
       </c>
@@ -4055,8 +4044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20582694-D983-4948-B087-8A1773639C00}">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5099,4 +5088,5300 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1467C892-05A7-490D-8CC3-7539BBF587B6}">
+  <dimension ref="A1:Q95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L1" t="s">
+        <v>345</v>
+      </c>
+      <c r="M1" t="s">
+        <v>346</v>
+      </c>
+      <c r="N1" t="s">
+        <v>342</v>
+      </c>
+      <c r="O1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4.0026000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>6.94</v>
+      </c>
+      <c r="D4">
+        <v>4.31989</v>
+      </c>
+      <c r="E4">
+        <v>4.31989</v>
+      </c>
+      <c r="F4">
+        <v>-1.9059999999999999</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>16</v>
+      </c>
+      <c r="O4">
+        <v>9</v>
+      </c>
+      <c r="P4">
+        <v>9</v>
+      </c>
+      <c r="Q4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>9.0122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>12.010999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>14.007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>15.999000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>18.998000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>22.99</v>
+      </c>
+      <c r="D12">
+        <v>5.2534640000000001</v>
+      </c>
+      <c r="E12">
+        <v>5.2534640000000001</v>
+      </c>
+      <c r="F12" s="78">
+        <v>-1.3116000000000001</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>13</v>
+      </c>
+      <c r="N12">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>24.305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>26.981999999999999</v>
+      </c>
+      <c r="D14">
+        <v>4.0389299999999997</v>
+      </c>
+      <c r="E14">
+        <v>4.0389299999999997</v>
+      </c>
+      <c r="F14" s="78">
+        <v>-3.7456</v>
+      </c>
+      <c r="G14">
+        <v>83</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>104</v>
+      </c>
+      <c r="J14">
+        <v>73</v>
+      </c>
+      <c r="K14">
+        <v>73</v>
+      </c>
+      <c r="L14">
+        <v>104</v>
+      </c>
+      <c r="M14">
+        <v>73</v>
+      </c>
+      <c r="N14">
+        <v>104</v>
+      </c>
+      <c r="O14">
+        <v>32</v>
+      </c>
+      <c r="P14">
+        <v>32</v>
+      </c>
+      <c r="Q14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>28.085000000000001</v>
+      </c>
+      <c r="D15">
+        <v>3.8694839999999999</v>
+      </c>
+      <c r="E15">
+        <v>3.8694839999999999</v>
+      </c>
+      <c r="F15">
+        <v>-4.8937999999999997</v>
+      </c>
+      <c r="G15">
+        <v>83</v>
+      </c>
+      <c r="H15">
+        <v>-9</v>
+      </c>
+      <c r="I15">
+        <v>28</v>
+      </c>
+      <c r="J15">
+        <v>110</v>
+      </c>
+      <c r="K15">
+        <v>110</v>
+      </c>
+      <c r="L15">
+        <v>28</v>
+      </c>
+      <c r="M15">
+        <v>110</v>
+      </c>
+      <c r="N15">
+        <v>28</v>
+      </c>
+      <c r="O15">
+        <v>11</v>
+      </c>
+      <c r="P15">
+        <v>11</v>
+      </c>
+      <c r="Q15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>30.974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>32.06</v>
+      </c>
+      <c r="D17">
+        <v>3.9876239999999998</v>
+      </c>
+      <c r="E17">
+        <v>3.9876239999999998</v>
+      </c>
+      <c r="F17">
+        <v>-2.8351999999999999</v>
+      </c>
+      <c r="G17">
+        <v>112</v>
+      </c>
+      <c r="H17">
+        <v>-53</v>
+      </c>
+      <c r="I17">
+        <v>35</v>
+      </c>
+      <c r="J17">
+        <v>150</v>
+      </c>
+      <c r="K17">
+        <v>150</v>
+      </c>
+      <c r="L17">
+        <v>35</v>
+      </c>
+      <c r="M17">
+        <v>150</v>
+      </c>
+      <c r="N17">
+        <v>35</v>
+      </c>
+      <c r="O17">
+        <v>-49</v>
+      </c>
+      <c r="P17">
+        <v>-49</v>
+      </c>
+      <c r="Q17">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>35.450000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>39.948</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>39.097999999999999</v>
+      </c>
+      <c r="D20">
+        <v>6.6557339999999998</v>
+      </c>
+      <c r="E20">
+        <v>6.6557339999999998</v>
+      </c>
+      <c r="F20">
+        <v>-1.0981000000000001</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>40.078000000000003</v>
+      </c>
+      <c r="D21">
+        <v>5.5073699999999999</v>
+      </c>
+      <c r="E21">
+        <v>5.5073699999999999</v>
+      </c>
+      <c r="F21">
+        <v>-1.9984999999999999</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>21</v>
+      </c>
+      <c r="J21">
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <v>15</v>
+      </c>
+      <c r="L21">
+        <v>21</v>
+      </c>
+      <c r="M21">
+        <v>15</v>
+      </c>
+      <c r="N21">
+        <v>21</v>
+      </c>
+      <c r="O21">
+        <v>14</v>
+      </c>
+      <c r="P21">
+        <v>14</v>
+      </c>
+      <c r="Q21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>44.956000000000003</v>
+      </c>
+      <c r="D22">
+        <v>4.6189520000000002</v>
+      </c>
+      <c r="E22">
+        <v>4.6189520000000002</v>
+      </c>
+      <c r="F22">
+        <v>-6.2832999999999997</v>
+      </c>
+      <c r="G22">
+        <v>51</v>
+      </c>
+      <c r="H22">
+        <v>24</v>
+      </c>
+      <c r="I22">
+        <v>67</v>
+      </c>
+      <c r="J22">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>43</v>
+      </c>
+      <c r="L22">
+        <v>67</v>
+      </c>
+      <c r="M22">
+        <v>43</v>
+      </c>
+      <c r="N22">
+        <v>67</v>
+      </c>
+      <c r="O22">
+        <v>32</v>
+      </c>
+      <c r="P22">
+        <v>32</v>
+      </c>
+      <c r="Q22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>47.866999999999997</v>
+      </c>
+      <c r="D23">
+        <v>4.1090660000000003</v>
+      </c>
+      <c r="E23">
+        <v>4.1090660000000003</v>
+      </c>
+      <c r="F23">
+        <v>-7.8334999999999999</v>
+      </c>
+      <c r="G23">
+        <v>107</v>
+      </c>
+      <c r="H23">
+        <v>38</v>
+      </c>
+      <c r="I23">
+        <v>123</v>
+      </c>
+      <c r="J23">
+        <v>99</v>
+      </c>
+      <c r="K23">
+        <v>99</v>
+      </c>
+      <c r="L23">
+        <v>123</v>
+      </c>
+      <c r="M23">
+        <v>99</v>
+      </c>
+      <c r="N23">
+        <v>123</v>
+      </c>
+      <c r="O23">
+        <v>55</v>
+      </c>
+      <c r="P23">
+        <v>55</v>
+      </c>
+      <c r="Q23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>50.942</v>
+      </c>
+      <c r="D24">
+        <v>3.8190879999999998</v>
+      </c>
+      <c r="E24">
+        <v>3.8190879999999998</v>
+      </c>
+      <c r="F24">
+        <v>-8.8367000000000004</v>
+      </c>
+      <c r="G24">
+        <v>179</v>
+      </c>
+      <c r="H24">
+        <v>-44</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>259</v>
+      </c>
+      <c r="K24">
+        <v>259</v>
+      </c>
+      <c r="L24">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <v>259</v>
+      </c>
+      <c r="N24">
+        <v>20</v>
+      </c>
+      <c r="O24">
+        <v>6</v>
+      </c>
+      <c r="P24">
+        <v>6</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>51.996000000000002</v>
+      </c>
+      <c r="D25">
+        <v>3.6244160000000001</v>
+      </c>
+      <c r="E25">
+        <v>3.6244160000000001</v>
+      </c>
+      <c r="F25">
+        <v>-9.2486999999999995</v>
+      </c>
+      <c r="G25">
+        <v>241</v>
+      </c>
+      <c r="H25">
+        <v>-90</v>
+      </c>
+      <c r="I25">
+        <v>45</v>
+      </c>
+      <c r="J25">
+        <v>339</v>
+      </c>
+      <c r="K25">
+        <v>339</v>
+      </c>
+      <c r="L25">
+        <v>45</v>
+      </c>
+      <c r="M25">
+        <v>339</v>
+      </c>
+      <c r="N25">
+        <v>45</v>
+      </c>
+      <c r="O25">
+        <v>-53</v>
+      </c>
+      <c r="P25">
+        <v>-53</v>
+      </c>
+      <c r="Q25">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>54.938000000000002</v>
+      </c>
+      <c r="D26">
+        <v>3.509512</v>
+      </c>
+      <c r="E26">
+        <v>3.509512</v>
+      </c>
+      <c r="F26">
+        <v>-9.0786999999999995</v>
+      </c>
+      <c r="G26">
+        <v>280</v>
+      </c>
+      <c r="H26">
+        <v>139</v>
+      </c>
+      <c r="I26">
+        <v>393</v>
+      </c>
+      <c r="J26">
+        <v>223</v>
+      </c>
+      <c r="K26">
+        <v>223</v>
+      </c>
+      <c r="L26">
+        <v>393</v>
+      </c>
+      <c r="M26">
+        <v>223</v>
+      </c>
+      <c r="N26">
+        <v>393</v>
+      </c>
+      <c r="O26">
+        <v>174</v>
+      </c>
+      <c r="P26">
+        <v>174</v>
+      </c>
+      <c r="Q26">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>55.844999999999999</v>
+      </c>
+      <c r="D27">
+        <v>3.6457000000000002</v>
+      </c>
+      <c r="E27">
+        <v>3.6457000000000002</v>
+      </c>
+      <c r="F27">
+        <v>-8.3155999999999999</v>
+      </c>
+      <c r="G27">
+        <v>173</v>
+      </c>
+      <c r="H27">
+        <v>-36</v>
+      </c>
+      <c r="I27">
+        <v>-4</v>
+      </c>
+      <c r="J27">
+        <v>262</v>
+      </c>
+      <c r="K27">
+        <v>262</v>
+      </c>
+      <c r="L27">
+        <v>-4</v>
+      </c>
+      <c r="M27">
+        <v>262</v>
+      </c>
+      <c r="N27">
+        <v>-4</v>
+      </c>
+      <c r="O27">
+        <v>28</v>
+      </c>
+      <c r="P27">
+        <v>28</v>
+      </c>
+      <c r="Q27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>58.933</v>
+      </c>
+      <c r="D28">
+        <v>3.5210520000000001</v>
+      </c>
+      <c r="E28">
+        <v>3.5210520000000001</v>
+      </c>
+      <c r="F28">
+        <v>-7.0922000000000001</v>
+      </c>
+      <c r="G28">
+        <v>212</v>
+      </c>
+      <c r="H28">
+        <v>112</v>
+      </c>
+      <c r="I28">
+        <v>289</v>
+      </c>
+      <c r="J28">
+        <v>173</v>
+      </c>
+      <c r="K28">
+        <v>173</v>
+      </c>
+      <c r="L28">
+        <v>289</v>
+      </c>
+      <c r="M28">
+        <v>173</v>
+      </c>
+      <c r="N28">
+        <v>289</v>
+      </c>
+      <c r="O28">
+        <v>148</v>
+      </c>
+      <c r="P28">
+        <v>148</v>
+      </c>
+      <c r="Q28">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>58.692999999999998</v>
+      </c>
+      <c r="D29">
+        <v>3.505798</v>
+      </c>
+      <c r="E29">
+        <v>3.505798</v>
+      </c>
+      <c r="F29">
+        <v>-5.7797999999999998</v>
+      </c>
+      <c r="G29">
+        <v>198</v>
+      </c>
+      <c r="H29">
+        <v>102</v>
+      </c>
+      <c r="I29">
+        <v>276</v>
+      </c>
+      <c r="J29">
+        <v>159</v>
+      </c>
+      <c r="K29">
+        <v>159</v>
+      </c>
+      <c r="L29">
+        <v>276</v>
+      </c>
+      <c r="M29">
+        <v>159</v>
+      </c>
+      <c r="N29">
+        <v>276</v>
+      </c>
+      <c r="O29">
+        <v>132</v>
+      </c>
+      <c r="P29">
+        <v>132</v>
+      </c>
+      <c r="Q29">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>63.545999999999999</v>
+      </c>
+      <c r="D30">
+        <v>3.6212620000000002</v>
+      </c>
+      <c r="E30">
+        <v>3.6212620000000002</v>
+      </c>
+      <c r="F30">
+        <v>-4.0991999999999997</v>
+      </c>
+      <c r="G30">
+        <v>145</v>
+      </c>
+      <c r="H30">
+        <v>57</v>
+      </c>
+      <c r="I30">
+        <v>180</v>
+      </c>
+      <c r="J30">
+        <v>127</v>
+      </c>
+      <c r="K30">
+        <v>127</v>
+      </c>
+      <c r="L30">
+        <v>180</v>
+      </c>
+      <c r="M30">
+        <v>127</v>
+      </c>
+      <c r="N30">
+        <v>180</v>
+      </c>
+      <c r="O30">
+        <v>78</v>
+      </c>
+      <c r="P30">
+        <v>78</v>
+      </c>
+      <c r="Q30">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>65.38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>69.722999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>72.63</v>
+      </c>
+      <c r="D33">
+        <v>4.2838039999999999</v>
+      </c>
+      <c r="E33">
+        <v>4.2838039999999999</v>
+      </c>
+      <c r="F33">
+        <v>-4.2889999999999997</v>
+      </c>
+      <c r="G33">
+        <v>65</v>
+      </c>
+      <c r="H33">
+        <v>11</v>
+      </c>
+      <c r="I33">
+        <v>58</v>
+      </c>
+      <c r="J33">
+        <v>69</v>
+      </c>
+      <c r="K33">
+        <v>69</v>
+      </c>
+      <c r="L33">
+        <v>58</v>
+      </c>
+      <c r="M33">
+        <v>69</v>
+      </c>
+      <c r="N33">
+        <v>58</v>
+      </c>
+      <c r="O33">
+        <v>22</v>
+      </c>
+      <c r="P33">
+        <v>22</v>
+      </c>
+      <c r="Q33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>74.921999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>78.971000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>79.903999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>83.798000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>85.468000000000004</v>
+      </c>
+      <c r="D38">
+        <v>7.1372020000000003</v>
+      </c>
+      <c r="E38">
+        <v>7.1372020000000003</v>
+      </c>
+      <c r="F38">
+        <v>-0.96519999999999995</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>87.62</v>
+      </c>
+      <c r="D39">
+        <v>6.0225299999999997</v>
+      </c>
+      <c r="E39">
+        <v>6.0225299999999997</v>
+      </c>
+      <c r="F39">
+        <v>-1.6831</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>15</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>10</v>
+      </c>
+      <c r="L39">
+        <v>15</v>
+      </c>
+      <c r="M39">
+        <v>10</v>
+      </c>
+      <c r="N39">
+        <v>15</v>
+      </c>
+      <c r="O39">
+        <v>12</v>
+      </c>
+      <c r="P39">
+        <v>12</v>
+      </c>
+      <c r="Q39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>88.906000000000006</v>
+      </c>
+      <c r="D40">
+        <v>5.0626420000000003</v>
+      </c>
+      <c r="E40">
+        <v>5.0626420000000003</v>
+      </c>
+      <c r="F40">
+        <v>-6.4424999999999999</v>
+      </c>
+      <c r="G40">
+        <v>39</v>
+      </c>
+      <c r="H40">
+        <v>25</v>
+      </c>
+      <c r="I40">
+        <v>58</v>
+      </c>
+      <c r="J40">
+        <v>30</v>
+      </c>
+      <c r="K40">
+        <v>30</v>
+      </c>
+      <c r="L40">
+        <v>58</v>
+      </c>
+      <c r="M40">
+        <v>30</v>
+      </c>
+      <c r="N40">
+        <v>58</v>
+      </c>
+      <c r="O40">
+        <v>32</v>
+      </c>
+      <c r="P40">
+        <v>32</v>
+      </c>
+      <c r="Q40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>91.224000000000004</v>
+      </c>
+      <c r="D41">
+        <v>4.5367980000000001</v>
+      </c>
+      <c r="E41">
+        <v>4.5367980000000001</v>
+      </c>
+      <c r="F41">
+        <v>-8.5068999999999999</v>
+      </c>
+      <c r="G41">
+        <v>90</v>
+      </c>
+      <c r="H41">
+        <v>34</v>
+      </c>
+      <c r="I41">
+        <v>113</v>
+      </c>
+      <c r="J41">
+        <v>79</v>
+      </c>
+      <c r="K41">
+        <v>79</v>
+      </c>
+      <c r="L41">
+        <v>113</v>
+      </c>
+      <c r="M41">
+        <v>79</v>
+      </c>
+      <c r="N41">
+        <v>113</v>
+      </c>
+      <c r="O41">
+        <v>44</v>
+      </c>
+      <c r="P41">
+        <v>44</v>
+      </c>
+      <c r="Q41">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>92.906000000000006</v>
+      </c>
+      <c r="D42">
+        <v>4.231026</v>
+      </c>
+      <c r="E42">
+        <v>4.231026</v>
+      </c>
+      <c r="F42">
+        <v>-9.7811000000000003</v>
+      </c>
+      <c r="G42">
+        <v>167</v>
+      </c>
+      <c r="H42">
+        <v>-79</v>
+      </c>
+      <c r="I42">
+        <v>-32</v>
+      </c>
+      <c r="J42">
+        <v>266</v>
+      </c>
+      <c r="K42">
+        <v>266</v>
+      </c>
+      <c r="L42">
+        <v>-32</v>
+      </c>
+      <c r="M42">
+        <v>266</v>
+      </c>
+      <c r="N42">
+        <v>-32</v>
+      </c>
+      <c r="O42">
+        <v>-32</v>
+      </c>
+      <c r="P42">
+        <v>-32</v>
+      </c>
+      <c r="Q42">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>95.95</v>
+      </c>
+      <c r="D43">
+        <v>4.0119860000000003</v>
+      </c>
+      <c r="E43">
+        <v>4.0119860000000003</v>
+      </c>
+      <c r="F43">
+        <v>-10.4193</v>
+      </c>
+      <c r="G43">
+        <v>243</v>
+      </c>
+      <c r="H43">
+        <v>-46</v>
+      </c>
+      <c r="I43">
+        <v>105</v>
+      </c>
+      <c r="J43">
+        <v>312</v>
+      </c>
+      <c r="K43">
+        <v>312</v>
+      </c>
+      <c r="L43">
+        <v>105</v>
+      </c>
+      <c r="M43">
+        <v>312</v>
+      </c>
+      <c r="N43">
+        <v>105</v>
+      </c>
+      <c r="O43">
+        <v>-7</v>
+      </c>
+      <c r="P43">
+        <v>-7</v>
+      </c>
+      <c r="Q43">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>98</v>
+      </c>
+      <c r="D44">
+        <v>3.8850380000000002</v>
+      </c>
+      <c r="E44">
+        <v>3.8850380000000002</v>
+      </c>
+      <c r="F44" s="78">
+        <v>-10.293799999999999</v>
+      </c>
+      <c r="G44">
+        <v>376</v>
+      </c>
+      <c r="H44">
+        <v>168</v>
+      </c>
+      <c r="I44">
+        <v>538</v>
+      </c>
+      <c r="J44">
+        <v>296</v>
+      </c>
+      <c r="K44">
+        <v>296</v>
+      </c>
+      <c r="L44">
+        <v>538</v>
+      </c>
+      <c r="M44">
+        <v>296</v>
+      </c>
+      <c r="N44">
+        <v>538</v>
+      </c>
+      <c r="O44">
+        <v>199</v>
+      </c>
+      <c r="P44">
+        <v>199</v>
+      </c>
+      <c r="Q44">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>101.07</v>
+      </c>
+      <c r="D45">
+        <v>3.825472</v>
+      </c>
+      <c r="E45">
+        <v>3.825472</v>
+      </c>
+      <c r="F45">
+        <v>-9.1651000000000007</v>
+      </c>
+      <c r="G45">
+        <v>309</v>
+      </c>
+      <c r="H45">
+        <v>196</v>
+      </c>
+      <c r="I45">
+        <v>476</v>
+      </c>
+      <c r="J45">
+        <v>226</v>
+      </c>
+      <c r="K45">
+        <v>226</v>
+      </c>
+      <c r="L45">
+        <v>476</v>
+      </c>
+      <c r="M45">
+        <v>226</v>
+      </c>
+      <c r="N45">
+        <v>473</v>
+      </c>
+      <c r="O45">
+        <v>243</v>
+      </c>
+      <c r="P45">
+        <v>243</v>
+      </c>
+      <c r="Q45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>102.91</v>
+      </c>
+      <c r="D46">
+        <v>3.8438979999999998</v>
+      </c>
+      <c r="E46">
+        <v>3.8438979999999998</v>
+      </c>
+      <c r="F46">
+        <v>-7.3384999999999998</v>
+      </c>
+      <c r="G46">
+        <v>253</v>
+      </c>
+      <c r="H46">
+        <v>149</v>
+      </c>
+      <c r="I46">
+        <v>397</v>
+      </c>
+      <c r="J46">
+        <v>182</v>
+      </c>
+      <c r="K46">
+        <v>182</v>
+      </c>
+      <c r="L46">
+        <v>397</v>
+      </c>
+      <c r="M46">
+        <v>182</v>
+      </c>
+      <c r="N46">
+        <v>397</v>
+      </c>
+      <c r="O46">
+        <v>177</v>
+      </c>
+      <c r="P46">
+        <v>177</v>
+      </c>
+      <c r="Q46">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>106.42</v>
+      </c>
+      <c r="D47">
+        <v>3.9570660000000002</v>
+      </c>
+      <c r="E47">
+        <v>3.9570660000000002</v>
+      </c>
+      <c r="F47">
+        <v>-5.1764999999999999</v>
+      </c>
+      <c r="G47">
+        <v>160</v>
+      </c>
+      <c r="H47">
+        <v>50</v>
+      </c>
+      <c r="I47">
+        <v>187</v>
+      </c>
+      <c r="J47">
+        <v>147</v>
+      </c>
+      <c r="K47">
+        <v>147</v>
+      </c>
+      <c r="L47">
+        <v>187</v>
+      </c>
+      <c r="M47">
+        <v>147</v>
+      </c>
+      <c r="N47">
+        <v>187</v>
+      </c>
+      <c r="O47">
+        <v>71</v>
+      </c>
+      <c r="P47">
+        <v>71</v>
+      </c>
+      <c r="Q47">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>107.87</v>
+      </c>
+      <c r="D48">
+        <v>4.1605480000000004</v>
+      </c>
+      <c r="E48">
+        <v>4.1605480000000004</v>
+      </c>
+      <c r="F48">
+        <v>-2.8289</v>
+      </c>
+      <c r="G48">
+        <v>88</v>
+      </c>
+      <c r="H48">
+        <v>28</v>
+      </c>
+      <c r="I48">
+        <v>100</v>
+      </c>
+      <c r="J48">
+        <v>82</v>
+      </c>
+      <c r="K48">
+        <v>82</v>
+      </c>
+      <c r="L48">
+        <v>100</v>
+      </c>
+      <c r="M48">
+        <v>82</v>
+      </c>
+      <c r="N48">
+        <v>100</v>
+      </c>
+      <c r="O48">
+        <v>41</v>
+      </c>
+      <c r="P48">
+        <v>41</v>
+      </c>
+      <c r="Q48">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>112.41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>114.82</v>
+      </c>
+      <c r="D50">
+        <v>4.7960539999999998</v>
+      </c>
+      <c r="E50">
+        <v>4.7960539999999998</v>
+      </c>
+      <c r="F50">
+        <v>-2.7149000000000001</v>
+      </c>
+      <c r="G50">
+        <v>34</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>42</v>
+      </c>
+      <c r="J50">
+        <v>23</v>
+      </c>
+      <c r="K50">
+        <v>33</v>
+      </c>
+      <c r="L50">
+        <v>42</v>
+      </c>
+      <c r="M50">
+        <v>33</v>
+      </c>
+      <c r="N50">
+        <v>43</v>
+      </c>
+      <c r="O50">
+        <v>6</v>
+      </c>
+      <c r="P50">
+        <v>6</v>
+      </c>
+      <c r="Q50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>118.71</v>
+      </c>
+      <c r="D51">
+        <v>4.8133319999999999</v>
+      </c>
+      <c r="E51">
+        <v>4.8133319999999999</v>
+      </c>
+      <c r="F51">
+        <v>-3.9552999999999998</v>
+      </c>
+      <c r="G51">
+        <v>93</v>
+      </c>
+      <c r="H51">
+        <v>53</v>
+      </c>
+      <c r="I51">
+        <v>178</v>
+      </c>
+      <c r="J51">
+        <v>51</v>
+      </c>
+      <c r="K51">
+        <v>51</v>
+      </c>
+      <c r="L51">
+        <v>178</v>
+      </c>
+      <c r="M51">
+        <v>51</v>
+      </c>
+      <c r="N51">
+        <v>178</v>
+      </c>
+      <c r="O51">
+        <v>46</v>
+      </c>
+      <c r="P51">
+        <v>46</v>
+      </c>
+      <c r="Q51">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>11.76</v>
+      </c>
+      <c r="D52">
+        <v>4.7909160000000002</v>
+      </c>
+      <c r="E52">
+        <v>4.7909160000000002</v>
+      </c>
+      <c r="F52">
+        <v>-3.8006000000000002</v>
+      </c>
+      <c r="G52">
+        <v>58</v>
+      </c>
+      <c r="H52">
+        <v>-5</v>
+      </c>
+      <c r="I52">
+        <v>34</v>
+      </c>
+      <c r="J52">
+        <v>70</v>
+      </c>
+      <c r="K52">
+        <v>70</v>
+      </c>
+      <c r="L52">
+        <v>34</v>
+      </c>
+      <c r="M52">
+        <v>70</v>
+      </c>
+      <c r="N52">
+        <v>34</v>
+      </c>
+      <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+      <c r="Q52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>127.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>126.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>131.29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>132.91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>137.33000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>138.91</v>
+      </c>
+      <c r="D58">
+        <v>5.2910339999999998</v>
+      </c>
+      <c r="E58">
+        <v>5.2910339999999998</v>
+      </c>
+      <c r="F58">
+        <v>-4.9352999999999998</v>
+      </c>
+      <c r="G58">
+        <v>23</v>
+      </c>
+      <c r="H58">
+        <v>16</v>
+      </c>
+      <c r="I58">
+        <v>36</v>
+      </c>
+      <c r="J58">
+        <v>17</v>
+      </c>
+      <c r="K58">
+        <v>17</v>
+      </c>
+      <c r="L58">
+        <v>36</v>
+      </c>
+      <c r="M58">
+        <v>17</v>
+      </c>
+      <c r="N58">
+        <v>36</v>
+      </c>
+      <c r="O58">
+        <v>20</v>
+      </c>
+      <c r="P58">
+        <v>20</v>
+      </c>
+      <c r="Q58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>140.12</v>
+      </c>
+      <c r="D59">
+        <v>4.7204360000000003</v>
+      </c>
+      <c r="E59">
+        <v>4.7204360000000003</v>
+      </c>
+      <c r="F59">
+        <v>-5.9314999999999998</v>
+      </c>
+      <c r="G59">
+        <v>37</v>
+      </c>
+      <c r="H59">
+        <v>40</v>
+      </c>
+      <c r="I59">
+        <v>66</v>
+      </c>
+      <c r="J59">
+        <v>23</v>
+      </c>
+      <c r="K59">
+        <v>23</v>
+      </c>
+      <c r="L59">
+        <v>66</v>
+      </c>
+      <c r="M59">
+        <v>23</v>
+      </c>
+      <c r="N59">
+        <v>66</v>
+      </c>
+      <c r="O59">
+        <v>52</v>
+      </c>
+      <c r="P59">
+        <v>52</v>
+      </c>
+      <c r="Q59">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>140.91</v>
+      </c>
+      <c r="D60">
+        <v>5.2685040000000001</v>
+      </c>
+      <c r="E60">
+        <v>5.2685040000000001</v>
+      </c>
+      <c r="F60">
+        <v>-4.7728999999999999</v>
+      </c>
+      <c r="G60">
+        <v>32</v>
+      </c>
+      <c r="H60">
+        <v>19</v>
+      </c>
+      <c r="I60">
+        <v>46</v>
+      </c>
+      <c r="J60">
+        <v>25</v>
+      </c>
+      <c r="K60">
+        <v>25</v>
+      </c>
+      <c r="L60">
+        <v>46</v>
+      </c>
+      <c r="M60">
+        <v>25</v>
+      </c>
+      <c r="N60">
+        <v>46</v>
+      </c>
+      <c r="O60">
+        <v>24</v>
+      </c>
+      <c r="P60">
+        <v>24</v>
+      </c>
+      <c r="Q60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>144.24</v>
+      </c>
+      <c r="D61">
+        <v>5.2158480000000003</v>
+      </c>
+      <c r="E61">
+        <v>5.2158480000000003</v>
+      </c>
+      <c r="F61">
+        <v>-4.7591000000000001</v>
+      </c>
+      <c r="G61">
+        <v>34</v>
+      </c>
+      <c r="H61">
+        <v>21</v>
+      </c>
+      <c r="I61">
+        <v>51</v>
+      </c>
+      <c r="J61">
+        <v>25</v>
+      </c>
+      <c r="K61">
+        <v>25</v>
+      </c>
+      <c r="L61">
+        <v>51</v>
+      </c>
+      <c r="M61">
+        <v>25</v>
+      </c>
+      <c r="N61">
+        <v>51</v>
+      </c>
+      <c r="O61">
+        <v>26</v>
+      </c>
+      <c r="P61">
+        <v>26</v>
+      </c>
+      <c r="Q61">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>150.36000000000001</v>
+      </c>
+      <c r="D63">
+        <v>5.1556959999999998</v>
+      </c>
+      <c r="E63">
+        <v>5.1556959999999998</v>
+      </c>
+      <c r="F63">
+        <v>-4.7081</v>
+      </c>
+      <c r="G63">
+        <v>37</v>
+      </c>
+      <c r="H63">
+        <v>24</v>
+      </c>
+      <c r="I63">
+        <v>57</v>
+      </c>
+      <c r="J63">
+        <v>27</v>
+      </c>
+      <c r="K63">
+        <v>27</v>
+      </c>
+      <c r="L63">
+        <v>56</v>
+      </c>
+      <c r="M63">
+        <v>28</v>
+      </c>
+      <c r="N63">
+        <v>56</v>
+      </c>
+      <c r="O63">
+        <v>31</v>
+      </c>
+      <c r="P63">
+        <v>31</v>
+      </c>
+      <c r="Q63">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>151.96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>157.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>158.93</v>
+      </c>
+      <c r="D66">
+        <v>5.0358580000000002</v>
+      </c>
+      <c r="E66">
+        <v>5.0358580000000002</v>
+      </c>
+      <c r="F66">
+        <v>-4.6154999999999999</v>
+      </c>
+      <c r="G66">
+        <v>41</v>
+      </c>
+      <c r="H66">
+        <v>27</v>
+      </c>
+      <c r="I66">
+        <v>62</v>
+      </c>
+      <c r="J66">
+        <v>30</v>
+      </c>
+      <c r="K66">
+        <v>30</v>
+      </c>
+      <c r="L66">
+        <v>62</v>
+      </c>
+      <c r="M66">
+        <v>30</v>
+      </c>
+      <c r="N66">
+        <v>62</v>
+      </c>
+      <c r="O66">
+        <v>34</v>
+      </c>
+      <c r="P66">
+        <v>34</v>
+      </c>
+      <c r="Q66">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>162.5</v>
+      </c>
+      <c r="D67">
+        <v>5.0117380000000002</v>
+      </c>
+      <c r="E67">
+        <v>5.0117380000000002</v>
+      </c>
+      <c r="F67">
+        <v>-4.5854999999999997</v>
+      </c>
+      <c r="G67">
+        <v>41</v>
+      </c>
+      <c r="H67">
+        <v>28</v>
+      </c>
+      <c r="I67">
+        <v>63</v>
+      </c>
+      <c r="J67">
+        <v>30</v>
+      </c>
+      <c r="K67">
+        <v>30</v>
+      </c>
+      <c r="L67">
+        <v>63</v>
+      </c>
+      <c r="M67">
+        <v>30</v>
+      </c>
+      <c r="N67">
+        <v>63</v>
+      </c>
+      <c r="O67">
+        <v>35</v>
+      </c>
+      <c r="P67">
+        <v>35</v>
+      </c>
+      <c r="Q67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>164.93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>167.26</v>
+      </c>
+      <c r="D69">
+        <v>4.9592619999999998</v>
+      </c>
+      <c r="E69">
+        <v>4.9592619999999998</v>
+      </c>
+      <c r="F69">
+        <v>-4.5407999999999999</v>
+      </c>
+      <c r="G69">
+        <v>42</v>
+      </c>
+      <c r="H69">
+        <v>28</v>
+      </c>
+      <c r="I69">
+        <v>66</v>
+      </c>
+      <c r="J69">
+        <v>31</v>
+      </c>
+      <c r="K69">
+        <v>31</v>
+      </c>
+      <c r="L69">
+        <v>66</v>
+      </c>
+      <c r="M69">
+        <v>31</v>
+      </c>
+      <c r="N69">
+        <v>66</v>
+      </c>
+      <c r="O69">
+        <v>35</v>
+      </c>
+      <c r="P69">
+        <v>35</v>
+      </c>
+      <c r="Q69">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>168.93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>173.05</v>
+      </c>
+      <c r="D71">
+        <v>5.4492500000000001</v>
+      </c>
+      <c r="E71">
+        <v>5.4492500000000001</v>
+      </c>
+      <c r="F71">
+        <v>-1.5367999999999999</v>
+      </c>
+      <c r="G71">
+        <v>15</v>
+      </c>
+      <c r="H71">
+        <v>12</v>
+      </c>
+      <c r="I71">
+        <v>20</v>
+      </c>
+      <c r="J71">
+        <v>13</v>
+      </c>
+      <c r="K71">
+        <v>13</v>
+      </c>
+      <c r="L71">
+        <v>20</v>
+      </c>
+      <c r="M71">
+        <v>13</v>
+      </c>
+      <c r="N71">
+        <v>20</v>
+      </c>
+      <c r="O71">
+        <v>18</v>
+      </c>
+      <c r="P71">
+        <v>18</v>
+      </c>
+      <c r="Q71">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>174.97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>178.49</v>
+      </c>
+      <c r="D73">
+        <v>4.4814699999999998</v>
+      </c>
+      <c r="E73">
+        <v>4.4814699999999998</v>
+      </c>
+      <c r="F73">
+        <v>-9.8841000000000001</v>
+      </c>
+      <c r="G73">
+        <v>101</v>
+      </c>
+      <c r="H73">
+        <v>48</v>
+      </c>
+      <c r="I73">
+        <v>138</v>
+      </c>
+      <c r="J73">
+        <v>83</v>
+      </c>
+      <c r="K73">
+        <v>83</v>
+      </c>
+      <c r="L73">
+        <v>138</v>
+      </c>
+      <c r="M73">
+        <v>83</v>
+      </c>
+      <c r="N73">
+        <v>138</v>
+      </c>
+      <c r="O73">
+        <v>63</v>
+      </c>
+      <c r="P73">
+        <v>63</v>
+      </c>
+      <c r="Q73">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>180.95</v>
+      </c>
+      <c r="D74">
+        <v>4.2268679999999996</v>
+      </c>
+      <c r="E74">
+        <v>4.2268679999999996</v>
+      </c>
+      <c r="F74">
+        <v>-11.6129</v>
+      </c>
+      <c r="G74">
+        <v>194</v>
+      </c>
+      <c r="H74">
+        <v>10</v>
+      </c>
+      <c r="I74">
+        <v>132</v>
+      </c>
+      <c r="J74">
+        <v>225</v>
+      </c>
+      <c r="K74">
+        <v>225</v>
+      </c>
+      <c r="L74">
+        <v>132</v>
+      </c>
+      <c r="M74">
+        <v>225</v>
+      </c>
+      <c r="N74">
+        <v>132</v>
+      </c>
+      <c r="O74">
+        <v>47</v>
+      </c>
+      <c r="P74">
+        <v>47</v>
+      </c>
+      <c r="Q74">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>183.84</v>
+      </c>
+      <c r="D75">
+        <v>4.0432620000000004</v>
+      </c>
+      <c r="E75">
+        <v>4.0432620000000004</v>
+      </c>
+      <c r="F75">
+        <v>-12.486700000000001</v>
+      </c>
+      <c r="G75">
+        <v>283</v>
+      </c>
+      <c r="H75">
+        <v>-108</v>
+      </c>
+      <c r="I75">
+        <v>70</v>
+      </c>
+      <c r="J75">
+        <v>389</v>
+      </c>
+      <c r="K75">
+        <v>389</v>
+      </c>
+      <c r="L75">
+        <v>70</v>
+      </c>
+      <c r="M75">
+        <v>389</v>
+      </c>
+      <c r="N75">
+        <v>70</v>
+      </c>
+      <c r="O75">
+        <v>-74</v>
+      </c>
+      <c r="P75">
+        <v>-74</v>
+      </c>
+      <c r="Q75">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>186.21</v>
+      </c>
+      <c r="D76">
+        <v>3.9249520000000002</v>
+      </c>
+      <c r="E76">
+        <v>3.9249520000000002</v>
+      </c>
+      <c r="F76">
+        <v>-12.3818</v>
+      </c>
+      <c r="G76">
+        <v>363</v>
+      </c>
+      <c r="H76">
+        <v>190</v>
+      </c>
+      <c r="I76">
+        <v>560</v>
+      </c>
+      <c r="J76">
+        <v>265</v>
+      </c>
+      <c r="K76">
+        <v>265</v>
+      </c>
+      <c r="L76">
+        <v>560</v>
+      </c>
+      <c r="M76">
+        <v>265</v>
+      </c>
+      <c r="N76">
+        <v>560</v>
+      </c>
+      <c r="O76">
+        <v>218</v>
+      </c>
+      <c r="P76">
+        <v>218</v>
+      </c>
+      <c r="Q76">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>190.23</v>
+      </c>
+      <c r="D77">
+        <v>3.8634520000000001</v>
+      </c>
+      <c r="E77">
+        <v>3.8634520000000001</v>
+      </c>
+      <c r="F77">
+        <v>-11.093999999999999</v>
+      </c>
+      <c r="G77">
+        <v>408</v>
+      </c>
+      <c r="H77">
+        <v>256</v>
+      </c>
+      <c r="I77">
+        <v>579</v>
+      </c>
+      <c r="J77">
+        <v>323</v>
+      </c>
+      <c r="K77">
+        <v>323</v>
+      </c>
+      <c r="L77">
+        <v>579</v>
+      </c>
+      <c r="M77">
+        <v>323</v>
+      </c>
+      <c r="N77">
+        <v>579</v>
+      </c>
+      <c r="O77">
+        <v>342</v>
+      </c>
+      <c r="P77">
+        <v>342</v>
+      </c>
+      <c r="Q77">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>211</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>192.22</v>
+      </c>
+      <c r="D78">
+        <v>3.8757280000000001</v>
+      </c>
+      <c r="E78">
+        <v>3.8757280000000001</v>
+      </c>
+      <c r="F78">
+        <v>-8.8384</v>
+      </c>
+      <c r="G78">
+        <v>346</v>
+      </c>
+      <c r="H78">
+        <v>220</v>
+      </c>
+      <c r="I78">
+        <v>576</v>
+      </c>
+      <c r="J78">
+        <v>231</v>
+      </c>
+      <c r="K78">
+        <v>231</v>
+      </c>
+      <c r="L78">
+        <v>576</v>
+      </c>
+      <c r="M78">
+        <v>231</v>
+      </c>
+      <c r="N78">
+        <v>576</v>
+      </c>
+      <c r="O78">
+        <v>252</v>
+      </c>
+      <c r="P78">
+        <v>252</v>
+      </c>
+      <c r="Q78">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>195.08</v>
+      </c>
+      <c r="D79">
+        <v>3.9767700000000001</v>
+      </c>
+      <c r="E79">
+        <v>3.9767700000000001</v>
+      </c>
+      <c r="F79" s="78">
+        <v>-6.0709</v>
+      </c>
+      <c r="G79">
+        <v>247</v>
+      </c>
+      <c r="H79">
+        <v>49</v>
+      </c>
+      <c r="I79">
+        <v>303</v>
+      </c>
+      <c r="J79">
+        <v>220</v>
+      </c>
+      <c r="K79">
+        <v>220</v>
+      </c>
+      <c r="L79">
+        <v>303</v>
+      </c>
+      <c r="M79">
+        <v>220</v>
+      </c>
+      <c r="N79">
+        <v>303</v>
+      </c>
+      <c r="O79">
+        <v>54</v>
+      </c>
+      <c r="P79">
+        <v>54</v>
+      </c>
+      <c r="Q79">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>196.97</v>
+      </c>
+      <c r="D80">
+        <v>4.1712879999999997</v>
+      </c>
+      <c r="E80">
+        <v>4.1712879999999997</v>
+      </c>
+      <c r="F80">
+        <v>-3.2738999999999998</v>
+      </c>
+      <c r="G80">
+        <v>137</v>
+      </c>
+      <c r="H80">
+        <v>18</v>
+      </c>
+      <c r="I80">
+        <v>144</v>
+      </c>
+      <c r="J80">
+        <v>134</v>
+      </c>
+      <c r="K80">
+        <v>134</v>
+      </c>
+      <c r="L80">
+        <v>144</v>
+      </c>
+      <c r="M80">
+        <v>134</v>
+      </c>
+      <c r="N80">
+        <v>144</v>
+      </c>
+      <c r="O80">
+        <v>29</v>
+      </c>
+      <c r="P80">
+        <v>29</v>
+      </c>
+      <c r="Q80">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>200.59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>214</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>204.38</v>
+      </c>
+      <c r="D82">
+        <v>4.9931999999999999</v>
+      </c>
+      <c r="E82">
+        <v>4.9931999999999999</v>
+      </c>
+      <c r="F82">
+        <v>-2.3519999999999999</v>
+      </c>
+      <c r="G82">
+        <v>25</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>41</v>
+      </c>
+      <c r="J82">
+        <v>14</v>
+      </c>
+      <c r="K82">
+        <v>23</v>
+      </c>
+      <c r="L82">
+        <v>41</v>
+      </c>
+      <c r="M82">
+        <v>23</v>
+      </c>
+      <c r="N82">
+        <v>18</v>
+      </c>
+      <c r="O82">
+        <v>7</v>
+      </c>
+      <c r="P82">
+        <v>7</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>207.2</v>
+      </c>
+      <c r="D83">
+        <v>5.0505339999999999</v>
+      </c>
+      <c r="E83">
+        <v>5.0505339999999999</v>
+      </c>
+      <c r="F83">
+        <v>-3.7126000000000001</v>
+      </c>
+      <c r="G83">
+        <v>37</v>
+      </c>
+      <c r="H83">
+        <v>14</v>
+      </c>
+      <c r="I83">
+        <v>47</v>
+      </c>
+      <c r="J83">
+        <v>32</v>
+      </c>
+      <c r="K83">
+        <v>32</v>
+      </c>
+      <c r="L83">
+        <v>47</v>
+      </c>
+      <c r="M83">
+        <v>32</v>
+      </c>
+      <c r="N83">
+        <v>47</v>
+      </c>
+      <c r="O83">
+        <v>18</v>
+      </c>
+      <c r="P83">
+        <v>18</v>
+      </c>
+      <c r="Q83">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>216</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>208.98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>217</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>218</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>227</v>
+      </c>
+      <c r="D90">
+        <v>5.6622560000000002</v>
+      </c>
+      <c r="E90">
+        <v>5.6622560000000002</v>
+      </c>
+      <c r="F90">
+        <v>-4.1007999999999996</v>
+      </c>
+      <c r="G90">
+        <v>24</v>
+      </c>
+      <c r="H90">
+        <v>15</v>
+      </c>
+      <c r="I90">
+        <v>34</v>
+      </c>
+      <c r="J90">
+        <v>18</v>
+      </c>
+      <c r="K90">
+        <v>18</v>
+      </c>
+      <c r="L90">
+        <v>34</v>
+      </c>
+      <c r="M90">
+        <v>18</v>
+      </c>
+      <c r="N90">
+        <v>34</v>
+      </c>
+      <c r="O90">
+        <v>19</v>
+      </c>
+      <c r="P90">
+        <v>19</v>
+      </c>
+      <c r="Q90">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>232.04</v>
+      </c>
+      <c r="D91">
+        <v>5.0412179999999998</v>
+      </c>
+      <c r="E91">
+        <v>5.0412179999999998</v>
+      </c>
+      <c r="F91">
+        <v>-7.4138999999999999</v>
+      </c>
+      <c r="G91">
+        <v>56</v>
+      </c>
+      <c r="H91">
+        <v>45</v>
+      </c>
+      <c r="I91">
+        <v>121</v>
+      </c>
+      <c r="J91">
+        <v>5</v>
+      </c>
+      <c r="K91">
+        <v>40</v>
+      </c>
+      <c r="L91">
+        <v>121</v>
+      </c>
+      <c r="M91">
+        <v>40</v>
+      </c>
+      <c r="N91">
+        <v>93</v>
+      </c>
+      <c r="O91">
+        <v>58</v>
+      </c>
+      <c r="P91">
+        <v>58</v>
+      </c>
+      <c r="Q91">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>231.04</v>
+      </c>
+      <c r="D92">
+        <v>4.6545319999999997</v>
+      </c>
+      <c r="E92">
+        <v>4.6545319999999997</v>
+      </c>
+      <c r="F92">
+        <v>-9.5146999999999995</v>
+      </c>
+      <c r="G92">
+        <v>95</v>
+      </c>
+      <c r="H92">
+        <v>58</v>
+      </c>
+      <c r="I92">
+        <v>117</v>
+      </c>
+      <c r="J92">
+        <v>85</v>
+      </c>
+      <c r="K92">
+        <v>85</v>
+      </c>
+      <c r="L92">
+        <v>117</v>
+      </c>
+      <c r="M92">
+        <v>85</v>
+      </c>
+      <c r="N92">
+        <v>117</v>
+      </c>
+      <c r="O92">
+        <v>85</v>
+      </c>
+      <c r="P92">
+        <v>85</v>
+      </c>
+      <c r="Q92">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>225</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>238.03</v>
+      </c>
+      <c r="D93">
+        <v>4.4321140000000003</v>
+      </c>
+      <c r="E93">
+        <v>4.4321140000000003</v>
+      </c>
+      <c r="F93">
+        <v>-10.919</v>
+      </c>
+      <c r="G93">
+        <v>105</v>
+      </c>
+      <c r="H93">
+        <v>-4</v>
+      </c>
+      <c r="I93">
+        <v>39</v>
+      </c>
+      <c r="J93">
+        <v>138</v>
+      </c>
+      <c r="K93">
+        <v>138</v>
+      </c>
+      <c r="L93">
+        <v>39</v>
+      </c>
+      <c r="M93">
+        <v>138</v>
+      </c>
+      <c r="N93">
+        <v>39</v>
+      </c>
+      <c r="O93">
+        <v>27</v>
+      </c>
+      <c r="P93">
+        <v>27</v>
+      </c>
+      <c r="Q93">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>226</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>227</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>244</v>
+      </c>
+      <c r="D95">
+        <v>4.7884760000000002</v>
+      </c>
+      <c r="E95">
+        <v>4.7884760000000002</v>
+      </c>
+      <c r="F95">
+        <v>-13.990600000000001</v>
+      </c>
+      <c r="G95">
+        <v>152</v>
+      </c>
+      <c r="H95">
+        <v>-43</v>
+      </c>
+      <c r="I95">
+        <v>38</v>
+      </c>
+      <c r="J95">
+        <v>209</v>
+      </c>
+      <c r="K95">
+        <v>209</v>
+      </c>
+      <c r="L95">
+        <v>38</v>
+      </c>
+      <c r="M95">
+        <v>209</v>
+      </c>
+      <c r="N95">
+        <v>38</v>
+      </c>
+      <c r="O95">
+        <v>-15</v>
+      </c>
+      <c r="P95">
+        <v>-15</v>
+      </c>
+      <c r="Q95">
+        <v>-15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2AA405-E3B6-468A-A903-238199E642B4}">
+  <dimension ref="A1:Q95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L1" t="s">
+        <v>345</v>
+      </c>
+      <c r="M1" t="s">
+        <v>346</v>
+      </c>
+      <c r="N1" t="s">
+        <v>342</v>
+      </c>
+      <c r="O1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4.0026000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>6.94</v>
+      </c>
+      <c r="D4">
+        <v>3.4268179999999999</v>
+      </c>
+      <c r="E4">
+        <v>3.4268179999999999</v>
+      </c>
+      <c r="F4">
+        <v>-1.9037999999999999</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>15</v>
+      </c>
+      <c r="O4">
+        <v>11</v>
+      </c>
+      <c r="P4">
+        <v>11</v>
+      </c>
+      <c r="Q4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>9.0122</v>
+      </c>
+      <c r="D5">
+        <v>2.5002260000000001</v>
+      </c>
+      <c r="E5">
+        <v>2.5002260000000001</v>
+      </c>
+      <c r="F5">
+        <v>-3.6436999999999999</v>
+      </c>
+      <c r="G5">
+        <v>124</v>
+      </c>
+      <c r="H5">
+        <v>122</v>
+      </c>
+      <c r="I5">
+        <v>153</v>
+      </c>
+      <c r="J5">
+        <v>109</v>
+      </c>
+      <c r="K5">
+        <v>109</v>
+      </c>
+      <c r="L5">
+        <v>153</v>
+      </c>
+      <c r="M5">
+        <v>109</v>
+      </c>
+      <c r="N5">
+        <v>153</v>
+      </c>
+      <c r="O5">
+        <v>188</v>
+      </c>
+      <c r="P5">
+        <v>188</v>
+      </c>
+      <c r="Q5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>12.010999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>14.007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>15.999000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>18.998000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>22.99</v>
+      </c>
+      <c r="D12">
+        <v>4.1726219999999996</v>
+      </c>
+      <c r="E12">
+        <v>4.1726219999999996</v>
+      </c>
+      <c r="F12">
+        <v>-1.3097000000000001</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>24.305</v>
+      </c>
+      <c r="D13">
+        <v>3.5792899999999999</v>
+      </c>
+      <c r="E13">
+        <v>3.5792899999999999</v>
+      </c>
+      <c r="F13">
+        <v>-1.5745</v>
+      </c>
+      <c r="G13">
+        <v>36</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>39</v>
+      </c>
+      <c r="K13">
+        <v>39</v>
+      </c>
+      <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13">
+        <v>39</v>
+      </c>
+      <c r="N13">
+        <v>30</v>
+      </c>
+      <c r="O13">
+        <v>32</v>
+      </c>
+      <c r="P13">
+        <v>32</v>
+      </c>
+      <c r="Q13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>26.981999999999999</v>
+      </c>
+      <c r="D14">
+        <v>3.2204999999999999</v>
+      </c>
+      <c r="E14">
+        <v>3.2204999999999999</v>
+      </c>
+      <c r="F14">
+        <v>-3.6530999999999998</v>
+      </c>
+      <c r="G14">
+        <v>69</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>36</v>
+      </c>
+      <c r="J14">
+        <v>86</v>
+      </c>
+      <c r="K14">
+        <v>86</v>
+      </c>
+      <c r="L14">
+        <v>36</v>
+      </c>
+      <c r="M14">
+        <v>86</v>
+      </c>
+      <c r="N14">
+        <v>36</v>
+      </c>
+      <c r="O14">
+        <v>42</v>
+      </c>
+      <c r="P14">
+        <v>42</v>
+      </c>
+      <c r="Q14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>28.085000000000001</v>
+      </c>
+      <c r="D15">
+        <v>3.0916679999999999</v>
+      </c>
+      <c r="E15">
+        <v>3.0916679999999999</v>
+      </c>
+      <c r="F15">
+        <v>-4.8997999999999999</v>
+      </c>
+      <c r="G15">
+        <v>94</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>47</v>
+      </c>
+      <c r="J15">
+        <v>117</v>
+      </c>
+      <c r="K15">
+        <v>117</v>
+      </c>
+      <c r="L15">
+        <v>47</v>
+      </c>
+      <c r="M15">
+        <v>117</v>
+      </c>
+      <c r="N15">
+        <v>47</v>
+      </c>
+      <c r="O15">
+        <v>25</v>
+      </c>
+      <c r="P15">
+        <v>25</v>
+      </c>
+      <c r="Q15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>30.974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>32.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>35.450000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>39.948</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>39.097999999999999</v>
+      </c>
+      <c r="D20">
+        <v>5.2621196699999997</v>
+      </c>
+      <c r="E20">
+        <v>5.2621196699999997</v>
+      </c>
+      <c r="F20">
+        <v>-1.081</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>40.078000000000003</v>
+      </c>
+      <c r="D21">
+        <v>4.3855019999999998</v>
+      </c>
+      <c r="E21">
+        <v>4.3855019999999998</v>
+      </c>
+      <c r="F21">
+        <v>-1.982</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="O21">
+        <v>13</v>
+      </c>
+      <c r="P21">
+        <v>13</v>
+      </c>
+      <c r="Q21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>44.956000000000003</v>
+      </c>
+      <c r="D22">
+        <v>3.677384</v>
+      </c>
+      <c r="E22">
+        <v>3.677384</v>
+      </c>
+      <c r="F22">
+        <v>-6.2286999999999999</v>
+      </c>
+      <c r="G22">
+        <v>53</v>
+      </c>
+      <c r="H22">
+        <v>17</v>
+      </c>
+      <c r="I22">
+        <v>46</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>66</v>
+      </c>
+      <c r="L22">
+        <v>52</v>
+      </c>
+      <c r="M22">
+        <v>50</v>
+      </c>
+      <c r="N22">
+        <v>46</v>
+      </c>
+      <c r="O22">
+        <v>29</v>
+      </c>
+      <c r="P22">
+        <v>29</v>
+      </c>
+      <c r="Q22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>47.866999999999997</v>
+      </c>
+      <c r="D23">
+        <v>3.2515000000000001</v>
+      </c>
+      <c r="E23">
+        <v>3.2515000000000001</v>
+      </c>
+      <c r="F23">
+        <v>-7.7835000000000001</v>
+      </c>
+      <c r="G23">
+        <v>105</v>
+      </c>
+      <c r="H23">
+        <v>13</v>
+      </c>
+      <c r="I23">
+        <v>70</v>
+      </c>
+      <c r="J23">
+        <v>123</v>
+      </c>
+      <c r="K23">
+        <v>123</v>
+      </c>
+      <c r="L23">
+        <v>70</v>
+      </c>
+      <c r="M23">
+        <v>123</v>
+      </c>
+      <c r="N23">
+        <v>70</v>
+      </c>
+      <c r="O23">
+        <v>39</v>
+      </c>
+      <c r="P23">
+        <v>39</v>
+      </c>
+      <c r="Q23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>50.942</v>
+      </c>
+      <c r="D24">
+        <v>2.9925440000000001</v>
+      </c>
+      <c r="E24">
+        <v>2.9925440000000001</v>
+      </c>
+      <c r="F24">
+        <v>-9.0823999999999998</v>
+      </c>
+      <c r="G24">
+        <v>179</v>
+      </c>
+      <c r="H24">
+        <v>38</v>
+      </c>
+      <c r="I24">
+        <v>276</v>
+      </c>
+      <c r="J24">
+        <v>131</v>
+      </c>
+      <c r="K24">
+        <v>131</v>
+      </c>
+      <c r="L24">
+        <v>276</v>
+      </c>
+      <c r="M24">
+        <v>131</v>
+      </c>
+      <c r="N24">
+        <v>276</v>
+      </c>
+      <c r="O24">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>16</v>
+      </c>
+      <c r="Q24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>51.996000000000002</v>
+      </c>
+      <c r="D25">
+        <v>2.8740252599999998</v>
+      </c>
+      <c r="E25">
+        <v>2.8740252599999998</v>
+      </c>
+      <c r="F25">
+        <v>-9.6530000000000005</v>
+      </c>
+      <c r="G25">
+        <v>259</v>
+      </c>
+      <c r="H25">
+        <v>133</v>
+      </c>
+      <c r="I25">
+        <v>499</v>
+      </c>
+      <c r="J25">
+        <v>139</v>
+      </c>
+      <c r="K25">
+        <v>139</v>
+      </c>
+      <c r="L25">
+        <v>499</v>
+      </c>
+      <c r="M25">
+        <v>139</v>
+      </c>
+      <c r="N25">
+        <v>499</v>
+      </c>
+      <c r="O25">
+        <v>102</v>
+      </c>
+      <c r="P25">
+        <v>102</v>
+      </c>
+      <c r="Q25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>54.938000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>55.844999999999999</v>
+      </c>
+      <c r="D27">
+        <v>2.8400516800000002</v>
+      </c>
+      <c r="E27">
+        <v>2.8400516800000002</v>
+      </c>
+      <c r="F27" s="78">
+        <v>-8.4693000000000005</v>
+      </c>
+      <c r="G27">
+        <v>182</v>
+      </c>
+      <c r="H27">
+        <v>78</v>
+      </c>
+      <c r="I27">
+        <v>247</v>
+      </c>
+      <c r="J27">
+        <v>150</v>
+      </c>
+      <c r="K27">
+        <v>150</v>
+      </c>
+      <c r="L27">
+        <v>247</v>
+      </c>
+      <c r="M27">
+        <v>150</v>
+      </c>
+      <c r="N27">
+        <v>247</v>
+      </c>
+      <c r="O27">
+        <v>97</v>
+      </c>
+      <c r="P27">
+        <v>97</v>
+      </c>
+      <c r="Q27">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>58.933</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>58.692999999999998</v>
+      </c>
+      <c r="D29">
+        <v>2.7902119999999999</v>
+      </c>
+      <c r="E29">
+        <v>2.7902119999999999</v>
+      </c>
+      <c r="F29">
+        <v>-5.6845999999999997</v>
+      </c>
+      <c r="G29">
+        <v>197</v>
+      </c>
+      <c r="H29">
+        <v>78</v>
+      </c>
+      <c r="I29">
+        <v>320</v>
+      </c>
+      <c r="J29">
+        <v>142</v>
+      </c>
+      <c r="K29">
+        <v>128</v>
+      </c>
+      <c r="L29">
+        <v>320</v>
+      </c>
+      <c r="M29">
+        <v>128</v>
+      </c>
+      <c r="N29">
+        <v>336</v>
+      </c>
+      <c r="O29">
+        <v>55</v>
+      </c>
+      <c r="P29">
+        <v>55</v>
+      </c>
+      <c r="Q29">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>63.545999999999999</v>
+      </c>
+      <c r="D30">
+        <v>2.8726539999999998</v>
+      </c>
+      <c r="E30">
+        <v>2.8726539999999998</v>
+      </c>
+      <c r="F30">
+        <v>-4.0621999999999998</v>
+      </c>
+      <c r="G30">
+        <v>146</v>
+      </c>
+      <c r="H30">
+        <v>56</v>
+      </c>
+      <c r="I30">
+        <v>137</v>
+      </c>
+      <c r="J30">
+        <v>150</v>
+      </c>
+      <c r="K30">
+        <v>150</v>
+      </c>
+      <c r="L30">
+        <v>137</v>
+      </c>
+      <c r="M30">
+        <v>150</v>
+      </c>
+      <c r="N30">
+        <v>137</v>
+      </c>
+      <c r="O30">
+        <v>98</v>
+      </c>
+      <c r="P30">
+        <v>98</v>
+      </c>
+      <c r="Q30">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>65.38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>69.722999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>72.63</v>
+      </c>
+      <c r="D33">
+        <v>3.39201</v>
+      </c>
+      <c r="E33">
+        <v>3.39201</v>
+      </c>
+      <c r="F33">
+        <v>-4.2771999999999997</v>
+      </c>
+      <c r="G33">
+        <v>58</v>
+      </c>
+      <c r="H33">
+        <v>-6</v>
+      </c>
+      <c r="I33">
+        <v>11</v>
+      </c>
+      <c r="J33">
+        <v>82</v>
+      </c>
+      <c r="K33">
+        <v>82</v>
+      </c>
+      <c r="L33">
+        <v>11</v>
+      </c>
+      <c r="M33">
+        <v>82</v>
+      </c>
+      <c r="N33">
+        <v>11</v>
+      </c>
+      <c r="O33">
+        <v>14</v>
+      </c>
+      <c r="P33">
+        <v>14</v>
+      </c>
+      <c r="Q33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>74.921999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>78.971000000000004</v>
+      </c>
+      <c r="D35">
+        <v>3.4477500000000001</v>
+      </c>
+      <c r="E35">
+        <v>3.4477500000000001</v>
+      </c>
+      <c r="F35">
+        <v>-2.8936000000000002</v>
+      </c>
+      <c r="G35">
+        <v>74</v>
+      </c>
+      <c r="H35">
+        <v>-16</v>
+      </c>
+      <c r="I35">
+        <v>104</v>
+      </c>
+      <c r="J35">
+        <v>59</v>
+      </c>
+      <c r="K35">
+        <v>59</v>
+      </c>
+      <c r="L35">
+        <v>104</v>
+      </c>
+      <c r="M35">
+        <v>59</v>
+      </c>
+      <c r="N35">
+        <v>104</v>
+      </c>
+      <c r="O35">
+        <v>-41</v>
+      </c>
+      <c r="P35">
+        <v>-41</v>
+      </c>
+      <c r="Q35">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>79.903999999999996</v>
+      </c>
+      <c r="D36">
+        <v>3.7608000000000001</v>
+      </c>
+      <c r="E36">
+        <v>3.7608000000000001</v>
+      </c>
+      <c r="F36">
+        <v>-1.0074000000000001</v>
+      </c>
+      <c r="G36">
+        <v>21</v>
+      </c>
+      <c r="H36">
+        <v>-41</v>
+      </c>
+      <c r="I36">
+        <v>23</v>
+      </c>
+      <c r="J36">
+        <v>20</v>
+      </c>
+      <c r="K36">
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>20</v>
+      </c>
+      <c r="N36">
+        <v>23</v>
+      </c>
+      <c r="O36">
+        <v>-70</v>
+      </c>
+      <c r="P36">
+        <v>-70</v>
+      </c>
+      <c r="Q36">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>83.798000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>85.468000000000004</v>
+      </c>
+      <c r="D38">
+        <v>5.6441559999999997</v>
+      </c>
+      <c r="E38">
+        <v>5.6441559999999997</v>
+      </c>
+      <c r="F38">
+        <v>-0.97130000000000005</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>87.62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>88.906000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>91.224000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>92.906000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>95.95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>101.07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>102.91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>106.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>107.87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>112.41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>114.82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>118.71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>127.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>126.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>131.29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>132.91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>137.33000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>138.91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>140.12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>140.91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>144.24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>150.36000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>151.96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>157.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>158.93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>164.93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>167.26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>168.93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>173.05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>174.97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>178.49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>180.95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>183.84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>186.21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>190.23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>211</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>192.22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>195.08</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>196.97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>200.59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>214</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>204.38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>207.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>216</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>208.98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>217</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>218</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>232.04</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>231.04</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>225</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>238.03</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>226</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>227</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180F45B4-CCD5-4B18-AFD6-C3A8183EBEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE543C35-F199-43A0-A067-2D36A6D0DEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="18780" windowHeight="14745" activeTab="3" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="6570" yWindow="-15" windowWidth="24330" windowHeight="15480" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="360">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -1180,10 +1180,6 @@
   </si>
   <si>
     <t>Cmax(2,2,3) =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># A-B-C system</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1515,6 +1511,50 @@
   </si>
   <si>
     <t>Gv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># A-B-C system (case 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># A-B-C system (case 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmax(1,3,1)^0.5 + 0.5*Cmax(2,3,2)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [0.5*Cmin(1,3,1)^0.5 + 0.5*Cmin(2,3,2)^0.5]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># A-B-C system (case 3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [((Cmin(2,2,3)^0.5 + Cmin(1,1,3)^0.5 + Cmin(3,1,3)^0.5 + Cmin(2,1,2)^0.5 + Cmin(3,2,3)^0.5 + Cmin(1,2,1)^0.5)/6]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [((Cmin(1,1,2)^0.5 + Cmin(3,3,2)^0.5 + Cmin(1,3,1)^0.5 + Cmin(2,3,2)^0.5 + Cmin(3,1,3)^0.5 + Cmin(2,1,2)^0.5)/6]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [((Cmin(2,2,1)^0.5 + Cmin(3,3,1)^0.5 + Cmin(2,3,2)^0.5 + Cmin(1,3,1)^0.5 + Cmin(3,2,3)^0.5 + Cmin(1,2,1)^0.5)/6]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [((Cmax(2,2,1)^0.5 + Cmax(3,3,1)^0.5 + Cmax(2,3,2)^0.5 + Cmax(1,3,1)^0.5 + Cmax(3,2,3)^0.5 + Cmax(1,2,1)^0.5)/6]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [((Cmax(1,1,2)^0.5 + Cmax(3,3,2)^0.5 + Cmax(1,3,1)^0.5 + Cmax(2,3,2)^0.5 + Cmax(3,1,3)^0.5 + Cmax(2,1,2)^0.5)/6]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [((Cmax(2,2,3)^0.5 + Cmax(1,1,3)^0.5 + Cmax(3,1,3)^0.5 + Cmax(2,1,2)^0.5 + Cmax(3,2,3)^0.5 + Cmax(1,2,1)^0.5)/6]^2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1820,7 +1860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2046,16 +2086,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2372,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
-  <dimension ref="A1:AB83"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2387,6 +2430,7 @@
     <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
     <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.125" customWidth="1"/>
     <col min="18" max="18" width="11.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.125" customWidth="1"/>
@@ -3509,7 +3553,7 @@
         <v>270</v>
       </c>
       <c r="F59" s="71" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.4">
@@ -3526,7 +3570,7 @@
         <v>0.49</v>
       </c>
       <c r="F60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.4">
@@ -3555,20 +3599,20 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A64" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="B64" s="58" t="s">
         <v>297</v>
-      </c>
-      <c r="B64" s="58" t="s">
-        <v>298</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" t="s">
         <v>264</v>
       </c>
       <c r="I64" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="J64" s="41" t="s">
         <v>297</v>
-      </c>
-      <c r="J64" s="41" t="s">
-        <v>298</v>
       </c>
       <c r="K64" s="65"/>
       <c r="L64" t="s">
@@ -3577,7 +3621,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B65" s="56" t="s">
         <v>90</v>
@@ -3590,7 +3634,7 @@
         <v>275</v>
       </c>
       <c r="I65" s="47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J65" s="63" t="s">
         <v>238</v>
@@ -3605,7 +3649,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B66" s="61" t="s">
         <v>91</v>
@@ -3618,7 +3662,7 @@
         <v>276</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J66" s="67" t="s">
         <v>239</v>
@@ -3633,7 +3677,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B67" s="61" t="s">
         <v>92</v>
@@ -3646,7 +3690,7 @@
         <v>277</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J67" s="67" t="s">
         <v>236</v>
@@ -3661,7 +3705,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="48" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>96</v>
@@ -3674,7 +3718,7 @@
         <v>278</v>
       </c>
       <c r="I68" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J68" s="69" t="s">
         <v>237</v>
@@ -3689,7 +3733,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B69" s="61" t="s">
         <v>93</v>
@@ -3702,7 +3746,7 @@
         <v>279</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J69" s="67" t="s">
         <v>272</v>
@@ -3717,7 +3761,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B70" s="61" t="s">
         <v>94</v>
@@ -3730,7 +3774,7 @@
         <v>280</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J70" s="67" t="s">
         <v>248</v>
@@ -3745,7 +3789,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B71" s="61" t="s">
         <v>95</v>
@@ -3758,7 +3802,7 @@
         <v>281</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J71" s="67" t="s">
         <v>240</v>
@@ -3773,7 +3817,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" s="48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>97</v>
@@ -3786,7 +3830,7 @@
         <v>282</v>
       </c>
       <c r="I72" s="48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J72" s="69" t="s">
         <v>241</v>
@@ -3805,26 +3849,26 @@
       </c>
       <c r="C74" s="49"/>
       <c r="J74" s="72" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="K74" s="73"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="B75" s="36" t="s">
         <v>297</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>298</v>
       </c>
       <c r="C75" s="50"/>
       <c r="D75" t="s">
         <v>264</v>
       </c>
       <c r="I75" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J75" s="72" t="s">
         <v>297</v>
-      </c>
-      <c r="J75" s="72" t="s">
-        <v>298</v>
       </c>
       <c r="K75" s="73"/>
       <c r="L75" t="s">
@@ -3833,7 +3877,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B76" s="37" t="s">
         <v>244</v>
@@ -3846,22 +3890,22 @@
         <v>276</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J76" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="K76" s="73">
+      <c r="K76" s="79">
         <f>(0.5*K65^0.5+0.5*C76^0.5)^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="L76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B77" s="52" t="s">
         <v>245</v>
@@ -3874,22 +3918,22 @@
         <v>283</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J77" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="K77" s="75">
+      <c r="K77" s="77">
         <f>(0.5*C65^0.5+0.5*C77^0.5)^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="L77" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B78" s="52" t="s">
         <v>242</v>
@@ -3902,22 +3946,22 @@
         <v>290</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="J78" s="76" t="s">
+        <v>331</v>
+      </c>
+      <c r="J78" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="K78" s="77">
+      <c r="K78" s="78">
         <f>(0.5*C66^0.5+0.5*K66^0.5)^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="L78" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" s="48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B79" s="54" t="s">
         <v>243</v>
@@ -3930,22 +3974,22 @@
         <v>291</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J79" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="K79" s="75">
+      <c r="K79" s="77">
         <f>(0.5*K69^0.5+0.5*C80^0.5)^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="L79" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B80" s="52" t="s">
         <v>294</v>
@@ -3958,22 +4002,22 @@
         <v>280</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J80" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="K80" s="75">
+      <c r="K80" s="77">
         <f>(0.5*C69^0.5+0.5*C81^0.5)^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="L80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B81" s="52" t="s">
         <v>249</v>
@@ -3986,22 +4030,22 @@
         <v>286</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="J81" s="76" t="s">
+        <v>334</v>
+      </c>
+      <c r="J81" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="K81" s="77">
+      <c r="K81" s="78">
         <f>(0.5*C70^0.5+0.5*K70^0.5)^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="L81" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B82" s="52" t="s">
         <v>246</v>
@@ -4016,7 +4060,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" s="48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B83" s="54" t="s">
         <v>247</v>
@@ -4027,6 +4071,220 @@
       </c>
       <c r="D83" t="s">
         <v>293</v>
+      </c>
+      <c r="J83" s="72" t="s">
+        <v>350</v>
+      </c>
+      <c r="K83" s="73"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I84" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J84" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="K84" s="73"/>
+      <c r="L84" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I85" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J85" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="K85" s="79">
+        <f>(0.5*K65^0.5+0.5*C76^0.5)^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="L85" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I86" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="J86" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="K86" s="77">
+        <f>(0.5*K67^0.5+0.5*C78^0.5)^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="L86" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I87" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="J87" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="K87" s="78">
+        <f>(0.5*K67^0.5+0.5*C78^0.5)^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="L87" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I88" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="J88" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="K88" s="77">
+        <f>(0.5*K69^0.5+0.5*C80^0.5)^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="L88" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I89" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="J89" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="K89" s="77">
+        <f>(0.5*K71^0.5+0.5*C82^0.5)^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="L89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I90" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="J90" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="K90" s="78">
+        <f>(0.5*K71^0.5+0.5*C82^0.5)^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="L90" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J92" s="72" t="s">
+        <v>353</v>
+      </c>
+      <c r="K92" s="73"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I93" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J93" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="K93" s="73"/>
+      <c r="L93" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I94" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J94" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="K94" s="79">
+        <f>((C76^0.5 + K65^0.5 + K68^0.5 + C68^0.5 + C79^0.5 + C67^0.5)/6)^2</f>
+        <v>0.4900000000000001</v>
+      </c>
+      <c r="L94" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I95" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="J95" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="K95" s="77">
+        <f>((C65^0.5 + C77^0.5 + K67^0.5 + C78^0.5 + K68^0.5 + C68^0.5)/6)^2</f>
+        <v>0.4900000000000001</v>
+      </c>
+      <c r="L95" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I96" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="J96" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="K96" s="78">
+        <f xml:space="preserve"> ((C66^0.5 + K66^0.5 + C78^0.5 + K67^0.5 + C79^0.5 + C67^0.5)/6)^2</f>
+        <v>0.4900000000000001</v>
+      </c>
+      <c r="L96" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="97" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I97" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="J97" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="K97" s="77">
+        <f>((C80^0.5 + K69^0.5 + K72^0.5 + C72^0.5 + C83^0.5 + C71^0.5)/6)^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="L97" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="98" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I98" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="J98" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="K98" s="77">
+        <f>((C69^0.5 + C81^0.5 + K71^0.5 + C82^0.5 + K72^0.5 + C72^0.5)/6)^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="L98" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="99" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I99" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="J99" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="K99" s="78">
+        <f xml:space="preserve"> ((C70^0.5 + K70^0.5 + C82^0.5 + K71^0.5 + C83^0.5 + C72^0.5)/6)^2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="L99" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5102,46 +5360,46 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" t="s">
         <v>336</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>337</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" t="s">
         <v>338</v>
       </c>
-      <c r="G1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>339</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>340</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>344</v>
+      </c>
+      <c r="M1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N1" t="s">
         <v>341</v>
       </c>
-      <c r="L1" t="s">
-        <v>345</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P1" t="s">
         <v>346</v>
       </c>
-      <c r="N1" t="s">
-        <v>342</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>343</v>
-      </c>
-      <c r="P1" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -5312,7 +5570,7 @@
       <c r="E12">
         <v>5.2534640000000001</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="76">
         <v>-1.3116000000000001</v>
       </c>
       <c r="G12">
@@ -5376,7 +5634,7 @@
       <c r="E14">
         <v>4.0389299999999997</v>
       </c>
-      <c r="F14" s="78">
+      <c r="F14" s="76">
         <v>-3.7456</v>
       </c>
       <c r="G14">
@@ -6588,7 +6846,7 @@
       <c r="E44">
         <v>3.8850380000000002</v>
       </c>
-      <c r="F44" s="78">
+      <c r="F44" s="76">
         <v>-10.293799999999999</v>
       </c>
       <c r="G44">
@@ -7939,7 +8197,7 @@
       <c r="E79">
         <v>3.9767700000000001</v>
       </c>
-      <c r="F79" s="78">
+      <c r="F79" s="76">
         <v>-6.0709</v>
       </c>
       <c r="G79">
@@ -8498,7 +8756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2AA405-E3B6-468A-A903-238199E642B4}">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -8506,46 +8764,46 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" t="s">
         <v>336</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>337</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" t="s">
         <v>338</v>
       </c>
-      <c r="G1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>339</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>340</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>344</v>
+      </c>
+      <c r="M1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N1" t="s">
         <v>341</v>
       </c>
-      <c r="L1" t="s">
-        <v>345</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P1" t="s">
         <v>346</v>
       </c>
-      <c r="N1" t="s">
-        <v>342</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>343</v>
-      </c>
-      <c r="P1" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -9343,7 +9601,7 @@
       <c r="E27">
         <v>2.8400516800000002</v>
       </c>
-      <c r="F27" s="78">
+      <c r="F27" s="76">
         <v>-8.4693000000000005</v>
       </c>
       <c r="G27">

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE543C35-F199-43A0-A067-2D36A6D0DEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD481740-83EA-4DF7-BAEF-E69DF728CDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="-15" windowWidth="24330" windowHeight="15480" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="2250" yWindow="15" windowWidth="24330" windowHeight="15420" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -1534,27 +1534,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># [((Cmin(2,2,3)^0.5 + Cmin(1,1,3)^0.5 + Cmin(3,1,3)^0.5 + Cmin(2,1,2)^0.5 + Cmin(3,2,3)^0.5 + Cmin(1,2,1)^0.5)/6]^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># [((Cmin(1,1,2)^0.5 + Cmin(3,3,2)^0.5 + Cmin(1,3,1)^0.5 + Cmin(2,3,2)^0.5 + Cmin(3,1,3)^0.5 + Cmin(2,1,2)^0.5)/6]^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># [((Cmin(2,2,1)^0.5 + Cmin(3,3,1)^0.5 + Cmin(2,3,2)^0.5 + Cmin(1,3,1)^0.5 + Cmin(3,2,3)^0.5 + Cmin(1,2,1)^0.5)/6]^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># [((Cmax(2,2,1)^0.5 + Cmax(3,3,1)^0.5 + Cmax(2,3,2)^0.5 + Cmax(1,3,1)^0.5 + Cmax(3,2,3)^0.5 + Cmax(1,2,1)^0.5)/6]^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># [((Cmax(1,1,2)^0.5 + Cmax(3,3,2)^0.5 + Cmax(1,3,1)^0.5 + Cmax(2,3,2)^0.5 + Cmax(3,1,3)^0.5 + Cmax(2,1,2)^0.5)/6]^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># [((Cmax(2,2,3)^0.5 + Cmax(1,1,3)^0.5 + Cmax(3,1,3)^0.5 + Cmax(2,1,2)^0.5 + Cmax(3,2,3)^0.5 + Cmax(1,2,1)^0.5)/6]^2</t>
+    <t># [((Cmin(2,2,3)^0.5 + Cmin(1,1,3)^0.5 + Cmin(1,3,3)^0.5 + Cmin(1,2,2)^0.5 + Cmin(2,3,3)^0.5 + Cmin(1,2,1)^0.5)/6]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [((Cmin(1,1,2)^0.5 + Cmin(3,3,2)^0.5 + Cmin(1,3,1)^0.5 + Cmin(2,3,2)^0.5 + Cmin(1,3,3)^0.5 + Cmin(1,2,2)^0.5)/6]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [((Cmin(2,2,1)^0.5 + Cmin(3,3,1)^0.5 + Cmin(2,3,2)^0.5 + Cmin(1,3,1)^0.5 + Cmin(2,3,3)^0.5 + Cmin(1,2,1)^0.5)/6]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [((Cmax(2,2,3)^0.5 + Cmax(1,1,3)^0.5 + Cmax(1,3,3)^0.5 + Cmax(1,2,2)^0.5 + Cmax(2,3,3)^0.5 + Cmax(1,2,1)^0.5)/6]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [((Cmax(1,1,2)^0.5 + Cmax(3,3,2)^0.5 + Cmax(1,3,1)^0.5 + Cmax(2,3,2)^0.5 + Cmax(1,3,3)^0.5 + Cmax(1,2,2)^0.5)/6]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># [((Cmax(2,2,1)^0.5 + Cmax(3,3,1)^0.5 + Cmax(2,3,2)^0.5 + Cmax(1,3,1)^0.5 + Cmax(2,3,3)^0.5 + Cmax(1,2,1)^0.5)/6]^2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2417,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="R87" sqref="R87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4254,7 +4254,7 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="L97" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="9:12" x14ac:dyDescent="0.4">
@@ -4280,11 +4280,11 @@
         <v>103</v>
       </c>
       <c r="K99" s="78">
-        <f xml:space="preserve"> ((C70^0.5 + K70^0.5 + C82^0.5 + K71^0.5 + C83^0.5 + C72^0.5)/6)^2</f>
+        <f xml:space="preserve"> ((C70^0.5 + K70^0.5 + C82^0.5 + K71^0.5 + C83^0.5 + C71^0.5)/6)^2</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="L99" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD481740-83EA-4DF7-BAEF-E69DF728CDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117021DD-F191-4E02-89DB-C0B7F491E456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="15" windowWidth="24330" windowHeight="15420" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="-75" yWindow="30" windowWidth="19545" windowHeight="15420" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="FCC" sheetId="3" r:id="rId3"/>
     <sheet name="BCC" sheetId="4" r:id="rId4"/>
+    <sheet name="HCP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="360">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -2417,8 +2418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="R87" sqref="R87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4303,7 +4304,7 @@
   <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:XFD1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5353,7 +5354,7 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5412,6 +5413,48 @@
       <c r="C2">
         <v>1.008</v>
       </c>
+      <c r="D2">
+        <v>5.4285519999999998</v>
+      </c>
+      <c r="E2">
+        <v>5.4285519999999998</v>
+      </c>
+      <c r="F2">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -5553,6 +5596,48 @@
       <c r="C11">
         <v>20.18</v>
       </c>
+      <c r="D11">
+        <v>4.3038259999999999</v>
+      </c>
+      <c r="E11">
+        <v>4.3038259999999999</v>
+      </c>
+      <c r="F11">
+        <v>-2.58E-2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
@@ -5808,6 +5893,48 @@
       </c>
       <c r="C19">
         <v>39.948</v>
+      </c>
+      <c r="D19">
+        <v>5.6407720000000001</v>
+      </c>
+      <c r="E19">
+        <v>5.6407720000000001</v>
+      </c>
+      <c r="F19">
+        <v>-6.88E-2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
@@ -8756,8 +8883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2AA405-E3B6-468A-A903-238199E642B4}">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8816,6 +8943,48 @@
       <c r="C2">
         <v>1.008</v>
       </c>
+      <c r="D2">
+        <v>5.21</v>
+      </c>
+      <c r="E2">
+        <v>5.21</v>
+      </c>
+      <c r="F2">
+        <v>-1.1214999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -10021,6 +10190,48 @@
       <c r="C39">
         <v>87.62</v>
       </c>
+      <c r="D39">
+        <v>4.7535499999999997</v>
+      </c>
+      <c r="E39">
+        <v>4.7535499999999997</v>
+      </c>
+      <c r="F39">
+        <v>-1.6763999999999999</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <v>14</v>
+      </c>
+      <c r="J39">
+        <v>11</v>
+      </c>
+      <c r="K39">
+        <v>11</v>
+      </c>
+      <c r="L39">
+        <v>14</v>
+      </c>
+      <c r="M39">
+        <v>11</v>
+      </c>
+      <c r="N39">
+        <v>14</v>
+      </c>
+      <c r="O39">
+        <v>14</v>
+      </c>
+      <c r="P39">
+        <v>14</v>
+      </c>
+      <c r="Q39">
+        <v>14</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
@@ -10043,6 +10254,48 @@
       <c r="C41">
         <v>91.224000000000004</v>
       </c>
+      <c r="D41">
+        <v>3.5832739999999998</v>
+      </c>
+      <c r="E41">
+        <v>3.5832739999999998</v>
+      </c>
+      <c r="F41">
+        <v>-8.4731000000000005</v>
+      </c>
+      <c r="G41">
+        <v>89</v>
+      </c>
+      <c r="H41">
+        <v>17</v>
+      </c>
+      <c r="I41">
+        <v>86</v>
+      </c>
+      <c r="J41">
+        <v>90</v>
+      </c>
+      <c r="K41">
+        <v>90</v>
+      </c>
+      <c r="L41">
+        <v>86</v>
+      </c>
+      <c r="M41">
+        <v>90</v>
+      </c>
+      <c r="N41">
+        <v>86</v>
+      </c>
+      <c r="O41">
+        <v>30</v>
+      </c>
+      <c r="P41">
+        <v>30</v>
+      </c>
+      <c r="Q41">
+        <v>30</v>
+      </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
@@ -10054,6 +10307,48 @@
       <c r="C42">
         <v>92.906000000000006</v>
       </c>
+      <c r="D42">
+        <v>3.3205200000000001</v>
+      </c>
+      <c r="E42">
+        <v>3.3205200000000001</v>
+      </c>
+      <c r="F42">
+        <v>-10.1013</v>
+      </c>
+      <c r="G42">
+        <v>174</v>
+      </c>
+      <c r="H42">
+        <v>24</v>
+      </c>
+      <c r="I42">
+        <v>233</v>
+      </c>
+      <c r="J42">
+        <v>145</v>
+      </c>
+      <c r="K42">
+        <v>145</v>
+      </c>
+      <c r="L42">
+        <v>233</v>
+      </c>
+      <c r="M42">
+        <v>145</v>
+      </c>
+      <c r="N42">
+        <v>233</v>
+      </c>
+      <c r="O42">
+        <v>11</v>
+      </c>
+      <c r="P42">
+        <v>11</v>
+      </c>
+      <c r="Q42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
@@ -10065,6 +10360,48 @@
       <c r="C43">
         <v>95.95</v>
       </c>
+      <c r="D43">
+        <v>3.167618</v>
+      </c>
+      <c r="E43">
+        <v>3.167618</v>
+      </c>
+      <c r="F43">
+        <v>-10.845599999999999</v>
+      </c>
+      <c r="G43">
+        <v>262</v>
+      </c>
+      <c r="H43">
+        <v>127</v>
+      </c>
+      <c r="I43">
+        <v>472</v>
+      </c>
+      <c r="J43">
+        <v>158</v>
+      </c>
+      <c r="K43">
+        <v>158</v>
+      </c>
+      <c r="L43">
+        <v>472</v>
+      </c>
+      <c r="M43">
+        <v>158</v>
+      </c>
+      <c r="N43">
+        <v>472</v>
+      </c>
+      <c r="O43">
+        <v>106</v>
+      </c>
+      <c r="P43">
+        <v>106</v>
+      </c>
+      <c r="Q43">
+        <v>106</v>
+      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
@@ -10121,7 +10458,7 @@
         <v>107.87</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>183</v>
       </c>
@@ -10132,7 +10469,7 @@
         <v>112.41</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>184</v>
       </c>
@@ -10143,7 +10480,7 @@
         <v>114.82</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>185</v>
       </c>
@@ -10153,8 +10490,50 @@
       <c r="C51">
         <v>118.71</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D51">
+        <v>3.809374</v>
+      </c>
+      <c r="E51">
+        <v>3.809374</v>
+      </c>
+      <c r="F51">
+        <v>-3.9352999999999998</v>
+      </c>
+      <c r="G51">
+        <v>44</v>
+      </c>
+      <c r="H51">
+        <v>-2</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>64</v>
+      </c>
+      <c r="K51">
+        <v>64</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>64</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51">
+        <v>16</v>
+      </c>
+      <c r="P51">
+        <v>16</v>
+      </c>
+      <c r="Q51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>186</v>
       </c>
@@ -10164,8 +10543,50 @@
       <c r="C52">
         <v>11.76</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D52">
+        <v>3.7853219999999999</v>
+      </c>
+      <c r="E52">
+        <v>3.7853219999999999</v>
+      </c>
+      <c r="F52">
+        <v>-3.8904999999999998</v>
+      </c>
+      <c r="G52">
+        <v>65</v>
+      </c>
+      <c r="H52">
+        <v>18</v>
+      </c>
+      <c r="I52">
+        <v>84</v>
+      </c>
+      <c r="J52">
+        <v>56</v>
+      </c>
+      <c r="K52">
+        <v>56</v>
+      </c>
+      <c r="L52">
+        <v>84</v>
+      </c>
+      <c r="M52">
+        <v>56</v>
+      </c>
+      <c r="N52">
+        <v>84</v>
+      </c>
+      <c r="O52">
+        <v>20</v>
+      </c>
+      <c r="P52">
+        <v>20</v>
+      </c>
+      <c r="Q52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>187</v>
       </c>
@@ -10176,7 +10597,7 @@
         <v>127.6</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>188</v>
       </c>
@@ -10186,8 +10607,50 @@
       <c r="C54">
         <v>126.9</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D54">
+        <v>4.1445080000000001</v>
+      </c>
+      <c r="E54">
+        <v>4.1445080000000001</v>
+      </c>
+      <c r="F54">
+        <v>-1.0550999999999999</v>
+      </c>
+      <c r="G54">
+        <v>26</v>
+      </c>
+      <c r="H54">
+        <v>-31</v>
+      </c>
+      <c r="I54">
+        <v>27</v>
+      </c>
+      <c r="J54">
+        <v>26</v>
+      </c>
+      <c r="K54">
+        <v>26</v>
+      </c>
+      <c r="L54">
+        <v>27</v>
+      </c>
+      <c r="M54">
+        <v>26</v>
+      </c>
+      <c r="N54">
+        <v>27</v>
+      </c>
+      <c r="O54">
+        <v>-53</v>
+      </c>
+      <c r="P54">
+        <v>-53</v>
+      </c>
+      <c r="Q54">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -10198,7 +10661,7 @@
         <v>131.29</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>189</v>
       </c>
@@ -10208,8 +10671,50 @@
       <c r="C56">
         <v>132.91</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D56">
+        <v>6.1100399999999997</v>
+      </c>
+      <c r="E56">
+        <v>6.1100399999999997</v>
+      </c>
+      <c r="F56">
+        <v>-0.85660000000000003</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>190</v>
       </c>
@@ -10219,8 +10724,50 @@
       <c r="C57">
         <v>137.33000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D57">
+        <v>5.0303000000000004</v>
+      </c>
+      <c r="E57">
+        <v>5.0303000000000004</v>
+      </c>
+      <c r="F57">
+        <v>-1.919</v>
+      </c>
+      <c r="G57">
+        <v>9</v>
+      </c>
+      <c r="H57">
+        <v>7</v>
+      </c>
+      <c r="I57">
+        <v>12</v>
+      </c>
+      <c r="J57">
+        <v>7</v>
+      </c>
+      <c r="K57">
+        <v>7</v>
+      </c>
+      <c r="L57">
+        <v>12</v>
+      </c>
+      <c r="M57">
+        <v>7</v>
+      </c>
+      <c r="N57">
+        <v>12</v>
+      </c>
+      <c r="O57">
+        <v>10</v>
+      </c>
+      <c r="P57">
+        <v>10</v>
+      </c>
+      <c r="Q57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>192</v>
       </c>
@@ -10231,7 +10778,7 @@
         <v>138.91</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>193</v>
       </c>
@@ -10242,7 +10789,7 @@
         <v>140.12</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>194</v>
       </c>
@@ -10253,7 +10800,7 @@
         <v>140.91</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>195</v>
       </c>
@@ -10263,8 +10810,50 @@
       <c r="C61">
         <v>144.24</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D61">
+        <v>4.1333339999999996</v>
+      </c>
+      <c r="E61">
+        <v>4.1333339999999996</v>
+      </c>
+      <c r="F61">
+        <v>-4.6281999999999996</v>
+      </c>
+      <c r="G61">
+        <v>33</v>
+      </c>
+      <c r="H61">
+        <v>-4</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>50</v>
+      </c>
+      <c r="K61">
+        <v>50</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>50</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>10</v>
+      </c>
+      <c r="P61">
+        <v>10</v>
+      </c>
+      <c r="Q61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>196</v>
       </c>
@@ -10275,7 +10864,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>197</v>
       </c>
@@ -10286,7 +10875,7 @@
         <v>150.36000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>198</v>
       </c>
@@ -10297,7 +10886,7 @@
         <v>151.96</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>199</v>
       </c>
@@ -10307,8 +10896,50 @@
       <c r="C65">
         <v>157.25</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D65">
+        <v>4.0368639999999996</v>
+      </c>
+      <c r="E65">
+        <v>4.0368639999999996</v>
+      </c>
+      <c r="F65">
+        <v>-13.9885</v>
+      </c>
+      <c r="G65">
+        <v>105</v>
+      </c>
+      <c r="H65">
+        <v>12</v>
+      </c>
+      <c r="I65">
+        <v>93</v>
+      </c>
+      <c r="J65">
+        <v>112</v>
+      </c>
+      <c r="K65">
+        <v>112</v>
+      </c>
+      <c r="L65">
+        <v>93</v>
+      </c>
+      <c r="M65">
+        <v>112</v>
+      </c>
+      <c r="N65">
+        <v>93</v>
+      </c>
+      <c r="O65">
+        <v>26</v>
+      </c>
+      <c r="P65">
+        <v>26</v>
+      </c>
+      <c r="Q65">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>200</v>
       </c>
@@ -10319,7 +10950,7 @@
         <v>158.93</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>201</v>
       </c>
@@ -10330,7 +10961,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -10341,7 +10972,7 @@
         <v>164.93</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -10351,8 +10982,50 @@
       <c r="C69">
         <v>167.26</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D69">
+        <v>3.962326</v>
+      </c>
+      <c r="E69">
+        <v>3.962326</v>
+      </c>
+      <c r="F69">
+        <v>-4.4248000000000003</v>
+      </c>
+      <c r="G69">
+        <v>40</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+      <c r="I69">
+        <v>23</v>
+      </c>
+      <c r="J69">
+        <v>48</v>
+      </c>
+      <c r="K69">
+        <v>48</v>
+      </c>
+      <c r="L69">
+        <v>23</v>
+      </c>
+      <c r="M69">
+        <v>48</v>
+      </c>
+      <c r="N69">
+        <v>23</v>
+      </c>
+      <c r="O69">
+        <v>24</v>
+      </c>
+      <c r="P69">
+        <v>24</v>
+      </c>
+      <c r="Q69">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>204</v>
       </c>
@@ -10363,7 +11036,7 @@
         <v>168.93</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>205</v>
       </c>
@@ -10373,8 +11046,50 @@
       <c r="C71">
         <v>173.05</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D71">
+        <v>4.3029659999999996</v>
+      </c>
+      <c r="E71">
+        <v>4.3029659999999996</v>
+      </c>
+      <c r="F71">
+        <v>-1.5224</v>
+      </c>
+      <c r="G71">
+        <v>15</v>
+      </c>
+      <c r="H71">
+        <v>14</v>
+      </c>
+      <c r="I71">
+        <v>18</v>
+      </c>
+      <c r="J71">
+        <v>14</v>
+      </c>
+      <c r="K71">
+        <v>14</v>
+      </c>
+      <c r="L71">
+        <v>18</v>
+      </c>
+      <c r="M71">
+        <v>14</v>
+      </c>
+      <c r="N71">
+        <v>18</v>
+      </c>
+      <c r="O71">
+        <v>22</v>
+      </c>
+      <c r="P71">
+        <v>22</v>
+      </c>
+      <c r="Q71">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>206</v>
       </c>
@@ -10385,7 +11100,7 @@
         <v>174.97</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>207</v>
       </c>
@@ -10396,7 +11111,7 @@
         <v>178.49</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>137</v>
       </c>
@@ -10406,8 +11121,50 @@
       <c r="C74">
         <v>180.95</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D74">
+        <v>3.3222879999999999</v>
+      </c>
+      <c r="E74">
+        <v>3.3222879999999999</v>
+      </c>
+      <c r="F74">
+        <v>-11.857799999999999</v>
+      </c>
+      <c r="G74">
+        <v>194</v>
+      </c>
+      <c r="H74">
+        <v>63</v>
+      </c>
+      <c r="I74">
+        <v>265</v>
+      </c>
+      <c r="J74">
+        <v>158</v>
+      </c>
+      <c r="K74">
+        <v>158</v>
+      </c>
+      <c r="L74">
+        <v>265</v>
+      </c>
+      <c r="M74">
+        <v>158</v>
+      </c>
+      <c r="N74">
+        <v>265</v>
+      </c>
+      <c r="O74">
+        <v>69</v>
+      </c>
+      <c r="P74">
+        <v>69</v>
+      </c>
+      <c r="Q74">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -10417,8 +11174,50 @@
       <c r="C75">
         <v>183.84</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D75">
+        <v>3.187414</v>
+      </c>
+      <c r="E75">
+        <v>3.187414</v>
+      </c>
+      <c r="F75">
+        <v>-12.9581</v>
+      </c>
+      <c r="G75">
+        <v>304</v>
+      </c>
+      <c r="H75">
+        <v>147</v>
+      </c>
+      <c r="I75">
+        <v>510</v>
+      </c>
+      <c r="J75">
+        <v>201</v>
+      </c>
+      <c r="K75">
+        <v>201</v>
+      </c>
+      <c r="L75">
+        <v>510</v>
+      </c>
+      <c r="M75">
+        <v>201</v>
+      </c>
+      <c r="N75">
+        <v>510</v>
+      </c>
+      <c r="O75">
+        <v>143</v>
+      </c>
+      <c r="P75">
+        <v>143</v>
+      </c>
+      <c r="Q75">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>209</v>
       </c>
@@ -10429,7 +11228,7 @@
         <v>186.21</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -10440,7 +11239,7 @@
         <v>190.23</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>211</v>
       </c>
@@ -10451,7 +11250,7 @@
         <v>192.22</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>134</v>
       </c>
@@ -10462,7 +11261,7 @@
         <v>195.08</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>212</v>
       </c>
@@ -10473,7 +11272,7 @@
         <v>196.97</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>213</v>
       </c>
@@ -10484,7 +11283,7 @@
         <v>200.59</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>214</v>
       </c>
@@ -10494,8 +11293,50 @@
       <c r="C82">
         <v>204.38</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D82">
+        <v>3.9635400000000001</v>
+      </c>
+      <c r="E82">
+        <v>3.9635400000000001</v>
+      </c>
+      <c r="F82">
+        <v>-2.3616999999999999</v>
+      </c>
+      <c r="G82">
+        <v>27</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>26</v>
+      </c>
+      <c r="J82">
+        <v>27</v>
+      </c>
+      <c r="K82">
+        <v>27</v>
+      </c>
+      <c r="L82">
+        <v>26</v>
+      </c>
+      <c r="M82">
+        <v>27</v>
+      </c>
+      <c r="N82">
+        <v>26</v>
+      </c>
+      <c r="O82">
+        <v>9</v>
+      </c>
+      <c r="P82">
+        <v>9</v>
+      </c>
+      <c r="Q82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>215</v>
       </c>
@@ -10505,8 +11346,50 @@
       <c r="C83">
         <v>207.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D83">
+        <v>4.0044180000000003</v>
+      </c>
+      <c r="E83">
+        <v>4.0044180000000003</v>
+      </c>
+      <c r="F83">
+        <v>-3.665</v>
+      </c>
+      <c r="G83">
+        <v>38</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
+      <c r="I83">
+        <v>16</v>
+      </c>
+      <c r="J83">
+        <v>49</v>
+      </c>
+      <c r="K83">
+        <v>49</v>
+      </c>
+      <c r="L83">
+        <v>16</v>
+      </c>
+      <c r="M83">
+        <v>49</v>
+      </c>
+      <c r="N83">
+        <v>16</v>
+      </c>
+      <c r="O83">
+        <v>18</v>
+      </c>
+      <c r="P83">
+        <v>18</v>
+      </c>
+      <c r="Q83">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>216</v>
       </c>
@@ -10516,8 +11399,50 @@
       <c r="C84">
         <v>208.98</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D84">
+        <v>3.9876960000000001</v>
+      </c>
+      <c r="E84">
+        <v>3.9876960000000001</v>
+      </c>
+      <c r="F84">
+        <v>-3.7507000000000001</v>
+      </c>
+      <c r="G84">
+        <v>53</v>
+      </c>
+      <c r="H84">
+        <v>16</v>
+      </c>
+      <c r="I84">
+        <v>61</v>
+      </c>
+      <c r="J84">
+        <v>50</v>
+      </c>
+      <c r="K84">
+        <v>50</v>
+      </c>
+      <c r="L84">
+        <v>61</v>
+      </c>
+      <c r="M84">
+        <v>50</v>
+      </c>
+      <c r="N84">
+        <v>61</v>
+      </c>
+      <c r="O84">
+        <v>23</v>
+      </c>
+      <c r="P84">
+        <v>23</v>
+      </c>
+      <c r="Q84">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>217</v>
       </c>
@@ -10528,7 +11453,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -10539,7 +11464,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>219</v>
       </c>
@@ -10550,7 +11475,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>220</v>
       </c>
@@ -10561,7 +11486,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>221</v>
       </c>
@@ -10572,7 +11497,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>222</v>
       </c>
@@ -10583,7 +11508,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>223</v>
       </c>
@@ -10593,8 +11518,50 @@
       <c r="C91">
         <v>232.04</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D91">
+        <v>4.0110939999999999</v>
+      </c>
+      <c r="E91">
+        <v>4.0110939999999999</v>
+      </c>
+      <c r="F91">
+        <v>-7.2526999999999999</v>
+      </c>
+      <c r="G91">
+        <v>62</v>
+      </c>
+      <c r="H91">
+        <v>9</v>
+      </c>
+      <c r="I91">
+        <v>22</v>
+      </c>
+      <c r="J91">
+        <v>83</v>
+      </c>
+      <c r="K91">
+        <v>83</v>
+      </c>
+      <c r="L91">
+        <v>22</v>
+      </c>
+      <c r="M91">
+        <v>83</v>
+      </c>
+      <c r="N91">
+        <v>22</v>
+      </c>
+      <c r="O91">
+        <v>35</v>
+      </c>
+      <c r="P91">
+        <v>35</v>
+      </c>
+      <c r="Q91">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>224</v>
       </c>
@@ -10605,7 +11572,7 @@
         <v>231.04</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>225</v>
       </c>
@@ -10615,8 +11582,50 @@
       <c r="C93">
         <v>238.03</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D93">
+        <v>3.4328720000000001</v>
+      </c>
+      <c r="E93">
+        <v>3.4328720000000001</v>
+      </c>
+      <c r="F93">
+        <v>-11.02</v>
+      </c>
+      <c r="G93">
+        <v>133</v>
+      </c>
+      <c r="H93">
+        <v>-10</v>
+      </c>
+      <c r="I93">
+        <v>23</v>
+      </c>
+      <c r="J93">
+        <v>188</v>
+      </c>
+      <c r="K93">
+        <v>188</v>
+      </c>
+      <c r="L93">
+        <v>23</v>
+      </c>
+      <c r="M93">
+        <v>188</v>
+      </c>
+      <c r="N93">
+        <v>23</v>
+      </c>
+      <c r="O93">
+        <v>39</v>
+      </c>
+      <c r="P93">
+        <v>39</v>
+      </c>
+      <c r="Q93">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>226</v>
       </c>
@@ -10626,8 +11635,2782 @@
       <c r="C94">
         <v>237</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D94">
+        <v>3.2869000000000002</v>
+      </c>
+      <c r="E94">
+        <v>3.2869000000000002</v>
+      </c>
+      <c r="F94">
+        <v>-12.500299999999999</v>
+      </c>
+      <c r="G94">
+        <v>198</v>
+      </c>
+      <c r="H94">
+        <v>645</v>
+      </c>
+      <c r="I94">
+        <v>174</v>
+      </c>
+      <c r="J94">
+        <v>211</v>
+      </c>
+      <c r="K94">
+        <v>211</v>
+      </c>
+      <c r="L94">
+        <v>174</v>
+      </c>
+      <c r="M94">
+        <v>211</v>
+      </c>
+      <c r="N94">
+        <v>174</v>
+      </c>
+      <c r="O94">
+        <v>1088</v>
+      </c>
+      <c r="P94">
+        <v>1088</v>
+      </c>
+      <c r="Q94">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>227</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E4064-0682-40DA-8716-B48B2C3F2698}">
+  <dimension ref="A1:Q95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K1" t="s">
+        <v>340</v>
+      </c>
+      <c r="L1" t="s">
+        <v>344</v>
+      </c>
+      <c r="M1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N1" t="s">
+        <v>341</v>
+      </c>
+      <c r="O1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.008</v>
+      </c>
+      <c r="D2">
+        <v>5.1311976399999999</v>
+      </c>
+      <c r="E2">
+        <v>3.8118919999999998</v>
+      </c>
+      <c r="F2">
+        <v>-1.1121000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>-1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4.0026000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>6.94</v>
+      </c>
+      <c r="D4">
+        <v>3.07753839</v>
+      </c>
+      <c r="E4">
+        <v>4.9229469999999997</v>
+      </c>
+      <c r="F4">
+        <v>-1.9064000000000001</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>26</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>9.0122</v>
+      </c>
+      <c r="D5">
+        <v>2.25982569</v>
+      </c>
+      <c r="E5">
+        <v>3.5698780000000001</v>
+      </c>
+      <c r="F5">
+        <v>-3.7393999999999998</v>
+      </c>
+      <c r="G5">
+        <v>122</v>
+      </c>
+      <c r="H5">
+        <v>161</v>
+      </c>
+      <c r="I5">
+        <v>322</v>
+      </c>
+      <c r="J5">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>322</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>378</v>
+      </c>
+      <c r="O5">
+        <v>162</v>
+      </c>
+      <c r="P5">
+        <v>162</v>
+      </c>
+      <c r="Q5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>12.010999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>14.007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>15.999000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>18.998000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>22.99</v>
+      </c>
+      <c r="D12">
+        <v>3.7594177900000001</v>
+      </c>
+      <c r="E12">
+        <v>6.0649769999999998</v>
+      </c>
+      <c r="F12">
+        <v>-1.3122</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>18</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>24.305</v>
+      </c>
+      <c r="D13">
+        <v>3.2030277300000001</v>
+      </c>
+      <c r="E13">
+        <v>5.1266910000000001</v>
+      </c>
+      <c r="F13">
+        <v>-1.5908</v>
+      </c>
+      <c r="G13">
+        <v>37</v>
+      </c>
+      <c r="H13">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>58</v>
+      </c>
+      <c r="J13">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>22</v>
+      </c>
+      <c r="L13">
+        <v>58</v>
+      </c>
+      <c r="M13">
+        <v>22</v>
+      </c>
+      <c r="N13">
+        <v>66</v>
+      </c>
+      <c r="O13">
+        <v>20</v>
+      </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>26.981999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>28.085000000000001</v>
+      </c>
+      <c r="D15">
+        <v>2.6394217800000002</v>
+      </c>
+      <c r="E15">
+        <v>4.7641039999999997</v>
+      </c>
+      <c r="F15">
+        <v>-4.9123999999999999</v>
+      </c>
+      <c r="G15">
+        <v>86</v>
+      </c>
+      <c r="H15">
+        <v>38</v>
+      </c>
+      <c r="I15">
+        <v>117</v>
+      </c>
+      <c r="J15">
+        <v>64</v>
+      </c>
+      <c r="K15">
+        <v>77</v>
+      </c>
+      <c r="L15">
+        <v>117</v>
+      </c>
+      <c r="M15">
+        <v>77</v>
+      </c>
+      <c r="N15">
+        <v>101</v>
+      </c>
+      <c r="O15">
+        <v>62</v>
+      </c>
+      <c r="P15">
+        <v>62</v>
+      </c>
+      <c r="Q15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>30.974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>32.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>35.450000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>39.948</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>39.097999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>40.078000000000003</v>
+      </c>
+      <c r="D21">
+        <v>3.8966120100000001</v>
+      </c>
+      <c r="E21">
+        <v>6.4513220000000002</v>
+      </c>
+      <c r="F21">
+        <v>-1.9995000000000001</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>31</v>
+      </c>
+      <c r="J21">
+        <v>13</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <v>31</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <v>41</v>
+      </c>
+      <c r="O21">
+        <v>8</v>
+      </c>
+      <c r="P21">
+        <v>8</v>
+      </c>
+      <c r="Q21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>44.956000000000003</v>
+      </c>
+      <c r="D22">
+        <v>3.31865583</v>
+      </c>
+      <c r="E22">
+        <v>5.1780400000000002</v>
+      </c>
+      <c r="F22">
+        <v>-6.3324999999999996</v>
+      </c>
+      <c r="G22">
+        <v>52</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>98</v>
+      </c>
+      <c r="J22">
+        <v>34</v>
+      </c>
+      <c r="K22">
+        <v>30</v>
+      </c>
+      <c r="L22">
+        <v>98</v>
+      </c>
+      <c r="M22">
+        <v>30</v>
+      </c>
+      <c r="N22">
+        <v>89</v>
+      </c>
+      <c r="O22">
+        <v>28</v>
+      </c>
+      <c r="P22">
+        <v>28</v>
+      </c>
+      <c r="Q22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>47.866999999999997</v>
+      </c>
+      <c r="D23">
+        <v>2.9338137999999998</v>
+      </c>
+      <c r="E23">
+        <v>4.6570090000000004</v>
+      </c>
+      <c r="F23">
+        <v>-7.8910999999999998</v>
+      </c>
+      <c r="G23">
+        <v>113</v>
+      </c>
+      <c r="H23">
+        <v>47</v>
+      </c>
+      <c r="I23">
+        <v>177</v>
+      </c>
+      <c r="J23">
+        <v>83</v>
+      </c>
+      <c r="K23">
+        <v>76</v>
+      </c>
+      <c r="L23">
+        <v>177</v>
+      </c>
+      <c r="M23">
+        <v>76</v>
+      </c>
+      <c r="N23">
+        <v>191</v>
+      </c>
+      <c r="O23">
+        <v>42</v>
+      </c>
+      <c r="P23">
+        <v>42</v>
+      </c>
+      <c r="Q23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>50.942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>51.996000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>54.938000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>55.844999999999999</v>
+      </c>
+      <c r="D27">
+        <v>2.4657558499999999</v>
+      </c>
+      <c r="E27">
+        <v>3.9001920000000001</v>
+      </c>
+      <c r="F27">
+        <v>-8.3720999999999997</v>
+      </c>
+      <c r="G27">
+        <v>295</v>
+      </c>
+      <c r="H27">
+        <v>186</v>
+      </c>
+      <c r="I27">
+        <v>538</v>
+      </c>
+      <c r="J27">
+        <v>170</v>
+      </c>
+      <c r="K27">
+        <v>153</v>
+      </c>
+      <c r="L27">
+        <v>538</v>
+      </c>
+      <c r="M27">
+        <v>153</v>
+      </c>
+      <c r="N27">
+        <v>622</v>
+      </c>
+      <c r="O27">
+        <v>168</v>
+      </c>
+      <c r="P27">
+        <v>168</v>
+      </c>
+      <c r="Q27">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>58.933</v>
+      </c>
+      <c r="D28">
+        <v>2.5007837999999998</v>
+      </c>
+      <c r="E28">
+        <v>4.0333310000000004</v>
+      </c>
+      <c r="F28">
+        <v>-7.1082999999999998</v>
+      </c>
+      <c r="G28">
+        <v>212</v>
+      </c>
+      <c r="H28">
+        <v>106</v>
+      </c>
+      <c r="I28">
+        <v>358</v>
+      </c>
+      <c r="J28">
+        <v>165</v>
+      </c>
+      <c r="K28">
+        <v>114</v>
+      </c>
+      <c r="L28">
+        <v>358</v>
+      </c>
+      <c r="M28">
+        <v>114</v>
+      </c>
+      <c r="N28">
+        <v>409</v>
+      </c>
+      <c r="O28">
+        <v>95</v>
+      </c>
+      <c r="P28">
+        <v>95</v>
+      </c>
+      <c r="Q28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>58.692999999999998</v>
+      </c>
+      <c r="D29">
+        <v>2.4742781699999998</v>
+      </c>
+      <c r="E29">
+        <v>4.0701809999999998</v>
+      </c>
+      <c r="F29">
+        <v>-5.7539999999999996</v>
+      </c>
+      <c r="G29">
+        <v>197</v>
+      </c>
+      <c r="H29">
+        <v>78</v>
+      </c>
+      <c r="I29">
+        <v>320</v>
+      </c>
+      <c r="J29">
+        <v>142</v>
+      </c>
+      <c r="K29">
+        <v>128</v>
+      </c>
+      <c r="L29">
+        <v>320</v>
+      </c>
+      <c r="M29">
+        <v>128</v>
+      </c>
+      <c r="N29">
+        <v>336</v>
+      </c>
+      <c r="O29">
+        <v>55</v>
+      </c>
+      <c r="P29">
+        <v>55</v>
+      </c>
+      <c r="Q29">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>63.545999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>65.38</v>
+      </c>
+      <c r="D31">
+        <v>2.62673047</v>
+      </c>
+      <c r="E31">
+        <v>5.2072339999999997</v>
+      </c>
+      <c r="F31">
+        <v>-1.2595000000000001</v>
+      </c>
+      <c r="G31">
+        <v>75</v>
+      </c>
+      <c r="H31">
+        <v>41</v>
+      </c>
+      <c r="I31">
+        <v>163</v>
+      </c>
+      <c r="J31">
+        <v>45</v>
+      </c>
+      <c r="K31">
+        <v>48</v>
+      </c>
+      <c r="L31">
+        <v>163</v>
+      </c>
+      <c r="M31">
+        <v>48</v>
+      </c>
+      <c r="N31">
+        <v>61</v>
+      </c>
+      <c r="O31">
+        <v>32</v>
+      </c>
+      <c r="P31">
+        <v>32</v>
+      </c>
+      <c r="Q31">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>69.722999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>72.63</v>
+      </c>
+      <c r="D33">
+        <v>2.9911238400000002</v>
+      </c>
+      <c r="E33">
+        <v>5.0033859999999999</v>
+      </c>
+      <c r="F33">
+        <v>-4.2916999999999996</v>
+      </c>
+      <c r="G33">
+        <v>49</v>
+      </c>
+      <c r="H33">
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <v>73</v>
+      </c>
+      <c r="J33">
+        <v>48</v>
+      </c>
+      <c r="K33">
+        <v>30</v>
+      </c>
+      <c r="L33">
+        <v>74</v>
+      </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
+      <c r="N33">
+        <v>83</v>
+      </c>
+      <c r="O33">
+        <v>12</v>
+      </c>
+      <c r="P33">
+        <v>12</v>
+      </c>
+      <c r="Q33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>74.921999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>78.971000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>79.903999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>83.798000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>85.468000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>87.62</v>
+      </c>
+      <c r="D39">
+        <v>4.2513880000000004</v>
+      </c>
+      <c r="E39">
+        <v>7.0556489999999998</v>
+      </c>
+      <c r="F39">
+        <v>-1.6839</v>
+      </c>
+      <c r="G39">
+        <v>11</v>
+      </c>
+      <c r="H39">
+        <v>7</v>
+      </c>
+      <c r="I39">
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="N39">
+        <v>26</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+      <c r="P39">
+        <v>5</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>88.906000000000006</v>
+      </c>
+      <c r="D40">
+        <v>3.65898776</v>
+      </c>
+      <c r="E40">
+        <v>5.6659649999999999</v>
+      </c>
+      <c r="F40">
+        <v>-6.4629000000000003</v>
+      </c>
+      <c r="G40">
+        <v>41</v>
+      </c>
+      <c r="H40">
+        <v>26</v>
+      </c>
+      <c r="I40">
+        <v>77</v>
+      </c>
+      <c r="J40">
+        <v>26</v>
+      </c>
+      <c r="K40">
+        <v>21</v>
+      </c>
+      <c r="L40">
+        <v>77</v>
+      </c>
+      <c r="M40">
+        <v>21</v>
+      </c>
+      <c r="N40">
+        <v>81</v>
+      </c>
+      <c r="O40">
+        <v>25</v>
+      </c>
+      <c r="P40">
+        <v>25</v>
+      </c>
+      <c r="Q40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>91.224000000000004</v>
+      </c>
+      <c r="D41">
+        <v>3.23923191</v>
+      </c>
+      <c r="E41">
+        <v>5.1722200000000003</v>
+      </c>
+      <c r="F41">
+        <v>-8.5477000000000007</v>
+      </c>
+      <c r="G41">
+        <v>94</v>
+      </c>
+      <c r="H41">
+        <v>35</v>
+      </c>
+      <c r="I41">
+        <v>144</v>
+      </c>
+      <c r="J41">
+        <v>65</v>
+      </c>
+      <c r="K41">
+        <v>67</v>
+      </c>
+      <c r="L41">
+        <v>144</v>
+      </c>
+      <c r="M41">
+        <v>67</v>
+      </c>
+      <c r="N41">
+        <v>162</v>
+      </c>
+      <c r="O41">
+        <v>26</v>
+      </c>
+      <c r="P41">
+        <v>26</v>
+      </c>
+      <c r="Q41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>92.906000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>95.95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>98</v>
+      </c>
+      <c r="D44">
+        <v>2.76071635</v>
+      </c>
+      <c r="E44">
+        <v>4.4213399999999998</v>
+      </c>
+      <c r="F44">
+        <v>-10.3606</v>
+      </c>
+      <c r="G44">
+        <v>300</v>
+      </c>
+      <c r="H44">
+        <v>144</v>
+      </c>
+      <c r="I44">
+        <v>497</v>
+      </c>
+      <c r="J44">
+        <v>222</v>
+      </c>
+      <c r="K44">
+        <v>174</v>
+      </c>
+      <c r="L44">
+        <v>497</v>
+      </c>
+      <c r="M44">
+        <v>174</v>
+      </c>
+      <c r="N44">
+        <v>566</v>
+      </c>
+      <c r="O44">
+        <v>126</v>
+      </c>
+      <c r="P44">
+        <v>126</v>
+      </c>
+      <c r="Q44">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>101.07</v>
+      </c>
+      <c r="D45">
+        <v>2.73293008</v>
+      </c>
+      <c r="E45">
+        <v>4.313923</v>
+      </c>
+      <c r="F45">
+        <v>-9.2744</v>
+      </c>
+      <c r="G45">
+        <v>308</v>
+      </c>
+      <c r="H45">
+        <v>193</v>
+      </c>
+      <c r="I45">
+        <v>559</v>
+      </c>
+      <c r="J45">
+        <v>178</v>
+      </c>
+      <c r="K45">
+        <v>166</v>
+      </c>
+      <c r="L45">
+        <v>559</v>
+      </c>
+      <c r="M45">
+        <v>166</v>
+      </c>
+      <c r="N45">
+        <v>635</v>
+      </c>
+      <c r="O45">
+        <v>181</v>
+      </c>
+      <c r="P45">
+        <v>181</v>
+      </c>
+      <c r="Q45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>102.91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>106.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>107.87</v>
+      </c>
+      <c r="D48">
+        <v>2.95264792</v>
+      </c>
+      <c r="E48">
+        <v>4.7983209999999996</v>
+      </c>
+      <c r="F48">
+        <v>-2.8250000000000002</v>
+      </c>
+      <c r="G48">
+        <v>88</v>
+      </c>
+      <c r="H48">
+        <v>29</v>
+      </c>
+      <c r="I48">
+        <v>126</v>
+      </c>
+      <c r="J48">
+        <v>74</v>
+      </c>
+      <c r="K48">
+        <v>60</v>
+      </c>
+      <c r="L48">
+        <v>126</v>
+      </c>
+      <c r="M48">
+        <v>60</v>
+      </c>
+      <c r="N48">
+        <v>147</v>
+      </c>
+      <c r="O48">
+        <v>24</v>
+      </c>
+      <c r="P48">
+        <v>24</v>
+      </c>
+      <c r="Q48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>112.41</v>
+      </c>
+      <c r="D49">
+        <v>3.0078459799999999</v>
+      </c>
+      <c r="E49">
+        <v>5.9419630000000003</v>
+      </c>
+      <c r="F49">
+        <v>-0.90620000000000001</v>
+      </c>
+      <c r="G49">
+        <v>45</v>
+      </c>
+      <c r="H49">
+        <v>18</v>
+      </c>
+      <c r="I49">
+        <v>87</v>
+      </c>
+      <c r="J49">
+        <v>39</v>
+      </c>
+      <c r="K49">
+        <v>28</v>
+      </c>
+      <c r="L49">
+        <v>87</v>
+      </c>
+      <c r="M49">
+        <v>28</v>
+      </c>
+      <c r="N49">
+        <v>43</v>
+      </c>
+      <c r="O49">
+        <v>11</v>
+      </c>
+      <c r="P49">
+        <v>11</v>
+      </c>
+      <c r="Q49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>114.82</v>
+      </c>
+      <c r="D50">
+        <v>3.4225177699999998</v>
+      </c>
+      <c r="E50">
+        <v>5.5760160000000001</v>
+      </c>
+      <c r="F50">
+        <v>-2.7040000000000002</v>
+      </c>
+      <c r="G50">
+        <v>117</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>144</v>
+      </c>
+      <c r="J50">
+        <v>170</v>
+      </c>
+      <c r="K50">
+        <v>71</v>
+      </c>
+      <c r="L50">
+        <v>144</v>
+      </c>
+      <c r="M50">
+        <v>71</v>
+      </c>
+      <c r="N50">
+        <v>144</v>
+      </c>
+      <c r="O50">
+        <v>-12</v>
+      </c>
+      <c r="P50">
+        <v>-12</v>
+      </c>
+      <c r="Q50">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>118.71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>11.76</v>
+      </c>
+      <c r="D52">
+        <v>3.3941097899999999</v>
+      </c>
+      <c r="E52">
+        <v>5.4946760000000001</v>
+      </c>
+      <c r="F52">
+        <v>-3.8386999999999998</v>
+      </c>
+      <c r="G52">
+        <v>60</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>64</v>
+      </c>
+      <c r="J52">
+        <v>68</v>
+      </c>
+      <c r="K52">
+        <v>51</v>
+      </c>
+      <c r="L52">
+        <v>64</v>
+      </c>
+      <c r="M52">
+        <v>51</v>
+      </c>
+      <c r="N52">
+        <v>73</v>
+      </c>
+      <c r="O52">
+        <v>5</v>
+      </c>
+      <c r="P52">
+        <v>5</v>
+      </c>
+      <c r="Q52">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>127.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>126.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>131.29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>132.91</v>
+      </c>
+      <c r="D56">
+        <v>5.5123161300000003</v>
+      </c>
+      <c r="E56">
+        <v>8.8941330000000001</v>
+      </c>
+      <c r="F56">
+        <v>-0.86029999999999995</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>137.33000000000001</v>
+      </c>
+      <c r="D57">
+        <v>4.4785575700000004</v>
+      </c>
+      <c r="E57">
+        <v>7.3520200000000004</v>
+      </c>
+      <c r="F57">
+        <v>-1.903</v>
+      </c>
+      <c r="G57">
+        <v>8</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>14</v>
+      </c>
+      <c r="J57">
+        <v>10</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>14</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>21</v>
+      </c>
+      <c r="O57">
+        <v>5</v>
+      </c>
+      <c r="P57">
+        <v>5</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>138.91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>140.12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>140.91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>144.24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>150.36000000000001</v>
+      </c>
+      <c r="D63">
+        <v>3.68171026</v>
+      </c>
+      <c r="E63">
+        <v>5.850009</v>
+      </c>
+      <c r="F63">
+        <v>-4.6965000000000003</v>
+      </c>
+      <c r="G63">
+        <v>35</v>
+      </c>
+      <c r="H63">
+        <v>18</v>
+      </c>
+      <c r="I63">
+        <v>60</v>
+      </c>
+      <c r="J63">
+        <v>16</v>
+      </c>
+      <c r="K63">
+        <v>25</v>
+      </c>
+      <c r="L63">
+        <v>60</v>
+      </c>
+      <c r="M63">
+        <v>25</v>
+      </c>
+      <c r="N63">
+        <v>64</v>
+      </c>
+      <c r="O63">
+        <v>16</v>
+      </c>
+      <c r="P63">
+        <v>16</v>
+      </c>
+      <c r="Q63">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>151.96</v>
+      </c>
+      <c r="D64">
+        <v>4.050656</v>
+      </c>
+      <c r="E64">
+        <v>6.5137859999999996</v>
+      </c>
+      <c r="F64">
+        <v>-10.246499999999999</v>
+      </c>
+      <c r="G64">
+        <v>13</v>
+      </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+      <c r="I64">
+        <v>27</v>
+      </c>
+      <c r="J64">
+        <v>9</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>27</v>
+      </c>
+      <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>30</v>
+      </c>
+      <c r="O64">
+        <v>10</v>
+      </c>
+      <c r="P64">
+        <v>10</v>
+      </c>
+      <c r="Q64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>157.25</v>
+      </c>
+      <c r="D65">
+        <v>3.6139337199999999</v>
+      </c>
+      <c r="E65">
+        <v>5.7700740000000001</v>
+      </c>
+      <c r="F65">
+        <v>-14.0761</v>
+      </c>
+      <c r="G65">
+        <v>37</v>
+      </c>
+      <c r="H65">
+        <v>24</v>
+      </c>
+      <c r="I65">
+        <v>67</v>
+      </c>
+      <c r="J65">
+        <v>22</v>
+      </c>
+      <c r="K65">
+        <v>20</v>
+      </c>
+      <c r="L65">
+        <v>67</v>
+      </c>
+      <c r="M65">
+        <v>20</v>
+      </c>
+      <c r="N65">
+        <v>80</v>
+      </c>
+      <c r="O65">
+        <v>23</v>
+      </c>
+      <c r="P65">
+        <v>23</v>
+      </c>
+      <c r="Q65">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>158.93</v>
+      </c>
+      <c r="D66">
+        <v>3.6403839900000001</v>
+      </c>
+      <c r="E66">
+        <v>5.6635850000000003</v>
+      </c>
+      <c r="F66">
+        <v>-4.6154999999999999</v>
+      </c>
+      <c r="G66">
+        <v>39</v>
+      </c>
+      <c r="H66">
+        <v>23</v>
+      </c>
+      <c r="I66">
+        <v>67</v>
+      </c>
+      <c r="J66">
+        <v>21</v>
+      </c>
+      <c r="K66">
+        <v>22</v>
+      </c>
+      <c r="L66">
+        <v>67</v>
+      </c>
+      <c r="M66">
+        <v>22</v>
+      </c>
+      <c r="N66">
+        <v>81</v>
+      </c>
+      <c r="O66">
+        <v>22</v>
+      </c>
+      <c r="P66">
+        <v>22</v>
+      </c>
+      <c r="Q66">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>162.5</v>
+      </c>
+      <c r="D67">
+        <v>3.62670366</v>
+      </c>
+      <c r="E67">
+        <v>5.6163720000000001</v>
+      </c>
+      <c r="F67">
+        <v>-4.5872999999999999</v>
+      </c>
+      <c r="G67">
+        <v>39</v>
+      </c>
+      <c r="H67">
+        <v>24</v>
+      </c>
+      <c r="I67">
+        <v>67</v>
+      </c>
+      <c r="J67">
+        <v>17</v>
+      </c>
+      <c r="K67">
+        <v>26</v>
+      </c>
+      <c r="L67">
+        <v>67</v>
+      </c>
+      <c r="M67">
+        <v>26</v>
+      </c>
+      <c r="N67">
+        <v>82</v>
+      </c>
+      <c r="O67">
+        <v>24</v>
+      </c>
+      <c r="P67">
+        <v>24</v>
+      </c>
+      <c r="Q67">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>164.93</v>
+      </c>
+      <c r="D68">
+        <v>3.6087537200000002</v>
+      </c>
+      <c r="E68">
+        <v>5.577528</v>
+      </c>
+      <c r="F68">
+        <v>-4.5682999999999998</v>
+      </c>
+      <c r="G68">
+        <v>43</v>
+      </c>
+      <c r="H68">
+        <v>28</v>
+      </c>
+      <c r="I68">
+        <v>80</v>
+      </c>
+      <c r="J68">
+        <v>23</v>
+      </c>
+      <c r="K68">
+        <v>24</v>
+      </c>
+      <c r="L68">
+        <v>80</v>
+      </c>
+      <c r="M68">
+        <v>24</v>
+      </c>
+      <c r="N68">
+        <v>87</v>
+      </c>
+      <c r="O68">
+        <v>27</v>
+      </c>
+      <c r="P68">
+        <v>27</v>
+      </c>
+      <c r="Q68">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>167.26</v>
+      </c>
+      <c r="D69">
+        <v>3.5873042599999998</v>
+      </c>
+      <c r="E69">
+        <v>5.5456830000000004</v>
+      </c>
+      <c r="F69">
+        <v>-4.5574000000000003</v>
+      </c>
+      <c r="G69">
+        <v>44</v>
+      </c>
+      <c r="H69">
+        <v>30</v>
+      </c>
+      <c r="I69">
+        <v>85</v>
+      </c>
+      <c r="J69">
+        <v>26</v>
+      </c>
+      <c r="K69">
+        <v>23</v>
+      </c>
+      <c r="L69">
+        <v>85</v>
+      </c>
+      <c r="M69">
+        <v>23</v>
+      </c>
+      <c r="N69">
+        <v>89</v>
+      </c>
+      <c r="O69">
+        <v>28</v>
+      </c>
+      <c r="P69">
+        <v>28</v>
+      </c>
+      <c r="Q69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>168.93</v>
+      </c>
+      <c r="D70">
+        <v>3.5626455899999998</v>
+      </c>
+      <c r="E70">
+        <v>5.5131550000000002</v>
+      </c>
+      <c r="F70">
+        <v>-4.4722</v>
+      </c>
+      <c r="G70">
+        <v>46</v>
+      </c>
+      <c r="H70">
+        <v>31</v>
+      </c>
+      <c r="I70">
+        <v>89</v>
+      </c>
+      <c r="J70">
+        <v>27</v>
+      </c>
+      <c r="K70">
+        <v>22</v>
+      </c>
+      <c r="L70">
+        <v>89</v>
+      </c>
+      <c r="M70">
+        <v>22</v>
+      </c>
+      <c r="N70">
+        <v>92</v>
+      </c>
+      <c r="O70">
+        <v>29</v>
+      </c>
+      <c r="P70">
+        <v>29</v>
+      </c>
+      <c r="Q70">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>173.05</v>
+      </c>
+      <c r="D71">
+        <v>3.8528719900000001</v>
+      </c>
+      <c r="E71">
+        <v>6.3770470000000001</v>
+      </c>
+      <c r="F71">
+        <v>-1.5259</v>
+      </c>
+      <c r="G71">
+        <v>15</v>
+      </c>
+      <c r="H71">
+        <v>10</v>
+      </c>
+      <c r="I71">
+        <v>29</v>
+      </c>
+      <c r="J71">
+        <v>11</v>
+      </c>
+      <c r="K71">
+        <v>7</v>
+      </c>
+      <c r="L71">
+        <v>29</v>
+      </c>
+      <c r="M71">
+        <v>7</v>
+      </c>
+      <c r="N71">
+        <v>29</v>
+      </c>
+      <c r="O71">
+        <v>10</v>
+      </c>
+      <c r="P71">
+        <v>10</v>
+      </c>
+      <c r="Q71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>174.97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>178.49</v>
+      </c>
+      <c r="D73">
+        <v>3.1984859399999999</v>
+      </c>
+      <c r="E73">
+        <v>5.0751850000000003</v>
+      </c>
+      <c r="F73">
+        <v>-9.9572000000000003</v>
+      </c>
+      <c r="G73">
+        <v>108</v>
+      </c>
+      <c r="H73">
+        <v>56</v>
+      </c>
+      <c r="I73">
+        <v>184</v>
+      </c>
+      <c r="J73">
+        <v>70</v>
+      </c>
+      <c r="K73">
+        <v>68</v>
+      </c>
+      <c r="L73">
+        <v>184</v>
+      </c>
+      <c r="M73">
+        <v>68</v>
+      </c>
+      <c r="N73">
+        <v>194</v>
+      </c>
+      <c r="O73">
+        <v>52</v>
+      </c>
+      <c r="P73">
+        <v>52</v>
+      </c>
+      <c r="Q73">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>180.95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>183.84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>186.21</v>
+      </c>
+      <c r="D76">
+        <v>2.7810500199999999</v>
+      </c>
+      <c r="E76">
+        <v>4.4971360000000002</v>
+      </c>
+      <c r="F76">
+        <v>-12.4445</v>
+      </c>
+      <c r="G76">
+        <v>365</v>
+      </c>
+      <c r="H76">
+        <v>175</v>
+      </c>
+      <c r="I76">
+        <v>607</v>
+      </c>
+      <c r="J76">
+        <v>273</v>
+      </c>
+      <c r="K76">
+        <v>214</v>
+      </c>
+      <c r="L76">
+        <v>607</v>
+      </c>
+      <c r="M76">
+        <v>214</v>
+      </c>
+      <c r="N76">
+        <v>670</v>
+      </c>
+      <c r="O76">
+        <v>156</v>
+      </c>
+      <c r="P76">
+        <v>156</v>
+      </c>
+      <c r="Q76">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>190.23</v>
+      </c>
+      <c r="D77">
+        <v>2.7585156</v>
+      </c>
+      <c r="E77">
+        <v>4.3567989999999996</v>
+      </c>
+      <c r="F77">
+        <v>-11.2273</v>
+      </c>
+      <c r="G77">
+        <v>402</v>
+      </c>
+      <c r="H77">
+        <v>259</v>
+      </c>
+      <c r="I77">
+        <v>730</v>
+      </c>
+      <c r="J77">
+        <v>226</v>
+      </c>
+      <c r="K77">
+        <v>220</v>
+      </c>
+      <c r="L77">
+        <v>730</v>
+      </c>
+      <c r="M77">
+        <v>220</v>
+      </c>
+      <c r="N77">
+        <v>824</v>
+      </c>
+      <c r="O77">
+        <v>252</v>
+      </c>
+      <c r="P77">
+        <v>252</v>
+      </c>
+      <c r="Q77">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>211</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>192.22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>195.08</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>196.97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>200.59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>214</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>204.38</v>
+      </c>
+      <c r="D82">
+        <v>3.54892429</v>
+      </c>
+      <c r="E82">
+        <v>5.7384139999999997</v>
+      </c>
+      <c r="F82">
+        <v>-2.3586999999999998</v>
+      </c>
+      <c r="G82">
+        <v>27</v>
+      </c>
+      <c r="H82">
+        <v>7</v>
+      </c>
+      <c r="I82">
+        <v>32</v>
+      </c>
+      <c r="J82">
+        <v>21</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>32</v>
+      </c>
+      <c r="M82">
+        <v>22</v>
+      </c>
+      <c r="N82">
+        <v>48</v>
+      </c>
+      <c r="O82">
+        <v>7</v>
+      </c>
+      <c r="P82">
+        <v>7</v>
+      </c>
+      <c r="Q82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>207.2</v>
+      </c>
+      <c r="D83">
+        <v>3.5483879300000001</v>
+      </c>
+      <c r="E83">
+        <v>5.8412750000000004</v>
+      </c>
+      <c r="F83">
+        <v>-3.6983000000000001</v>
+      </c>
+      <c r="G83">
+        <v>40</v>
+      </c>
+      <c r="H83">
+        <v>10</v>
+      </c>
+      <c r="I83">
+        <v>58</v>
+      </c>
+      <c r="J83">
+        <v>32</v>
+      </c>
+      <c r="K83">
+        <v>32</v>
+      </c>
+      <c r="L83">
+        <v>58</v>
+      </c>
+      <c r="M83">
+        <v>32</v>
+      </c>
+      <c r="N83">
+        <v>56</v>
+      </c>
+      <c r="O83">
+        <v>6</v>
+      </c>
+      <c r="P83">
+        <v>6</v>
+      </c>
+      <c r="Q83">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>216</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>208.98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>217</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>218</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>232.04</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>231.04</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>225</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>238.03</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>226</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>227</v>
       </c>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117021DD-F191-4E02-89DB-C0B7F491E456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41033424-A112-4962-9F29-7CDB3C95E523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="30" windowWidth="19545" windowHeight="15420" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="-2955" yWindow="135" windowWidth="23340" windowHeight="15165" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="379">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -1556,6 +1556,82 @@
   </si>
   <si>
     <t># [((Cmax(2,2,1)^0.5 + Cmax(3,3,1)^0.5 + Cmax(2,3,2)^0.5 + Cmax(1,3,1)^0.5 + Cmax(2,3,3)^0.5 + Cmax(1,2,1)^0.5)/6]^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FCC or BCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gamma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gamma'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1NN-MEAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ometa [A^3/atom]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C44 [GPa]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C11 [GPa]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C12 [GPa]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s (l=0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p (l=1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d (l=2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f (l=3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orbital</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t3: stacking fault energy or structural energy difference between the fcc and hcp phases.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t1: vacancy formaiton energy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t2: related with the number of d electrons</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(t3 &gt;0 for FCC, t3 &lt; 0 for BCC and diamond cubic)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1861,7 +1937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2100,6 +2176,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2418,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="I14" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2599,6 +2684,9 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
+      <c r="C4" s="35" t="s">
+        <v>364</v>
+      </c>
       <c r="D4" s="14" t="s">
         <v>255</v>
       </c>
@@ -2627,6 +2715,10 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="C5" s="11">
+        <f>IF(OR(C7="fcc", C7="l12"), ((C3*SQRT(2))^3/4), IF(OR(C7="bcc", C7="b2"), ((C3*2/SQRT(3))^3/2), IF(C7="hcp", (SQRT(3)/2*J7*(C3)^3/2), IF(C7="dim", "", IF(C7="dia", ((C3*E7)^3/8), IF(C7="b1", ((C3*2)^3/8), IF(C7="l12", ((C3*SQRT(2))^3/4), IF(C7="sc", ((C3)^3/1), ""))))))))</f>
+        <v>10.916490557546441</v>
+      </c>
       <c r="D5" s="11">
         <v>187.6</v>
       </c>
@@ -2864,6 +2956,9 @@
       <c r="Q12" s="6">
         <v>1</v>
       </c>
+      <c r="S12" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
@@ -2909,6 +3004,12 @@
       <c r="Q13" s="6" t="str">
         <f t="shared" ref="Q13:Q18" si="0">N13</f>
         <v>b2</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="T13" s="11">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
@@ -2950,6 +3051,12 @@
       <c r="Q14" s="21">
         <f t="shared" si="0"/>
         <v>6.4</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="T14" s="11">
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.4">
@@ -2995,6 +3102,12 @@
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
+      <c r="S15" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="T15" s="11">
+        <v>160</v>
+      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" s="32">
@@ -3048,8 +3161,15 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S16" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="T16" s="80">
+        <f>T13*0.006241509</f>
+        <v>0.78018862499999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" s="28">
         <f>J3</f>
         <v>1</v>
@@ -3091,8 +3211,15 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S17" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="T17" s="80">
+        <f>(T14-T15)*0.006241509/2</f>
+        <v>0.31207545000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3123,7 +3250,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>250</v>
       </c>
@@ -3146,8 +3273,17 @@
         <f>N19</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S19" t="s">
+        <v>363</v>
+      </c>
+      <c r="U19" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="J20" s="5" t="s">
         <v>70</v>
       </c>
@@ -3167,8 +3303,26 @@
         <f t="shared" ref="Q20:Q26" si="1">N20</f>
         <v>0.67</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S20" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="X20" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3192,8 +3346,29 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S21" s="26">
+        <f>((D3^2-2*D7*T17*C5/B3)/E3)^(1/2)</f>
+        <v>2.8205267153630094</v>
+      </c>
+      <c r="T21" s="30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U21" s="30">
+        <v>6</v>
+      </c>
+      <c r="V21" s="30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W21" t="s">
+        <v>369</v>
+      </c>
+      <c r="X21" s="26">
+        <f>((T16-2*T17)*D7^2*C5)/(2*E3*B3*(H3-2)^2)</f>
+        <v>1.8324718102141699</v>
+      </c>
+      <c r="Y21" s="11"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -3217,8 +3392,29 @@
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S22" s="26">
+        <f>((D3^2-D7*T16*C5/B3)/E3)^(1/2)</f>
+        <v>1.7517932121606123</v>
+      </c>
+      <c r="T22" s="30">
+        <v>1</v>
+      </c>
+      <c r="U22" s="30">
+        <v>2</v>
+      </c>
+      <c r="V22" s="30">
+        <v>1</v>
+      </c>
+      <c r="W22" t="s">
+        <v>369</v>
+      </c>
+      <c r="X22" s="26" t="e">
+        <f>((2*T17-T16)*D7^2*C5)/(E3*B3*(H3-6)^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y22" s="11"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3242,8 +3438,29 @@
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S23" s="26">
+        <f>((D3^2-9*D7*T16*C5/(8*B3))/E3)^(1/2)</f>
+        <v>0.12107755564807285</v>
+      </c>
+      <c r="T23" s="30">
+        <v>1</v>
+      </c>
+      <c r="U23" s="30">
+        <v>1</v>
+      </c>
+      <c r="V23" s="30">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
+        <v>368</v>
+      </c>
+      <c r="X23" s="26">
+        <f>(9*T17*D7^2*C5)/(256*E3*B3)</f>
+        <v>4.1230615729818849</v>
+      </c>
+      <c r="Y23" s="11"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3267,8 +3484,27 @@
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S24" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="W24" s="81" t="s">
+        <v>374</v>
+      </c>
+      <c r="X24" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y24" s="82"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -3292,8 +3528,11 @@
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="X25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3317,8 +3556,11 @@
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="X26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3336,8 +3578,11 @@
         <v>266</v>
       </c>
       <c r="Q27" s="20"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="X27" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="J28" s="7" t="s">
         <v>24</v>
       </c>
@@ -3348,7 +3593,7 @@
       <c r="M28" s="5"/>
       <c r="Q28" s="20"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -3356,19 +3601,19 @@
       <c r="M29" s="5"/>
       <c r="Q29" s="20"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="J30" s="5"/>
       <c r="M30" s="5"/>
       <c r="Q30" s="20"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>66</v>
       </c>
       <c r="J31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>60</v>
       </c>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41033424-A112-4962-9F29-7CDB3C95E523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7717BDC9-B84E-4664-8B61-76204F23A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2955" yWindow="135" windowWidth="23340" windowHeight="15165" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="795" yWindow="210" windowWidth="23355" windowHeight="14700" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="413">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -1632,6 +1632,142 @@
   </si>
   <si>
     <t>(t3 &gt;0 for FCC, t3 &lt; 0 for BCC and diamond cubic)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HCP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C13 [GPa]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C33 [GPa]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C66 [GPa]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rho_e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Delta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3: La-Lu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ef1v [eV]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[eV/A^3]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cb*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cc*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cb*/Cc*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c/a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fixed: 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t3 = 0.0 for ideal c/a = (8/3)^0.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the approximate relations for the unrelaxed vacancy formation energy, Ef1v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the divacancy binding energy (for a divacancy in the basal plane), Eub2v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the unrelaxed stacking fault energy, Eusf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the unrelaxed surface energy on the basal plane, Gub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Euf1v [eV]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eb2v [eV]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eusf [eV]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gub [eV]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tm [K]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the melting temperature, Tm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hvap [eV]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the cohesive energy, Ec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the heat of vaporization, Hvap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: A = 1.0-1.2 range</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ref: M. I. Baskes et al., Modelling Simul. Mater. Sci. Eng. 2 (1994) 147-163.: https://iopscience.iop.org/article/10.1088/0965-0393/2/1/011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ref: M. I. Baskes, Phys. Rev. B 46 (1992) 2727.: https://journals.aps.org/prb/abstract/10.1103/PhysRevB.46.2727</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1937,7 +2073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2181,10 +2317,46 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2503,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I14" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2856,6 +3028,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="M8" s="2"/>
+      <c r="R8" s="4"/>
       <c r="X8" s="5" t="s">
         <v>258</v>
       </c>
@@ -2870,6 +3043,7 @@
         <v>265</v>
       </c>
       <c r="Q9" s="43"/>
+      <c r="R9" s="6"/>
       <c r="X9" s="5" t="s">
         <v>259</v>
       </c>
@@ -2884,6 +3058,7 @@
         <f>N12</f>
         <v>Hf-Ni</v>
       </c>
+      <c r="R10" s="6"/>
       <c r="X10" s="7" t="s">
         <v>260</v>
       </c>
@@ -2917,6 +3092,17 @@
       <c r="Q11" s="6">
         <v>0</v>
       </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
@@ -2956,9 +3142,11 @@
       <c r="Q12" s="6">
         <v>1</v>
       </c>
+      <c r="R12" s="6"/>
       <c r="S12" t="s">
         <v>360</v>
       </c>
+      <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
@@ -3005,12 +3193,17 @@
         <f t="shared" ref="Q13:Q18" si="0">N13</f>
         <v>b2</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="R13" s="6"/>
+      <c r="S13" s="85" t="s">
         <v>365</v>
       </c>
       <c r="T13" s="11">
         <v>125</v>
       </c>
+      <c r="W13" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB13" s="6"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
@@ -3052,12 +3245,21 @@
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="S14" s="14" t="s">
+      <c r="R14" s="6"/>
+      <c r="S14" s="85" t="s">
         <v>366</v>
       </c>
       <c r="T14" s="11">
         <v>260</v>
       </c>
+      <c r="V14" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="W14" s="80">
+        <f>T13*0.006241509</f>
+        <v>0.78018862499999997</v>
+      </c>
+      <c r="AB14" s="6"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
@@ -3102,12 +3304,21 @@
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
-      <c r="S15" s="14" t="s">
+      <c r="R15" s="6"/>
+      <c r="S15" s="85" t="s">
         <v>367</v>
       </c>
       <c r="T15" s="11">
         <v>160</v>
       </c>
+      <c r="V15" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="W15" s="80">
+        <f>(T14-T15)*0.006241509/2</f>
+        <v>0.31207545000000003</v>
+      </c>
+      <c r="AB15" s="6"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" s="32">
@@ -3161,15 +3372,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="S16" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="T16" s="80">
-        <f>T13*0.006241509</f>
-        <v>0.78018862499999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R16" s="6"/>
+      <c r="AB16" s="6"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="28">
         <f>J3</f>
         <v>1</v>
@@ -3211,15 +3417,19 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="S17" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="T17" s="80">
-        <f>(T14-T15)*0.006241509/2</f>
-        <v>0.31207545000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R17" s="6"/>
+      <c r="S17" t="s">
+        <v>363</v>
+      </c>
+      <c r="U17" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB17" s="6"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3249,8 +3459,28 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R18" s="6"/>
+      <c r="S18" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="X18" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB18" s="6"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>250</v>
       </c>
@@ -3273,17 +3503,31 @@
         <f>N19</f>
         <v>0.4</v>
       </c>
-      <c r="S19" t="s">
-        <v>363</v>
-      </c>
-      <c r="U19" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R19" s="6"/>
+      <c r="S19" s="86">
+        <f>((D3^2-2*D7*W15*C5/B3)/E3)^(1/2)</f>
+        <v>2.8205267153630094</v>
+      </c>
+      <c r="T19" s="30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U19" s="30">
+        <v>6</v>
+      </c>
+      <c r="V19" s="30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W19" t="s">
+        <v>369</v>
+      </c>
+      <c r="X19" s="26">
+        <f>((W14-2*W15)*D7^2*C5)/(2*E3*B3*(H3-2)^2)</f>
+        <v>1.8324718102141699</v>
+      </c>
+      <c r="Y19" s="11"/>
+      <c r="AB19" s="6"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="J20" s="5" t="s">
         <v>70</v>
       </c>
@@ -3303,26 +3547,31 @@
         <f t="shared" ref="Q20:Q26" si="1">N20</f>
         <v>0.67</v>
       </c>
-      <c r="S20" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="V20" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="X20" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y20" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R20" s="6"/>
+      <c r="S20" s="86">
+        <f>((D3^2-D7*W14*C5/B3)/E3)^(1/2)</f>
+        <v>1.7517932121606123</v>
+      </c>
+      <c r="T20" s="30">
+        <v>1</v>
+      </c>
+      <c r="U20" s="30">
+        <v>2</v>
+      </c>
+      <c r="V20" s="30">
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
+        <v>369</v>
+      </c>
+      <c r="X20" s="26" t="e">
+        <f>((2*W15-W14)*D7^2*C5)/(E3*B3*(H3-6)^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y20" s="11"/>
+      <c r="AB20" s="6"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3346,29 +3595,31 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="S21" s="26">
-        <f>((D3^2-2*D7*T17*C5/B3)/E3)^(1/2)</f>
-        <v>2.8205267153630094</v>
+      <c r="R21" s="6"/>
+      <c r="S21" s="86">
+        <f>((D3^2-9*D7*W14*C5/(8*B3))/E3)^(1/2)</f>
+        <v>0.12107755564807285</v>
       </c>
       <c r="T21" s="30">
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="U21" s="30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V21" s="30">
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="W21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="X21" s="26">
-        <f>((T16-2*T17)*D7^2*C5)/(2*E3*B3*(H3-2)^2)</f>
-        <v>1.8324718102141699</v>
+        <f>(9*W15*D7^2*C5)/(256*E3*B3)</f>
+        <v>4.1230615729818849</v>
       </c>
       <c r="Y21" s="11"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AB21" s="6"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -3392,29 +3643,28 @@
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="S22" s="26">
-        <f>((D3^2-D7*T16*C5/B3)/E3)^(1/2)</f>
-        <v>1.7517932121606123</v>
-      </c>
-      <c r="T22" s="30">
-        <v>1</v>
-      </c>
-      <c r="U22" s="30">
-        <v>2</v>
-      </c>
-      <c r="V22" s="30">
-        <v>1</v>
-      </c>
-      <c r="W22" t="s">
-        <v>369</v>
-      </c>
-      <c r="X22" s="26" t="e">
-        <f>((2*T17-T16)*D7^2*C5)/(E3*B3*(H3-6)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y22" s="11"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R22" s="6"/>
+      <c r="S22" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="X22" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB22" s="6"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3438,29 +3688,13 @@
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="S23" s="26">
-        <f>((D3^2-9*D7*T16*C5/(8*B3))/E3)^(1/2)</f>
-        <v>0.12107755564807285</v>
-      </c>
-      <c r="T23" s="30">
-        <v>1</v>
-      </c>
-      <c r="U23" s="30">
-        <v>1</v>
-      </c>
-      <c r="V23" s="30">
-        <v>1</v>
-      </c>
-      <c r="W23" t="s">
-        <v>368</v>
-      </c>
-      <c r="X23" s="26">
-        <f>(9*T17*D7^2*C5)/(256*E3*B3)</f>
-        <v>4.1230615729818849</v>
-      </c>
-      <c r="Y23" s="11"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R23" s="6"/>
+      <c r="X23" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB23" s="6"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3484,27 +3718,13 @@
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="S24" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="T24" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="U24" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="V24" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="W24" s="81" t="s">
-        <v>374</v>
-      </c>
+      <c r="R24" s="6"/>
       <c r="X24" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y24" s="82"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+        <v>375</v>
+      </c>
+      <c r="AB24" s="6"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -3528,11 +3748,21 @@
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="X25" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R25" s="6"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="81"/>
+      <c r="V25" s="81"/>
+      <c r="W25" s="81"/>
+      <c r="X25" s="81" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="81"/>
+      <c r="AA25" s="81"/>
+      <c r="AB25" s="6"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3556,11 +3786,21 @@
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="X26" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R26" s="18"/>
+      <c r="S26" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3578,11 +3818,20 @@
         <v>266</v>
       </c>
       <c r="Q27" s="20"/>
-      <c r="X27" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R27" s="6"/>
+      <c r="S27" t="s">
+        <v>379</v>
+      </c>
+      <c r="T27" s="48"/>
+      <c r="U27" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="X27" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB27" s="6"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
       <c r="J28" s="7" t="s">
         <v>24</v>
       </c>
@@ -3592,35 +3841,157 @@
       </c>
       <c r="M28" s="5"/>
       <c r="Q28" s="20"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R28" s="6"/>
+      <c r="S28" s="87" t="s">
+        <v>366</v>
+      </c>
+      <c r="T28" s="30">
+        <v>60</v>
+      </c>
+      <c r="U28" s="83">
+        <f>T28*0.006241509</f>
+        <v>0.37449053999999998</v>
+      </c>
+      <c r="W28" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="X28" s="80">
+        <f>(1/9)*(2*U28+U31+2*U29+4*U30)</f>
+        <v>0.21914631600000001</v>
+      </c>
+      <c r="Z28" s="91" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB28" s="6"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="5"/>
       <c r="M29" s="5"/>
       <c r="Q29" s="20"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R29" s="6"/>
+      <c r="S29" s="87" t="s">
+        <v>367</v>
+      </c>
+      <c r="T29" s="30">
+        <v>16</v>
+      </c>
+      <c r="U29" s="83">
+        <f t="shared" ref="U29:U33" si="2">T29*0.006241509</f>
+        <v>9.9864144000000002E-2</v>
+      </c>
+      <c r="W29" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="X29" s="80">
+        <f>(1/2)*(U28-U29)</f>
+        <v>0.137313198</v>
+      </c>
+      <c r="Y29" s="89">
+        <f>U33</f>
+        <v>0.137313198</v>
+      </c>
+      <c r="Z29" s="83">
+        <f>(5/8)*X28+(E3*B3)/(2*Y44^2*C5)*(-20*S40^2+(1/6)*W40*(T40+1)^2+(25/9)*X40*(U40-14/5)^2+(1/9)*Y40*((11/8)*V40^2+(125/12)*V40+115/8))</f>
+        <v>0.11201451639917742</v>
+      </c>
+      <c r="AB29" s="6"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
       <c r="J30" s="5"/>
       <c r="M30" s="5"/>
       <c r="Q30" s="20"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R30" s="6"/>
+      <c r="S30" s="87" t="s">
+        <v>380</v>
+      </c>
+      <c r="T30" s="30">
+        <v>25</v>
+      </c>
+      <c r="U30" s="83">
+        <f t="shared" si="2"/>
+        <v>0.15603772500000002</v>
+      </c>
+      <c r="W30" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="X30" s="80">
+        <f>U32</f>
+        <v>9.9864144000000002E-2</v>
+      </c>
+      <c r="Z30" s="83">
+        <f>(1/2)*X28+(E3*B3)/(2*Y44^2*C5)*(-16*S40^2+(16/9)*X40*(U40-4)^2+(1/9)*Y40*(44*V40^2+(193/12)*V40+17/2))</f>
+        <v>6.0101327925962275E-2</v>
+      </c>
+      <c r="AB30" s="6"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>66</v>
       </c>
       <c r="J31" s="5"/>
       <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R31" s="6"/>
+      <c r="S31" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="T31" s="30">
+        <v>64</v>
+      </c>
+      <c r="U31" s="83">
+        <f t="shared" si="2"/>
+        <v>0.39945657600000001</v>
+      </c>
+      <c r="W31" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="X31" s="80">
+        <f>(1/6)*(U28+2*U31+U29-4*U30)</f>
+        <v>0.10818615599999999</v>
+      </c>
+      <c r="Z31" s="83">
+        <f>(3/4)*X28+(E3*B3)/(2*Y44^2*C5)*(-24*S40^2+4*X40*(U40-2)^2+(1/9)*(Y40*(23/2)*V40+33))</f>
+        <v>0.12064762435635354</v>
+      </c>
+      <c r="AB31" s="6"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>60</v>
       </c>
       <c r="J32" s="5"/>
       <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R32" s="6"/>
+      <c r="S32" s="87" t="s">
+        <v>365</v>
+      </c>
+      <c r="T32" s="30">
+        <v>16</v>
+      </c>
+      <c r="U32" s="83">
+        <f t="shared" si="2"/>
+        <v>9.9864144000000002E-2</v>
+      </c>
+      <c r="W32" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="X32" s="80">
+        <f>(1/3)*(U28-U31+U29-U30)</f>
+        <v>-2.7046539000000012E-2</v>
+      </c>
+      <c r="Z32" s="83">
+        <f>(E3*B3)/(2*Y44^2*C5)*(-(2/9)*Y40*(V40^2+6*V40+3))</f>
+        <v>8.8905040802355131E-3</v>
+      </c>
+      <c r="AA32" s="35">
+        <f>(1/2)*(U28-3*X29-3*X28-X31)</f>
+        <v>-0.40153707900000007</v>
+      </c>
+      <c r="AB32" s="6"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -3630,137 +4001,395 @@
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R33" s="9"/>
+      <c r="S33" s="87" t="s">
+        <v>382</v>
+      </c>
+      <c r="T33" s="30">
+        <v>22</v>
+      </c>
+      <c r="U33" s="83">
+        <f t="shared" si="2"/>
+        <v>0.137313198</v>
+      </c>
+      <c r="AB33" s="6"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>62</v>
       </c>
       <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R34" s="4"/>
+      <c r="Y34" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB34" s="6"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>63</v>
       </c>
       <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R35" s="6"/>
+      <c r="S35" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="T35" s="30">
+        <v>1345</v>
+      </c>
+      <c r="U35" t="s">
+        <v>406</v>
+      </c>
+      <c r="X35" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y35" s="80">
+        <f>0.0103636*285</f>
+        <v>2.9536260000000003</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB35" s="6"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>64</v>
       </c>
       <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R36" s="6"/>
+      <c r="S36" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="T36" s="80">
+        <f>V36</f>
+        <v>1.159031323739</v>
+      </c>
+      <c r="U36" s="83">
+        <f>B3*(1-(23/24)*E3+(1/24)*E3*(W40+(2/3)*X40+Y40))</f>
+        <v>1.159031323739</v>
+      </c>
+      <c r="V36" s="92">
+        <f>T35*10*0.00008617333262</f>
+        <v>1.159031323739</v>
+      </c>
+      <c r="X36" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y36" s="80">
+        <f>Y35*1.16</f>
+        <v>3.42620616</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB36" s="23"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>65</v>
       </c>
       <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R37" s="6"/>
+      <c r="AB37" s="6"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
       <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R38" s="6"/>
+      <c r="S38" s="82" t="s">
+        <v>363</v>
+      </c>
+      <c r="T38" t="s">
+        <v>394</v>
+      </c>
+      <c r="V38" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA38" s="81"/>
+      <c r="AB38" s="6"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>110</v>
       </c>
       <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R39" s="6"/>
+      <c r="S39" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="T39" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="U39" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="V39" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="W39" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X39" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y39" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA39" s="82"/>
+      <c r="AB39" s="6"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>111</v>
       </c>
       <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R40" s="6"/>
+      <c r="S40" s="93">
+        <v>1.3</v>
+      </c>
+      <c r="T40" s="94">
+        <v>0</v>
+      </c>
+      <c r="U40" s="86">
+        <f>(8-6*U44^0.5)/(2-3*U44^0.5)</f>
+        <v>1.1580277736423858</v>
+      </c>
+      <c r="V40" s="26">
+        <v>3</v>
+      </c>
+      <c r="W40" s="26">
+        <f>(24/E3)*(T36/B3-1+23/24*E3)-(2/3)*X40-Y40</f>
+        <v>3.2493338377304091</v>
+      </c>
+      <c r="X40" s="26">
+        <f>((3/8)*(2*Y44^2*C5/(E3*B3))*(2*X31-3*X30)+Y40*((4/3)*V40^2+(101/36)*V40-9/2))/(U40^2+4*U40-20)</f>
+        <v>2.8030558187340522</v>
+      </c>
+      <c r="Y40" s="26">
+        <v>-1</v>
+      </c>
+      <c r="AA40" s="81"/>
+      <c r="AB40" s="6"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>112</v>
       </c>
       <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R41" s="6"/>
+      <c r="S41" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="T41" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="U41" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="V41" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y41" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA41" s="81"/>
+      <c r="AB41" s="6"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>113</v>
       </c>
       <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R42" s="6"/>
+      <c r="T42" s="82"/>
+      <c r="Y42" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB42" s="6"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>114</v>
       </c>
       <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R43" s="6"/>
+      <c r="U43" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="V43" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="W43" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y43" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA43" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB43" s="6"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
       <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R44" s="6"/>
+      <c r="T44" s="81"/>
+      <c r="U44" s="80">
+        <f>V44/W44</f>
+        <v>5.0636258564948902</v>
+      </c>
+      <c r="V44" s="80">
+        <f>(2*Y44^2*C5)/(E3*B3)*(X30-(1/2)*X28)+16*S40^2-(1/9)*Y40*(4*V40^2+(193/12)*V40+17/2)</f>
+        <v>30.065117976780456</v>
+      </c>
+      <c r="W44" s="80">
+        <f>(2*Y44^2*C5)/(E3*B3)*(X31-(3/4)*X28)+24*S40^2-(1/9)*Y40*((23/2)*V40+33)</f>
+        <v>5.9374682942297667</v>
+      </c>
+      <c r="Y44" s="80">
+        <f>12*EXP(Y40/864)</f>
+        <v>11.986119145562542</v>
+      </c>
+      <c r="AA44" s="26">
+        <f>(2^0.5*C5)^(1/3)</f>
+        <v>2.4900000000000007</v>
+      </c>
+      <c r="AB44" s="6"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>115</v>
       </c>
       <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R45" s="6"/>
+      <c r="T45" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB45" s="6"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>116</v>
       </c>
       <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R46" s="6"/>
+      <c r="S46" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="T46" s="26">
+        <f>B3*(1-(23/24)*E3+(1/24)*E3*(W40+(2/3)*X40+Y40))</f>
+        <v>1.159031323739</v>
+      </c>
+      <c r="U46" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB46" s="6"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>117</v>
       </c>
       <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R47" s="6"/>
+      <c r="S47" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="T47" s="90">
+        <f>(1/6)*B3*(1-1.139*E3-0.0378*E3*(W40-(17/15)*X40-(7/10)*Y40))</f>
+        <v>-7.2764763382073508E-2</v>
+      </c>
+      <c r="U47" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB47" s="6"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>118</v>
       </c>
       <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="R48" s="6"/>
+      <c r="S48" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="T48" s="26">
+        <f>(-E3*B3)/(216*3^0.5*C3^2)*Y40</f>
+        <v>1.803328273692871E-3</v>
+      </c>
+      <c r="U48" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB48" s="6"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>119</v>
       </c>
       <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="R49" s="6"/>
+      <c r="S49" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="T49" s="26">
+        <f>(B3/(2*3^0.5*C3^2))*(1+3*LN(3/4)*E3+(1/9)*(1+LN(3/4))*E3*(W40+(1/4)*X40+(1/2)*Y40))</f>
+        <v>9.2286088402253566E-2</v>
+      </c>
+      <c r="U49" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB49" s="6"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>120</v>
       </c>
       <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="R50" s="6"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.4">
       <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="R51" s="6"/>
+      <c r="S51" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="9"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>121</v>
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>122</v>
       </c>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>129</v>
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>130</v>
       </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
         <v>128</v>
       </c>
@@ -3775,17 +4404,17 @@
       <c r="Y56"/>
       <c r="Z56"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
         <v>235</v>
       </c>
@@ -3802,7 +4431,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>13</v>
       </c>
@@ -3819,7 +4448,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
         <v>12</v>
       </c>
@@ -3833,7 +4462,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B63" s="56" t="s">
         <v>273</v>
       </c>
@@ -3843,7 +4472,7 @@
       </c>
       <c r="K63" s="64"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A64" s="47" t="s">
         <v>296</v>
       </c>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7717BDC9-B84E-4664-8B61-76204F23A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7233EB47-AADF-43FD-8747-70DB4268886B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="210" windowWidth="23355" windowHeight="14700" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="210" yWindow="435" windowWidth="20325" windowHeight="14835" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="423">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -1768,6 +1768,46 @@
   </si>
   <si>
     <t>Ref: M. I. Baskes, Phys. Rev. B 46 (1992) 2727.: https://journals.aps.org/prb/abstract/10.1103/PhysRevB.46.2727</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>For gas phase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the diatomic force constant, K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K [eV/A]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assumption (beta1 = beta3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shear elastic constants.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: Eij = (Ei+Ej)/2 - Del</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Del = de Boer method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ec_IJ = (Ec_II + Ec_JJ)/2 - delta_IJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha(I,J) = (alpha(I)+alpha(J))/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>re(I,J) is calculated from the assumed equilibrium intermetallic atomic volume Omega(I,J) = (Omega(I) +Omega(J) )/2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2073,7 +2113,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2317,12 +2357,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2347,9 +2381,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2357,6 +2388,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2675,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3194,14 +3228,20 @@
         <v>b2</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="85" t="s">
+      <c r="S13" s="83" t="s">
         <v>365</v>
       </c>
       <c r="T13" s="11">
         <v>125</v>
       </c>
+      <c r="V13" t="s">
+        <v>417</v>
+      </c>
       <c r="W13" s="35" t="s">
         <v>389</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>413</v>
       </c>
       <c r="AB13" s="6"/>
     </row>
@@ -3246,7 +3286,7 @@
         <v>6.4</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="85" t="s">
+      <c r="S14" s="83" t="s">
         <v>366</v>
       </c>
       <c r="T14" s="11">
@@ -3258,6 +3298,15 @@
       <c r="W14" s="80">
         <f>T13*0.006241509</f>
         <v>0.78018862499999997</v>
+      </c>
+      <c r="Y14" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>414</v>
       </c>
       <c r="AB14" s="6"/>
     </row>
@@ -3305,7 +3354,7 @@
         <v>2.72</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="85" t="s">
+      <c r="S15" s="83" t="s">
         <v>367</v>
       </c>
       <c r="T15" s="11">
@@ -3317,6 +3366,13 @@
       <c r="W15" s="80">
         <f>(T14-T15)*0.006241509/2</f>
         <v>0.31207545000000003</v>
+      </c>
+      <c r="Y15" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="80">
+        <f>(Z14/B3)^0.5*C3</f>
+        <v>1.1803732032185432</v>
       </c>
       <c r="AB15" s="6"/>
     </row>
@@ -3422,9 +3478,9 @@
         <v>363</v>
       </c>
       <c r="U17" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y17" t="s">
+        <v>416</v>
+      </c>
+      <c r="X17" t="s">
         <v>264</v>
       </c>
       <c r="AB17" s="6"/>
@@ -3472,10 +3528,13 @@
       <c r="V18" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X18" s="35" t="s">
+      <c r="X18" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="Y18" s="39" t="s">
+      <c r="Z18" s="39" t="s">
         <v>11</v>
       </c>
       <c r="AB18" s="6"/>
@@ -3504,7 +3563,7 @@
         <v>0.4</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="86">
+      <c r="S19" s="84">
         <f>((D3^2-2*D7*W15*C5/B3)/E3)^(1/2)</f>
         <v>2.8205267153630094</v>
       </c>
@@ -3520,11 +3579,12 @@
       <c r="W19" t="s">
         <v>369</v>
       </c>
-      <c r="X19" s="26">
+      <c r="X19" s="11"/>
+      <c r="Y19" s="26">
         <f>((W14-2*W15)*D7^2*C5)/(2*E3*B3*(H3-2)^2)</f>
         <v>1.8324718102141699</v>
       </c>
-      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
       <c r="AB19" s="6"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.4">
@@ -3548,7 +3608,7 @@
         <v>0.67</v>
       </c>
       <c r="R20" s="6"/>
-      <c r="S20" s="86">
+      <c r="S20" s="84">
         <f>((D3^2-D7*W14*C5/B3)/E3)^(1/2)</f>
         <v>1.7517932121606123</v>
       </c>
@@ -3564,11 +3624,12 @@
       <c r="W20" t="s">
         <v>369</v>
       </c>
-      <c r="X20" s="26" t="e">
+      <c r="X20" s="11"/>
+      <c r="Y20" s="26" t="e">
         <f>((2*W15-W14)*D7^2*C5)/(E3*B3*(H3-6)^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
       <c r="AB20" s="6"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.4">
@@ -3596,7 +3657,7 @@
         <v>0.6</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="86">
+      <c r="S21" s="84">
         <f>((D3^2-9*D7*W14*C5/(8*B3))/E3)^(1/2)</f>
         <v>0.12107755564807285</v>
       </c>
@@ -3612,11 +3673,12 @@
       <c r="W21" t="s">
         <v>368</v>
       </c>
-      <c r="X21" s="26">
+      <c r="X21" s="11"/>
+      <c r="Y21" s="26">
         <f>(9*W15*D7^2*C5)/(256*E3*B3)</f>
         <v>4.1230615729818849</v>
       </c>
-      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
       <c r="AB21" s="6"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.4">
@@ -3719,6 +3781,9 @@
         <v>1.7</v>
       </c>
       <c r="R24" s="6"/>
+      <c r="S24" t="s">
+        <v>418</v>
+      </c>
       <c r="X24" t="s">
         <v>375</v>
       </c>
@@ -3749,17 +3814,12 @@
         <v>1.9</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="81"/>
-      <c r="V25" s="81"/>
-      <c r="W25" s="81"/>
-      <c r="X25" s="81" t="s">
+      <c r="S25" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="X25" t="s">
         <v>378</v>
       </c>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="81"/>
-      <c r="AA25" s="81"/>
       <c r="AB25" s="6"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.4">
@@ -3823,10 +3883,10 @@
         <v>379</v>
       </c>
       <c r="T27" s="48"/>
-      <c r="U27" s="84" t="s">
+      <c r="U27" s="82" t="s">
         <v>389</v>
       </c>
-      <c r="X27" s="84" t="s">
+      <c r="X27" s="82" t="s">
         <v>389</v>
       </c>
       <c r="AB27" s="6"/>
@@ -3842,13 +3902,13 @@
       <c r="M28" s="5"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="87" t="s">
+      <c r="S28" s="85" t="s">
         <v>366</v>
       </c>
       <c r="T28" s="30">
         <v>60</v>
       </c>
-      <c r="U28" s="83">
+      <c r="U28" s="81">
         <f>T28*0.006241509</f>
         <v>0.37449053999999998</v>
       </c>
@@ -3859,7 +3919,7 @@
         <f>(1/9)*(2*U28+U31+2*U29+4*U30)</f>
         <v>0.21914631600000001</v>
       </c>
-      <c r="Z28" s="91" t="s">
+      <c r="Z28" s="11" t="s">
         <v>395</v>
       </c>
       <c r="AB28" s="6"/>
@@ -3872,13 +3932,13 @@
       <c r="M29" s="5"/>
       <c r="Q29" s="20"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="87" t="s">
+      <c r="S29" s="85" t="s">
         <v>367</v>
       </c>
       <c r="T29" s="30">
         <v>16</v>
       </c>
-      <c r="U29" s="83">
+      <c r="U29" s="81">
         <f t="shared" ref="U29:U33" si="2">T29*0.006241509</f>
         <v>9.9864144000000002E-2</v>
       </c>
@@ -3889,11 +3949,11 @@
         <f>(1/2)*(U28-U29)</f>
         <v>0.137313198</v>
       </c>
-      <c r="Y29" s="89">
+      <c r="Y29" s="87">
         <f>U33</f>
         <v>0.137313198</v>
       </c>
-      <c r="Z29" s="83">
+      <c r="Z29" s="81">
         <f>(5/8)*X28+(E3*B3)/(2*Y44^2*C5)*(-20*S40^2+(1/6)*W40*(T40+1)^2+(25/9)*X40*(U40-14/5)^2+(1/9)*Y40*((11/8)*V40^2+(125/12)*V40+115/8))</f>
         <v>0.11201451639917742</v>
       </c>
@@ -3904,13 +3964,13 @@
       <c r="M30" s="5"/>
       <c r="Q30" s="20"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="87" t="s">
+      <c r="S30" s="85" t="s">
         <v>380</v>
       </c>
       <c r="T30" s="30">
         <v>25</v>
       </c>
-      <c r="U30" s="83">
+      <c r="U30" s="81">
         <f t="shared" si="2"/>
         <v>0.15603772500000002</v>
       </c>
@@ -3921,7 +3981,7 @@
         <f>U32</f>
         <v>9.9864144000000002E-2</v>
       </c>
-      <c r="Z30" s="83">
+      <c r="Z30" s="81">
         <f>(1/2)*X28+(E3*B3)/(2*Y44^2*C5)*(-16*S40^2+(16/9)*X40*(U40-4)^2+(1/9)*Y40*(44*V40^2+(193/12)*V40+17/2))</f>
         <v>6.0101327925962275E-2</v>
       </c>
@@ -3934,13 +3994,13 @@
       <c r="J31" s="5"/>
       <c r="M31" s="5"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="87" t="s">
+      <c r="S31" s="85" t="s">
         <v>381</v>
       </c>
       <c r="T31" s="30">
         <v>64</v>
       </c>
-      <c r="U31" s="83">
+      <c r="U31" s="81">
         <f t="shared" si="2"/>
         <v>0.39945657600000001</v>
       </c>
@@ -3951,7 +4011,7 @@
         <f>(1/6)*(U28+2*U31+U29-4*U30)</f>
         <v>0.10818615599999999</v>
       </c>
-      <c r="Z31" s="83">
+      <c r="Z31" s="81">
         <f>(3/4)*X28+(E3*B3)/(2*Y44^2*C5)*(-24*S40^2+4*X40*(U40-2)^2+(1/9)*(Y40*(23/2)*V40+33))</f>
         <v>0.12064762435635354</v>
       </c>
@@ -3964,13 +4024,13 @@
       <c r="J32" s="5"/>
       <c r="M32" s="5"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="87" t="s">
+      <c r="S32" s="85" t="s">
         <v>365</v>
       </c>
       <c r="T32" s="30">
         <v>16</v>
       </c>
-      <c r="U32" s="83">
+      <c r="U32" s="81">
         <f t="shared" si="2"/>
         <v>9.9864144000000002E-2</v>
       </c>
@@ -3981,7 +4041,7 @@
         <f>(1/3)*(U28-U31+U29-U30)</f>
         <v>-2.7046539000000012E-2</v>
       </c>
-      <c r="Z32" s="83">
+      <c r="Z32" s="81">
         <f>(E3*B3)/(2*Y44^2*C5)*(-(2/9)*Y40*(V40^2+6*V40+3))</f>
         <v>8.8905040802355131E-3</v>
       </c>
@@ -4002,13 +4062,13 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="87" t="s">
+      <c r="S33" s="85" t="s">
         <v>382</v>
       </c>
       <c r="T33" s="30">
         <v>22</v>
       </c>
-      <c r="U33" s="83">
+      <c r="U33" s="81">
         <f t="shared" si="2"/>
         <v>0.137313198</v>
       </c>
@@ -4061,18 +4121,18 @@
       </c>
       <c r="J36" s="5"/>
       <c r="R36" s="6"/>
-      <c r="S36" s="85" t="s">
+      <c r="S36" s="83" t="s">
         <v>388</v>
       </c>
       <c r="T36" s="80">
         <f>V36</f>
         <v>1.159031323739</v>
       </c>
-      <c r="U36" s="83">
+      <c r="U36" s="81">
         <f>B3*(1-(23/24)*E3+(1/24)*E3*(W40+(2/3)*X40+Y40))</f>
         <v>1.159031323739</v>
       </c>
-      <c r="V36" s="92">
+      <c r="V36" s="89">
         <f>T35*10*0.00008617333262</f>
         <v>1.159031323739</v>
       </c>
@@ -4099,7 +4159,7 @@
     <row r="38" spans="1:28" x14ac:dyDescent="0.4">
       <c r="J38" s="5"/>
       <c r="R38" s="6"/>
-      <c r="S38" s="82" t="s">
+      <c r="S38" t="s">
         <v>363</v>
       </c>
       <c r="T38" t="s">
@@ -4108,7 +4168,6 @@
       <c r="V38" t="s">
         <v>387</v>
       </c>
-      <c r="AA38" s="81"/>
       <c r="AB38" s="6"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.4">
@@ -4117,7 +4176,7 @@
       </c>
       <c r="J39" s="5"/>
       <c r="R39" s="6"/>
-      <c r="S39" s="88" t="s">
+      <c r="S39" s="86" t="s">
         <v>4</v>
       </c>
       <c r="T39" s="33" t="s">
@@ -4138,7 +4197,6 @@
       <c r="Y39" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="AA39" s="82"/>
       <c r="AB39" s="6"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.4">
@@ -4147,13 +4205,13 @@
       </c>
       <c r="J40" s="5"/>
       <c r="R40" s="6"/>
-      <c r="S40" s="93">
+      <c r="S40" s="90">
         <v>1.3</v>
       </c>
-      <c r="T40" s="94">
+      <c r="T40" s="91">
         <v>0</v>
       </c>
-      <c r="U40" s="86">
+      <c r="U40" s="84">
         <f>(8-6*U44^0.5)/(2-3*U44^0.5)</f>
         <v>1.1580277736423858</v>
       </c>
@@ -4171,7 +4229,6 @@
       <c r="Y40" s="26">
         <v>-1</v>
       </c>
-      <c r="AA40" s="81"/>
       <c r="AB40" s="6"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.4">
@@ -4195,7 +4252,6 @@
       <c r="Y41" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="AA41" s="81"/>
       <c r="AB41" s="6"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.4">
@@ -4204,7 +4260,6 @@
       </c>
       <c r="J42" s="5"/>
       <c r="R42" s="6"/>
-      <c r="T42" s="82"/>
       <c r="Y42" t="s">
         <v>396</v>
       </c>
@@ -4236,7 +4291,6 @@
     <row r="44" spans="1:28" x14ac:dyDescent="0.4">
       <c r="J44" s="5"/>
       <c r="R44" s="6"/>
-      <c r="T44" s="81"/>
       <c r="U44" s="80">
         <f>V44/W44</f>
         <v>5.0636258564948902</v>
@@ -4297,7 +4351,7 @@
       <c r="S47" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="T47" s="90">
+      <c r="T47" s="88">
         <f>(1/6)*B3*(1-1.139*E3-0.0378*E3*(W40-(17/15)*X40-(7/10)*Y40))</f>
         <v>-7.2764763382073508E-2</v>
       </c>
@@ -4348,6 +4402,7 @@
       </c>
       <c r="J50" s="5"/>
       <c r="R50" s="6"/>
+      <c r="AB50" s="6"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.4">
       <c r="J51" s="5"/>
@@ -4370,24 +4425,40 @@
         <v>121</v>
       </c>
       <c r="J52" s="5"/>
+      <c r="S52" s="92" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB52" s="6"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>122</v>
       </c>
       <c r="J53" s="5"/>
+      <c r="S53" s="67" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB53" s="6"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>129</v>
       </c>
       <c r="J54" s="5"/>
+      <c r="S54" s="67" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB54" s="6"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>130</v>
       </c>
       <c r="J55" s="5"/>
+      <c r="S55" s="67" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB55" s="6"/>
     </row>
     <row r="56" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
@@ -4395,14 +4466,11 @@
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="7"/>
-      <c r="S56"/>
-      <c r="T56"/>
-      <c r="U56"/>
-      <c r="V56"/>
-      <c r="W56"/>
-      <c r="X56"/>
-      <c r="Y56"/>
-      <c r="Z56"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB56" s="9"/>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A57" t="s">

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7233EB47-AADF-43FD-8747-70DB4268886B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43176AB-FF54-4A0A-80D1-2EFD304F0CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="435" windowWidth="20325" windowHeight="14835" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="705" yWindow="150" windowWidth="19710" windowHeight="14880" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="430">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -1731,10 +1731,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Eusf [eV]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Gub [eV]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1759,10 +1755,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Note: A = 1.0-1.2 range</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ref: M. I. Baskes et al., Modelling Simul. Mater. Sci. Eng. 2 (1994) 147-163.: https://iopscience.iop.org/article/10.1088/0965-0393/2/1/011</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1808,6 +1800,42 @@
   </si>
   <si>
     <t>re(I,J) is calculated from the assumed equilibrium intermetallic atomic volume Omega(I,J) = (Omega(I) +Omega(J) )/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>La [A]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DFT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eusf [eVA^2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eusf [eV/A^2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- including energy correct</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: A = 1.0-1.2 range, BCC-HCP energy difference</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC+AC: (FCC*3+HCP*2 - FCC*5)/Area*(3/5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACA+BC: -1.0*(HCP*3+FCC*2 - HCP*5))/Area*(3/5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: A: FCC-BCC energy difference</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1862,7 +1890,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1926,6 +1954,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2113,7 +2147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2366,9 +2400,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2384,13 +2415,25 @@
     <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2707,10 +2750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
-  <dimension ref="A1:AB99"/>
+  <dimension ref="A1:AG99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="R11" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2729,7 +2772,7 @@
     <col min="22" max="22" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>30</v>
       </c>
@@ -2763,7 +2806,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -2825,7 +2868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>165</v>
       </c>
@@ -2888,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="C4" s="35" t="s">
         <v>364</v>
@@ -2920,7 +2963,7 @@
       </c>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="C5" s="11">
         <f>IF(OR(C7="fcc", C7="l12"), ((C3*SQRT(2))^3/4), IF(OR(C7="bcc", C7="b2"), ((C3*2/SQRT(3))^3/2), IF(C7="hcp", (SQRT(3)/2*J7*(C3)^3/2), IF(C7="dim", "", IF(C7="dia", ((C3*E7)^3/8), IF(C7="b1", ((C3*2)^3/8), IF(C7="l12", ((C3*SQRT(2))^3/4), IF(C7="sc", ((C3)^3/1), ""))))))))</f>
         <v>10.916490557546441</v>
@@ -2970,7 +3013,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="35" t="s">
         <v>19</v>
       </c>
@@ -3004,7 +3047,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="35">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 2, FALSE), "")</f>
         <v>28</v>
@@ -3056,7 +3099,7 @@
       </c>
       <c r="AB7" s="6"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -3068,7 +3111,7 @@
       </c>
       <c r="AB8" s="6"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>234</v>
       </c>
@@ -3083,7 +3126,7 @@
       </c>
       <c r="AB9" s="6"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="M10" s="5"/>
       <c r="P10" s="2" t="s">
         <v>71</v>
@@ -3101,7 +3144,7 @@
       <c r="AA10" s="8"/>
       <c r="AB10" s="9"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="41" t="s">
         <v>21</v>
       </c>
@@ -3136,9 +3179,12 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB11" s="89"/>
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="89"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -3180,9 +3226,17 @@
       <c r="S12" t="s">
         <v>360</v>
       </c>
-      <c r="AB12" s="4"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="Y12" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3229,23 +3283,30 @@
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="83" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T13" s="11">
-        <v>125</v>
+        <v>15.9</v>
       </c>
       <c r="V13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="W13" s="35" t="s">
         <v>389</v>
       </c>
       <c r="Y13" t="s">
-        <v>413</v>
-      </c>
-      <c r="AB13" s="6"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+        <v>412</v>
+      </c>
+      <c r="AB13" s="89" t="s">
+        <v>405</v>
+      </c>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="89"/>
+      <c r="AF13" s="89"/>
+      <c r="AG13" s="89"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
@@ -3287,30 +3348,36 @@
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="83" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="T14" s="11">
-        <v>260</v>
+        <v>6.1</v>
       </c>
       <c r="V14" s="35" t="s">
         <v>361</v>
       </c>
       <c r="W14" s="80">
-        <f>T13*0.006241509</f>
-        <v>0.78018862499999997</v>
+        <f>T15*0.006241509</f>
+        <v>3.0583394100000001E-2</v>
       </c>
       <c r="Y14" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Z14" s="11">
         <v>1</v>
       </c>
-      <c r="AA14" t="s">
-        <v>414</v>
-      </c>
-      <c r="AB14" s="6"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB14" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC14" s="30">
+        <v>1000</v>
+      </c>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="89"/>
+      <c r="AF14" s="89"/>
+      <c r="AG14" s="89"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
         <v>Ni</v>
@@ -3355,17 +3422,17 @@
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="83" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T15" s="11">
-        <v>160</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V15" s="35" t="s">
         <v>362</v>
       </c>
       <c r="W15" s="80">
-        <f>(T14-T15)*0.006241509/2</f>
-        <v>0.31207545000000003</v>
+        <f>(T13-T14)*0.006241509/2</f>
+        <v>3.0583394100000001E-2</v>
       </c>
       <c r="Y15" s="35" t="s">
         <v>2</v>
@@ -3374,9 +3441,21 @@
         <f>(Z14/B3)^0.5*C3</f>
         <v>1.1803732032185432</v>
       </c>
-      <c r="AB15" s="6"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB15" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC15" s="80">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="AD15" s="88">
+        <f>AC14*10*0.00008617333262</f>
+        <v>0.86173332619999998</v>
+      </c>
+      <c r="AE15" s="89"/>
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="89"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="32">
         <f>D3</f>
         <v>5.0844500894425755</v>
@@ -3429,9 +3508,14 @@
         <v>5</v>
       </c>
       <c r="R16" s="6"/>
-      <c r="AB16" s="6"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="89"/>
+      <c r="AF16" s="89"/>
+      <c r="AG16" s="89"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="28">
         <f>J3</f>
         <v>1</v>
@@ -3478,14 +3562,25 @@
         <v>363</v>
       </c>
       <c r="U17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="X17" t="s">
         <v>264</v>
       </c>
-      <c r="AB17" s="6"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB17" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC17" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD17" s="94" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="89"/>
+      <c r="AG17" s="89"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3528,7 +3623,7 @@
       <c r="V18" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X18" s="39" t="s">
+      <c r="X18" s="35" t="s">
         <v>9</v>
       </c>
       <c r="Y18" s="35" t="s">
@@ -3537,9 +3632,18 @@
       <c r="Z18" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="AB18" s="6"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB18" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC18" s="11">
+        <v>2.4740000000000002</v>
+      </c>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="89"/>
+      <c r="AG18" s="89"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>250</v>
       </c>
@@ -3563,9 +3667,9 @@
         <v>0.4</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="84">
+      <c r="S19" s="90">
         <f>((D3^2-2*D7*W15*C5/B3)/E3)^(1/2)</f>
-        <v>2.8205267153630094</v>
+        <v>5.0582796543967126</v>
       </c>
       <c r="T19" s="30">
         <v>2.2000000000000002</v>
@@ -3579,15 +3683,32 @@
       <c r="W19" t="s">
         <v>369</v>
       </c>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="26">
+      <c r="X19" s="25">
+        <f>(24/E3)*(AC15/B3-1+23/24*E3)-(2/3)*Y19-Z19</f>
+        <v>-0.58562872933724641</v>
+      </c>
+      <c r="Y19" s="25">
         <f>((W14-2*W15)*D7^2*C5)/(2*E3*B3*(H3-2)^2)</f>
-        <v>1.8324718102141699</v>
-      </c>
-      <c r="Z19" s="11"/>
-      <c r="AB19" s="6"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+        <v>-0.35916447480197755</v>
+      </c>
+      <c r="Z19" s="25">
+        <f>AB22/((-E3*B3)/(216*3^0.5*C3^2))</f>
+        <v>3.2388895466289291</v>
+      </c>
+      <c r="AB19" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC19" s="11">
+        <v>-5.7539999999999996</v>
+      </c>
+      <c r="AD19" s="11">
+        <v>-5.7797999999999998</v>
+      </c>
+      <c r="AE19" s="89"/>
+      <c r="AF19" s="89"/>
+      <c r="AG19" s="89"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="J20" s="5" t="s">
         <v>70</v>
       </c>
@@ -3608,9 +3729,9 @@
         <v>0.67</v>
       </c>
       <c r="R20" s="6"/>
-      <c r="S20" s="84">
+      <c r="S20" s="90">
         <f>((D3^2-D7*W14*C5/B3)/E3)^(1/2)</f>
-        <v>1.7517932121606123</v>
+        <v>5.1520835586089824</v>
       </c>
       <c r="T20" s="30">
         <v>1</v>
@@ -3624,15 +3745,24 @@
       <c r="W20" t="s">
         <v>369</v>
       </c>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="26" t="e">
+      <c r="X20" s="25" t="e">
+        <f>(24/E3)*(AC15/B3-1+23/24*E3)-(2/3)*Y20-Z20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y20" s="25" t="e">
         <f>((2*W15-W14)*D7^2*C5)/(E3*B3*(H3-6)^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z20" s="11"/>
-      <c r="AB20" s="6"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="Z20" s="25">
+        <f>AB22/((-E3*B3)/(216*3^0.5*C3^2))</f>
+        <v>3.2388895466289291</v>
+      </c>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="89"/>
+      <c r="AF20" s="89"/>
+      <c r="AG20" s="89"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3657,9 +3787,9 @@
         <v>0.6</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="84">
+      <c r="S21" s="90">
         <f>((D3^2-9*D7*W14*C5/(8*B3))/E3)^(1/2)</f>
-        <v>0.12107755564807285</v>
+        <v>5.140451682808461</v>
       </c>
       <c r="T21" s="30">
         <v>1</v>
@@ -3673,15 +3803,30 @@
       <c r="W21" t="s">
         <v>368</v>
       </c>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="26">
+      <c r="X21" s="25">
+        <f>(24/E3)*(AC15/B3-1+23/24*E3)-(2/3)*Y21-Z21</f>
+        <v>-1.0944450686400482</v>
+      </c>
+      <c r="Y21" s="25">
         <f>(9*W15*D7^2*C5)/(256*E3*B3)</f>
-        <v>4.1230615729818849</v>
-      </c>
-      <c r="Z21" s="11"/>
-      <c r="AB21" s="6"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+        <v>0.40406003415222475</v>
+      </c>
+      <c r="Z21" s="25">
+        <f>AB22/((-E3*B3)/(216*3^0.5*C3^2))</f>
+        <v>3.2388895466289291</v>
+      </c>
+      <c r="AB21" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>427</v>
+      </c>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="89"/>
+      <c r="AF21" s="89"/>
+      <c r="AG21" s="89"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -3724,9 +3869,19 @@
       <c r="X22" t="s">
         <v>376</v>
       </c>
-      <c r="AB22" s="6"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB22" s="11">
+        <f>(AD19*2-AC19*2)/(3^0.5/2*AC18^2)*(3/5)</f>
+        <v>-5.8407810948042319E-3</v>
+      </c>
+      <c r="AC22" s="89" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="89"/>
+      <c r="AF22" s="89"/>
+      <c r="AG22" s="89"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3751,12 +3906,19 @@
         <v>2.8</v>
       </c>
       <c r="R23" s="6"/>
+      <c r="S23" t="s">
+        <v>429</v>
+      </c>
       <c r="X23" t="s">
         <v>377</v>
       </c>
-      <c r="AB23" s="6"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="89"/>
+      <c r="AF23" s="89"/>
+      <c r="AG23" s="89"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3782,14 +3944,19 @@
       </c>
       <c r="R24" s="6"/>
       <c r="S24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="X24" t="s">
         <v>375</v>
       </c>
-      <c r="AB24" s="6"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="89"/>
+      <c r="AF24" s="89"/>
+      <c r="AG24" s="89"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -3815,14 +3982,19 @@
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="X25" t="s">
         <v>378</v>
       </c>
-      <c r="AB25" s="6"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="89"/>
+      <c r="AF25" s="89"/>
+      <c r="AG25" s="89"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3848,7 +4020,7 @@
       </c>
       <c r="R26" s="18"/>
       <c r="S26" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
@@ -3858,9 +4030,14 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="89"/>
+      <c r="AF26" s="89"/>
+      <c r="AG26" s="89"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3889,9 +4066,14 @@
       <c r="X27" s="82" t="s">
         <v>389</v>
       </c>
-      <c r="AB27" s="6"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="89"/>
+      <c r="AF27" s="89"/>
+      <c r="AG27" s="89"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
       <c r="J28" s="7" t="s">
         <v>24</v>
       </c>
@@ -3902,7 +4084,7 @@
       <c r="M28" s="5"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="85" t="s">
+      <c r="S28" s="84" t="s">
         <v>366</v>
       </c>
       <c r="T28" s="30">
@@ -3922,9 +4104,13 @@
       <c r="Z28" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="AB28" s="6"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB28" s="89"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="89"/>
+      <c r="AF28" s="89"/>
+      <c r="AG28" s="89"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -3932,7 +4118,7 @@
       <c r="M29" s="5"/>
       <c r="Q29" s="20"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="85" t="s">
+      <c r="S29" s="84" t="s">
         <v>367</v>
       </c>
       <c r="T29" s="30">
@@ -3949,22 +4135,26 @@
         <f>(1/2)*(U28-U29)</f>
         <v>0.137313198</v>
       </c>
-      <c r="Y29" s="87">
+      <c r="Y29" s="86">
         <f>U33</f>
         <v>0.137313198</v>
       </c>
       <c r="Z29" s="81">
-        <f>(5/8)*X28+(E3*B3)/(2*Y44^2*C5)*(-20*S40^2+(1/6)*W40*(T40+1)^2+(25/9)*X40*(U40-14/5)^2+(1/9)*Y40*((11/8)*V40^2+(125/12)*V40+115/8))</f>
-        <v>0.11201451639917742</v>
-      </c>
-      <c r="AB29" s="6"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
+        <f>(5/8)*X28+(E3*B3)/(2*Y44^2*C5)*(-20*S40^2+(1/6)*X40*(T40+1)^2+(25/9)*Y40*(U40-14/5)^2+(1/9)*Z40*((11/8)*V40^2+(125/12)*V40+115/8))</f>
+        <v>0.11180968791173936</v>
+      </c>
+      <c r="AB29" s="89"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="89"/>
+      <c r="AF29" s="89"/>
+      <c r="AG29" s="89"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.4">
       <c r="J30" s="5"/>
       <c r="M30" s="5"/>
       <c r="Q30" s="20"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="85" t="s">
+      <c r="S30" s="84" t="s">
         <v>380</v>
       </c>
       <c r="T30" s="30">
@@ -3982,19 +4172,23 @@
         <v>9.9864144000000002E-2</v>
       </c>
       <c r="Z30" s="81">
-        <f>(1/2)*X28+(E3*B3)/(2*Y44^2*C5)*(-16*S40^2+(16/9)*X40*(U40-4)^2+(1/9)*Y40*(44*V40^2+(193/12)*V40+17/2))</f>
-        <v>6.0101327925962275E-2</v>
-      </c>
-      <c r="AB30" s="6"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+        <f>(1/2)*X28+(E3*B3)/(2*Y44^2*C5)*(-16*S40^2+(16/9)*Y40*(U40-4)^2+(1/9)*Z40*(44*V40^2+(193/12)*V40+17/2))</f>
+        <v>6.0625645302695257E-2</v>
+      </c>
+      <c r="AB30" s="89"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="89"/>
+      <c r="AF30" s="89"/>
+      <c r="AG30" s="89"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>66</v>
       </c>
       <c r="J31" s="5"/>
       <c r="M31" s="5"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="85" t="s">
+      <c r="S31" s="84" t="s">
         <v>381</v>
       </c>
       <c r="T31" s="30">
@@ -4012,19 +4206,24 @@
         <v>0.10818615599999999</v>
       </c>
       <c r="Z31" s="81">
-        <f>(3/4)*X28+(E3*B3)/(2*Y44^2*C5)*(-24*S40^2+4*X40*(U40-2)^2+(1/9)*(Y40*(23/2)*V40+33))</f>
-        <v>0.12064762435635354</v>
-      </c>
-      <c r="AB31" s="6"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
+        <f>(3/4)*X28+(E3*B3)/(2*Y44^2*C5)*(-24*S40^2+4*Y40*(U40-2)^2+(1/9)*(Z40*(23/2)*V40+33))</f>
+        <v>0.12050310021032556</v>
+      </c>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="89"/>
+      <c r="AF31" s="89"/>
+      <c r="AG31" s="89"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>60</v>
       </c>
       <c r="J32" s="5"/>
       <c r="M32" s="5"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="85" t="s">
+      <c r="S32" s="84" t="s">
         <v>365</v>
       </c>
       <c r="T32" s="30">
@@ -4042,16 +4241,21 @@
         <v>-2.7046539000000012E-2</v>
       </c>
       <c r="Z32" s="81">
-        <f>(E3*B3)/(2*Y44^2*C5)*(-(2/9)*Y40*(V40^2+6*V40+3))</f>
-        <v>8.8905040802355131E-3</v>
+        <f>(E3*B3)/(2*Y44^2*C5)*(-(2/9)*Z40*(V40^2+6*V40+3))</f>
+        <v>8.7673833766039669E-3</v>
       </c>
       <c r="AA32" s="35">
         <f>(1/2)*(U28-3*X29-3*X28-X31)</f>
         <v>-0.40153707900000007</v>
       </c>
-      <c r="AB32" s="6"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="93"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="89"/>
+      <c r="AF32" s="89"/>
+      <c r="AG32" s="89"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -4062,7 +4266,7 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="85" t="s">
+      <c r="S33" s="84" t="s">
         <v>382</v>
       </c>
       <c r="T33" s="30">
@@ -4072,9 +4276,12 @@
         <f t="shared" si="2"/>
         <v>0.137313198</v>
       </c>
-      <c r="AB33" s="6"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB33" s="89"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="89"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -4083,39 +4290,52 @@
       <c r="Y34" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="Z34" t="s">
-        <v>410</v>
-      </c>
-      <c r="AB34" s="6"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB34" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC34" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD34" s="94" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE34" s="93"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>63</v>
       </c>
       <c r="J35" s="5"/>
       <c r="R35" s="6"/>
       <c r="S35" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="T35" s="30">
         <v>1345</v>
       </c>
       <c r="U35" t="s">
+        <v>405</v>
+      </c>
+      <c r="X35" s="14" t="s">
         <v>406</v>
-      </c>
-      <c r="X35" s="14" t="s">
-        <v>407</v>
       </c>
       <c r="Y35" s="80">
         <f>0.0103636*285</f>
         <v>2.9536260000000003</v>
       </c>
       <c r="Z35" t="s">
-        <v>409</v>
-      </c>
-      <c r="AB35" s="6"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
+        <v>408</v>
+      </c>
+      <c r="AB35" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC35" s="11">
+        <v>3.6819999999999999</v>
+      </c>
+      <c r="AD35" s="95"/>
+      <c r="AE35" s="93"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -4129,10 +4349,10 @@
         <v>1.159031323739</v>
       </c>
       <c r="U36" s="81">
-        <f>B3*(1-(23/24)*E3+(1/24)*E3*(W40+(2/3)*X40+Y40))</f>
+        <f>B3*(1-(23/24)*E3+(1/24)*E3*(X40+(2/3)*Y40+Z40))</f>
         <v>1.159031323739</v>
       </c>
-      <c r="V36" s="89">
+      <c r="V36" s="88">
         <f>T35*10*0.00008617333262</f>
         <v>1.159031323739</v>
       </c>
@@ -4144,19 +4364,29 @@
         <v>3.42620616</v>
       </c>
       <c r="Z36" t="s">
-        <v>408</v>
-      </c>
-      <c r="AB36" s="23"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+      <c r="AB36" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC36" s="11">
+        <v>-4.6965000000000003</v>
+      </c>
+      <c r="AD36" s="11">
+        <v>-4.7081</v>
+      </c>
+      <c r="AE36" s="89"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>65</v>
       </c>
       <c r="J37" s="5"/>
       <c r="R37" s="6"/>
-      <c r="AB37" s="6"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="89"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
       <c r="J38" s="5"/>
       <c r="R38" s="6"/>
       <c r="S38" t="s">
@@ -4168,15 +4398,15 @@
       <c r="V38" t="s">
         <v>387</v>
       </c>
-      <c r="AB38" s="6"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AD38" s="6"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>110</v>
       </c>
       <c r="J39" s="5"/>
       <c r="R39" s="6"/>
-      <c r="S39" s="86" t="s">
+      <c r="S39" s="85" t="s">
         <v>4</v>
       </c>
       <c r="T39" s="33" t="s">
@@ -4188,50 +4418,66 @@
       <c r="V39" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="W39" s="35" t="s">
+      <c r="X39" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="X39" s="35" t="s">
+      <c r="Y39" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="Y39" s="39" t="s">
+      <c r="Z39" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="AB39" s="6"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB39" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>111</v>
       </c>
       <c r="J40" s="5"/>
       <c r="R40" s="6"/>
-      <c r="S40" s="90">
+      <c r="S40" s="91">
         <v>1.3</v>
       </c>
-      <c r="T40" s="91">
+      <c r="T40" s="92">
         <v>0</v>
       </c>
-      <c r="U40" s="84">
+      <c r="U40" s="90">
         <f>(8-6*U44^0.5)/(2-3*U44^0.5)</f>
-        <v>1.1580277736423858</v>
-      </c>
-      <c r="V40" s="26">
+        <v>1.1658073797531348</v>
+      </c>
+      <c r="V40" s="25">
         <v>3</v>
       </c>
-      <c r="W40" s="26">
-        <f>(24/E3)*(T36/B3-1+23/24*E3)-(2/3)*X40-Y40</f>
-        <v>3.2493338377304091</v>
-      </c>
-      <c r="X40" s="26">
-        <f>((3/8)*(2*Y44^2*C5/(E3*B3))*(2*X31-3*X30)+Y40*((4/3)*V40^2+(101/36)*V40-9/2))/(U40^2+4*U40-20)</f>
-        <v>2.8030558187340522</v>
-      </c>
-      <c r="Y40" s="26">
-        <v>-1</v>
-      </c>
-      <c r="AB40" s="6"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="W40" t="s">
+        <v>379</v>
+      </c>
+      <c r="X40" s="25">
+        <f>(24/E3)*(T36/B3-1+23/24*E3)-(2/3)*Y40-Z40</f>
+        <v>3.2393930319864666</v>
+      </c>
+      <c r="Y40" s="25">
+        <f>((3/8)*(2*Y44^2*C5/(E3*B3))*(2*X31-3*X30)+Z40*((4/3)*V40^2+(101/36)*V40-9/2))/(U40^2+4*U40-20)</f>
+        <v>2.7972414953550997</v>
+      </c>
+      <c r="Z40" s="25">
+        <f>AB40/((-E3*B3)/(216*3^0.5*C3^2))</f>
+        <v>-0.98618297867008908</v>
+      </c>
+      <c r="AB40" s="11">
+        <f>(AC36*3-AD36*3)/(3^0.5/2*AC35^2)*(3/5)</f>
+        <v>1.7784116484704251E-3</v>
+      </c>
+      <c r="AC40" s="89" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD40" s="6"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>112</v>
       </c>
@@ -4249,23 +4495,30 @@
       <c r="V41" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="Y41" s="11" t="s">
+      <c r="W41" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z41" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="AB41" s="6"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB41" s="89"/>
+      <c r="AC41" s="89"/>
+      <c r="AD41" s="6"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>113</v>
       </c>
       <c r="J42" s="5"/>
       <c r="R42" s="6"/>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>396</v>
       </c>
-      <c r="AB42" s="6"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB42" s="89"/>
+      <c r="AC42" s="89"/>
+      <c r="AD42" s="6"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -4286,34 +4539,38 @@
       <c r="AA43" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="AB43" s="6"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB43" s="89"/>
+      <c r="AC43" s="89"/>
+      <c r="AD43" s="6"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.4">
       <c r="J44" s="5"/>
       <c r="R44" s="6"/>
       <c r="U44" s="80">
         <f>V44/W44</f>
-        <v>5.0636258564948902</v>
+        <v>5.1303089650441338</v>
       </c>
       <c r="V44" s="80">
-        <f>(2*Y44^2*C5)/(E3*B3)*(X30-(1/2)*X28)+16*S40^2-(1/9)*Y40*(4*V40^2+(193/12)*V40+17/2)</f>
-        <v>30.065117976780456</v>
+        <f>(2*Y44^2*C5)/(E3*B3)*(X30-(1/2)*X28)+16*S40^2-(1/9)*Z40*(4*V40^2+(193/12)*V40+17/2)</f>
+        <v>29.922493035736963</v>
       </c>
       <c r="W44" s="80">
-        <f>(2*Y44^2*C5)/(E3*B3)*(X31-(3/4)*X28)+24*S40^2-(1/9)*Y40*((23/2)*V40+33)</f>
-        <v>5.9374682942297667</v>
+        <f>(2*Y44^2*C5)/(E3*B3)*(X31-(3/4)*X28)+24*S40^2-(1/9)*Z40*((23/2)*V40+33)</f>
+        <v>5.8324933721568861</v>
       </c>
       <c r="Y44" s="80">
-        <f>12*EXP(Y40/864)</f>
-        <v>11.986119145562542</v>
+        <f>12*EXP(Z40/864)</f>
+        <v>11.986310828187698</v>
       </c>
       <c r="AA44" s="26">
         <f>(2^0.5*C5)^(1/3)</f>
         <v>2.4900000000000007</v>
       </c>
-      <c r="AB44" s="6"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB44" s="89"/>
+      <c r="AC44" s="89"/>
+      <c r="AD44" s="6"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -4322,9 +4579,11 @@
       <c r="T45" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="AB45" s="6"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB45" s="89"/>
+      <c r="AC45" s="89"/>
+      <c r="AD45" s="6"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -4334,15 +4593,17 @@
         <v>401</v>
       </c>
       <c r="T46" s="26">
-        <f>B3*(1-(23/24)*E3+(1/24)*E3*(W40+(2/3)*X40+Y40))</f>
+        <f>B3*(1-(23/24)*E3+(1/24)*E3*(X40+(2/3)*Y40+Z40))</f>
         <v>1.159031323739</v>
       </c>
       <c r="U46" t="s">
         <v>397</v>
       </c>
-      <c r="AB46" s="6"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB46" s="89"/>
+      <c r="AC46" s="89"/>
+      <c r="AD46" s="6"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -4351,64 +4612,75 @@
       <c r="S47" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="T47" s="88">
-        <f>(1/6)*B3*(1-1.139*E3-0.0378*E3*(W40-(17/15)*X40-(7/10)*Y40))</f>
-        <v>-7.2764763382073508E-2</v>
+      <c r="T47" s="87">
+        <f>(1/6)*B3*(1-1.139*E3-0.0378*E3*(X40-(17/15)*Y40-(7/10)*Z40))</f>
+        <v>-7.2421565502316751E-2</v>
       </c>
       <c r="U47" t="s">
         <v>398</v>
       </c>
-      <c r="AB47" s="6"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB47" s="89"/>
+      <c r="AC47" s="89"/>
+      <c r="AD47" s="6"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>118</v>
       </c>
       <c r="J48" s="5"/>
       <c r="R48" s="6"/>
       <c r="S48" s="35" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="T48" s="26">
-        <f>(-E3*B3)/(216*3^0.5*C3^2)*Y40</f>
-        <v>1.803328273692871E-3</v>
+        <f>(-E3*B3)/(216*3^0.5*C3^2)*Z40</f>
+        <v>1.7784116484704251E-3</v>
       </c>
       <c r="U48" t="s">
         <v>399</v>
       </c>
-      <c r="AB48" s="6"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB48" s="89"/>
+      <c r="AC48" s="89"/>
+      <c r="AD48" s="6"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>119</v>
       </c>
       <c r="J49" s="5"/>
       <c r="R49" s="6"/>
       <c r="S49" s="35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T49" s="26">
-        <f>(B3/(2*3^0.5*C3^2))*(1+3*LN(3/4)*E3+(1/9)*(1+LN(3/4))*E3*(W40+(1/4)*X40+(1/2)*Y40))</f>
-        <v>9.2286088402253566E-2</v>
+        <f>(B3/(2*3^0.5*C3^2))*(1+3*LN(3/4)*E3+(1/9)*(1+LN(3/4))*E3*(X40+(1/4)*Y40+(1/2)*Z40))</f>
+        <v>9.2216940792898494E-2</v>
       </c>
       <c r="U49" t="s">
         <v>400</v>
       </c>
-      <c r="AB49" s="6"/>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB49" s="89"/>
+      <c r="AC49" s="89"/>
+      <c r="AD49" s="6"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>120</v>
       </c>
       <c r="J50" s="5"/>
       <c r="R50" s="6"/>
-      <c r="AB50" s="6"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="U50" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB50" s="89"/>
+      <c r="AC50" s="89"/>
+      <c r="AD50" s="6"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.4">
       <c r="J51" s="5"/>
       <c r="R51" s="6"/>
       <c r="S51" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
@@ -4418,49 +4690,51 @@
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
-      <c r="AB51" s="9"/>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="9"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>121</v>
       </c>
       <c r="J52" s="5"/>
-      <c r="S52" s="92" t="s">
+      <c r="S52" s="5" t="s">
         <v>264</v>
       </c>
       <c r="AB52" s="6"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>122</v>
       </c>
       <c r="J53" s="5"/>
       <c r="S53" s="67" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AB53" s="6"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>129</v>
       </c>
       <c r="J54" s="5"/>
       <c r="S54" s="67" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AB54" s="6"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>130</v>
       </c>
       <c r="J55" s="5"/>
       <c r="S55" s="67" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AB55" s="6"/>
     </row>
-    <row r="56" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
         <v>128</v>
       </c>
@@ -4468,21 +4742,21 @@
       <c r="J56" s="7"/>
       <c r="R56" s="9"/>
       <c r="S56" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AB56" s="9"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
         <v>235</v>
       </c>
@@ -4499,7 +4773,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>13</v>
       </c>
@@ -4516,7 +4790,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
         <v>12</v>
       </c>
@@ -4530,7 +4804,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B63" s="56" t="s">
         <v>273</v>
       </c>
@@ -4540,7 +4814,7 @@
       </c>
       <c r="K63" s="64"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A64" s="47" t="s">
         <v>296</v>
       </c>

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43176AB-FF54-4A0A-80D1-2EFD304F0CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0947726F-83F0-4B62-B09D-96D6AB745E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="150" windowWidth="19710" windowHeight="14880" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="1005" yWindow="1080" windowWidth="19710" windowHeight="14880" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -2147,7 +2147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2415,9 +2415,6 @@
     <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2425,12 +2422,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1">
@@ -2750,10 +2741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
-  <dimension ref="A1:AG99"/>
+  <dimension ref="A1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R11" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+    <sheetView tabSelected="1" topLeftCell="R8" workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2772,7 +2763,7 @@
     <col min="22" max="22" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>30</v>
       </c>
@@ -2806,7 +2797,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -2868,7 +2859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>165</v>
       </c>
@@ -2931,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="C4" s="35" t="s">
         <v>364</v>
@@ -2963,7 +2954,7 @@
       </c>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="C5" s="11">
         <f>IF(OR(C7="fcc", C7="l12"), ((C3*SQRT(2))^3/4), IF(OR(C7="bcc", C7="b2"), ((C3*2/SQRT(3))^3/2), IF(C7="hcp", (SQRT(3)/2*J7*(C3)^3/2), IF(C7="dim", "", IF(C7="dia", ((C3*E7)^3/8), IF(C7="b1", ((C3*2)^3/8), IF(C7="l12", ((C3*SQRT(2))^3/4), IF(C7="sc", ((C3)^3/1), ""))))))))</f>
         <v>10.916490557546441</v>
@@ -3013,7 +3004,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" s="35" t="s">
         <v>19</v>
       </c>
@@ -3047,7 +3038,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" s="35">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 2, FALSE), "")</f>
         <v>28</v>
@@ -3099,7 +3090,7 @@
       </c>
       <c r="AB7" s="6"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -3111,7 +3102,7 @@
       </c>
       <c r="AB8" s="6"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>234</v>
       </c>
@@ -3126,7 +3117,7 @@
       </c>
       <c r="AB9" s="6"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="M10" s="5"/>
       <c r="P10" s="2" t="s">
         <v>71</v>
@@ -3144,7 +3135,7 @@
       <c r="AA10" s="8"/>
       <c r="AB10" s="9"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A11" s="41" t="s">
         <v>21</v>
       </c>
@@ -3179,12 +3170,8 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
-      <c r="AB11" s="89"/>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="89"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -3232,11 +3219,8 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="4"/>
-      <c r="AE12" s="89"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="89"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3297,16 +3281,12 @@
       <c r="Y13" t="s">
         <v>412</v>
       </c>
-      <c r="AB13" s="89" t="s">
+      <c r="AB13" t="s">
         <v>405</v>
       </c>
-      <c r="AC13" s="89"/>
       <c r="AD13" s="6"/>
-      <c r="AE13" s="89"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="89"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
@@ -3373,11 +3353,8 @@
         <v>1000</v>
       </c>
       <c r="AD14" s="48"/>
-      <c r="AE14" s="89"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="89"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
         <v>Ni</v>
@@ -3451,11 +3428,8 @@
         <f>AC14*10*0.00008617333262</f>
         <v>0.86173332619999998</v>
       </c>
-      <c r="AE15" s="89"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="89"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A16" s="32">
         <f>D3</f>
         <v>5.0844500894425755</v>
@@ -3508,14 +3482,9 @@
         <v>5</v>
       </c>
       <c r="R16" s="6"/>
-      <c r="AB16" s="89"/>
-      <c r="AC16" s="89"/>
       <c r="AD16" s="4"/>
-      <c r="AE16" s="89"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="89"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A17" s="28">
         <f>J3</f>
         <v>1</v>
@@ -3571,16 +3540,13 @@
         <v>422</v>
       </c>
       <c r="AC17" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD17" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="AD17" s="94" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="89"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3636,14 +3602,11 @@
         <v>421</v>
       </c>
       <c r="AC18" s="11">
-        <v>2.4740000000000002</v>
-      </c>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+        <v>3.505798</v>
+      </c>
+      <c r="AD18" s="92"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>250</v>
       </c>
@@ -3667,7 +3630,7 @@
         <v>0.4</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="90">
+      <c r="S19" s="89">
         <f>((D3^2-2*D7*W15*C5/B3)/E3)^(1/2)</f>
         <v>5.0582796543967126</v>
       </c>
@@ -3685,7 +3648,7 @@
       </c>
       <c r="X19" s="25">
         <f>(24/E3)*(AC15/B3-1+23/24*E3)-(2/3)*Y19-Z19</f>
-        <v>-0.58562872933724641</v>
+        <v>-0.57264546453620957</v>
       </c>
       <c r="Y19" s="25">
         <f>((W14-2*W15)*D7^2*C5)/(2*E3*B3*(H3-2)^2)</f>
@@ -3693,22 +3656,19 @@
       </c>
       <c r="Z19" s="25">
         <f>AB22/((-E3*B3)/(216*3^0.5*C3^2))</f>
-        <v>3.2388895466289291</v>
+        <v>3.2259062818278923</v>
       </c>
       <c r="AB19" s="14" t="s">
         <v>229</v>
       </c>
       <c r="AC19" s="11">
+        <v>-5.7797999999999998</v>
+      </c>
+      <c r="AD19" s="11">
         <v>-5.7539999999999996</v>
       </c>
-      <c r="AD19" s="11">
-        <v>-5.7797999999999998</v>
-      </c>
-      <c r="AE19" s="89"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="89"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.4">
       <c r="J20" s="5" t="s">
         <v>70</v>
       </c>
@@ -3729,7 +3689,7 @@
         <v>0.67</v>
       </c>
       <c r="R20" s="6"/>
-      <c r="S20" s="90">
+      <c r="S20" s="89">
         <f>((D3^2-D7*W14*C5/B3)/E3)^(1/2)</f>
         <v>5.1520835586089824</v>
       </c>
@@ -3755,14 +3715,11 @@
       </c>
       <c r="Z20" s="25">
         <f>AB22/((-E3*B3)/(216*3^0.5*C3^2))</f>
-        <v>3.2388895466289291</v>
+        <v>3.2259062818278923</v>
       </c>
       <c r="AD20" s="4"/>
-      <c r="AE20" s="89"/>
-      <c r="AF20" s="89"/>
-      <c r="AG20" s="89"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3787,7 +3744,7 @@
         <v>0.6</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="90">
+      <c r="S21" s="89">
         <f>((D3^2-9*D7*W14*C5/(8*B3))/E3)^(1/2)</f>
         <v>5.140451682808461</v>
       </c>
@@ -3805,7 +3762,7 @@
       </c>
       <c r="X21" s="25">
         <f>(24/E3)*(AC15/B3-1+23/24*E3)-(2/3)*Y21-Z21</f>
-        <v>-1.0944450686400482</v>
+        <v>-1.0814618038390114</v>
       </c>
       <c r="Y21" s="25">
         <f>(9*W15*D7^2*C5)/(256*E3*B3)</f>
@@ -3813,7 +3770,7 @@
       </c>
       <c r="Z21" s="25">
         <f>AB22/((-E3*B3)/(216*3^0.5*C3^2))</f>
-        <v>3.2388895466289291</v>
+        <v>3.2259062818278923</v>
       </c>
       <c r="AB21" s="35" t="s">
         <v>424</v>
@@ -3822,11 +3779,8 @@
         <v>427</v>
       </c>
       <c r="AD21" s="6"/>
-      <c r="AE21" s="89"/>
-      <c r="AF21" s="89"/>
-      <c r="AG21" s="89"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -3870,18 +3824,15 @@
         <v>376</v>
       </c>
       <c r="AB22" s="11">
-        <f>(AD19*2-AC19*2)/(3^0.5/2*AC18^2)*(3/5)</f>
-        <v>-5.8407810948042319E-3</v>
-      </c>
-      <c r="AC22" s="89" t="s">
+        <f>(AC19*2-AD19*2)/(3^0.5/2*(AC18*(2^0.5/2))^2)*(3/5)</f>
+        <v>-5.8173680063036814E-3</v>
+      </c>
+      <c r="AC22" t="s">
         <v>425</v>
       </c>
       <c r="AD22" s="6"/>
-      <c r="AE22" s="89"/>
-      <c r="AF22" s="89"/>
-      <c r="AG22" s="89"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3912,13 +3863,9 @@
       <c r="X23" t="s">
         <v>377</v>
       </c>
-      <c r="AC23" s="89"/>
       <c r="AD23" s="6"/>
-      <c r="AE23" s="89"/>
-      <c r="AF23" s="89"/>
-      <c r="AG23" s="89"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3949,14 +3896,9 @@
       <c r="X24" t="s">
         <v>375</v>
       </c>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="89"/>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="89"/>
-      <c r="AF24" s="89"/>
-      <c r="AG24" s="89"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -3987,14 +3929,9 @@
       <c r="X25" t="s">
         <v>378</v>
       </c>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="89"/>
       <c r="AD25" s="6"/>
-      <c r="AE25" s="89"/>
-      <c r="AF25" s="89"/>
-      <c r="AG25" s="89"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -4030,14 +3967,9 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
-      <c r="AB26" s="89"/>
-      <c r="AC26" s="89"/>
       <c r="AD26" s="6"/>
-      <c r="AE26" s="89"/>
-      <c r="AF26" s="89"/>
-      <c r="AG26" s="89"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -4069,11 +4001,8 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="4"/>
-      <c r="AE27" s="89"/>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="89"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.4">
       <c r="J28" s="7" t="s">
         <v>24</v>
       </c>
@@ -4104,13 +4033,9 @@
       <c r="Z28" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="AB28" s="89"/>
       <c r="AD28" s="6"/>
-      <c r="AE28" s="89"/>
-      <c r="AF28" s="89"/>
-      <c r="AG28" s="89"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -4143,13 +4068,9 @@
         <f>(5/8)*X28+(E3*B3)/(2*Y44^2*C5)*(-20*S40^2+(1/6)*X40*(T40+1)^2+(25/9)*Y40*(U40-14/5)^2+(1/9)*Z40*((11/8)*V40^2+(125/12)*V40+115/8))</f>
         <v>0.11180968791173936</v>
       </c>
-      <c r="AB29" s="89"/>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="89"/>
-      <c r="AF29" s="89"/>
-      <c r="AG29" s="89"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.4">
       <c r="J30" s="5"/>
       <c r="M30" s="5"/>
       <c r="Q30" s="20"/>
@@ -4175,13 +4096,9 @@
         <f>(1/2)*X28+(E3*B3)/(2*Y44^2*C5)*(-16*S40^2+(16/9)*Y40*(U40-4)^2+(1/9)*Z40*(44*V40^2+(193/12)*V40+17/2))</f>
         <v>6.0625645302695257E-2</v>
       </c>
-      <c r="AB30" s="89"/>
       <c r="AD30" s="6"/>
-      <c r="AE30" s="89"/>
-      <c r="AF30" s="89"/>
-      <c r="AG30" s="89"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -4209,14 +4126,9 @@
         <f>(3/4)*X28+(E3*B3)/(2*Y44^2*C5)*(-24*S40^2+4*Y40*(U40-2)^2+(1/9)*(Z40*(23/2)*V40+33))</f>
         <v>0.12050310021032556</v>
       </c>
-      <c r="AB31" s="89"/>
-      <c r="AC31" s="89"/>
       <c r="AD31" s="6"/>
-      <c r="AE31" s="89"/>
-      <c r="AF31" s="89"/>
-      <c r="AG31" s="89"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -4248,14 +4160,9 @@
         <f>(1/2)*(U28-3*X29-3*X28-X31)</f>
         <v>-0.40153707900000007</v>
       </c>
-      <c r="AB32" s="89"/>
-      <c r="AC32" s="93"/>
       <c r="AD32" s="6"/>
-      <c r="AE32" s="89"/>
-      <c r="AF32" s="89"/>
-      <c r="AG32" s="89"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -4276,12 +4183,9 @@
         <f t="shared" si="2"/>
         <v>0.137313198</v>
       </c>
-      <c r="AB33" s="89"/>
-      <c r="AC33" s="93"/>
       <c r="AD33" s="6"/>
-      <c r="AE33" s="89"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -4296,12 +4200,11 @@
       <c r="AC34" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="AD34" s="94" t="s">
+      <c r="AD34" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="AE34" s="93"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -4332,10 +4235,9 @@
       <c r="AC35" s="11">
         <v>3.6819999999999999</v>
       </c>
-      <c r="AD35" s="95"/>
-      <c r="AE35" s="93"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="AD35" s="92"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -4375,18 +4277,16 @@
       <c r="AD36" s="11">
         <v>-4.7081</v>
       </c>
-      <c r="AE36" s="89"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>65</v>
       </c>
       <c r="J37" s="5"/>
       <c r="R37" s="6"/>
       <c r="AD37" s="4"/>
-      <c r="AE37" s="89"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
       <c r="J38" s="5"/>
       <c r="R38" s="6"/>
       <c r="S38" t="s">
@@ -4400,7 +4300,7 @@
       </c>
       <c r="AD38" s="6"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -4434,19 +4334,19 @@
         <v>428</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>111</v>
       </c>
       <c r="J40" s="5"/>
       <c r="R40" s="6"/>
-      <c r="S40" s="91">
+      <c r="S40" s="90">
         <v>1.3</v>
       </c>
-      <c r="T40" s="92">
+      <c r="T40" s="91">
         <v>0</v>
       </c>
-      <c r="U40" s="90">
+      <c r="U40" s="89">
         <f>(8-6*U44^0.5)/(2-3*U44^0.5)</f>
         <v>1.1658073797531348</v>
       </c>
@@ -4472,12 +4372,12 @@
         <f>(AC36*3-AD36*3)/(3^0.5/2*AC35^2)*(3/5)</f>
         <v>1.7784116484704251E-3</v>
       </c>
-      <c r="AC40" s="89" t="s">
+      <c r="AC40" t="s">
         <v>425</v>
       </c>
       <c r="AD40" s="6"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>112</v>
       </c>
@@ -4501,11 +4401,9 @@
       <c r="Z41" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="AB41" s="89"/>
-      <c r="AC41" s="89"/>
       <c r="AD41" s="6"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>113</v>
       </c>
@@ -4514,11 +4412,9 @@
       <c r="Z42" t="s">
         <v>396</v>
       </c>
-      <c r="AB42" s="89"/>
-      <c r="AC42" s="89"/>
       <c r="AD42" s="6"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -4539,11 +4435,9 @@
       <c r="AA43" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="AB43" s="89"/>
-      <c r="AC43" s="89"/>
       <c r="AD43" s="6"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.4">
       <c r="J44" s="5"/>
       <c r="R44" s="6"/>
       <c r="U44" s="80">
@@ -4566,11 +4460,9 @@
         <f>(2^0.5*C5)^(1/3)</f>
         <v>2.4900000000000007</v>
       </c>
-      <c r="AB44" s="89"/>
-      <c r="AC44" s="89"/>
       <c r="AD44" s="6"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -4579,11 +4471,9 @@
       <c r="T45" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="AB45" s="89"/>
-      <c r="AC45" s="89"/>
       <c r="AD45" s="6"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -4599,11 +4489,9 @@
       <c r="U46" t="s">
         <v>397</v>
       </c>
-      <c r="AB46" s="89"/>
-      <c r="AC46" s="89"/>
       <c r="AD46" s="6"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -4619,11 +4507,9 @@
       <c r="U47" t="s">
         <v>398</v>
       </c>
-      <c r="AB47" s="89"/>
-      <c r="AC47" s="89"/>
       <c r="AD47" s="6"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -4639,8 +4525,6 @@
       <c r="U48" t="s">
         <v>399</v>
       </c>
-      <c r="AB48" s="89"/>
-      <c r="AC48" s="89"/>
       <c r="AD48" s="6"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.4">
@@ -4659,8 +4543,6 @@
       <c r="U49" t="s">
         <v>400</v>
       </c>
-      <c r="AB49" s="89"/>
-      <c r="AC49" s="89"/>
       <c r="AD49" s="6"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.4">
@@ -4672,8 +4554,6 @@
       <c r="U50" t="s">
         <v>426</v>
       </c>
-      <c r="AB50" s="89"/>
-      <c r="AC50" s="89"/>
       <c r="AD50" s="6"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.4">

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0947726F-83F0-4B62-B09D-96D6AB745E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7908E8B1-C6D8-489B-BEF7-8B06899C3675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1080" windowWidth="19710" windowHeight="14880" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="3180" yWindow="240" windowWidth="19710" windowHeight="14880" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="432">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -1823,10 +1823,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Note: A = 1.0-1.2 range, BCC-HCP energy difference</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ABC+AC: (FCC*3+HCP*2 - FCC*5)/Area*(3/5)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1835,7 +1831,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Note: A: FCC-BCC energy difference</t>
+    <t>Note: the parameter A: FCC-BCC energy difference</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: the parameter A = about 1.0-1.2 range, BCC-HCP energy difference</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Diamond</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: gas: beta3 = 0, t3 = 0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2147,7 +2155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2425,6 +2433,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2743,8 +2757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
   <dimension ref="A1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R8" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView tabSelected="1" topLeftCell="O13" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3270,7 +3284,7 @@
         <v>366</v>
       </c>
       <c r="T13" s="11">
-        <v>15.9</v>
+        <v>276</v>
       </c>
       <c r="V13" t="s">
         <v>415</v>
@@ -3331,14 +3345,14 @@
         <v>367</v>
       </c>
       <c r="T14" s="11">
-        <v>6.1</v>
+        <v>159</v>
       </c>
       <c r="V14" s="35" t="s">
         <v>361</v>
       </c>
       <c r="W14" s="80">
         <f>T15*0.006241509</f>
-        <v>3.0583394100000001E-2</v>
+        <v>0.82387918800000004</v>
       </c>
       <c r="Y14" s="14" t="s">
         <v>413</v>
@@ -3402,14 +3416,14 @@
         <v>365</v>
       </c>
       <c r="T15" s="11">
-        <v>4.9000000000000004</v>
+        <v>132</v>
       </c>
       <c r="V15" s="35" t="s">
         <v>362</v>
       </c>
       <c r="W15" s="80">
         <f>(T13-T14)*0.006241509/2</f>
-        <v>3.0583394100000001E-2</v>
+        <v>0.36512827650000002</v>
       </c>
       <c r="Y15" s="35" t="s">
         <v>2</v>
@@ -3589,7 +3603,7 @@
       <c r="V18" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X18" s="35" t="s">
+      <c r="X18" s="39" t="s">
         <v>9</v>
       </c>
       <c r="Y18" s="35" t="s">
@@ -3632,7 +3646,7 @@
       <c r="R19" s="6"/>
       <c r="S19" s="89">
         <f>((D3^2-2*D7*W15*C5/B3)/E3)^(1/2)</f>
-        <v>5.0582796543967126</v>
+        <v>2.1523217083469235</v>
       </c>
       <c r="T19" s="30">
         <v>2.2000000000000002</v>
@@ -3647,12 +3661,12 @@
         <v>369</v>
       </c>
       <c r="X19" s="25">
-        <f>(24/E3)*(AC15/B3-1+23/24*E3)-(2/3)*Y19-Z19</f>
-        <v>-0.57264546453620957</v>
+        <f>(24/E3)*(AC15/B3-1+(23/24)*E3)-(2/3)*Y19-Z19</f>
+        <v>-1.5450771718231966</v>
       </c>
       <c r="Y19" s="25">
         <f>((W14-2*W15)*D7^2*C5)/(2*E3*B3*(H3-2)^2)</f>
-        <v>-0.35916447480197755</v>
+        <v>1.0994830861285028</v>
       </c>
       <c r="Z19" s="25">
         <f>AB22/((-E3*B3)/(216*3^0.5*C3^2))</f>
@@ -3691,7 +3705,7 @@
       <c r="R20" s="6"/>
       <c r="S20" s="89">
         <f>((D3^2-D7*W14*C5/B3)/E3)^(1/2)</f>
-        <v>5.1520835586089824</v>
+        <v>1.304045183219795</v>
       </c>
       <c r="T20" s="30">
         <v>1</v>
@@ -3706,7 +3720,7 @@
         <v>369</v>
       </c>
       <c r="X20" s="25" t="e">
-        <f>(24/E3)*(AC15/B3-1+23/24*E3)-(2/3)*Y20-Z20</f>
+        <f>(24/E3)*(AC15/B3-1+(23/24)*E3)-(2/3)*Y20-Z20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y20" s="25" t="e">
@@ -3744,9 +3758,9 @@
         <v>0.6</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="89">
+      <c r="S21" s="89" t="e">
         <f>((D3^2-9*D7*W14*C5/(8*B3))/E3)^(1/2)</f>
-        <v>5.140451682808461</v>
+        <v>#NUM!</v>
       </c>
       <c r="T21" s="30">
         <v>1</v>
@@ -3761,12 +3775,12 @@
         <v>368</v>
       </c>
       <c r="X21" s="25">
-        <f>(24/E3)*(AC15/B3-1+23/24*E3)-(2/3)*Y21-Z21</f>
-        <v>-1.0814618038390114</v>
+        <f>(24/E3)*(AC15/B3-1+(23/24)*E3)-(2/3)*Y21-Z21</f>
+        <v>-4.0280764746633979</v>
       </c>
       <c r="Y21" s="25">
         <f>(9*W15*D7^2*C5)/(256*E3*B3)</f>
-        <v>0.40406003415222475</v>
+        <v>4.8239820403888052</v>
       </c>
       <c r="Z21" s="25">
         <f>AB22/((-E3*B3)/(216*3^0.5*C3^2))</f>
@@ -3776,7 +3790,7 @@
         <v>424</v>
       </c>
       <c r="AC21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AD21" s="6"/>
     </row>
@@ -3857,13 +3871,24 @@
         <v>2.8</v>
       </c>
       <c r="R23" s="6"/>
-      <c r="S23" t="s">
-        <v>429</v>
+      <c r="S23" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="T23" s="94">
+        <v>5.5</v>
+      </c>
+      <c r="U23" s="94">
+        <v>5.5</v>
+      </c>
+      <c r="V23" s="94">
+        <v>5.5</v>
+      </c>
+      <c r="W23" s="93" t="s">
+        <v>430</v>
       </c>
       <c r="X23" t="s">
         <v>377</v>
       </c>
-      <c r="AD23" s="6"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
@@ -3891,12 +3916,11 @@
       </c>
       <c r="R24" s="6"/>
       <c r="S24" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="X24" t="s">
         <v>375</v>
       </c>
-      <c r="AD24" s="6"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
@@ -3923,8 +3947,8 @@
         <v>1.9</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="5" t="s">
-        <v>417</v>
+      <c r="S25" t="s">
+        <v>428</v>
       </c>
       <c r="X25" t="s">
         <v>378</v>
@@ -3956,17 +3980,9 @@
         <v>1.8</v>
       </c>
       <c r="R26" s="18"/>
-      <c r="S26" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
+      <c r="S26" t="s">
+        <v>416</v>
+      </c>
       <c r="AD26" s="6"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.4">
@@ -3988,19 +4004,10 @@
       </c>
       <c r="Q27" s="20"/>
       <c r="R27" s="6"/>
-      <c r="S27" t="s">
-        <v>379</v>
-      </c>
-      <c r="T27" s="48"/>
-      <c r="U27" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="X27" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="4"/>
+      <c r="S27" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="AD27" s="6"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.4">
       <c r="J28" s="7" t="s">
@@ -4013,26 +4020,17 @@
       <c r="M28" s="5"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="84" t="s">
-        <v>366</v>
-      </c>
-      <c r="T28" s="30">
-        <v>60</v>
-      </c>
-      <c r="U28" s="81">
-        <f>T28*0.006241509</f>
-        <v>0.37449053999999998</v>
-      </c>
-      <c r="W28" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="X28" s="80">
-        <f>(1/9)*(2*U28+U31+2*U29+4*U30)</f>
-        <v>0.21914631600000001</v>
-      </c>
-      <c r="Z28" s="11" t="s">
-        <v>395</v>
-      </c>
+      <c r="S28" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
       <c r="AD28" s="6"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.4">
@@ -4043,32 +4041,19 @@
       <c r="M29" s="5"/>
       <c r="Q29" s="20"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="84" t="s">
-        <v>367</v>
-      </c>
-      <c r="T29" s="30">
-        <v>16</v>
-      </c>
-      <c r="U29" s="81">
-        <f t="shared" ref="U29:U33" si="2">T29*0.006241509</f>
-        <v>9.9864144000000002E-2</v>
-      </c>
-      <c r="W29" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="X29" s="80">
-        <f>(1/2)*(U28-U29)</f>
-        <v>0.137313198</v>
-      </c>
-      <c r="Y29" s="86">
-        <f>U33</f>
-        <v>0.137313198</v>
-      </c>
-      <c r="Z29" s="81">
-        <f>(5/8)*X28+(E3*B3)/(2*Y44^2*C5)*(-20*S40^2+(1/6)*X40*(T40+1)^2+(25/9)*Y40*(U40-14/5)^2+(1/9)*Z40*((11/8)*V40^2+(125/12)*V40+115/8))</f>
-        <v>0.11180968791173936</v>
-      </c>
-      <c r="AD29" s="6"/>
+      <c r="S29" t="s">
+        <v>379</v>
+      </c>
+      <c r="T29" s="48"/>
+      <c r="U29" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="X29" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="4"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.4">
       <c r="J30" s="5"/>
@@ -4076,25 +4061,24 @@
       <c r="Q30" s="20"/>
       <c r="R30" s="6"/>
       <c r="S30" s="84" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="T30" s="30">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="U30" s="81">
-        <f t="shared" si="2"/>
-        <v>0.15603772500000002</v>
+        <f>T30*0.006241509</f>
+        <v>0.37449053999999998</v>
       </c>
       <c r="W30" s="35" t="s">
-        <v>384</v>
+        <v>33</v>
       </c>
       <c r="X30" s="80">
-        <f>U32</f>
-        <v>9.9864144000000002E-2</v>
-      </c>
-      <c r="Z30" s="81">
-        <f>(1/2)*X28+(E3*B3)/(2*Y44^2*C5)*(-16*S40^2+(16/9)*Y40*(U40-4)^2+(1/9)*Z40*(44*V40^2+(193/12)*V40+17/2))</f>
-        <v>6.0625645302695257E-2</v>
+        <f>(1/9)*(2*U30+U33+2*U31+4*U32)</f>
+        <v>0.21914631600000001</v>
+      </c>
+      <c r="Z30" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AD30" s="6"/>
     </row>
@@ -4106,25 +4090,29 @@
       <c r="M31" s="5"/>
       <c r="R31" s="6"/>
       <c r="S31" s="84" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="T31" s="30">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="U31" s="81">
-        <f t="shared" si="2"/>
-        <v>0.39945657600000001</v>
+        <f t="shared" ref="U31:U35" si="2">T31*0.006241509</f>
+        <v>9.9864144000000002E-2</v>
       </c>
       <c r="W31" s="35" t="s">
-        <v>385</v>
+        <v>161</v>
       </c>
       <c r="X31" s="80">
-        <f>(1/6)*(U28+2*U31+U29-4*U30)</f>
-        <v>0.10818615599999999</v>
+        <f>(1/2)*(U30-U31)</f>
+        <v>0.137313198</v>
+      </c>
+      <c r="Y31" s="86">
+        <f>U35</f>
+        <v>0.137313198</v>
       </c>
       <c r="Z31" s="81">
-        <f>(3/4)*X28+(E3*B3)/(2*Y44^2*C5)*(-24*S40^2+4*Y40*(U40-2)^2+(1/9)*(Z40*(23/2)*V40+33))</f>
-        <v>0.12050310021032556</v>
+        <f>(5/8)*X30+(E3*B3)/(2*Y46^2*C5)*(-20*S42^2+(1/6)*X42*(T42+1)^2+(25/9)*Y42*(U42-14/5)^2+(1/9)*Z42*((11/8)*V42^2+(125/12)*V42+115/8))</f>
+        <v>0.11180968791173936</v>
       </c>
       <c r="AD31" s="6"/>
     </row>
@@ -4136,29 +4124,25 @@
       <c r="M32" s="5"/>
       <c r="R32" s="6"/>
       <c r="S32" s="84" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="T32" s="30">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="U32" s="81">
         <f t="shared" si="2"/>
+        <v>0.15603772500000002</v>
+      </c>
+      <c r="W32" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="X32" s="80">
+        <f>U34</f>
         <v>9.9864144000000002E-2</v>
       </c>
-      <c r="W32" s="35" t="s">
-        <v>386</v>
-      </c>
-      <c r="X32" s="80">
-        <f>(1/3)*(U28-U31+U29-U30)</f>
-        <v>-2.7046539000000012E-2</v>
-      </c>
       <c r="Z32" s="81">
-        <f>(E3*B3)/(2*Y44^2*C5)*(-(2/9)*Z40*(V40^2+6*V40+3))</f>
-        <v>8.7673833766039669E-3</v>
-      </c>
-      <c r="AA32" s="35">
-        <f>(1/2)*(U28-3*X29-3*X28-X31)</f>
-        <v>-0.40153707900000007</v>
+        <f>(1/2)*X30+(E3*B3)/(2*Y46^2*C5)*(-16*S42^2+(16/9)*Y42*(U42-4)^2+(1/9)*Z42*(44*V42^2+(193/12)*V42+17/2))</f>
+        <v>6.0625645302695257E-2</v>
       </c>
       <c r="AD32" s="6"/>
     </row>
@@ -4174,14 +4158,25 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="9"/>
       <c r="S33" s="84" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T33" s="30">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="U33" s="81">
         <f t="shared" si="2"/>
-        <v>0.137313198</v>
+        <v>0.39945657600000001</v>
+      </c>
+      <c r="W33" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="X33" s="80">
+        <f>(1/6)*(U30+2*U33+U31-4*U32)</f>
+        <v>0.10818615599999999</v>
+      </c>
+      <c r="Z33" s="81">
+        <f>(3/4)*X30+(E3*B3)/(2*Y46^2*C5)*(-24*S42^2+4*Y42*(U42-2)^2+(1/9)*(Z42*(23/2)*V42+33))</f>
+        <v>0.12050310021032556</v>
       </c>
       <c r="AD33" s="6"/>
     </row>
@@ -4191,18 +4186,32 @@
       </c>
       <c r="J34" s="5"/>
       <c r="R34" s="4"/>
-      <c r="Y34" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="AB34" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="AC34" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD34" s="11" t="s">
-        <v>369</v>
-      </c>
+      <c r="S34" s="84" t="s">
+        <v>365</v>
+      </c>
+      <c r="T34" s="30">
+        <v>16</v>
+      </c>
+      <c r="U34" s="81">
+        <f t="shared" si="2"/>
+        <v>9.9864144000000002E-2</v>
+      </c>
+      <c r="W34" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="X34" s="80">
+        <f>(1/3)*(U30-U33+U31-U32)</f>
+        <v>-2.7046539000000012E-2</v>
+      </c>
+      <c r="Z34" s="81">
+        <f>(E3*B3)/(2*Y46^2*C5)*(-(2/9)*Z42*(V42^2+6*V42+3))</f>
+        <v>8.7673833766039669E-3</v>
+      </c>
+      <c r="AA34" s="35">
+        <f>(1/2)*(U30-3*X31-3*X30-X33)</f>
+        <v>-0.40153707900000007</v>
+      </c>
+      <c r="AD34" s="6"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
@@ -4210,32 +4219,17 @@
       </c>
       <c r="J35" s="5"/>
       <c r="R35" s="6"/>
-      <c r="S35" s="14" t="s">
-        <v>404</v>
+      <c r="S35" s="84" t="s">
+        <v>382</v>
       </c>
       <c r="T35" s="30">
-        <v>1345</v>
-      </c>
-      <c r="U35" t="s">
-        <v>405</v>
-      </c>
-      <c r="X35" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y35" s="80">
-        <f>0.0103636*285</f>
-        <v>2.9536260000000003</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>408</v>
-      </c>
-      <c r="AB35" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AC35" s="11">
-        <v>3.6819999999999999</v>
-      </c>
-      <c r="AD35" s="92"/>
+        <v>22</v>
+      </c>
+      <c r="U35" s="81">
+        <f t="shared" si="2"/>
+        <v>0.137313198</v>
+      </c>
+      <c r="AD35" s="6"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
@@ -4243,39 +4237,17 @@
       </c>
       <c r="J36" s="5"/>
       <c r="R36" s="6"/>
-      <c r="S36" s="83" t="s">
-        <v>388</v>
-      </c>
-      <c r="T36" s="80">
-        <f>V36</f>
-        <v>1.159031323739</v>
-      </c>
-      <c r="U36" s="81">
-        <f>B3*(1-(23/24)*E3+(1/24)*E3*(X40+(2/3)*Y40+Z40))</f>
-        <v>1.159031323739</v>
-      </c>
-      <c r="V36" s="88">
-        <f>T35*10*0.00008617333262</f>
-        <v>1.159031323739</v>
-      </c>
-      <c r="X36" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y36" s="80">
-        <f>Y35*1.16</f>
-        <v>3.42620616</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>407</v>
-      </c>
-      <c r="AB36" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC36" s="11">
-        <v>-4.6965000000000003</v>
-      </c>
-      <c r="AD36" s="11">
-        <v>-4.7081</v>
+      <c r="Y36" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB36" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC36" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD36" s="11" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.4">
@@ -4284,21 +4256,70 @@
       </c>
       <c r="J37" s="5"/>
       <c r="R37" s="6"/>
-      <c r="AD37" s="4"/>
+      <c r="S37" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="T37" s="30">
+        <v>1345</v>
+      </c>
+      <c r="U37" t="s">
+        <v>405</v>
+      </c>
+      <c r="X37" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y37" s="80">
+        <f>0.0103636*285</f>
+        <v>2.9536260000000003</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB37" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC37" s="11">
+        <v>3.6819999999999999</v>
+      </c>
+      <c r="AD37" s="92"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.4">
       <c r="J38" s="5"/>
       <c r="R38" s="6"/>
-      <c r="S38" t="s">
-        <v>363</v>
-      </c>
-      <c r="T38" t="s">
-        <v>394</v>
-      </c>
-      <c r="V38" t="s">
-        <v>387</v>
-      </c>
-      <c r="AD38" s="6"/>
+      <c r="S38" s="83" t="s">
+        <v>388</v>
+      </c>
+      <c r="T38" s="80">
+        <f>V38</f>
+        <v>1.159031323739</v>
+      </c>
+      <c r="U38" s="81">
+        <f>B3*(1-(23/24)*E3+(1/24)*E3*(X42+(2/3)*Y42+Z42))</f>
+        <v>1.159031323739</v>
+      </c>
+      <c r="V38" s="88">
+        <f>T37*10*0.00008617333262</f>
+        <v>1.159031323739</v>
+      </c>
+      <c r="X38" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y38" s="80">
+        <f>Y37*1.16</f>
+        <v>3.42620616</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB38" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC38" s="11">
+        <v>-4.6965000000000003</v>
+      </c>
+      <c r="AD38" s="11">
+        <v>-4.7081</v>
+      </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
@@ -4306,33 +4327,7 @@
       </c>
       <c r="J39" s="5"/>
       <c r="R39" s="6"/>
-      <c r="S39" s="85" t="s">
-        <v>4</v>
-      </c>
-      <c r="T39" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="U39" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="V39" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="X39" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y39" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z39" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB39" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>428</v>
-      </c>
+      <c r="AD39" s="4"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
@@ -4340,40 +4335,14 @@
       </c>
       <c r="J40" s="5"/>
       <c r="R40" s="6"/>
-      <c r="S40" s="90">
-        <v>1.3</v>
-      </c>
-      <c r="T40" s="91">
-        <v>0</v>
-      </c>
-      <c r="U40" s="89">
-        <f>(8-6*U44^0.5)/(2-3*U44^0.5)</f>
-        <v>1.1658073797531348</v>
-      </c>
-      <c r="V40" s="25">
-        <v>3</v>
-      </c>
-      <c r="W40" t="s">
-        <v>379</v>
-      </c>
-      <c r="X40" s="25">
-        <f>(24/E3)*(T36/B3-1+23/24*E3)-(2/3)*Y40-Z40</f>
-        <v>3.2393930319864666</v>
-      </c>
-      <c r="Y40" s="25">
-        <f>((3/8)*(2*Y44^2*C5/(E3*B3))*(2*X31-3*X30)+Z40*((4/3)*V40^2+(101/36)*V40-9/2))/(U40^2+4*U40-20)</f>
-        <v>2.7972414953550997</v>
-      </c>
-      <c r="Z40" s="25">
-        <f>AB40/((-E3*B3)/(216*3^0.5*C3^2))</f>
-        <v>-0.98618297867008908</v>
-      </c>
-      <c r="AB40" s="11">
-        <f>(AC36*3-AD36*3)/(3^0.5/2*AC35^2)*(3/5)</f>
-        <v>1.7784116484704251E-3</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>425</v>
+      <c r="S40" t="s">
+        <v>363</v>
+      </c>
+      <c r="T40" t="s">
+        <v>394</v>
+      </c>
+      <c r="V40" t="s">
+        <v>387</v>
       </c>
       <c r="AD40" s="6"/>
     </row>
@@ -4383,25 +4352,33 @@
       </c>
       <c r="J41" s="5"/>
       <c r="R41" s="6"/>
-      <c r="S41" s="42" t="s">
-        <v>370</v>
+      <c r="S41" s="85" t="s">
+        <v>4</v>
       </c>
       <c r="T41" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="U41" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="V41" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="Z41" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="AD41" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="U41" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="V41" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="X41" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y41" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z41" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB41" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
@@ -4409,8 +4386,40 @@
       </c>
       <c r="J42" s="5"/>
       <c r="R42" s="6"/>
-      <c r="Z42" t="s">
-        <v>396</v>
+      <c r="S42" s="90">
+        <v>1.3</v>
+      </c>
+      <c r="T42" s="91">
+        <v>0</v>
+      </c>
+      <c r="U42" s="89">
+        <f>(8-6*U46^0.5)/(2-3*U46^0.5)</f>
+        <v>1.1658073797531348</v>
+      </c>
+      <c r="V42" s="25">
+        <v>3</v>
+      </c>
+      <c r="W42" t="s">
+        <v>379</v>
+      </c>
+      <c r="X42" s="25">
+        <f>(24/E3)*(T38/B3-1+(23/24)*E3)-(2/3)*Y42-Z42</f>
+        <v>3.2393930319864666</v>
+      </c>
+      <c r="Y42" s="25">
+        <f>((3/8)*(2*Y46^2*C5/(E3*B3))*(2*X33-3*X32)+Z42*((4/3)*V42^2+(101/36)*V42-9/2))/(U42^2+4*U42-20)</f>
+        <v>2.7972414953550997</v>
+      </c>
+      <c r="Z42" s="25">
+        <f>AB42/((-E3*B3)/(216*3^0.5*C3^2))</f>
+        <v>-0.98618297867008908</v>
+      </c>
+      <c r="AB42" s="11">
+        <f>(AC38*3-AD38*3)/(3^0.5/2*AC37^2)*(3/5)</f>
+        <v>1.7784116484704251E-3</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>425</v>
       </c>
       <c r="AD42" s="6"/>
     </row>
@@ -4420,45 +4429,31 @@
       </c>
       <c r="J43" s="5"/>
       <c r="R43" s="6"/>
-      <c r="U43" s="35" t="s">
-        <v>392</v>
-      </c>
-      <c r="V43" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="W43" s="35" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y43" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="AA43" s="35" t="s">
-        <v>230</v>
+      <c r="S43" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="T43" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="U43" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="V43" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z43" s="11" t="s">
+        <v>393</v>
       </c>
       <c r="AD43" s="6"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.4">
       <c r="J44" s="5"/>
       <c r="R44" s="6"/>
-      <c r="U44" s="80">
-        <f>V44/W44</f>
-        <v>5.1303089650441338</v>
-      </c>
-      <c r="V44" s="80">
-        <f>(2*Y44^2*C5)/(E3*B3)*(X30-(1/2)*X28)+16*S40^2-(1/9)*Z40*(4*V40^2+(193/12)*V40+17/2)</f>
-        <v>29.922493035736963</v>
-      </c>
-      <c r="W44" s="80">
-        <f>(2*Y44^2*C5)/(E3*B3)*(X31-(3/4)*X28)+24*S40^2-(1/9)*Z40*((23/2)*V40+33)</f>
-        <v>5.8324933721568861</v>
-      </c>
-      <c r="Y44" s="80">
-        <f>12*EXP(Z40/864)</f>
-        <v>11.986310828187698</v>
-      </c>
-      <c r="AA44" s="26">
-        <f>(2^0.5*C5)^(1/3)</f>
-        <v>2.4900000000000007</v>
+      <c r="Z44" t="s">
+        <v>396</v>
       </c>
       <c r="AD44" s="6"/>
     </row>
@@ -4468,8 +4463,20 @@
       </c>
       <c r="J45" s="5"/>
       <c r="R45" s="6"/>
-      <c r="T45" s="11" t="s">
-        <v>395</v>
+      <c r="U45" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="V45" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="W45" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y45" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA45" s="35" t="s">
+        <v>230</v>
       </c>
       <c r="AD45" s="6"/>
     </row>
@@ -4479,15 +4486,25 @@
       </c>
       <c r="J46" s="5"/>
       <c r="R46" s="6"/>
-      <c r="S46" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="T46" s="26">
-        <f>B3*(1-(23/24)*E3+(1/24)*E3*(X40+(2/3)*Y40+Z40))</f>
-        <v>1.159031323739</v>
-      </c>
-      <c r="U46" t="s">
-        <v>397</v>
+      <c r="U46" s="80">
+        <f>V46/W46</f>
+        <v>5.1303089650441338</v>
+      </c>
+      <c r="V46" s="80">
+        <f>(2*Y46^2*C5)/(E3*B3)*(X32-(1/2)*X30)+16*S42^2-(1/9)*Z42*(4*V42^2+(193/12)*V42+17/2)</f>
+        <v>29.922493035736963</v>
+      </c>
+      <c r="W46" s="80">
+        <f>(2*Y46^2*C5)/(E3*B3)*(X33-(3/4)*X30)+24*S42^2-(1/9)*Z42*((23/2)*V42+33)</f>
+        <v>5.8324933721568861</v>
+      </c>
+      <c r="Y46" s="80">
+        <f>12*EXP(Z42/864)</f>
+        <v>11.986310828187698</v>
+      </c>
+      <c r="AA46" s="26">
+        <f>(2^0.5*C5)^(1/3)</f>
+        <v>2.4900000000000007</v>
       </c>
       <c r="AD46" s="6"/>
     </row>
@@ -4497,15 +4514,8 @@
       </c>
       <c r="J47" s="5"/>
       <c r="R47" s="6"/>
-      <c r="S47" s="35" t="s">
-        <v>402</v>
-      </c>
-      <c r="T47" s="87">
-        <f>(1/6)*B3*(1-1.139*E3-0.0378*E3*(X40-(17/15)*Y40-(7/10)*Z40))</f>
-        <v>-7.2421565502316751E-2</v>
-      </c>
-      <c r="U47" t="s">
-        <v>398</v>
+      <c r="T47" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AD47" s="6"/>
     </row>
@@ -4515,15 +4525,15 @@
       </c>
       <c r="J48" s="5"/>
       <c r="R48" s="6"/>
-      <c r="S48" s="35" t="s">
-        <v>423</v>
+      <c r="S48" s="36" t="s">
+        <v>401</v>
       </c>
       <c r="T48" s="26">
-        <f>(-E3*B3)/(216*3^0.5*C3^2)*Z40</f>
-        <v>1.7784116484704251E-3</v>
+        <f>B3*(1-(23/24)*E3+(1/24)*E3*(X42+(2/3)*Y42+Z42))</f>
+        <v>1.159031323739</v>
       </c>
       <c r="U48" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AD48" s="6"/>
     </row>
@@ -4534,14 +4544,14 @@
       <c r="J49" s="5"/>
       <c r="R49" s="6"/>
       <c r="S49" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="T49" s="26">
-        <f>(B3/(2*3^0.5*C3^2))*(1+3*LN(3/4)*E3+(1/9)*(1+LN(3/4))*E3*(X40+(1/4)*Y40+(1/2)*Z40))</f>
-        <v>9.2216940792898494E-2</v>
+        <v>402</v>
+      </c>
+      <c r="T49" s="87">
+        <f>(1/6)*B3*(1-1.139*E3-0.0378*E3*(X42-(17/15)*Y42-(7/10)*Z42))</f>
+        <v>-7.2421565502316751E-2</v>
       </c>
       <c r="U49" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AD49" s="6"/>
     </row>
@@ -4551,56 +4561,70 @@
       </c>
       <c r="J50" s="5"/>
       <c r="R50" s="6"/>
+      <c r="S50" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="T50" s="26">
+        <f>(-E3*B3)/(216*3^0.5*C3^2)*Z42</f>
+        <v>1.7784116484704251E-3</v>
+      </c>
       <c r="U50" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="AD50" s="6"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.4">
       <c r="J51" s="5"/>
       <c r="R51" s="6"/>
-      <c r="S51" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="8"/>
-      <c r="AD51" s="9"/>
+      <c r="S51" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="T51" s="26">
+        <f>(B3/(2*3^0.5*C3^2))*(1+3*LN(3/4)*E3+(1/9)*(1+LN(3/4))*E3*(X42+(1/4)*Y42+(1/2)*Z42))</f>
+        <v>9.2216940792898494E-2</v>
+      </c>
+      <c r="U51" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD51" s="6"/>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>121</v>
       </c>
       <c r="J52" s="5"/>
-      <c r="S52" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB52" s="6"/>
+      <c r="U52" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD52" s="6"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>122</v>
       </c>
       <c r="J53" s="5"/>
-      <c r="S53" s="67" t="s">
-        <v>418</v>
-      </c>
-      <c r="AB53" s="6"/>
+      <c r="S53" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="9"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>129</v>
       </c>
       <c r="J54" s="5"/>
-      <c r="S54" s="67" t="s">
-        <v>419</v>
+      <c r="S54" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="AB54" s="6"/>
     </row>
@@ -4610,7 +4634,7 @@
       </c>
       <c r="J55" s="5"/>
       <c r="S55" s="67" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AB55" s="6"/>
     </row>
@@ -4621,20 +4645,48 @@
       <c r="I56" s="9"/>
       <c r="J56" s="7"/>
       <c r="R56" s="9"/>
-      <c r="S56" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="AB56" s="9"/>
+      <c r="S56" s="67" t="s">
+        <v>419</v>
+      </c>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>251</v>
       </c>
+      <c r="S57" s="67" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB57" s="6"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>271</v>
       </c>
+      <c r="S58" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">

--- a/potentials/meam/meam_converter.xlsx
+++ b/potentials/meam/meam_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7908E8B1-C6D8-489B-BEF7-8B06899C3675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943FB484-674E-462C-A6FA-A8C33DB5402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="240" windowWidth="19710" windowHeight="14880" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
+    <workbookView xWindow="7800" yWindow="1215" windowWidth="19830" windowHeight="12315" xr2:uid="{1ABAA621-BF53-4EC6-AD5A-ED59DA47D425}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="443">
   <si>
     <t>Ec</t>
     <phoneticPr fontId="1"/>
@@ -1015,9 +1015,6 @@
   <si>
     <t>Note: rozero = rho0</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fcc</t>
   </si>
   <si>
     <t>Note: 1 GPa = 1e9 Pa = 1e9 J/m^3 = 1e9/(1.602e-19) eV/m^3  = 1e9/(1.602e-19)/((10^10)^3) eV/A^3 = 6.2415e-3 eV/A^3</t>
@@ -1631,10 +1628,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(t3 &gt;0 for FCC, t3 &lt; 0 for BCC and diamond cubic)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HCP</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1823,14 +1816,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ABC+AC: (FCC*3+HCP*2 - FCC*5)/Area*(3/5)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ACA+BC: -1.0*(HCP*3+FCC*2 - HCP*5))/Area*(3/5)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Note: the parameter A: FCC-BCC energy difference</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1843,7 +1828,66 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Note: gas: beta3 = 0, t3 = 0</t>
+    <t>Note: Cb*/Cc* &lt; 0 -&gt; set beta2 = 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: beta2 &lt; 0 -&gt; set beta2 = 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dimer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Etot [eV]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diamond or dimer: beta1=beta2=beta3 (gas: beta3=0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(t3 &gt;0 for FCC, t3 &lt; 0 for BCC and diamond cubic, t3=0 for gas)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R [A]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F2 (gas)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cl2 (gas)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Br2 (liquid)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;-shearmodulus1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;-shearmodulus2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;-bulkmodulus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fcc</t>
+  </si>
+  <si>
+    <t>La [A] (=alat)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ec: cohesive energy (2NN-MEAM), sublimation energy (1NN-MEAM)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2155,7 +2199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2435,10 +2479,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2755,10 +2796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4955A00F-335C-441D-A7D2-A2AF3FB3B1F8}">
-  <dimension ref="A1:AD99"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O13" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2777,7 +2818,7 @@
     <col min="22" max="22" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>30</v>
       </c>
@@ -2811,7 +2852,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -2873,55 +2914,56 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B3" s="26">
-        <v>4.45</v>
+        <v>4.29</v>
       </c>
       <c r="C3" s="26">
-        <v>2.4900000000000002</v>
+        <f>B5/E7</f>
+        <v>2.4799649029774593</v>
       </c>
       <c r="D3" s="11">
         <f>F5</f>
-        <v>5.0844500894425755</v>
+        <v>4.8563105129109356</v>
       </c>
       <c r="E3" s="11">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="F3" s="25">
-        <v>2.56</v>
+        <v>2.94</v>
       </c>
       <c r="G3" s="25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H3" s="25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I3" s="25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J3" s="12">
         <v>1</v>
       </c>
       <c r="K3" s="25">
-        <v>3.1</v>
+        <v>3.94</v>
       </c>
       <c r="L3" s="25">
-        <v>1.8</v>
+        <v>4.12</v>
       </c>
       <c r="M3" s="25">
-        <v>4.3600000000000003</v>
+        <v>-1.5</v>
       </c>
       <c r="N3" s="25">
-        <v>0.81</v>
+        <v>2</v>
       </c>
       <c r="O3" s="11">
         <v>2.8</v>
       </c>
       <c r="P3" s="30">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="11">
         <v>0.1</v>
@@ -2936,13 +2978,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
+      <c r="B4" s="14" t="s">
+        <v>441</v>
+      </c>
       <c r="C4" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F4" s="35" t="str">
         <f>C7</f>
@@ -2968,57 +3013,60 @@
       </c>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="B5" s="11">
+        <v>3.5072000000000001</v>
+      </c>
       <c r="C5" s="11">
         <f>IF(OR(C7="fcc", C7="l12"), ((C3*SQRT(2))^3/4), IF(OR(C7="bcc", C7="b2"), ((C3*2/SQRT(3))^3/2), IF(C7="hcp", (SQRT(3)/2*J7*(C3)^3/2), IF(C7="dim", "", IF(C7="dia", ((C3*E7)^3/8), IF(C7="b1", ((C3*2)^3/8), IF(C7="l12", ((C3*SQRT(2))^3/4), IF(C7="sc", ((C3)^3/1), ""))))))))</f>
-        <v>10.916490557546441</v>
+        <v>10.785036173312001</v>
       </c>
       <c r="D5" s="11">
-        <v>187.6</v>
+        <v>167</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="35">
         <f>IF(OR(C7="fcc", C7="l12"), (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(OR(C7="bcc", C7="b2"), (9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2), IF(C7="hcp", (9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2), IF(C7="dim", "", IF(C7="dia", (9*(D5*0.006241509)*((C3*E7)^3/8)/B3)^(1/2), IF(C7="b1", (9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2), IF(C7="l12", (9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2), IF(C7="sc", (9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2), ""))))))))</f>
-        <v>5.0844500894425755</v>
+        <v>4.8563105129109356</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>228</v>
       </c>
       <c r="H5" s="33">
         <f>(9*(D5*0.006241509)*((C3*SQRT(2))^3/4)/B3)^(1/2)</f>
-        <v>5.0844500894425755</v>
+        <v>4.8563105129109356</v>
       </c>
       <c r="I5" s="33">
         <f>(9*(D5*0.006241509)*((C3*2/SQRT(3))^3/2)/B3)^(1/2)</f>
-        <v>5.305062955425881</v>
+        <v>5.0670244665364681</v>
       </c>
       <c r="J5" s="33">
         <f>(9*(D5*0.006241509)*(SQRT(3)/2*J7*(C3)^3/2)/B3)^(1/2)</f>
-        <v>5.0844500894425746</v>
+        <v>4.8563105129109347</v>
       </c>
       <c r="K5" s="33">
         <f>(9*(D5*0.006241509)*((C3*4/SQRT(3))^3/8)/B3)^(1/2)</f>
-        <v>7.5024919808063757</v>
+        <v>7.1658547214521704</v>
       </c>
       <c r="L5" s="33">
         <f>(9*(D5*0.006241509)*((C3*2)^3/8)/B3)^(1/2)</f>
-        <v>6.0464642222413323</v>
+        <v>5.7751590146161975</v>
       </c>
       <c r="M5" s="33">
         <f>(9*(D5*0.006241509)*((C3)^3/1)/B3)^(1/2)</f>
-        <v>6.0464642222413323</v>
+        <v>5.7751590146161975</v>
       </c>
       <c r="N5" t="s">
         <v>133</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A6" s="35" t="s">
         <v>19</v>
       </c>
@@ -3038,31 +3086,31 @@
         <v>28</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="X6" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A7" s="35">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 2, FALSE), "")</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="35">
         <f>IFERROR(VLOOKUP(A3, data!A:C, 3, FALSE), "")</f>
-        <v>58.692999999999998</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>253</v>
+        <v>440</v>
       </c>
       <c r="D7" s="35">
         <f>IF(C7="fcc", 12, IF(C7="bcc", 8, IF(C7="hcp", 12, IF(C7="dim", 1, IF(C7="dia", 4, IF(C7="sc", 6, ""))))))</f>
@@ -3100,11 +3148,11 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB7" s="6"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -3112,26 +3160,29 @@
       <c r="M8" s="2"/>
       <c r="R8" s="4"/>
       <c r="X8" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB8" s="6"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>234</v>
       </c>
       <c r="M9" s="5"/>
       <c r="P9" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q9" s="43"/>
       <c r="R9" s="6"/>
       <c r="X9" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AB9" s="6"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>442</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="P10" s="2" t="s">
         <v>71</v>
@@ -3142,14 +3193,14 @@
       </c>
       <c r="R10" s="6"/>
       <c r="X10" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="9"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A11" s="41" t="s">
         <v>21</v>
       </c>
@@ -3185,7 +3236,7 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -3209,7 +3260,7 @@
       </c>
       <c r="K12" s="4">
         <f>P3</f>
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>78</v>
@@ -3225,16 +3276,25 @@
       </c>
       <c r="R12" s="6"/>
       <c r="S12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="4"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="AF12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3281,26 +3341,35 @@
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="83" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T13" s="11">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="V13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="W13" s="35" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Y13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AB13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AD13" s="6"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="AF13" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG13">
+        <v>280.87</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
@@ -3342,36 +3411,48 @@
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="83" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T14" s="11">
-        <v>159</v>
+        <v>115.3</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="W14" s="80">
         <f>T15*0.006241509</f>
-        <v>0.82387918800000004</v>
+        <v>0.51180373800000001</v>
+      </c>
+      <c r="X14" t="s">
+        <v>437</v>
       </c>
       <c r="Y14" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="Z14" s="11">
         <v>1</v>
       </c>
       <c r="AB14" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AC14" s="30">
-        <v>1000</v>
+        <v>1811</v>
       </c>
       <c r="AD14" s="48"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="AF14" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="AG14">
+        <v>200.98</v>
+      </c>
+      <c r="AH14" s="6">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="str">
         <f>A3</f>
-        <v>Ni</v>
+        <v>Fe</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>C7</f>
@@ -3383,11 +3464,11 @@
       </c>
       <c r="D15" s="3">
         <f>A7</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3">
         <f>B7</f>
-        <v>58.692999999999998</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3413,68 +3494,81 @@
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="83" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T15" s="11">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W15" s="80">
-        <f>(T13-T14)*0.006241509/2</f>
-        <v>0.36512827650000002</v>
+        <f>(T13-T14)/2*0.006241509</f>
+        <v>0.51398826614999993</v>
+      </c>
+      <c r="X15" t="s">
+        <v>438</v>
       </c>
       <c r="Y15" s="35" t="s">
         <v>2</v>
       </c>
       <c r="Z15" s="80">
         <f>(Z14/B3)^0.5*C3</f>
-        <v>1.1803732032185432</v>
+        <v>1.1973383379693041</v>
       </c>
       <c r="AB15" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AC15" s="80">
-        <v>0.86199999999999999</v>
+        <f>AD15</f>
+        <v>1.5605990537482</v>
       </c>
       <c r="AD15" s="88">
         <f>AC14*10*0.00008617333262</f>
-        <v>0.86173332619999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
+        <v>1.5605990537482</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>151.63999999999999</v>
+      </c>
+      <c r="AH15" s="9">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A16" s="32">
         <f>D3</f>
-        <v>5.0844500894425755</v>
+        <v>4.8563105129109356</v>
       </c>
       <c r="B16" s="20">
         <f>F3</f>
-        <v>2.56</v>
+        <v>2.94</v>
       </c>
       <c r="C16" s="20">
         <f>G3</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D16" s="20">
         <f>H3</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E16" s="20">
         <f>I3</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F16" s="31">
         <f>C3*E7</f>
-        <v>3.5213917703090072</v>
+        <v>3.5072000000000001</v>
       </c>
       <c r="G16" s="16">
         <f>B3</f>
-        <v>4.45</v>
+        <v>4.29</v>
       </c>
       <c r="H16" s="23">
         <f>E3</f>
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>68</v>
@@ -3496,6 +3590,16 @@
         <v>5</v>
       </c>
       <c r="R16" s="6"/>
+      <c r="V16" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="W16" s="80">
+        <f>(T13+2*T14)/3*0.006241509</f>
+        <v>1.0623048318000001</v>
+      </c>
+      <c r="X16" t="s">
+        <v>439</v>
+      </c>
       <c r="AD16" s="4"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.4">
@@ -3505,15 +3609,15 @@
       </c>
       <c r="B17" s="22">
         <f>K3</f>
-        <v>3.1</v>
+        <v>3.94</v>
       </c>
       <c r="C17" s="22">
         <f>L3</f>
-        <v>1.8</v>
+        <v>4.12</v>
       </c>
       <c r="D17" s="22">
         <f>M3</f>
-        <v>4.3600000000000003</v>
+        <v>-1.5</v>
       </c>
       <c r="E17" s="22">
         <f>T3</f>
@@ -3542,22 +3646,22 @@
       </c>
       <c r="R17" s="6"/>
       <c r="S17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="X17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AC17" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AD17" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.4">
@@ -3575,7 +3679,7 @@
       </c>
       <c r="K18" s="6" t="str">
         <f>A3</f>
-        <v>Ni</v>
+        <v>Fe</v>
       </c>
       <c r="M18" s="18" t="s">
         <v>86</v>
@@ -3613,7 +3717,7 @@
         <v>11</v>
       </c>
       <c r="AB18" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC18" s="11">
         <v>3.505798</v>
@@ -3644,9 +3748,9 @@
         <v>0.4</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="89">
+      <c r="S19" s="89" t="e">
         <f>((D3^2-2*D7*W15*C5/B3)/E3)^(1/2)</f>
-        <v>2.1523217083469235</v>
+        <v>#NUM!</v>
       </c>
       <c r="T19" s="30">
         <v>2.2000000000000002</v>
@@ -3658,22 +3762,22 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="W19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="X19" s="25">
         <f>(24/E3)*(AC15/B3-1+(23/24)*E3)-(2/3)*Y19-Z19</f>
-        <v>-1.5450771718231966</v>
+        <v>72.907830976378108</v>
       </c>
       <c r="Y19" s="25">
         <f>((W14-2*W15)*D7^2*C5)/(2*E3*B3*(H3-2)^2)</f>
-        <v>1.0994830861285028</v>
+        <v>-104.97887498775893</v>
       </c>
       <c r="Z19" s="25">
-        <f>AB22/((-E3*B3)/(216*3^0.5*C3^2))</f>
-        <v>3.2259062818278923</v>
+        <f>AB22/((E3*B3)/(216*3^0.5*C3^2))</f>
+        <v>2.921483521355936</v>
       </c>
       <c r="AB19" s="14" t="s">
-        <v>229</v>
+        <v>430</v>
       </c>
       <c r="AC19" s="11">
         <v>-5.7797999999999998</v>
@@ -3690,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N20" s="11">
         <v>0.67</v>
@@ -3705,7 +3809,7 @@
       <c r="R20" s="6"/>
       <c r="S20" s="89">
         <f>((D3^2-D7*W14*C5/B3)/E3)^(1/2)</f>
-        <v>1.304045183219795</v>
+        <v>3.0249321174593247</v>
       </c>
       <c r="T20" s="30">
         <v>1</v>
@@ -3717,19 +3821,19 @@
         <v>1</v>
       </c>
       <c r="W20" t="s">
-        <v>369</v>
-      </c>
-      <c r="X20" s="25" t="e">
+        <v>368</v>
+      </c>
+      <c r="X20" s="25">
         <f>(24/E3)*(AC15/B3-1+(23/24)*E3)-(2/3)*Y20-Z20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y20" s="25" t="e">
+        <v>-2.6769590148083133</v>
+      </c>
+      <c r="Y20" s="25">
         <f>((2*W15-W14)*D7^2*C5)/(E3*B3*(H3-6)^2)</f>
-        <v>#DIV/0!</v>
+        <v>8.3983099990207144</v>
       </c>
       <c r="Z20" s="25">
-        <f>AB22/((-E3*B3)/(216*3^0.5*C3^2))</f>
-        <v>3.2259062818278923</v>
+        <f>AB22/((E3*B3)/(216*3^0.5*C3^2))</f>
+        <v>2.921483521355936</v>
       </c>
       <c r="AD20" s="4"/>
     </row>
@@ -3758,9 +3862,9 @@
         <v>0.6</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="89" t="e">
+      <c r="S21" s="89">
         <f>((D3^2-9*D7*W14*C5/(8*B3))/E3)^(1/2)</f>
-        <v>#NUM!</v>
+        <v>2.6422843173924382</v>
       </c>
       <c r="T21" s="30">
         <v>1</v>
@@ -3772,25 +3876,22 @@
         <v>1</v>
       </c>
       <c r="W21" t="s">
-        <v>368</v>
-      </c>
-      <c r="X21" s="25">
-        <f>(24/E3)*(AC15/B3-1+(23/24)*E3)-(2/3)*Y21-Z21</f>
-        <v>-4.0280764746633979</v>
+        <v>367</v>
+      </c>
+      <c r="X21" s="93">
+        <f>(16/E3)*(AC15/B3-1+(15/16)*E3)-(2/3)*Y21-Z21</f>
+        <v>-4.2592770666907684</v>
       </c>
       <c r="Y21" s="25">
         <f>(9*W15*D7^2*C5)/(256*E3*B3)</f>
-        <v>4.8239820403888052</v>
+        <v>7.3500881572303456</v>
       </c>
       <c r="Z21" s="25">
-        <f>AB22/((-E3*B3)/(216*3^0.5*C3^2))</f>
-        <v>3.2259062818278923</v>
+        <f>AB22/((E3*B3)/(216*3^0.5*C3^2))</f>
+        <v>2.921483521355936</v>
       </c>
       <c r="AB21" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AD21" s="6"/>
     </row>
@@ -3803,7 +3904,7 @@
       </c>
       <c r="K22" s="21">
         <f>B3</f>
-        <v>4.45</v>
+        <v>4.29</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>106</v>
@@ -3819,30 +3920,40 @@
         <v>0.4</v>
       </c>
       <c r="R22" s="6"/>
-      <c r="S22" s="43" t="s">
-        <v>370</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="U22" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="V22" s="11" t="s">
-        <v>373</v>
+      <c r="S22" s="93" t="e">
+        <f>(S19-S20)*(U22-2)/(6-2)+S20</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T22" s="30">
+        <v>5.5</v>
+      </c>
+      <c r="U22" s="30">
+        <v>5.5</v>
+      </c>
+      <c r="V22" s="30">
+        <v>5.5</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="X22" t="s">
-        <v>376</v>
+        <v>426</v>
+      </c>
+      <c r="X22" s="93">
+        <f>(8/E3)*(AC15/B3-1+(7/8)*E3)-(2/3)*Y21-Z21</f>
+        <v>-6.5404096797667997</v>
+      </c>
+      <c r="Y22" s="93">
+        <f>(Y19-Y20)*(U22-2)/(6-2)+Y20</f>
+        <v>-90.806726864411473</v>
+      </c>
+      <c r="Z22" s="93">
+        <f>AB22/((E3*B3)/(216*3^0.5*C3^2))</f>
+        <v>2.921483521355936</v>
       </c>
       <c r="AB22" s="11">
-        <f>(AC19*2-AD19*2)/(3^0.5/2*(AC18*(2^0.5/2))^2)*(3/5)</f>
-        <v>-5.8173680063036814E-3</v>
+        <f>(AD19-AC19)/(3^0.5/2*(AC18*(2^0.5/2))^2)</f>
+        <v>4.8478066719197348E-3</v>
       </c>
       <c r="AC22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AD22" s="6"/>
     </row>
@@ -3855,7 +3966,7 @@
       </c>
       <c r="K23" s="21">
         <f>C3</f>
-        <v>2.4900000000000002</v>
+        <v>2.4799649029774593</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>108</v>
@@ -3871,23 +3982,30 @@
         <v>2.8</v>
       </c>
       <c r="R23" s="6"/>
-      <c r="S23" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="T23" s="94">
-        <v>5.5</v>
-      </c>
-      <c r="U23" s="94">
-        <v>5.5</v>
-      </c>
-      <c r="V23" s="94">
-        <v>5.5</v>
-      </c>
-      <c r="W23" s="93" t="s">
-        <v>430</v>
-      </c>
-      <c r="X23" t="s">
-        <v>377</v>
+      <c r="S23" s="93" t="e">
+        <f>(S19-S20)*(U23-2)/(6-2)+S20</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T23" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="U23" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="V23" s="30">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="X23" s="93">
+        <v>0.1</v>
+      </c>
+      <c r="Y23" s="93">
+        <v>0.1</v>
+      </c>
+      <c r="Z23" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.4">
@@ -3899,10 +4017,10 @@
       </c>
       <c r="K24" s="29">
         <f>D3</f>
-        <v>5.0844500894425755</v>
+        <v>4.8563105129109356</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N24" s="25">
         <v>1.7</v>
@@ -3915,8 +4033,20 @@
         <v>1.7</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" t="s">
-        <v>431</v>
+      <c r="S24" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="X24" t="s">
         <v>375</v>
@@ -3947,13 +4077,9 @@
         <v>1.9</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" t="s">
-        <v>428</v>
-      </c>
       <c r="X25" t="s">
-        <v>378</v>
-      </c>
-      <c r="AD25" s="6"/>
+        <v>376</v>
+      </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
@@ -3981,7 +4107,10 @@
       </c>
       <c r="R26" s="18"/>
       <c r="S26" t="s">
-        <v>416</v>
+        <v>424</v>
+      </c>
+      <c r="X26" t="s">
+        <v>374</v>
       </c>
       <c r="AD26" s="6"/>
     </row>
@@ -3994,18 +4123,21 @@
       </c>
       <c r="K27" s="23">
         <f>N3</f>
-        <v>0.81</v>
+        <v>2</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q27" s="20"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="5" t="s">
-        <v>417</v>
+      <c r="S27" t="s">
+        <v>414</v>
+      </c>
+      <c r="X27" t="s">
+        <v>432</v>
       </c>
       <c r="AD27" s="6"/>
     </row>
@@ -4020,17 +4152,12 @@
       <c r="M28" s="5"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
+      <c r="S28" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="V28" t="s">
+        <v>431</v>
+      </c>
       <c r="AD28" s="6"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.4">
@@ -4041,46 +4168,37 @@
       <c r="M29" s="5"/>
       <c r="Q29" s="20"/>
       <c r="R29" s="6"/>
-      <c r="S29" t="s">
-        <v>379</v>
-      </c>
-      <c r="T29" s="48"/>
-      <c r="U29" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="X29" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="4"/>
+      <c r="S29" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AD29" s="6"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.4">
       <c r="J30" s="5"/>
       <c r="M30" s="5"/>
       <c r="Q30" s="20"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="84" t="s">
-        <v>366</v>
-      </c>
-      <c r="T30" s="30">
-        <v>60</v>
-      </c>
-      <c r="U30" s="81">
-        <f>T30*0.006241509</f>
-        <v>0.37449053999999998</v>
-      </c>
-      <c r="W30" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="X30" s="80">
-        <f>(1/9)*(2*U30+U33+2*U31+4*U32)</f>
-        <v>0.21914631600000001</v>
-      </c>
-      <c r="Z30" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="AD30" s="6"/>
+      <c r="S30" t="s">
+        <v>377</v>
+      </c>
+      <c r="T30" s="48"/>
+      <c r="U30" s="82" t="s">
+        <v>387</v>
+      </c>
+      <c r="X30" s="82" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="4"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
@@ -4090,29 +4208,24 @@
       <c r="M31" s="5"/>
       <c r="R31" s="6"/>
       <c r="S31" s="84" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T31" s="30">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="U31" s="81">
-        <f t="shared" ref="U31:U35" si="2">T31*0.006241509</f>
-        <v>9.9864144000000002E-2</v>
+        <f>T31*0.006241509</f>
+        <v>0.37449053999999998</v>
       </c>
       <c r="W31" s="35" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="X31" s="80">
-        <f>(1/2)*(U30-U31)</f>
-        <v>0.137313198</v>
-      </c>
-      <c r="Y31" s="86">
-        <f>U35</f>
-        <v>0.137313198</v>
-      </c>
-      <c r="Z31" s="81">
-        <f>(5/8)*X30+(E3*B3)/(2*Y46^2*C5)*(-20*S42^2+(1/6)*X42*(T42+1)^2+(25/9)*Y42*(U42-14/5)^2+(1/9)*Z42*((11/8)*V42^2+(125/12)*V42+115/8))</f>
-        <v>0.11180968791173936</v>
+        <f>(1/9)*(2*U31+U34+2*U32+4*U33)</f>
+        <v>0.21914631600000001</v>
+      </c>
+      <c r="Z31" s="11" t="s">
+        <v>393</v>
       </c>
       <c r="AD31" s="6"/>
     </row>
@@ -4124,25 +4237,29 @@
       <c r="M32" s="5"/>
       <c r="R32" s="6"/>
       <c r="S32" s="84" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="T32" s="30">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="U32" s="81">
-        <f t="shared" si="2"/>
-        <v>0.15603772500000002</v>
+        <f t="shared" ref="U32:U36" si="2">T32*0.006241509</f>
+        <v>9.9864144000000002E-2</v>
       </c>
       <c r="W32" s="35" t="s">
-        <v>384</v>
+        <v>161</v>
       </c>
       <c r="X32" s="80">
-        <f>U34</f>
-        <v>9.9864144000000002E-2</v>
+        <f>(1/2)*(U31-U32)</f>
+        <v>0.137313198</v>
+      </c>
+      <c r="Y32" s="86">
+        <f>U36</f>
+        <v>0.137313198</v>
       </c>
       <c r="Z32" s="81">
-        <f>(1/2)*X30+(E3*B3)/(2*Y46^2*C5)*(-16*S42^2+(16/9)*Y42*(U42-4)^2+(1/9)*Z42*(44*V42^2+(193/12)*V42+17/2))</f>
-        <v>6.0625645302695257E-2</v>
+        <f>(5/8)*X31+(E3*B3)/(2*Y47^2*C5)*(-20*S43^2+(1/6)*X43*(T43+1)^2+(25/9)*Y43*(U43-14/5)^2+(1/9)*Z43*((11/8)*V43^2+(125/12)*V43+115/8))</f>
+        <v>0.18483124030851428</v>
       </c>
       <c r="AD32" s="6"/>
     </row>
@@ -4158,25 +4275,25 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="9"/>
       <c r="S33" s="84" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="T33" s="30">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="U33" s="81">
         <f t="shared" si="2"/>
-        <v>0.39945657600000001</v>
+        <v>0.15603772500000002</v>
       </c>
       <c r="W33" s="35" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="X33" s="80">
-        <f>(1/6)*(U30+2*U33+U31-4*U32)</f>
-        <v>0.10818615599999999</v>
+        <f>U35</f>
+        <v>9.9864144000000002E-2</v>
       </c>
       <c r="Z33" s="81">
-        <f>(3/4)*X30+(E3*B3)/(2*Y46^2*C5)*(-24*S42^2+4*Y42*(U42-2)^2+(1/9)*(Z42*(23/2)*V42+33))</f>
-        <v>0.12050310021032556</v>
+        <f>(1/2)*X31+(E3*B3)/(2*Y47^2*C5)*(-16*S43^2+(16/9)*Y43*(U43-4)^2+(1/9)*Z43*(44*V43^2+(193/12)*V43+17/2))</f>
+        <v>0.13947587190509483</v>
       </c>
       <c r="AD33" s="6"/>
     </row>
@@ -4187,29 +4304,25 @@
       <c r="J34" s="5"/>
       <c r="R34" s="4"/>
       <c r="S34" s="84" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="T34" s="30">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="U34" s="81">
         <f t="shared" si="2"/>
-        <v>9.9864144000000002E-2</v>
+        <v>0.39945657600000001</v>
       </c>
       <c r="W34" s="35" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="X34" s="80">
-        <f>(1/3)*(U30-U33+U31-U32)</f>
-        <v>-2.7046539000000012E-2</v>
+        <f>(1/6)*(U31+2*U34+U32-4*U33)</f>
+        <v>0.10818615599999999</v>
       </c>
       <c r="Z34" s="81">
-        <f>(E3*B3)/(2*Y46^2*C5)*(-(2/9)*Z42*(V42^2+6*V42+3))</f>
-        <v>8.7673833766039669E-3</v>
-      </c>
-      <c r="AA34" s="35">
-        <f>(1/2)*(U30-3*X31-3*X30-X33)</f>
-        <v>-0.40153707900000007</v>
+        <f>(3/4)*X31+(E3*B3)/(2*Y47^2*C5)*(-24*S43^2+4*Y43*(U43-2)^2+(1/9)*(Z43*(23/2)*V43+33))</f>
+        <v>0.20905776228931974</v>
       </c>
       <c r="AD34" s="6"/>
     </row>
@@ -4220,14 +4333,29 @@
       <c r="J35" s="5"/>
       <c r="R35" s="6"/>
       <c r="S35" s="84" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="T35" s="30">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="U35" s="81">
         <f t="shared" si="2"/>
-        <v>0.137313198</v>
+        <v>9.9864144000000002E-2</v>
+      </c>
+      <c r="W35" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="X35" s="80">
+        <f>(1/3)*(U31-U34+U32-U33)</f>
+        <v>-2.7046539000000012E-2</v>
+      </c>
+      <c r="Z35" s="81">
+        <f>(E3*B3)/(2*Y47^2*C5)*(-(2/9)*Z43*(V43^2+6*V43+3))</f>
+        <v>4.8860562114196385E-3</v>
+      </c>
+      <c r="AA35" s="35">
+        <f>(1/2)*(U31-3*X32-3*X31-X34)</f>
+        <v>-0.40153707900000007</v>
       </c>
       <c r="AD35" s="6"/>
     </row>
@@ -4237,18 +4365,17 @@
       </c>
       <c r="J36" s="5"/>
       <c r="R36" s="6"/>
-      <c r="Y36" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="AB36" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="AC36" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD36" s="11" t="s">
-        <v>369</v>
-      </c>
+      <c r="S36" s="84" t="s">
+        <v>380</v>
+      </c>
+      <c r="T36" s="30">
+        <v>22</v>
+      </c>
+      <c r="U36" s="81">
+        <f t="shared" si="2"/>
+        <v>0.137313198</v>
+      </c>
+      <c r="AD36" s="6"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
@@ -4256,70 +4383,48 @@
       </c>
       <c r="J37" s="5"/>
       <c r="R37" s="6"/>
-      <c r="S37" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="T37" s="30">
-        <v>1345</v>
-      </c>
-      <c r="U37" t="s">
-        <v>405</v>
-      </c>
-      <c r="X37" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y37" s="80">
-        <f>0.0103636*285</f>
-        <v>2.9536260000000003</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>408</v>
-      </c>
-      <c r="AB37" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AC37" s="11">
-        <v>3.6819999999999999</v>
-      </c>
-      <c r="AD37" s="92"/>
+      <c r="Y37" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB37" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC37" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD37" s="11" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.4">
       <c r="J38" s="5"/>
       <c r="R38" s="6"/>
-      <c r="S38" s="83" t="s">
-        <v>388</v>
-      </c>
-      <c r="T38" s="80">
-        <f>V38</f>
-        <v>1.159031323739</v>
-      </c>
-      <c r="U38" s="81">
-        <f>B3*(1-(23/24)*E3+(1/24)*E3*(X42+(2/3)*Y42+Z42))</f>
-        <v>1.159031323739</v>
-      </c>
-      <c r="V38" s="88">
-        <f>T37*10*0.00008617333262</f>
-        <v>1.159031323739</v>
-      </c>
-      <c r="X38" s="35" t="s">
-        <v>229</v>
+      <c r="S38" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="T38" s="30">
+        <v>1345</v>
+      </c>
+      <c r="U38" t="s">
+        <v>403</v>
+      </c>
+      <c r="X38" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="Y38" s="80">
-        <f>Y37*1.16</f>
-        <v>3.42620616</v>
+        <f>0.0103636*285</f>
+        <v>2.9536260000000003</v>
       </c>
       <c r="Z38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AB38" s="14" t="s">
-        <v>229</v>
+        <v>419</v>
       </c>
       <c r="AC38" s="11">
-        <v>-4.6965000000000003</v>
-      </c>
-      <c r="AD38" s="11">
-        <v>-4.7081</v>
-      </c>
+        <v>3.6819999999999999</v>
+      </c>
+      <c r="AD38" s="92"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
@@ -4327,7 +4432,40 @@
       </c>
       <c r="J39" s="5"/>
       <c r="R39" s="6"/>
-      <c r="AD39" s="4"/>
+      <c r="S39" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="T39" s="80">
+        <f>V39</f>
+        <v>1.159031323739</v>
+      </c>
+      <c r="U39" s="81">
+        <f>B3*(1-(23/24)*E3+(1/24)*E3*(X43+(2/3)*Y43+Z43))</f>
+        <v>1.159031323739</v>
+      </c>
+      <c r="V39" s="88">
+        <f>T38*10*0.00008617333262</f>
+        <v>1.159031323739</v>
+      </c>
+      <c r="X39" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y39" s="80">
+        <f>Y38*1.16</f>
+        <v>3.42620616</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB39" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>-4.6965000000000003</v>
+      </c>
+      <c r="AD39" s="11">
+        <v>-4.7081</v>
+      </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
@@ -4335,16 +4473,7 @@
       </c>
       <c r="J40" s="5"/>
       <c r="R40" s="6"/>
-      <c r="S40" t="s">
-        <v>363</v>
-      </c>
-      <c r="T40" t="s">
-        <v>394</v>
-      </c>
-      <c r="V40" t="s">
-        <v>387</v>
-      </c>
-      <c r="AD40" s="6"/>
+      <c r="AD40" s="4"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
@@ -4352,33 +4481,16 @@
       </c>
       <c r="J41" s="5"/>
       <c r="R41" s="6"/>
-      <c r="S41" s="85" t="s">
-        <v>4</v>
-      </c>
-      <c r="T41" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="V41" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="X41" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y41" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z41" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB41" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>427</v>
-      </c>
+      <c r="S41" t="s">
+        <v>362</v>
+      </c>
+      <c r="T41" t="s">
+        <v>392</v>
+      </c>
+      <c r="V41" t="s">
+        <v>385</v>
+      </c>
+      <c r="AD41" s="6"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
@@ -4386,42 +4498,30 @@
       </c>
       <c r="J42" s="5"/>
       <c r="R42" s="6"/>
-      <c r="S42" s="90">
-        <v>1.3</v>
-      </c>
-      <c r="T42" s="91">
-        <v>0</v>
-      </c>
-      <c r="U42" s="89">
-        <f>(8-6*U46^0.5)/(2-3*U46^0.5)</f>
-        <v>1.1658073797531348</v>
-      </c>
-      <c r="V42" s="25">
-        <v>3</v>
-      </c>
-      <c r="W42" t="s">
-        <v>379</v>
-      </c>
-      <c r="X42" s="25">
-        <f>(24/E3)*(T38/B3-1+(23/24)*E3)-(2/3)*Y42-Z42</f>
-        <v>3.2393930319864666</v>
-      </c>
-      <c r="Y42" s="25">
-        <f>((3/8)*(2*Y46^2*C5/(E3*B3))*(2*X33-3*X32)+Z42*((4/3)*V42^2+(101/36)*V42-9/2))/(U42^2+4*U42-20)</f>
-        <v>2.7972414953550997</v>
-      </c>
-      <c r="Z42" s="25">
-        <f>AB42/((-E3*B3)/(216*3^0.5*C3^2))</f>
-        <v>-0.98618297867008908</v>
-      </c>
-      <c r="AB42" s="11">
-        <f>(AC38*3-AD38*3)/(3^0.5/2*AC37^2)*(3/5)</f>
-        <v>1.7784116484704251E-3</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>425</v>
-      </c>
-      <c r="AD42" s="6"/>
+      <c r="S42" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="V42" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="X42" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y42" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z42" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB42" s="35" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
@@ -4429,31 +4529,64 @@
       </c>
       <c r="J43" s="5"/>
       <c r="R43" s="6"/>
-      <c r="S43" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="T43" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="U43" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="V43" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="W43" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="Z43" s="11" t="s">
-        <v>393</v>
+      <c r="S43" s="90">
+        <f>((D3^2-2*D7*X32*C5/B3)/E3)^(1/2)</f>
+        <v>4.1460473916383345</v>
+      </c>
+      <c r="T43" s="91">
+        <v>0</v>
+      </c>
+      <c r="U43" s="89">
+        <f>(8-6*U47^0.5)/(2-3*U47^0.5)</f>
+        <v>-4.9752339872010296</v>
+      </c>
+      <c r="V43" s="25">
+        <v>3</v>
+      </c>
+      <c r="W43" t="s">
+        <v>377</v>
+      </c>
+      <c r="X43" s="25">
+        <f>(24/E3)*(T39/B3-1+(23/24)*E3)-(2/3)*Y43-Z43</f>
+        <v>2.3817435650564676</v>
+      </c>
+      <c r="Y43" s="25">
+        <f>((3/8)*(2*Y47^2*C5/(E3*B3))*(2*X34-3*X33)+Z43*((4/3)*V43^2+(101/36)*V43-9/2))/(U43^2+4*U43-20)</f>
+        <v>2.2993089805532199</v>
+      </c>
+      <c r="Z43" s="25">
+        <f>AB43/((-E3*B3)/(216*3^0.5*C3^2))</f>
+        <v>-0.59541248660492241</v>
+      </c>
+      <c r="AB43" s="11">
+        <f>(AC39-AD39)/(3^0.5/2*AC38^2)</f>
+        <v>9.8800647137245847E-4</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>423</v>
       </c>
       <c r="AD43" s="6"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.4">
       <c r="J44" s="5"/>
       <c r="R44" s="6"/>
-      <c r="Z44" t="s">
-        <v>396</v>
+      <c r="S44" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="T44" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="U44" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="V44" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z44" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="AD44" s="6"/>
     </row>
@@ -4463,20 +4596,11 @@
       </c>
       <c r="J45" s="5"/>
       <c r="R45" s="6"/>
-      <c r="U45" s="35" t="s">
-        <v>392</v>
-      </c>
-      <c r="V45" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="W45" s="35" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y45" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="AA45" s="35" t="s">
-        <v>230</v>
+      <c r="U45" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>394</v>
       </c>
       <c r="AD45" s="6"/>
     </row>
@@ -4486,25 +4610,20 @@
       </c>
       <c r="J46" s="5"/>
       <c r="R46" s="6"/>
-      <c r="U46" s="80">
-        <f>V46/W46</f>
-        <v>5.1303089650441338</v>
-      </c>
-      <c r="V46" s="80">
-        <f>(2*Y46^2*C5)/(E3*B3)*(X32-(1/2)*X30)+16*S42^2-(1/9)*Z42*(4*V42^2+(193/12)*V42+17/2)</f>
-        <v>29.922493035736963</v>
-      </c>
-      <c r="W46" s="80">
-        <f>(2*Y46^2*C5)/(E3*B3)*(X33-(3/4)*X30)+24*S42^2-(1/9)*Z42*((23/2)*V42+33)</f>
-        <v>5.8324933721568861</v>
-      </c>
-      <c r="Y46" s="80">
-        <f>12*EXP(Z42/864)</f>
-        <v>11.986310828187698</v>
-      </c>
-      <c r="AA46" s="26">
-        <f>(2^0.5*C5)^(1/3)</f>
-        <v>2.4900000000000007</v>
+      <c r="U46" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="V46" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="W46" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y46" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA46" s="35" t="s">
+        <v>230</v>
       </c>
       <c r="AD46" s="6"/>
     </row>
@@ -4514,8 +4633,25 @@
       </c>
       <c r="J47" s="5"/>
       <c r="R47" s="6"/>
-      <c r="T47" s="11" t="s">
-        <v>395</v>
+      <c r="U47" s="80">
+        <f>V47/W47</f>
+        <v>0.73585370267817918</v>
+      </c>
+      <c r="V47" s="80">
+        <f>(2*Y47^2*C5)/(E3*B3)*(X33-(1/2)*X31)+16*S43^2-(1/9)*Z43*(4*V43^2+(193/12)*V43+17/2)</f>
+        <v>273.28382784251556</v>
+      </c>
+      <c r="W47" s="80">
+        <f>(2*Y47^2*C5)/(E3*B3)*(X34-(3/4)*X31)+24*S43^2-(1/9)*Z43*((23/2)*V43+33)</f>
+        <v>371.38336988437288</v>
+      </c>
+      <c r="Y47" s="80">
+        <f>12*EXP(Z43/864)</f>
+        <v>11.991733230916871</v>
+      </c>
+      <c r="AA47" s="26">
+        <f>(2^0.5*C5)^(1/3)</f>
+        <v>2.4799649029774598</v>
       </c>
       <c r="AD47" s="6"/>
     </row>
@@ -4525,15 +4661,11 @@
       </c>
       <c r="J48" s="5"/>
       <c r="R48" s="6"/>
-      <c r="S48" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="T48" s="26">
-        <f>B3*(1-(23/24)*E3+(1/24)*E3*(X42+(2/3)*Y42+Z42))</f>
-        <v>1.159031323739</v>
+      <c r="T48" s="11" t="s">
+        <v>393</v>
       </c>
       <c r="U48" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="AD48" s="6"/>
     </row>
@@ -4543,15 +4675,15 @@
       </c>
       <c r="J49" s="5"/>
       <c r="R49" s="6"/>
-      <c r="S49" s="35" t="s">
-        <v>402</v>
-      </c>
-      <c r="T49" s="87">
-        <f>(1/6)*B3*(1-1.139*E3-0.0378*E3*(X42-(17/15)*Y42-(7/10)*Z42))</f>
-        <v>-7.2421565502316751E-2</v>
+      <c r="S49" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="T49" s="26">
+        <f>B3*(1-(23/24)*E3+(1/24)*E3*(X43+(2/3)*Y43+Z43))</f>
+        <v>1.159031323739</v>
       </c>
       <c r="U49" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AD49" s="6"/>
     </row>
@@ -4562,14 +4694,14 @@
       <c r="J50" s="5"/>
       <c r="R50" s="6"/>
       <c r="S50" s="35" t="s">
-        <v>423</v>
-      </c>
-      <c r="T50" s="26">
-        <f>(-E3*B3)/(216*3^0.5*C3^2)*Z42</f>
-        <v>1.7784116484704251E-3</v>
+        <v>400</v>
+      </c>
+      <c r="T50" s="87">
+        <f>(1/6)*B3*(1-1.139*E3-0.0378*E3*(X43-(17/15)*Y43-(7/10)*Z43))</f>
+        <v>-1.4436629879631109E-2</v>
       </c>
       <c r="U50" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AD50" s="6"/>
     </row>
@@ -4577,14 +4709,14 @@
       <c r="J51" s="5"/>
       <c r="R51" s="6"/>
       <c r="S51" s="35" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="T51" s="26">
-        <f>(B3/(2*3^0.5*C3^2))*(1+3*LN(3/4)*E3+(1/9)*(1+LN(3/4))*E3*(X42+(1/4)*Y42+(1/2)*Z42))</f>
-        <v>9.2216940792898494E-2</v>
+        <f>(-E3*B3)/(216*3^0.5*C3^2)*Z43</f>
+        <v>9.8800647137245847E-4</v>
       </c>
       <c r="U51" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AD51" s="6"/>
     </row>
@@ -4593,8 +4725,15 @@
         <v>121</v>
       </c>
       <c r="J52" s="5"/>
+      <c r="S52" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="T52" s="26">
+        <f>(B3/(2*3^0.5*C3^2))*(1+3*LN(3/4)*E3+(1/9)*(1+LN(3/4))*E3*(X43+(1/4)*Y43+(1/2)*Z43))</f>
+        <v>8.4406582907138678E-2</v>
+      </c>
       <c r="U52" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="AD52" s="6"/>
     </row>
@@ -4603,38 +4742,38 @@
         <v>122</v>
       </c>
       <c r="J53" s="5"/>
-      <c r="S53" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="8"/>
-      <c r="AD53" s="9"/>
+      <c r="U53" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD53" s="6"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>129</v>
       </c>
       <c r="J54" s="5"/>
-      <c r="S54" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB54" s="6"/>
+      <c r="S54" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="9"/>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>130</v>
       </c>
       <c r="J55" s="5"/>
-      <c r="S55" s="67" t="s">
-        <v>418</v>
+      <c r="S55" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="AB55" s="6"/>
     </row>
@@ -4646,7 +4785,7 @@
       <c r="J56" s="7"/>
       <c r="R56" s="9"/>
       <c r="S56" s="67" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="T56"/>
       <c r="U56"/>
@@ -4665,45 +4804,49 @@
         <v>251</v>
       </c>
       <c r="S57" s="67" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AB57" s="6"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>271</v>
-      </c>
-      <c r="S58" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-      <c r="X58" s="8"/>
-      <c r="Y58" s="8"/>
-      <c r="Z58" s="8"/>
-      <c r="AA58" s="8"/>
-      <c r="AB58" s="9"/>
-      <c r="AC58" s="8"/>
-      <c r="AD58" s="8"/>
+        <v>270</v>
+      </c>
+      <c r="S58" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB58" s="6"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
         <v>235</v>
       </c>
       <c r="B59" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="D59" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="D59" s="14" t="s">
-        <v>270</v>
-      </c>
       <c r="F59" s="71" t="s">
-        <v>327</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="S59" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
@@ -4719,7 +4862,7 @@
         <v>0.49</v>
       </c>
       <c r="F60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.4">
@@ -4738,39 +4881,39 @@
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B63" s="56" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C63" s="57"/>
       <c r="J63" s="63" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K63" s="64"/>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A64" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="B64" s="58" t="s">
         <v>296</v>
-      </c>
-      <c r="B64" s="58" t="s">
-        <v>297</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I64" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="J64" s="41" t="s">
         <v>296</v>
-      </c>
-      <c r="J64" s="41" t="s">
-        <v>297</v>
       </c>
       <c r="K64" s="65"/>
       <c r="L64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B65" s="56" t="s">
         <v>90</v>
@@ -4780,10 +4923,10 @@
         <v>0.49</v>
       </c>
       <c r="D65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I65" s="47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J65" s="63" t="s">
         <v>238</v>
@@ -4793,12 +4936,12 @@
         <v>0.49</v>
       </c>
       <c r="L65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B66" s="61" t="s">
         <v>91</v>
@@ -4808,10 +4951,10 @@
         <v>0.49</v>
       </c>
       <c r="D66" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J66" s="67" t="s">
         <v>239</v>
@@ -4821,12 +4964,12 @@
         <v>0.49</v>
       </c>
       <c r="L66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B67" s="61" t="s">
         <v>92</v>
@@ -4836,10 +4979,10 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D67" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J67" s="67" t="s">
         <v>236</v>
@@ -4849,12 +4992,12 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="L67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>96</v>
@@ -4864,10 +5007,10 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D68" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I68" s="48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J68" s="69" t="s">
         <v>237</v>
@@ -4877,12 +5020,12 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="L68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B69" s="61" t="s">
         <v>93</v>
@@ -4892,25 +5035,25 @@
         <v>2.8</v>
       </c>
       <c r="D69" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J69" s="67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K69" s="68">
         <f>B61</f>
         <v>2.8</v>
       </c>
       <c r="L69" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B70" s="61" t="s">
         <v>94</v>
@@ -4920,10 +5063,10 @@
         <v>2.8</v>
       </c>
       <c r="D70" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J70" s="67" t="s">
         <v>248</v>
@@ -4933,12 +5076,12 @@
         <v>2.8</v>
       </c>
       <c r="L70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B71" s="61" t="s">
         <v>95</v>
@@ -4948,10 +5091,10 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D71" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J71" s="67" t="s">
         <v>240</v>
@@ -4961,12 +5104,12 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="L71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" s="48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>97</v>
@@ -4976,10 +5119,10 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I72" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J72" s="69" t="s">
         <v>241</v>
@@ -4989,44 +5132,44 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="L72" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B74" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C74" s="49"/>
       <c r="J74" s="72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K74" s="73"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="B75" s="36" t="s">
         <v>296</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>297</v>
       </c>
       <c r="C75" s="50"/>
       <c r="D75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I75" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J75" s="72" t="s">
         <v>296</v>
-      </c>
-      <c r="J75" s="72" t="s">
-        <v>297</v>
       </c>
       <c r="K75" s="73"/>
       <c r="L75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B76" s="37" t="s">
         <v>244</v>
@@ -5036,10 +5179,10 @@
         <v>0.49</v>
       </c>
       <c r="D76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J76" s="72" t="s">
         <v>98</v>
@@ -5049,12 +5192,12 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="L76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B77" s="52" t="s">
         <v>245</v>
@@ -5064,10 +5207,10 @@
         <v>0.49</v>
       </c>
       <c r="D77" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J77" s="74" t="s">
         <v>99</v>
@@ -5077,12 +5220,12 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="L77" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B78" s="52" t="s">
         <v>242</v>
@@ -5092,10 +5235,10 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D78" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J78" s="75" t="s">
         <v>100</v>
@@ -5105,12 +5248,12 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="L78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" s="48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B79" s="54" t="s">
         <v>243</v>
@@ -5120,10 +5263,10 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="D79" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J79" s="74" t="s">
         <v>101</v>
@@ -5133,25 +5276,25 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="L79" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C80" s="53">
         <f>C61</f>
         <v>2.8</v>
       </c>
       <c r="D80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J80" s="74" t="s">
         <v>102</v>
@@ -5161,12 +5304,12 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="L80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B81" s="52" t="s">
         <v>249</v>
@@ -5176,10 +5319,10 @@
         <v>2.8</v>
       </c>
       <c r="D81" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J81" s="75" t="s">
         <v>103</v>
@@ -5189,12 +5332,12 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="L81" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B82" s="52" t="s">
         <v>246</v>
@@ -5204,12 +5347,12 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B83" s="54" t="s">
         <v>247</v>
@@ -5219,28 +5362,28 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D83" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J83" s="72" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K83" s="73"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I84" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J84" s="72" t="s">
         <v>296</v>
-      </c>
-      <c r="J84" s="72" t="s">
-        <v>297</v>
       </c>
       <c r="K84" s="73"/>
       <c r="L84" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I85" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J85" s="72" t="s">
         <v>98</v>
@@ -5250,12 +5393,12 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="L85" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I86" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J86" s="74" t="s">
         <v>99</v>
@@ -5265,12 +5408,12 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="L86" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I87" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J87" s="75" t="s">
         <v>100</v>
@@ -5280,12 +5423,12 @@
         <v>0.48999999999999994</v>
       </c>
       <c r="L87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I88" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J88" s="74" t="s">
         <v>101</v>
@@ -5295,12 +5438,12 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="L88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I89" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J89" s="74" t="s">
         <v>102</v>
@@ -5310,12 +5453,12 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="L89" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I90" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J90" s="75" t="s">
         <v>103</v>
@@ -5325,30 +5468,30 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="L90" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J92" s="72" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K92" s="73"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I93" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J93" s="72" t="s">
         <v>296</v>
-      </c>
-      <c r="J93" s="72" t="s">
-        <v>297</v>
       </c>
       <c r="K93" s="73"/>
       <c r="L93" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I94" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J94" s="72" t="s">
         <v>98</v>
@@ -5358,12 +5501,12 @@
         <v>0.4900000000000001</v>
       </c>
       <c r="L94" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I95" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J95" s="74" t="s">
         <v>99</v>
@@ -5373,12 +5516,12 @@
         <v>0.4900000000000001</v>
       </c>
       <c r="L95" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I96" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J96" s="75" t="s">
         <v>100</v>
@@ -5388,12 +5531,12 @@
         <v>0.4900000000000001</v>
       </c>
       <c r="L96" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I97" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J97" s="74" t="s">
         <v>101</v>
@@ -5403,12 +5546,12 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="L97" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="98" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I98" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J98" s="74" t="s">
         <v>102</v>
@@ -5418,12 +5561,12 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="L98" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I99" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J99" s="75" t="s">
         <v>103</v>
@@ -5433,7 +5576,7 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="L99" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -6509,46 +6652,46 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" t="s">
         <v>335</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>336</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I1" t="s">
         <v>337</v>
       </c>
-      <c r="G1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>338</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>339</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N1" t="s">
         <v>340</v>
       </c>
-      <c r="L1" t="s">
-        <v>344</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P1" t="s">
         <v>345</v>
       </c>
-      <c r="N1" t="s">
-        <v>341</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>342</v>
-      </c>
-      <c r="P1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -10039,46 +10182,46 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" t="s">
         <v>335</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>336</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I1" t="s">
         <v>337</v>
       </c>
-      <c r="G1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>338</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>339</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N1" t="s">
         <v>340</v>
       </c>
-      <c r="L1" t="s">
-        <v>344</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P1" t="s">
         <v>345</v>
       </c>
-      <c r="N1" t="s">
-        <v>341</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>342</v>
-      </c>
-      <c r="P1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -12855,46 +12998,46 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" t="s">
         <v>335</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>336</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I1" t="s">
         <v>337</v>
       </c>
-      <c r="G1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>338</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>339</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N1" t="s">
         <v>340</v>
       </c>
-      <c r="L1" t="s">
-        <v>344</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P1" t="s">
         <v>345</v>
       </c>
-      <c r="N1" t="s">
-        <v>341</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>342</v>
-      </c>
-      <c r="P1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
